--- a/Arduino/Audio Processing Benchmarking/FFT Speed Results.xlsx
+++ b/Arduino/Audio Processing Benchmarking/FFT Speed Results.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="75" windowWidth="19155" windowHeight="9015" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="75" windowWidth="19155" windowHeight="9015" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ARM-Specific Functions" sheetId="1" r:id="rId1"/>
@@ -24,13 +24,13 @@
   </definedNames>
   <calcPr calcId="145621"/>
   <pivotCaches>
-    <pivotCache cacheId="13" r:id="rId12"/>
+    <pivotCache cacheId="0" r:id="rId12"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="790" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="78">
   <si>
     <t>N</t>
   </si>
@@ -244,6 +244,27 @@
   <si>
     <t>Column Labels</t>
   </si>
+  <si>
+    <t>N =</t>
+  </si>
+  <si>
+    <t>FRDM-K66F</t>
+  </si>
+  <si>
+    <t>Arduino M0</t>
+  </si>
+  <si>
+    <t>Teensy CMSIS</t>
+  </si>
+  <si>
+    <t>K66 CMSIS</t>
+  </si>
+  <si>
+    <t>FFTs Per second</t>
+  </si>
+  <si>
+    <t>Max Sample Rate for 250 Hz resolution</t>
+  </si>
 </sst>
 </file>
 
@@ -512,7 +533,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Arduino M0 Pro</c:v>
+                  <c:v>Arduino M0</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -652,7 +673,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>NXP K66</c:v>
+                  <c:v>FRDM-K66F</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -723,11 +744,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="142675968"/>
-        <c:axId val="142677888"/>
+        <c:axId val="44747392"/>
+        <c:axId val="44749568"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="142675968"/>
+        <c:axId val="44747392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -756,7 +777,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="142677888"/>
+        <c:crossAx val="44749568"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -764,7 +785,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="142677888"/>
+        <c:axId val="44749568"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -796,7 +817,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="142675968"/>
+        <c:crossAx val="44747392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -944,7 +965,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Arduino M0 Pro</c:v>
+                  <c:v>Arduino M0</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1084,7 +1105,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>NXP K66</c:v>
+                  <c:v>FRDM-K66F</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1155,11 +1176,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="143483648"/>
-        <c:axId val="143485568"/>
+        <c:axId val="99126656"/>
+        <c:axId val="99137024"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="143483648"/>
+        <c:axId val="99126656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1188,7 +1209,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="143485568"/>
+        <c:crossAx val="99137024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1196,7 +1217,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="143485568"/>
+        <c:axId val="99137024"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1228,7 +1249,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="143483648"/>
+        <c:crossAx val="99126656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1251,6 +1272,356 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600"/>
+              <a:t>FFT Performance</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100"/>
+              <a:t>(Bigger</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" baseline="0"/>
+              <a:t> is Better)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Compare (2)'!$S$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Int16</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Compare (2)'!$U$5:$Y$5</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Arduino M0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Teensy 3.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>FRDM-K66F</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Teensy CMSIS</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>K66 CMSIS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Compare (2)'!$U$6:$Y$6</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>638.9776357827476</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1921.5987701767872</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2865.3295128939826</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7156.1471303850003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14285.714285714286</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Compare (2)'!$S$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Int32</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Compare (2)'!$U$5:$Y$5</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Arduino M0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Teensy 3.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>FRDM-K66F</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Teensy CMSIS</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>K66 CMSIS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Compare (2)'!$U$7:$Y$7</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>235.79344494223059</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1006.8465565847764</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1953.125</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3292.723081988805</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6211.1801242236024</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Compare (2)'!$S$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Float</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Compare (2)'!$U$5:$Y$5</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Arduino M0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Teensy 3.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>FRDM-K66F</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Teensy CMSIS</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>K66 CMSIS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Compare (2)'!$U$8:$Y$8</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>81.221572449642622</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>350.90181767141553</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4608.294930875576</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>657.56595386517267</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9523.8095238095229</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="99167616"/>
+        <c:axId val="99169408"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="99167616"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="99169408"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="99169408"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>128-pt FFTs per Second</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="#,##0" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="99167616"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1353,7 +1724,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Arduino M0 Pro</c:v>
+                  <c:v>Arduino M0</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1493,7 +1864,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>NXP K66</c:v>
+                  <c:v>FRDM-K66F</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1564,11 +1935,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="88401792"/>
-        <c:axId val="88403968"/>
+        <c:axId val="142418304"/>
+        <c:axId val="142420224"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="88401792"/>
+        <c:axId val="142418304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1597,7 +1968,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="88403968"/>
+        <c:crossAx val="142420224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1605,7 +1976,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="88403968"/>
+        <c:axId val="142420224"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1638,7 +2009,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="88401792"/>
+        <c:crossAx val="142418304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1660,7 +2031,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1763,7 +2134,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Arduino M0 Pro</c:v>
+                  <c:v>Arduino M0</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1903,7 +2274,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>NXP K66</c:v>
+                  <c:v>FRDM-K66F</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1974,11 +2345,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="88689280"/>
-        <c:axId val="88703744"/>
+        <c:axId val="142472320"/>
+        <c:axId val="142474240"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="88689280"/>
+        <c:axId val="142472320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2007,7 +2378,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="88703744"/>
+        <c:crossAx val="142474240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2015,7 +2386,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="88703744"/>
+        <c:axId val="142474240"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -2048,7 +2419,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="88689280"/>
+        <c:crossAx val="142472320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2070,7 +2441,303 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:trendline>
+            <c:trendlineType val="power"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout/>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Compare!$B$6:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1024</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Compare!$I$6:$I$11</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>802</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1674</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4241</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8763</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>21103</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43329</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:trendline>
+            <c:trendlineType val="power"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.28413429571303589"/>
+                  <c:y val="-8.4835228929717121E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Compare!$B$6:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1024</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Compare!$J$6:$J$11</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>192.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>383.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>993.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1976</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4858</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9679</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:trendline>
+            <c:trendlineType val="power"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.15913429571303586"/>
+                  <c:y val="0.21535323709536308"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Compare!$B$6:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1024</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Compare!$K$6:$K$11</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>970</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2461</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4708</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="146554240"/>
+        <c:axId val="146568320"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="146554240"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="146568320"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="146568320"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="146554240"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2123,7 +2790,6 @@
         <c:idx val="1"/>
         <c:dLbl>
           <c:idx val="0"/>
-          <c:layout/>
           <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="1"/>
@@ -2134,13 +2800,22 @@
         </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
-        <c:idx val="6"/>
+        <c:idx val="2"/>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
       </c:pivotFmt>
       <c:pivotFmt>
-        <c:idx val="7"/>
+        <c:idx val="3"/>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
       </c:pivotFmt>
       <c:pivotFmt>
-        <c:idx val="8"/>
+        <c:idx val="4"/>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
       </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
@@ -2313,7 +2988,6 @@
           </c:val>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -2322,11 +2996,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="100741504"/>
-        <c:axId val="110358528"/>
+        <c:axId val="146782464"/>
+        <c:axId val="146792448"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="100741504"/>
+        <c:axId val="146782464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2335,7 +3009,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="110358528"/>
+        <c:crossAx val="146792448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2343,7 +3017,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="110358528"/>
+        <c:axId val="146792448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2366,21 +3040,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100741504"/>
+        <c:crossAx val="146782464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2406,7 +3078,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2598,11 +3270,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="102149504"/>
-        <c:axId val="102442880"/>
+        <c:axId val="45930752"/>
+        <c:axId val="45936640"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="102149504"/>
+        <c:axId val="45930752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2611,7 +3283,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="102442880"/>
+        <c:crossAx val="45936640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2619,7 +3291,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="102442880"/>
+        <c:axId val="45936640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2630,14 +3302,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="102149504"/>
+        <c:crossAx val="45930752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2729,6 +3400,36 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2791,6 +3492,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>100012</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3921,7 +4652,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
   <location ref="A5:E10" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="6">
     <pivotField axis="axisRow" showAll="0" nonAutoSortDefault="1">
@@ -4020,7 +4751,7 @@
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="0" format="6" series="1">
+    <chartFormat chart="0" format="2" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -4032,7 +4763,7 @@
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="0" format="7" series="1">
+    <chartFormat chart="0" format="3" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -4044,7 +4775,7 @@
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="0" format="8" series="1">
+    <chartFormat chart="0" format="4" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -4067,7 +4798,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A4:E8" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="6">
     <pivotField axis="axisRow" showAll="0" sortType="descending">
@@ -5707,14 +6438,14 @@
   <dimension ref="B2:M17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M10" sqref="M10:M17"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
-        <v>40</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.25">
@@ -7978,10 +8709,997 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:Y23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="L13" workbookViewId="0">
+      <selection activeCell="X40" sqref="X40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.85546875" customWidth="1"/>
+    <col min="3" max="6" width="10.85546875" customWidth="1"/>
+    <col min="7" max="7" width="3.5703125" customWidth="1"/>
+    <col min="8" max="11" width="10.140625" customWidth="1"/>
+    <col min="12" max="12" width="3.42578125" customWidth="1"/>
+    <col min="18" max="18" width="11.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="C2" t="str">
+        <f>'Arduino Uno'!$C$7</f>
+        <v>KissFFT</v>
+      </c>
+      <c r="H2" t="str">
+        <f>'Arduino Uno'!$C$7</f>
+        <v>KissFFT</v>
+      </c>
+      <c r="M2" t="str">
+        <f>'Arduino Uno'!$C$7</f>
+        <v>KissFFT</v>
+      </c>
+    </row>
+    <row r="3" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="C3" t="str">
+        <f>'Arduino Uno'!$C$6</f>
+        <v>Int16</v>
+      </c>
+      <c r="H3" t="str">
+        <f>'Arduino Uno'!$G$6</f>
+        <v>Int32</v>
+      </c>
+      <c r="M3" t="str">
+        <f>'Arduino Uno'!$K$6</f>
+        <v>Float</v>
+      </c>
+      <c r="S3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>62</v>
+      </c>
+      <c r="H4" t="str">
+        <f>C4</f>
+        <v>FFT per sec</v>
+      </c>
+      <c r="M4" t="str">
+        <f>C4</f>
+        <v>FFT per sec</v>
+      </c>
+      <c r="S4" t="s">
+        <v>71</v>
+      </c>
+      <c r="T4">
+        <f>B8</f>
+        <v>128</v>
+      </c>
+    </row>
+    <row r="5" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" t="str">
+        <f>'Arduino Uno'!$C$2</f>
+        <v>Arduino Uno</v>
+      </c>
+      <c r="D5" t="str">
+        <f>'Arduino M0 Pro'!$C$2</f>
+        <v>Arduino M0</v>
+      </c>
+      <c r="E5" t="str">
+        <f>'Teensy 3.2'!$C$2</f>
+        <v>Teensy 3.2</v>
+      </c>
+      <c r="F5" t="str">
+        <f>'NXP K66'!$C$2</f>
+        <v>FRDM-K66F</v>
+      </c>
+      <c r="H5" t="str">
+        <f>'Arduino Uno'!$C$2</f>
+        <v>Arduino Uno</v>
+      </c>
+      <c r="I5" t="str">
+        <f>'Arduino M0 Pro'!$C$2</f>
+        <v>Arduino M0</v>
+      </c>
+      <c r="J5" t="str">
+        <f>'Teensy 3.2'!$C$2</f>
+        <v>Teensy 3.2</v>
+      </c>
+      <c r="K5" t="str">
+        <f>'NXP K66'!$C$2</f>
+        <v>FRDM-K66F</v>
+      </c>
+      <c r="M5" t="str">
+        <f>'Arduino Uno'!$C$2</f>
+        <v>Arduino Uno</v>
+      </c>
+      <c r="N5" t="str">
+        <f>'Arduino M0 Pro'!$C$2</f>
+        <v>Arduino M0</v>
+      </c>
+      <c r="O5" t="str">
+        <f>'Teensy 3.2'!$C$2</f>
+        <v>Teensy 3.2</v>
+      </c>
+      <c r="P5" t="str">
+        <f>'NXP K66'!$C$2</f>
+        <v>FRDM-K66F</v>
+      </c>
+      <c r="T5" t="str">
+        <f>M5</f>
+        <v>Arduino Uno</v>
+      </c>
+      <c r="U5" t="str">
+        <f>N5</f>
+        <v>Arduino M0</v>
+      </c>
+      <c r="V5" t="str">
+        <f>O5</f>
+        <v>Teensy 3.2</v>
+      </c>
+      <c r="W5" t="str">
+        <f>P5</f>
+        <v>FRDM-K66F</v>
+      </c>
+      <c r="X5" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <f>'Arduino Uno'!$B12</f>
+        <v>32</v>
+      </c>
+      <c r="C6" s="16">
+        <f>1000000/Compare!C6</f>
+        <v>200.77096048827497</v>
+      </c>
+      <c r="D6" s="16">
+        <f>1000000/Compare!D6</f>
+        <v>3126.9543464665417</v>
+      </c>
+      <c r="E6" s="16">
+        <f>1000000/Compare!E6</f>
+        <v>9671.1798839458406</v>
+      </c>
+      <c r="F6" s="16">
+        <f>1000000/Compare!F6</f>
+        <v>14492.753623188406</v>
+      </c>
+      <c r="H6" s="16">
+        <f>1000000/Compare!H6</f>
+        <v>79.622905917574357</v>
+      </c>
+      <c r="I6" s="16">
+        <f>1000000/Compare!I6</f>
+        <v>1246.8827930174564</v>
+      </c>
+      <c r="J6" s="16">
+        <f>1000000/Compare!J6</f>
+        <v>5186.7219917012444</v>
+      </c>
+      <c r="K6" s="16">
+        <f>1000000/Compare!K6</f>
+        <v>9803.9215686274511</v>
+      </c>
+      <c r="M6" s="16">
+        <f>1000000/Compare!M6</f>
+        <v>156.78896205707119</v>
+      </c>
+      <c r="N6" s="16">
+        <f>1000000/Compare!N6</f>
+        <v>457.03839122486289</v>
+      </c>
+      <c r="O6" s="16">
+        <f>1000000/Compare!O6</f>
+        <v>2014.5044319097503</v>
+      </c>
+      <c r="P6" s="16">
+        <f>1000000/Compare!P6</f>
+        <v>21276.59574468085</v>
+      </c>
+      <c r="S6" t="s">
+        <v>31</v>
+      </c>
+      <c r="T6">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="U6" s="16">
+        <f>D8</f>
+        <v>638.9776357827476</v>
+      </c>
+      <c r="V6" s="16">
+        <f>E8</f>
+        <v>1921.5987701767872</v>
+      </c>
+      <c r="W6" s="16">
+        <f>F8</f>
+        <v>2865.3295128939826</v>
+      </c>
+      <c r="X6" s="16">
+        <f>E20</f>
+        <v>7156.1471303850003</v>
+      </c>
+      <c r="Y6" s="16">
+        <f>F20</f>
+        <v>14285.714285714286</v>
+      </c>
+    </row>
+    <row r="7" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <f>'Arduino Uno'!$B13</f>
+        <v>64</v>
+      </c>
+      <c r="C7" s="16">
+        <f>1000000/Compare!C7</f>
+        <v>98.986379474184361</v>
+      </c>
+      <c r="D7" s="16">
+        <f>1000000/Compare!D7</f>
+        <v>1594.3877551020407</v>
+      </c>
+      <c r="E7" s="16">
+        <f>1000000/Compare!E7</f>
+        <v>4892.3679060665363</v>
+      </c>
+      <c r="F7" s="16">
+        <f>1000000/Compare!F7</f>
+        <v>7352.9411764705883</v>
+      </c>
+      <c r="H7" s="16" t="e">
+        <f>1000000/Compare!H7</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I7" s="16">
+        <f>1000000/Compare!I7</f>
+        <v>597.37156511350065</v>
+      </c>
+      <c r="J7" s="16">
+        <f>1000000/Compare!J7</f>
+        <v>2606.8821689259644</v>
+      </c>
+      <c r="K7" s="16">
+        <f>1000000/Compare!K7</f>
+        <v>5263.1578947368425</v>
+      </c>
+      <c r="M7" s="16" t="e">
+        <f>1000000/Compare!M7</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N7" s="16">
+        <f>1000000/Compare!N7</f>
+        <v>198.60973187686196</v>
+      </c>
+      <c r="O7" s="16">
+        <f>1000000/Compare!O7</f>
+        <v>880.28169014084506</v>
+      </c>
+      <c r="P7" s="16">
+        <f>1000000/Compare!P7</f>
+        <v>12658.227848101265</v>
+      </c>
+      <c r="S7" t="s">
+        <v>32</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7" s="16">
+        <f>I8</f>
+        <v>235.79344494223059</v>
+      </c>
+      <c r="V7" s="16">
+        <f>J8</f>
+        <v>1006.8465565847764</v>
+      </c>
+      <c r="W7" s="16">
+        <f>K8</f>
+        <v>1953.125</v>
+      </c>
+      <c r="X7" s="16">
+        <f>J20</f>
+        <v>3292.723081988805</v>
+      </c>
+      <c r="Y7" s="16">
+        <f>K20</f>
+        <v>6211.1801242236024</v>
+      </c>
+    </row>
+    <row r="8" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <f>'Arduino Uno'!$B14</f>
+        <v>128</v>
+      </c>
+      <c r="C8" s="16" t="e">
+        <f>1000000/Compare!C8</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D8" s="16">
+        <f>1000000/Compare!D8</f>
+        <v>638.9776357827476</v>
+      </c>
+      <c r="E8" s="16">
+        <f>1000000/Compare!E8</f>
+        <v>1921.5987701767872</v>
+      </c>
+      <c r="F8" s="16">
+        <f>1000000/Compare!F8</f>
+        <v>2865.3295128939826</v>
+      </c>
+      <c r="H8" s="16" t="e">
+        <f>1000000/Compare!H8</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I8" s="16">
+        <f>1000000/Compare!I8</f>
+        <v>235.79344494223059</v>
+      </c>
+      <c r="J8" s="16">
+        <f>1000000/Compare!J8</f>
+        <v>1006.8465565847764</v>
+      </c>
+      <c r="K8" s="16">
+        <f>1000000/Compare!K8</f>
+        <v>1953.125</v>
+      </c>
+      <c r="M8" s="16" t="e">
+        <f>1000000/Compare!M8</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N8" s="16">
+        <f>1000000/Compare!N8</f>
+        <v>81.221572449642622</v>
+      </c>
+      <c r="O8" s="16">
+        <f>1000000/Compare!O8</f>
+        <v>350.90181767141553</v>
+      </c>
+      <c r="P8" s="16">
+        <f>1000000/Compare!P8</f>
+        <v>4608.294930875576</v>
+      </c>
+      <c r="S8" t="s">
+        <v>22</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8" s="16">
+        <f>N8</f>
+        <v>81.221572449642622</v>
+      </c>
+      <c r="V8" s="16">
+        <f>O8</f>
+        <v>350.90181767141553</v>
+      </c>
+      <c r="W8" s="16">
+        <f>P8</f>
+        <v>4608.294930875576</v>
+      </c>
+      <c r="X8" s="16">
+        <f>O20</f>
+        <v>657.56595386517267</v>
+      </c>
+      <c r="Y8" s="16">
+        <f>P20</f>
+        <v>9523.8095238095229</v>
+      </c>
+    </row>
+    <row r="9" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <f>'Arduino Uno'!$B15</f>
+        <v>256</v>
+      </c>
+      <c r="C9" s="16" t="e">
+        <f>1000000/Compare!C9</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D9" s="16">
+        <f>1000000/Compare!D9</f>
+        <v>324.78077297823967</v>
+      </c>
+      <c r="E9" s="16">
+        <f>1000000/Compare!E9</f>
+        <v>970.49689440993779</v>
+      </c>
+      <c r="F9" s="16">
+        <f>1000000/Compare!F9</f>
+        <v>1457.7259475218659</v>
+      </c>
+      <c r="H9" s="16" t="e">
+        <f>1000000/Compare!H9</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I9" s="16">
+        <f>1000000/Compare!I9</f>
+        <v>114.11617026132603</v>
+      </c>
+      <c r="J9" s="16">
+        <f>1000000/Compare!J9</f>
+        <v>506.07287449392715</v>
+      </c>
+      <c r="K9" s="16">
+        <f>1000000/Compare!K9</f>
+        <v>1030.9278350515465</v>
+      </c>
+      <c r="M9" s="16" t="e">
+        <f>1000000/Compare!M9</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N9" s="16">
+        <f>1000000/Compare!N9</f>
+        <v>36.564408205053198</v>
+      </c>
+      <c r="O9" s="16">
+        <f>1000000/Compare!O9</f>
+        <v>158.83604942977857</v>
+      </c>
+      <c r="P9" s="16">
+        <f>1000000/Compare!P9</f>
+        <v>2695.4177897574123</v>
+      </c>
+    </row>
+    <row r="10" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <f>'Arduino Uno'!$B16</f>
+        <v>512</v>
+      </c>
+      <c r="C10" s="16" t="e">
+        <f>1000000/Compare!C10</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D10" s="16">
+        <f>1000000/Compare!D10</f>
+        <v>135.080372821829</v>
+      </c>
+      <c r="E10" s="16">
+        <f>1000000/Compare!E10</f>
+        <v>398.72408293460927</v>
+      </c>
+      <c r="F10" s="16">
+        <f>1000000/Compare!F10</f>
+        <v>594.17706476530009</v>
+      </c>
+      <c r="H10" s="16" t="e">
+        <f>1000000/Compare!H10</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I10" s="16">
+        <f>1000000/Compare!I10</f>
+        <v>47.386627493721271</v>
+      </c>
+      <c r="J10" s="16">
+        <f>1000000/Compare!J10</f>
+        <v>205.84602717167559</v>
+      </c>
+      <c r="K10" s="16">
+        <f>1000000/Compare!K10</f>
+        <v>406.33888663145063</v>
+      </c>
+      <c r="M10" s="16" t="e">
+        <f>1000000/Compare!M10</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N10" s="16">
+        <f>1000000/Compare!N10</f>
+        <v>15.690704826460804</v>
+      </c>
+      <c r="O10" s="16">
+        <f>1000000/Compare!O10</f>
+        <v>67.015145422865572</v>
+      </c>
+      <c r="P10" s="16">
+        <f>1000000/Compare!P10</f>
+        <v>1019.3679918450561</v>
+      </c>
+      <c r="S10" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="11" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <f>'Arduino Uno'!$B17</f>
+        <v>1024</v>
+      </c>
+      <c r="C11" s="16" t="e">
+        <f>1000000/Compare!C11</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D11" s="16">
+        <f>1000000/Compare!D11</f>
+        <v>68.467826968107687</v>
+      </c>
+      <c r="E11" s="16">
+        <f>1000000/Compare!E11</f>
+        <v>201.00502512562815</v>
+      </c>
+      <c r="F11" s="16">
+        <f>1000000/Compare!F11</f>
+        <v>301.56815440289506</v>
+      </c>
+      <c r="H11" s="16" t="e">
+        <f>1000000/Compare!H11</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I11" s="16">
+        <f>1000000/Compare!I11</f>
+        <v>23.079231000023078</v>
+      </c>
+      <c r="J11" s="16">
+        <f>1000000/Compare!J11</f>
+        <v>103.31645831180907</v>
+      </c>
+      <c r="K11" s="16">
+        <f>1000000/Compare!K11</f>
+        <v>212.40441801189465</v>
+      </c>
+      <c r="M11" s="16" t="e">
+        <f>1000000/Compare!M11</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N11" s="16">
+        <f>1000000/Compare!N11</f>
+        <v>7.2218330456636499</v>
+      </c>
+      <c r="O11" s="16">
+        <f>1000000/Compare!O11</f>
+        <v>30.998716653130558</v>
+      </c>
+      <c r="P11" s="16">
+        <f>1000000/Compare!P11</f>
+        <v>584.45353594389246</v>
+      </c>
+    </row>
+    <row r="14" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="C14" t="str">
+        <f>'Teensy 3.2'!$E$7</f>
+        <v>CMSIS FFT</v>
+      </c>
+      <c r="E14" t="str">
+        <f>'Teensy 3.2'!E8</f>
+        <v>Radix4</v>
+      </c>
+      <c r="H14" t="str">
+        <f>'Teensy 3.2'!$E$7</f>
+        <v>CMSIS FFT</v>
+      </c>
+      <c r="M14" t="str">
+        <f>'Teensy 3.2'!$E$7</f>
+        <v>CMSIS FFT</v>
+      </c>
+    </row>
+    <row r="15" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="C15" t="str">
+        <f>'Arduino Uno'!$C$6</f>
+        <v>Int16</v>
+      </c>
+      <c r="H15" t="str">
+        <f>'Teensy 3.2'!$H$6</f>
+        <v>Int32</v>
+      </c>
+      <c r="M15" t="str">
+        <f>'Teensy 3.2'!$K$6</f>
+        <v>Float</v>
+      </c>
+    </row>
+    <row r="16" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="C16" t="str">
+        <f>C4</f>
+        <v>FFT per sec</v>
+      </c>
+      <c r="H16" t="str">
+        <f>C16</f>
+        <v>FFT per sec</v>
+      </c>
+      <c r="M16" t="str">
+        <f>C16</f>
+        <v>FFT per sec</v>
+      </c>
+      <c r="O16" t="str">
+        <f>'Teensy 3.2'!$C$2</f>
+        <v>Teensy 3.2</v>
+      </c>
+      <c r="P16" t="str">
+        <f>'NXP K66'!$C$2</f>
+        <v>FRDM-K66F</v>
+      </c>
+    </row>
+    <row r="17" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" t="str">
+        <f>'Arduino Uno'!$C$2</f>
+        <v>Arduino Uno</v>
+      </c>
+      <c r="D17" t="str">
+        <f>'Arduino M0 Pro'!$C$2</f>
+        <v>Arduino M0</v>
+      </c>
+      <c r="E17" t="str">
+        <f>'Teensy 3.2'!$C$2</f>
+        <v>Teensy 3.2</v>
+      </c>
+      <c r="F17" t="str">
+        <f>'NXP K66'!$C$2</f>
+        <v>FRDM-K66F</v>
+      </c>
+      <c r="H17" t="str">
+        <f>'Arduino Uno'!$C$2</f>
+        <v>Arduino Uno</v>
+      </c>
+      <c r="I17" t="str">
+        <f>'Arduino M0 Pro'!$C$2</f>
+        <v>Arduino M0</v>
+      </c>
+      <c r="J17" t="str">
+        <f>'Teensy 3.2'!$C$2</f>
+        <v>Teensy 3.2</v>
+      </c>
+      <c r="K17" t="str">
+        <f>'NXP K66'!$C$2</f>
+        <v>FRDM-K66F</v>
+      </c>
+      <c r="M17" t="str">
+        <f>'Arduino Uno'!$C$2</f>
+        <v>Arduino Uno</v>
+      </c>
+      <c r="N17" t="str">
+        <f>'Arduino M0 Pro'!$C$2</f>
+        <v>Arduino M0</v>
+      </c>
+      <c r="O17" t="str">
+        <f>'Teensy 3.2'!$C$2</f>
+        <v>Teensy 3.2</v>
+      </c>
+      <c r="P17" t="str">
+        <f>'NXP K66'!$C$2</f>
+        <v>FRDM-K66F</v>
+      </c>
+    </row>
+    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <f>'Teensy 3.2'!B12</f>
+        <v>32</v>
+      </c>
+      <c r="C18" s="16" t="e">
+        <f>1000000/Compare!C18</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D18" s="16" t="e">
+        <f>1000000/Compare!D18</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E18" s="16">
+        <f>1000000/Compare!E18</f>
+        <v>30864.1975308642</v>
+      </c>
+      <c r="F18" s="16">
+        <f>1000000/Compare!F18</f>
+        <v>58823.529411764706</v>
+      </c>
+      <c r="H18" s="16" t="e">
+        <f>1000000/Compare!H18</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I18" s="16" t="e">
+        <f>1000000/Compare!I18</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J18" s="16">
+        <f>1000000/Compare!J18</f>
+        <v>16474.464579901152</v>
+      </c>
+      <c r="K18" s="16">
+        <f>1000000/Compare!K18</f>
+        <v>31250</v>
+      </c>
+      <c r="M18" s="16" t="e">
+        <f>1000000/Compare!M18</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N18" s="16" t="e">
+        <f>1000000/Compare!N18</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O18" s="16">
+        <f>1000000/Compare!O18</f>
+        <v>3542.3308537017356</v>
+      </c>
+      <c r="P18" s="16">
+        <f>1000000/Compare!P18</f>
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="19" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <f>'Teensy 3.2'!B13</f>
+        <v>64</v>
+      </c>
+      <c r="C19" s="16" t="e">
+        <f>1000000/Compare!C19</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D19" s="16" t="e">
+        <f>1000000/Compare!D19</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E19" s="16">
+        <f>1000000/Compare!E19</f>
+        <v>16528.92561983471</v>
+      </c>
+      <c r="F19" s="16">
+        <f>1000000/Compare!F19</f>
+        <v>33333.333333333336</v>
+      </c>
+      <c r="H19" s="16" t="e">
+        <f>1000000/Compare!H19</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I19" s="16" t="e">
+        <f>1000000/Compare!I19</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J19" s="16">
+        <f>1000000/Compare!J19</f>
+        <v>8577.8006519128503</v>
+      </c>
+      <c r="K19" s="16">
+        <f>1000000/Compare!K19</f>
+        <v>16666.666666666668</v>
+      </c>
+      <c r="M19" s="16" t="e">
+        <f>1000000/Compare!M19</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N19" s="16" t="e">
+        <f>1000000/Compare!N19</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O19" s="16">
+        <f>1000000/Compare!O19</f>
+        <v>1811.4629374682995</v>
+      </c>
+      <c r="P19" s="16">
+        <f>1000000/Compare!P19</f>
+        <v>21276.59574468085</v>
+      </c>
+    </row>
+    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <f>'Teensy 3.2'!B14</f>
+        <v>128</v>
+      </c>
+      <c r="C20" s="16" t="e">
+        <f>1000000/Compare!C20</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D20" s="16" t="e">
+        <f>1000000/Compare!D20</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E20" s="16">
+        <f>1000000/Compare!E20</f>
+        <v>7156.1471303850003</v>
+      </c>
+      <c r="F20" s="16">
+        <f>1000000/Compare!F20</f>
+        <v>14285.714285714286</v>
+      </c>
+      <c r="H20" s="16" t="e">
+        <f>1000000/Compare!H20</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I20" s="16" t="e">
+        <f>1000000/Compare!I20</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J20" s="16">
+        <f>1000000/Compare!J20</f>
+        <v>3292.723081988805</v>
+      </c>
+      <c r="K20" s="16">
+        <f>1000000/Compare!K20</f>
+        <v>6211.1801242236024</v>
+      </c>
+      <c r="M20" s="16" t="e">
+        <f>1000000/Compare!M20</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N20" s="16" t="e">
+        <f>1000000/Compare!N20</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O20" s="16">
+        <f>1000000/Compare!O20</f>
+        <v>657.56595386517267</v>
+      </c>
+      <c r="P20" s="16">
+        <f>1000000/Compare!P20</f>
+        <v>9523.8095238095229</v>
+      </c>
+    </row>
+    <row r="21" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <f>'Teensy 3.2'!B15</f>
+        <v>256</v>
+      </c>
+      <c r="C21" s="16" t="e">
+        <f>1000000/Compare!C21</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D21" s="16" t="e">
+        <f>1000000/Compare!D21</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E21" s="16">
+        <f>1000000/Compare!E21</f>
+        <v>3669.1861745064944</v>
+      </c>
+      <c r="F21" s="16">
+        <f>1000000/Compare!F21</f>
+        <v>7352.9411764705883</v>
+      </c>
+      <c r="H21" s="16" t="e">
+        <f>1000000/Compare!H21</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I21" s="16" t="e">
+        <f>1000000/Compare!I21</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J21" s="16">
+        <f>1000000/Compare!J21</f>
+        <v>1674.817444898506</v>
+      </c>
+      <c r="K21" s="16">
+        <f>1000000/Compare!K21</f>
+        <v>3154.5741324921137</v>
+      </c>
+      <c r="M21" s="16" t="e">
+        <f>1000000/Compare!M21</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N21" s="16" t="e">
+        <f>1000000/Compare!N21</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O21" s="16">
+        <f>1000000/Compare!O21</f>
+        <v>330.84975450948218</v>
+      </c>
+      <c r="P21" s="16">
+        <f>1000000/Compare!P21</f>
+        <v>4878.0487804878048</v>
+      </c>
+    </row>
+    <row r="22" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <f>'Teensy 3.2'!B16</f>
+        <v>512</v>
+      </c>
+      <c r="C22" s="16" t="e">
+        <f>1000000/Compare!C22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D22" s="16" t="e">
+        <f>1000000/Compare!D22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E22" s="16">
+        <f>1000000/Compare!E22</f>
+        <v>1574.6543633672411</v>
+      </c>
+      <c r="F22" s="16">
+        <f>1000000/Compare!F22</f>
+        <v>3225.8064516129034</v>
+      </c>
+      <c r="H22" s="16" t="e">
+        <f>1000000/Compare!H22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I22" s="16" t="e">
+        <f>1000000/Compare!I22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J22" s="16">
+        <f>1000000/Compare!J22</f>
+        <v>677.43334055928892</v>
+      </c>
+      <c r="K22" s="16">
+        <f>1000000/Compare!K22</f>
+        <v>1272.2646310432569</v>
+      </c>
+      <c r="M22" s="16" t="e">
+        <f>1000000/Compare!M22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N22" s="16" t="e">
+        <f>1000000/Compare!N22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O22" s="16">
+        <f>1000000/Compare!O22</f>
+        <v>129.6798205231284</v>
+      </c>
+      <c r="P22" s="16">
+        <f>1000000/Compare!P22</f>
+        <v>2123.1422505307855</v>
+      </c>
+    </row>
+    <row r="23" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <f>'Teensy 3.2'!B17</f>
+        <v>1024</v>
+      </c>
+      <c r="C23" s="16" t="e">
+        <f>1000000/Compare!C23</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D23" s="16" t="e">
+        <f>1000000/Compare!D23</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E23" s="16">
+        <f>1000000/Compare!E23</f>
+        <v>797.19387755102036</v>
+      </c>
+      <c r="F23" s="16">
+        <f>1000000/Compare!F23</f>
+        <v>1628.6644951140065</v>
+      </c>
+      <c r="H23" s="16" t="e">
+        <f>1000000/Compare!H23</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I23" s="16" t="e">
+        <f>1000000/Compare!I23</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J23" s="16">
+        <f>1000000/Compare!J23</f>
+        <v>342.43291739148299</v>
+      </c>
+      <c r="K23" s="16">
+        <f>1000000/Compare!K23</f>
+        <v>641.84852374839534</v>
+      </c>
+      <c r="M23" s="16" t="e">
+        <f>1000000/Compare!M23</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N23" s="16" t="e">
+        <f>1000000/Compare!N23</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O23" s="16">
+        <f>1000000/Compare!O23</f>
+        <v>65.006910234557935</v>
+      </c>
+      <c r="P23" s="16">
+        <f>1000000/Compare!P23</f>
+        <v>1077.5862068965516</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:P23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="S26" sqref="S26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q16" sqref="Q16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8023,15 +9741,15 @@
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="H4" t="str">
         <f>C4</f>
-        <v>FFT per sec</v>
+        <v>usec per FFT</v>
       </c>
       <c r="M4" t="str">
         <f>C4</f>
-        <v>FFT per sec</v>
+        <v>usec per FFT</v>
       </c>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.25">
@@ -8044,7 +9762,7 @@
       </c>
       <c r="D5" t="str">
         <f>'Arduino M0 Pro'!$C$2</f>
-        <v>Arduino M0 Pro</v>
+        <v>Arduino M0</v>
       </c>
       <c r="E5" t="str">
         <f>'Teensy 3.2'!$C$2</f>
@@ -8052,7 +9770,7 @@
       </c>
       <c r="F5" t="str">
         <f>'NXP K66'!$C$2</f>
-        <v>NXP K66</v>
+        <v>FRDM-K66F</v>
       </c>
       <c r="H5" t="str">
         <f>'Arduino Uno'!$C$2</f>
@@ -8060,7 +9778,7 @@
       </c>
       <c r="I5" t="str">
         <f>'Arduino M0 Pro'!$C$2</f>
-        <v>Arduino M0 Pro</v>
+        <v>Arduino M0</v>
       </c>
       <c r="J5" t="str">
         <f>'Teensy 3.2'!$C$2</f>
@@ -8068,7 +9786,7 @@
       </c>
       <c r="K5" t="str">
         <f>'NXP K66'!$C$2</f>
-        <v>NXP K66</v>
+        <v>FRDM-K66F</v>
       </c>
       <c r="M5" t="str">
         <f>'Arduino Uno'!$C$2</f>
@@ -8076,7 +9794,7 @@
       </c>
       <c r="N5" t="str">
         <f>'Arduino M0 Pro'!$C$2</f>
-        <v>Arduino M0 Pro</v>
+        <v>Arduino M0</v>
       </c>
       <c r="O5" t="str">
         <f>'Teensy 3.2'!$C$2</f>
@@ -8084,7 +9802,7 @@
       </c>
       <c r="P5" t="str">
         <f>'NXP K66'!$C$2</f>
-        <v>NXP K66</v>
+        <v>FRDM-K66F</v>
       </c>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.25">
@@ -8093,52 +9811,52 @@
         <v>32</v>
       </c>
       <c r="C6" s="16">
-        <f>1000000/Compare!C6</f>
-        <v>200.77096048827497</v>
+        <f>'Arduino Uno'!$C12</f>
+        <v>4980.8</v>
       </c>
       <c r="D6" s="16">
-        <f>1000000/Compare!D6</f>
-        <v>3126.9543464665417</v>
+        <f>'Arduino M0 Pro'!C12</f>
+        <v>319.8</v>
       </c>
       <c r="E6" s="16">
-        <f>1000000/Compare!E6</f>
-        <v>9671.1798839458406</v>
+        <f>'Teensy 3.2'!C12</f>
+        <v>103.4</v>
       </c>
       <c r="F6" s="16">
-        <f>1000000/Compare!F6</f>
-        <v>14492.753623188406</v>
+        <f>'NXP K66'!C12</f>
+        <v>69</v>
       </c>
       <c r="H6" s="16">
-        <f>1000000/Compare!H6</f>
-        <v>79.622905917574357</v>
+        <f>'Arduino Uno'!G12</f>
+        <v>12559.2</v>
       </c>
       <c r="I6" s="16">
-        <f>1000000/Compare!I6</f>
-        <v>1246.8827930174564</v>
+        <f>'Arduino M0 Pro'!G12</f>
+        <v>802</v>
       </c>
       <c r="J6" s="16">
-        <f>1000000/Compare!J6</f>
-        <v>5186.7219917012444</v>
+        <f>'Teensy 3.2'!G12</f>
+        <v>192.8</v>
       </c>
       <c r="K6" s="16">
-        <f>1000000/Compare!K6</f>
-        <v>9803.9215686274511</v>
+        <f>'NXP K66'!G12</f>
+        <v>102</v>
       </c>
       <c r="M6" s="16">
-        <f>1000000/Compare!M6</f>
-        <v>156.78896205707119</v>
+        <f>'Arduino Uno'!K12</f>
+        <v>6378</v>
       </c>
       <c r="N6" s="16">
-        <f>1000000/Compare!N6</f>
-        <v>457.03839122486289</v>
+        <f>'Arduino M0 Pro'!K12</f>
+        <v>2188</v>
       </c>
       <c r="O6" s="16">
-        <f>1000000/Compare!O6</f>
-        <v>2014.5044319097503</v>
+        <f>'Teensy 3.2'!K12</f>
+        <v>496.4</v>
       </c>
       <c r="P6" s="16">
-        <f>1000000/Compare!P6</f>
-        <v>21276.59574468085</v>
+        <f>'NXP K66'!K12</f>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.25">
@@ -8147,52 +9865,46 @@
         <v>64</v>
       </c>
       <c r="C7" s="16">
-        <f>1000000/Compare!C7</f>
-        <v>98.986379474184361</v>
+        <f>'Arduino Uno'!$C13</f>
+        <v>10102.4</v>
       </c>
       <c r="D7" s="16">
-        <f>1000000/Compare!D7</f>
-        <v>1594.3877551020407</v>
+        <f>'Arduino M0 Pro'!C13</f>
+        <v>627.20000000000005</v>
       </c>
       <c r="E7" s="16">
-        <f>1000000/Compare!E7</f>
-        <v>4892.3679060665363</v>
+        <f>'Teensy 3.2'!C13</f>
+        <v>204.4</v>
       </c>
       <c r="F7" s="16">
-        <f>1000000/Compare!F7</f>
-        <v>7352.9411764705883</v>
-      </c>
-      <c r="H7" s="16" t="e">
-        <f>1000000/Compare!H7</f>
-        <v>#DIV/0!</v>
-      </c>
+        <f>'NXP K66'!C13</f>
+        <v>136</v>
+      </c>
+      <c r="H7" s="16"/>
       <c r="I7" s="16">
-        <f>1000000/Compare!I7</f>
-        <v>597.37156511350065</v>
+        <f>'Arduino M0 Pro'!G13</f>
+        <v>1674</v>
       </c>
       <c r="J7" s="16">
-        <f>1000000/Compare!J7</f>
-        <v>2606.8821689259644</v>
+        <f>'Teensy 3.2'!G13</f>
+        <v>383.6</v>
       </c>
       <c r="K7" s="16">
-        <f>1000000/Compare!K7</f>
-        <v>5263.1578947368425</v>
-      </c>
-      <c r="M7" s="16" t="e">
-        <f>1000000/Compare!M7</f>
-        <v>#DIV/0!</v>
-      </c>
+        <f>'NXP K66'!G13</f>
+        <v>190</v>
+      </c>
+      <c r="M7" s="16"/>
       <c r="N7" s="16">
-        <f>1000000/Compare!N7</f>
-        <v>198.60973187686196</v>
+        <f>'Arduino M0 Pro'!K13</f>
+        <v>5035</v>
       </c>
       <c r="O7" s="16">
-        <f>1000000/Compare!O7</f>
-        <v>880.28169014084506</v>
+        <f>'Teensy 3.2'!K13</f>
+        <v>1136</v>
       </c>
       <c r="P7" s="16">
-        <f>1000000/Compare!P7</f>
-        <v>12658.227848101265</v>
+        <f>'NXP K66'!K13</f>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.25">
@@ -8200,53 +9912,44 @@
         <f>'Arduino Uno'!$B14</f>
         <v>128</v>
       </c>
-      <c r="C8" s="16" t="e">
-        <f>1000000/Compare!C8</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="C8" s="16"/>
       <c r="D8" s="16">
-        <f>1000000/Compare!D8</f>
-        <v>638.9776357827476</v>
+        <f>'Arduino M0 Pro'!C14</f>
+        <v>1565</v>
       </c>
       <c r="E8" s="16">
-        <f>1000000/Compare!E8</f>
-        <v>1921.5987701767872</v>
+        <f>'Teensy 3.2'!C14</f>
+        <v>520.4</v>
       </c>
       <c r="F8" s="16">
-        <f>1000000/Compare!F8</f>
-        <v>2865.3295128939826</v>
-      </c>
-      <c r="H8" s="16" t="e">
-        <f>1000000/Compare!H8</f>
-        <v>#DIV/0!</v>
-      </c>
+        <f>'NXP K66'!C14</f>
+        <v>349</v>
+      </c>
+      <c r="H8" s="16"/>
       <c r="I8" s="16">
-        <f>1000000/Compare!I8</f>
-        <v>235.79344494223059</v>
+        <f>'Arduino M0 Pro'!G14</f>
+        <v>4241</v>
       </c>
       <c r="J8" s="16">
-        <f>1000000/Compare!J8</f>
-        <v>1006.8465565847764</v>
+        <f>'Teensy 3.2'!G14</f>
+        <v>993.2</v>
       </c>
       <c r="K8" s="16">
-        <f>1000000/Compare!K8</f>
-        <v>1953.125</v>
-      </c>
-      <c r="M8" s="16" t="e">
-        <f>1000000/Compare!M8</f>
-        <v>#DIV/0!</v>
-      </c>
+        <f>'NXP K66'!G14</f>
+        <v>512</v>
+      </c>
+      <c r="M8" s="16"/>
       <c r="N8" s="16">
-        <f>1000000/Compare!N8</f>
-        <v>81.221572449642622</v>
+        <f>'Arduino M0 Pro'!K14</f>
+        <v>12312</v>
       </c>
       <c r="O8" s="16">
-        <f>1000000/Compare!O8</f>
-        <v>350.90181767141553</v>
+        <f>'Teensy 3.2'!K14</f>
+        <v>2849.8</v>
       </c>
       <c r="P8" s="16">
-        <f>1000000/Compare!P8</f>
-        <v>4608.294930875576</v>
+        <f>'NXP K66'!K14</f>
+        <v>217</v>
       </c>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.25">
@@ -8254,53 +9957,44 @@
         <f>'Arduino Uno'!$B15</f>
         <v>256</v>
       </c>
-      <c r="C9" s="16" t="e">
-        <f>1000000/Compare!C9</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="C9" s="16"/>
       <c r="D9" s="16">
-        <f>1000000/Compare!D9</f>
-        <v>324.78077297823967</v>
+        <f>'Arduino M0 Pro'!C15</f>
+        <v>3079</v>
       </c>
       <c r="E9" s="16">
-        <f>1000000/Compare!E9</f>
-        <v>970.49689440993779</v>
+        <f>'Teensy 3.2'!C15</f>
+        <v>1030.4000000000001</v>
       </c>
       <c r="F9" s="16">
-        <f>1000000/Compare!F9</f>
-        <v>1457.7259475218659</v>
-      </c>
-      <c r="H9" s="16" t="e">
-        <f>1000000/Compare!H9</f>
-        <v>#DIV/0!</v>
-      </c>
+        <f>'NXP K66'!C15</f>
+        <v>686</v>
+      </c>
+      <c r="H9" s="16"/>
       <c r="I9" s="16">
-        <f>1000000/Compare!I9</f>
-        <v>114.11617026132603</v>
+        <f>'Arduino M0 Pro'!G15</f>
+        <v>8763</v>
       </c>
       <c r="J9" s="16">
-        <f>1000000/Compare!J9</f>
-        <v>506.07287449392715</v>
+        <f>'Teensy 3.2'!G15</f>
+        <v>1976</v>
       </c>
       <c r="K9" s="16">
-        <f>1000000/Compare!K9</f>
-        <v>1030.9278350515465</v>
-      </c>
-      <c r="M9" s="16" t="e">
-        <f>1000000/Compare!M9</f>
-        <v>#DIV/0!</v>
-      </c>
+        <f>'NXP K66'!G15</f>
+        <v>970</v>
+      </c>
+      <c r="M9" s="16"/>
       <c r="N9" s="16">
-        <f>1000000/Compare!N9</f>
-        <v>36.564408205053198</v>
+        <f>'Arduino M0 Pro'!K15</f>
+        <v>27349</v>
       </c>
       <c r="O9" s="16">
-        <f>1000000/Compare!O9</f>
-        <v>158.83604942977857</v>
+        <f>'Teensy 3.2'!K15</f>
+        <v>6295.8</v>
       </c>
       <c r="P9" s="16">
-        <f>1000000/Compare!P9</f>
-        <v>2695.4177897574123</v>
+        <f>'NXP K66'!K15</f>
+        <v>371</v>
       </c>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.25">
@@ -8308,53 +10002,44 @@
         <f>'Arduino Uno'!$B16</f>
         <v>512</v>
       </c>
-      <c r="C10" s="16" t="e">
-        <f>1000000/Compare!C10</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="C10" s="16"/>
       <c r="D10" s="16">
-        <f>1000000/Compare!D10</f>
-        <v>135.080372821829</v>
+        <f>'Arduino M0 Pro'!C16</f>
+        <v>7403</v>
       </c>
       <c r="E10" s="16">
-        <f>1000000/Compare!E10</f>
-        <v>398.72408293460927</v>
+        <f>'Teensy 3.2'!C16</f>
+        <v>2508</v>
       </c>
       <c r="F10" s="16">
-        <f>1000000/Compare!F10</f>
-        <v>594.17706476530009</v>
-      </c>
-      <c r="H10" s="16" t="e">
-        <f>1000000/Compare!H10</f>
-        <v>#DIV/0!</v>
-      </c>
+        <f>'NXP K66'!C16</f>
+        <v>1683</v>
+      </c>
+      <c r="H10" s="16"/>
       <c r="I10" s="16">
-        <f>1000000/Compare!I10</f>
-        <v>47.386627493721271</v>
+        <f>'Arduino M0 Pro'!G16</f>
+        <v>21103</v>
       </c>
       <c r="J10" s="16">
-        <f>1000000/Compare!J10</f>
-        <v>205.84602717167559</v>
+        <f>'Teensy 3.2'!G16</f>
+        <v>4858</v>
       </c>
       <c r="K10" s="16">
-        <f>1000000/Compare!K10</f>
-        <v>406.33888663145063</v>
-      </c>
-      <c r="M10" s="16" t="e">
-        <f>1000000/Compare!M10</f>
-        <v>#DIV/0!</v>
-      </c>
+        <f>'NXP K66'!G16</f>
+        <v>2461</v>
+      </c>
+      <c r="M10" s="16"/>
       <c r="N10" s="16">
-        <f>1000000/Compare!N10</f>
-        <v>15.690704826460804</v>
+        <f>'Arduino M0 Pro'!K16</f>
+        <v>63732</v>
       </c>
       <c r="O10" s="16">
-        <f>1000000/Compare!O10</f>
-        <v>67.015145422865572</v>
+        <f>'Teensy 3.2'!K16</f>
+        <v>14922</v>
       </c>
       <c r="P10" s="16">
-        <f>1000000/Compare!P10</f>
-        <v>1019.3679918450561</v>
+        <f>'NXP K66'!K16</f>
+        <v>981</v>
       </c>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.25">
@@ -8362,53 +10047,44 @@
         <f>'Arduino Uno'!$B17</f>
         <v>1024</v>
       </c>
-      <c r="C11" s="16" t="e">
-        <f>1000000/Compare!C11</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="C11" s="16"/>
       <c r="D11" s="16">
-        <f>1000000/Compare!D11</f>
-        <v>68.467826968107687</v>
+        <f>'Arduino M0 Pro'!C17</f>
+        <v>14605.4</v>
       </c>
       <c r="E11" s="16">
-        <f>1000000/Compare!E11</f>
-        <v>201.00502512562815</v>
+        <f>'Teensy 3.2'!C17</f>
+        <v>4975</v>
       </c>
       <c r="F11" s="16">
-        <f>1000000/Compare!F11</f>
-        <v>301.56815440289506</v>
-      </c>
-      <c r="H11" s="16" t="e">
-        <f>1000000/Compare!H11</f>
-        <v>#DIV/0!</v>
-      </c>
+        <f>'NXP K66'!C17</f>
+        <v>3316</v>
+      </c>
+      <c r="H11" s="16"/>
       <c r="I11" s="16">
-        <f>1000000/Compare!I11</f>
-        <v>23.079231000023078</v>
+        <f>'Arduino M0 Pro'!G17</f>
+        <v>43329</v>
       </c>
       <c r="J11" s="16">
-        <f>1000000/Compare!J11</f>
-        <v>103.31645831180907</v>
+        <f>'Teensy 3.2'!G17</f>
+        <v>9679</v>
       </c>
       <c r="K11" s="16">
-        <f>1000000/Compare!K11</f>
-        <v>212.40441801189465</v>
-      </c>
-      <c r="M11" s="16" t="e">
-        <f>1000000/Compare!M11</f>
-        <v>#DIV/0!</v>
-      </c>
+        <f>'NXP K66'!G17</f>
+        <v>4708</v>
+      </c>
+      <c r="M11" s="16"/>
       <c r="N11" s="16">
-        <f>1000000/Compare!N11</f>
-        <v>7.2218330456636499</v>
+        <f>'Arduino M0 Pro'!K17</f>
+        <v>138469</v>
       </c>
       <c r="O11" s="16">
-        <f>1000000/Compare!O11</f>
-        <v>30.998716653130558</v>
+        <f>'Teensy 3.2'!K17</f>
+        <v>32259.4</v>
       </c>
       <c r="P11" s="16">
-        <f>1000000/Compare!P11</f>
-        <v>584.45353594389246</v>
+        <f>'NXP K66'!K17</f>
+        <v>1711</v>
       </c>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.25">
@@ -8444,17 +10120,16 @@
       </c>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="C16" t="str">
-        <f>C4</f>
-        <v>FFT per sec</v>
+      <c r="C16" t="s">
+        <v>57</v>
       </c>
       <c r="H16" t="str">
         <f>C16</f>
-        <v>FFT per sec</v>
+        <v>usec per FFT</v>
       </c>
       <c r="M16" t="str">
         <f>C16</f>
-        <v>FFT per sec</v>
+        <v>usec per FFT</v>
       </c>
       <c r="O16" t="str">
         <f>'Teensy 3.2'!$C$2</f>
@@ -8462,7 +10137,7 @@
       </c>
       <c r="P16" t="str">
         <f>'NXP K66'!$C$2</f>
-        <v>NXP K66</v>
+        <v>FRDM-K66F</v>
       </c>
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.25">
@@ -8475,7 +10150,7 @@
       </c>
       <c r="D17" t="str">
         <f>'Arduino M0 Pro'!$C$2</f>
-        <v>Arduino M0 Pro</v>
+        <v>Arduino M0</v>
       </c>
       <c r="E17" t="str">
         <f>'Teensy 3.2'!$C$2</f>
@@ -8483,7 +10158,7 @@
       </c>
       <c r="F17" t="str">
         <f>'NXP K66'!$C$2</f>
-        <v>NXP K66</v>
+        <v>FRDM-K66F</v>
       </c>
       <c r="H17" t="str">
         <f>'Arduino Uno'!$C$2</f>
@@ -8491,7 +10166,7 @@
       </c>
       <c r="I17" t="str">
         <f>'Arduino M0 Pro'!$C$2</f>
-        <v>Arduino M0 Pro</v>
+        <v>Arduino M0</v>
       </c>
       <c r="J17" t="str">
         <f>'Teensy 3.2'!$C$2</f>
@@ -8499,7 +10174,7 @@
       </c>
       <c r="K17" t="str">
         <f>'NXP K66'!$C$2</f>
-        <v>NXP K66</v>
+        <v>FRDM-K66F</v>
       </c>
       <c r="M17" t="str">
         <f>'Arduino Uno'!$C$2</f>
@@ -8507,7 +10182,7 @@
       </c>
       <c r="N17" t="str">
         <f>'Arduino M0 Pro'!$C$2</f>
-        <v>Arduino M0 Pro</v>
+        <v>Arduino M0</v>
       </c>
       <c r="O17" t="str">
         <f>'Teensy 3.2'!$C$2</f>
@@ -8515,836 +10190,7 @@
       </c>
       <c r="P17" t="str">
         <f>'NXP K66'!$C$2</f>
-        <v>NXP K66</v>
-      </c>
-    </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B18">
-        <f>'Teensy 3.2'!B12</f>
-        <v>32</v>
-      </c>
-      <c r="C18" s="16" t="e">
-        <f>1000000/Compare!C18</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D18" s="16" t="e">
-        <f>1000000/Compare!D18</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E18" s="16">
-        <f>1000000/Compare!E18</f>
-        <v>30864.1975308642</v>
-      </c>
-      <c r="F18" s="16">
-        <f>1000000/Compare!F18</f>
-        <v>58823.529411764706</v>
-      </c>
-      <c r="H18" s="16" t="e">
-        <f>1000000/Compare!H18</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I18" s="16" t="e">
-        <f>1000000/Compare!I18</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J18" s="16">
-        <f>1000000/Compare!J18</f>
-        <v>16474.464579901152</v>
-      </c>
-      <c r="K18" s="16">
-        <f>1000000/Compare!K18</f>
-        <v>31250</v>
-      </c>
-      <c r="M18" s="16" t="e">
-        <f>1000000/Compare!M18</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N18" s="16" t="e">
-        <f>1000000/Compare!N18</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O18" s="16">
-        <f>1000000/Compare!O18</f>
-        <v>3542.3308537017356</v>
-      </c>
-      <c r="P18" s="16">
-        <f>1000000/Compare!P18</f>
-        <v>40000</v>
-      </c>
-    </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B19">
-        <f>'Teensy 3.2'!B13</f>
-        <v>64</v>
-      </c>
-      <c r="C19" s="16" t="e">
-        <f>1000000/Compare!C19</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D19" s="16" t="e">
-        <f>1000000/Compare!D19</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E19" s="16">
-        <f>1000000/Compare!E19</f>
-        <v>16528.92561983471</v>
-      </c>
-      <c r="F19" s="16">
-        <f>1000000/Compare!F19</f>
-        <v>33333.333333333336</v>
-      </c>
-      <c r="H19" s="16" t="e">
-        <f>1000000/Compare!H19</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I19" s="16" t="e">
-        <f>1000000/Compare!I19</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J19" s="16">
-        <f>1000000/Compare!J19</f>
-        <v>8577.8006519128503</v>
-      </c>
-      <c r="K19" s="16">
-        <f>1000000/Compare!K19</f>
-        <v>16666.666666666668</v>
-      </c>
-      <c r="M19" s="16" t="e">
-        <f>1000000/Compare!M19</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N19" s="16" t="e">
-        <f>1000000/Compare!N19</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O19" s="16">
-        <f>1000000/Compare!O19</f>
-        <v>1811.4629374682995</v>
-      </c>
-      <c r="P19" s="16">
-        <f>1000000/Compare!P19</f>
-        <v>21276.59574468085</v>
-      </c>
-    </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B20">
-        <f>'Teensy 3.2'!B14</f>
-        <v>128</v>
-      </c>
-      <c r="C20" s="16" t="e">
-        <f>1000000/Compare!C20</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D20" s="16" t="e">
-        <f>1000000/Compare!D20</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E20" s="16">
-        <f>1000000/Compare!E20</f>
-        <v>7156.1471303850003</v>
-      </c>
-      <c r="F20" s="16">
-        <f>1000000/Compare!F20</f>
-        <v>14285.714285714286</v>
-      </c>
-      <c r="H20" s="16" t="e">
-        <f>1000000/Compare!H20</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I20" s="16" t="e">
-        <f>1000000/Compare!I20</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J20" s="16">
-        <f>1000000/Compare!J20</f>
-        <v>3292.723081988805</v>
-      </c>
-      <c r="K20" s="16">
-        <f>1000000/Compare!K20</f>
-        <v>6211.1801242236024</v>
-      </c>
-      <c r="M20" s="16" t="e">
-        <f>1000000/Compare!M20</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N20" s="16" t="e">
-        <f>1000000/Compare!N20</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O20" s="16">
-        <f>1000000/Compare!O20</f>
-        <v>657.56595386517267</v>
-      </c>
-      <c r="P20" s="16">
-        <f>1000000/Compare!P20</f>
-        <v>9523.8095238095229</v>
-      </c>
-    </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B21">
-        <f>'Teensy 3.2'!B15</f>
-        <v>256</v>
-      </c>
-      <c r="C21" s="16" t="e">
-        <f>1000000/Compare!C21</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D21" s="16" t="e">
-        <f>1000000/Compare!D21</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E21" s="16">
-        <f>1000000/Compare!E21</f>
-        <v>3669.1861745064944</v>
-      </c>
-      <c r="F21" s="16">
-        <f>1000000/Compare!F21</f>
-        <v>7352.9411764705883</v>
-      </c>
-      <c r="H21" s="16" t="e">
-        <f>1000000/Compare!H21</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I21" s="16" t="e">
-        <f>1000000/Compare!I21</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J21" s="16">
-        <f>1000000/Compare!J21</f>
-        <v>1674.817444898506</v>
-      </c>
-      <c r="K21" s="16">
-        <f>1000000/Compare!K21</f>
-        <v>3154.5741324921137</v>
-      </c>
-      <c r="M21" s="16" t="e">
-        <f>1000000/Compare!M21</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N21" s="16" t="e">
-        <f>1000000/Compare!N21</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O21" s="16">
-        <f>1000000/Compare!O21</f>
-        <v>330.84975450948218</v>
-      </c>
-      <c r="P21" s="16">
-        <f>1000000/Compare!P21</f>
-        <v>4878.0487804878048</v>
-      </c>
-    </row>
-    <row r="22" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B22">
-        <f>'Teensy 3.2'!B16</f>
-        <v>512</v>
-      </c>
-      <c r="C22" s="16" t="e">
-        <f>1000000/Compare!C22</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D22" s="16" t="e">
-        <f>1000000/Compare!D22</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E22" s="16">
-        <f>1000000/Compare!E22</f>
-        <v>1574.6543633672411</v>
-      </c>
-      <c r="F22" s="16">
-        <f>1000000/Compare!F22</f>
-        <v>3225.8064516129034</v>
-      </c>
-      <c r="H22" s="16" t="e">
-        <f>1000000/Compare!H22</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I22" s="16" t="e">
-        <f>1000000/Compare!I22</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J22" s="16">
-        <f>1000000/Compare!J22</f>
-        <v>677.43334055928892</v>
-      </c>
-      <c r="K22" s="16">
-        <f>1000000/Compare!K22</f>
-        <v>1272.2646310432569</v>
-      </c>
-      <c r="M22" s="16" t="e">
-        <f>1000000/Compare!M22</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N22" s="16" t="e">
-        <f>1000000/Compare!N22</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O22" s="16">
-        <f>1000000/Compare!O22</f>
-        <v>129.6798205231284</v>
-      </c>
-      <c r="P22" s="16">
-        <f>1000000/Compare!P22</f>
-        <v>2123.1422505307855</v>
-      </c>
-    </row>
-    <row r="23" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B23">
-        <f>'Teensy 3.2'!B17</f>
-        <v>1024</v>
-      </c>
-      <c r="C23" s="16" t="e">
-        <f>1000000/Compare!C23</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D23" s="16" t="e">
-        <f>1000000/Compare!D23</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E23" s="16">
-        <f>1000000/Compare!E23</f>
-        <v>797.19387755102036</v>
-      </c>
-      <c r="F23" s="16">
-        <f>1000000/Compare!F23</f>
-        <v>1628.6644951140065</v>
-      </c>
-      <c r="H23" s="16" t="e">
-        <f>1000000/Compare!H23</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I23" s="16" t="e">
-        <f>1000000/Compare!I23</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J23" s="16">
-        <f>1000000/Compare!J23</f>
-        <v>342.43291739148299</v>
-      </c>
-      <c r="K23" s="16">
-        <f>1000000/Compare!K23</f>
-        <v>641.84852374839534</v>
-      </c>
-      <c r="M23" s="16" t="e">
-        <f>1000000/Compare!M23</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N23" s="16" t="e">
-        <f>1000000/Compare!N23</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O23" s="16">
-        <f>1000000/Compare!O23</f>
-        <v>65.006910234557935</v>
-      </c>
-      <c r="P23" s="16">
-        <f>1000000/Compare!P23</f>
-        <v>1077.5862068965516</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:P23"/>
-  <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="T19" sqref="T19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="3.85546875" customWidth="1"/>
-    <col min="3" max="6" width="10.85546875" customWidth="1"/>
-    <col min="7" max="7" width="3.5703125" customWidth="1"/>
-    <col min="8" max="11" width="10.140625" customWidth="1"/>
-    <col min="12" max="12" width="3.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="C2" t="str">
-        <f>'Arduino Uno'!$C$7</f>
-        <v>KissFFT</v>
-      </c>
-      <c r="H2" t="str">
-        <f>'Arduino Uno'!$C$7</f>
-        <v>KissFFT</v>
-      </c>
-      <c r="M2" t="str">
-        <f>'Arduino Uno'!$C$7</f>
-        <v>KissFFT</v>
-      </c>
-    </row>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="C3" t="str">
-        <f>'Arduino Uno'!$C$6</f>
-        <v>Int16</v>
-      </c>
-      <c r="H3" t="str">
-        <f>'Arduino Uno'!$G$6</f>
-        <v>Int32</v>
-      </c>
-      <c r="M3" t="str">
-        <f>'Arduino Uno'!$K$6</f>
-        <v>Float</v>
-      </c>
-    </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="C4" t="s">
-        <v>57</v>
-      </c>
-      <c r="H4" t="str">
-        <f>C4</f>
-        <v>usec per FFT</v>
-      </c>
-      <c r="M4" t="str">
-        <f>C4</f>
-        <v>usec per FFT</v>
-      </c>
-    </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" t="str">
-        <f>'Arduino Uno'!$C$2</f>
-        <v>Arduino Uno</v>
-      </c>
-      <c r="D5" t="str">
-        <f>'Arduino M0 Pro'!$C$2</f>
-        <v>Arduino M0 Pro</v>
-      </c>
-      <c r="E5" t="str">
-        <f>'Teensy 3.2'!$C$2</f>
-        <v>Teensy 3.2</v>
-      </c>
-      <c r="F5" t="str">
-        <f>'NXP K66'!$C$2</f>
-        <v>NXP K66</v>
-      </c>
-      <c r="H5" t="str">
-        <f>'Arduino Uno'!$C$2</f>
-        <v>Arduino Uno</v>
-      </c>
-      <c r="I5" t="str">
-        <f>'Arduino M0 Pro'!$C$2</f>
-        <v>Arduino M0 Pro</v>
-      </c>
-      <c r="J5" t="str">
-        <f>'Teensy 3.2'!$C$2</f>
-        <v>Teensy 3.2</v>
-      </c>
-      <c r="K5" t="str">
-        <f>'NXP K66'!$C$2</f>
-        <v>NXP K66</v>
-      </c>
-      <c r="M5" t="str">
-        <f>'Arduino Uno'!$C$2</f>
-        <v>Arduino Uno</v>
-      </c>
-      <c r="N5" t="str">
-        <f>'Arduino M0 Pro'!$C$2</f>
-        <v>Arduino M0 Pro</v>
-      </c>
-      <c r="O5" t="str">
-        <f>'Teensy 3.2'!$C$2</f>
-        <v>Teensy 3.2</v>
-      </c>
-      <c r="P5" t="str">
-        <f>'NXP K66'!$C$2</f>
-        <v>NXP K66</v>
-      </c>
-    </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B6">
-        <f>'Arduino Uno'!$B12</f>
-        <v>32</v>
-      </c>
-      <c r="C6" s="16">
-        <f>'Arduino Uno'!$C12</f>
-        <v>4980.8</v>
-      </c>
-      <c r="D6" s="16">
-        <f>'Arduino M0 Pro'!C12</f>
-        <v>319.8</v>
-      </c>
-      <c r="E6" s="16">
-        <f>'Teensy 3.2'!C12</f>
-        <v>103.4</v>
-      </c>
-      <c r="F6" s="16">
-        <f>'NXP K66'!C12</f>
-        <v>69</v>
-      </c>
-      <c r="H6" s="16">
-        <f>'Arduino Uno'!G12</f>
-        <v>12559.2</v>
-      </c>
-      <c r="I6" s="16">
-        <f>'Arduino M0 Pro'!G12</f>
-        <v>802</v>
-      </c>
-      <c r="J6" s="16">
-        <f>'Teensy 3.2'!G12</f>
-        <v>192.8</v>
-      </c>
-      <c r="K6" s="16">
-        <f>'NXP K66'!G12</f>
-        <v>102</v>
-      </c>
-      <c r="M6" s="16">
-        <f>'Arduino Uno'!K12</f>
-        <v>6378</v>
-      </c>
-      <c r="N6" s="16">
-        <f>'Arduino M0 Pro'!K12</f>
-        <v>2188</v>
-      </c>
-      <c r="O6" s="16">
-        <f>'Teensy 3.2'!K12</f>
-        <v>496.4</v>
-      </c>
-      <c r="P6" s="16">
-        <f>'NXP K66'!K12</f>
-        <v>47</v>
-      </c>
-    </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B7">
-        <f>'Arduino Uno'!$B13</f>
-        <v>64</v>
-      </c>
-      <c r="C7" s="16">
-        <f>'Arduino Uno'!$C13</f>
-        <v>10102.4</v>
-      </c>
-      <c r="D7" s="16">
-        <f>'Arduino M0 Pro'!C13</f>
-        <v>627.20000000000005</v>
-      </c>
-      <c r="E7" s="16">
-        <f>'Teensy 3.2'!C13</f>
-        <v>204.4</v>
-      </c>
-      <c r="F7" s="16">
-        <f>'NXP K66'!C13</f>
-        <v>136</v>
-      </c>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16">
-        <f>'Arduino M0 Pro'!G13</f>
-        <v>1674</v>
-      </c>
-      <c r="J7" s="16">
-        <f>'Teensy 3.2'!G13</f>
-        <v>383.6</v>
-      </c>
-      <c r="K7" s="16">
-        <f>'NXP K66'!G13</f>
-        <v>190</v>
-      </c>
-      <c r="M7" s="16"/>
-      <c r="N7" s="16">
-        <f>'Arduino M0 Pro'!K13</f>
-        <v>5035</v>
-      </c>
-      <c r="O7" s="16">
-        <f>'Teensy 3.2'!K13</f>
-        <v>1136</v>
-      </c>
-      <c r="P7" s="16">
-        <f>'NXP K66'!K13</f>
-        <v>79</v>
-      </c>
-    </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B8">
-        <f>'Arduino Uno'!$B14</f>
-        <v>128</v>
-      </c>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16">
-        <f>'Arduino M0 Pro'!C14</f>
-        <v>1565</v>
-      </c>
-      <c r="E8" s="16">
-        <f>'Teensy 3.2'!C14</f>
-        <v>520.4</v>
-      </c>
-      <c r="F8" s="16">
-        <f>'NXP K66'!C14</f>
-        <v>349</v>
-      </c>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16">
-        <f>'Arduino M0 Pro'!G14</f>
-        <v>4241</v>
-      </c>
-      <c r="J8" s="16">
-        <f>'Teensy 3.2'!G14</f>
-        <v>993.2</v>
-      </c>
-      <c r="K8" s="16">
-        <f>'NXP K66'!G14</f>
-        <v>512</v>
-      </c>
-      <c r="M8" s="16"/>
-      <c r="N8" s="16">
-        <f>'Arduino M0 Pro'!K14</f>
-        <v>12312</v>
-      </c>
-      <c r="O8" s="16">
-        <f>'Teensy 3.2'!K14</f>
-        <v>2849.8</v>
-      </c>
-      <c r="P8" s="16">
-        <f>'NXP K66'!K14</f>
-        <v>217</v>
-      </c>
-    </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B9">
-        <f>'Arduino Uno'!$B15</f>
-        <v>256</v>
-      </c>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16">
-        <f>'Arduino M0 Pro'!C15</f>
-        <v>3079</v>
-      </c>
-      <c r="E9" s="16">
-        <f>'Teensy 3.2'!C15</f>
-        <v>1030.4000000000001</v>
-      </c>
-      <c r="F9" s="16">
-        <f>'NXP K66'!C15</f>
-        <v>686</v>
-      </c>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16">
-        <f>'Arduino M0 Pro'!G15</f>
-        <v>8763</v>
-      </c>
-      <c r="J9" s="16">
-        <f>'Teensy 3.2'!G15</f>
-        <v>1976</v>
-      </c>
-      <c r="K9" s="16">
-        <f>'NXP K66'!G15</f>
-        <v>970</v>
-      </c>
-      <c r="M9" s="16"/>
-      <c r="N9" s="16">
-        <f>'Arduino M0 Pro'!K15</f>
-        <v>27349</v>
-      </c>
-      <c r="O9" s="16">
-        <f>'Teensy 3.2'!K15</f>
-        <v>6295.8</v>
-      </c>
-      <c r="P9" s="16">
-        <f>'NXP K66'!K15</f>
-        <v>371</v>
-      </c>
-    </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B10">
-        <f>'Arduino Uno'!$B16</f>
-        <v>512</v>
-      </c>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16">
-        <f>'Arduino M0 Pro'!C16</f>
-        <v>7403</v>
-      </c>
-      <c r="E10" s="16">
-        <f>'Teensy 3.2'!C16</f>
-        <v>2508</v>
-      </c>
-      <c r="F10" s="16">
-        <f>'NXP K66'!C16</f>
-        <v>1683</v>
-      </c>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16">
-        <f>'Arduino M0 Pro'!G16</f>
-        <v>21103</v>
-      </c>
-      <c r="J10" s="16">
-        <f>'Teensy 3.2'!G16</f>
-        <v>4858</v>
-      </c>
-      <c r="K10" s="16">
-        <f>'NXP K66'!G16</f>
-        <v>2461</v>
-      </c>
-      <c r="M10" s="16"/>
-      <c r="N10" s="16">
-        <f>'Arduino M0 Pro'!K16</f>
-        <v>63732</v>
-      </c>
-      <c r="O10" s="16">
-        <f>'Teensy 3.2'!K16</f>
-        <v>14922</v>
-      </c>
-      <c r="P10" s="16">
-        <f>'NXP K66'!K16</f>
-        <v>981</v>
-      </c>
-    </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B11">
-        <f>'Arduino Uno'!$B17</f>
-        <v>1024</v>
-      </c>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16">
-        <f>'Arduino M0 Pro'!C17</f>
-        <v>14605.4</v>
-      </c>
-      <c r="E11" s="16">
-        <f>'Teensy 3.2'!C17</f>
-        <v>4975</v>
-      </c>
-      <c r="F11" s="16">
-        <f>'NXP K66'!C17</f>
-        <v>3316</v>
-      </c>
-      <c r="H11" s="16"/>
-      <c r="I11" s="16">
-        <f>'Arduino M0 Pro'!G17</f>
-        <v>43329</v>
-      </c>
-      <c r="J11" s="16">
-        <f>'Teensy 3.2'!G17</f>
-        <v>9679</v>
-      </c>
-      <c r="K11" s="16">
-        <f>'NXP K66'!G17</f>
-        <v>4708</v>
-      </c>
-      <c r="M11" s="16"/>
-      <c r="N11" s="16">
-        <f>'Arduino M0 Pro'!K17</f>
-        <v>138469</v>
-      </c>
-      <c r="O11" s="16">
-        <f>'Teensy 3.2'!K17</f>
-        <v>32259.4</v>
-      </c>
-      <c r="P11" s="16">
-        <f>'NXP K66'!K17</f>
-        <v>1711</v>
-      </c>
-    </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="C14" t="str">
-        <f>'Teensy 3.2'!$E$7</f>
-        <v>CMSIS FFT</v>
-      </c>
-      <c r="E14" t="str">
-        <f>'Teensy 3.2'!E8</f>
-        <v>Radix4</v>
-      </c>
-      <c r="H14" t="str">
-        <f>'Teensy 3.2'!$E$7</f>
-        <v>CMSIS FFT</v>
-      </c>
-      <c r="M14" t="str">
-        <f>'Teensy 3.2'!$E$7</f>
-        <v>CMSIS FFT</v>
-      </c>
-    </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="C15" t="str">
-        <f>'Arduino Uno'!$C$6</f>
-        <v>Int16</v>
-      </c>
-      <c r="H15" t="str">
-        <f>'Teensy 3.2'!$H$6</f>
-        <v>Int32</v>
-      </c>
-      <c r="M15" t="str">
-        <f>'Teensy 3.2'!$K$6</f>
-        <v>Float</v>
-      </c>
-    </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="C16" t="s">
-        <v>57</v>
-      </c>
-      <c r="H16" t="str">
-        <f>C16</f>
-        <v>usec per FFT</v>
-      </c>
-      <c r="M16" t="str">
-        <f>C16</f>
-        <v>usec per FFT</v>
-      </c>
-      <c r="O16" t="str">
-        <f>'Teensy 3.2'!$C$2</f>
-        <v>Teensy 3.2</v>
-      </c>
-      <c r="P16" t="str">
-        <f>'NXP K66'!$C$2</f>
-        <v>NXP K66</v>
-      </c>
-    </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>0</v>
-      </c>
-      <c r="C17" t="str">
-        <f>'Arduino Uno'!$C$2</f>
-        <v>Arduino Uno</v>
-      </c>
-      <c r="D17" t="str">
-        <f>'Arduino M0 Pro'!$C$2</f>
-        <v>Arduino M0 Pro</v>
-      </c>
-      <c r="E17" t="str">
-        <f>'Teensy 3.2'!$C$2</f>
-        <v>Teensy 3.2</v>
-      </c>
-      <c r="F17" t="str">
-        <f>'NXP K66'!$C$2</f>
-        <v>NXP K66</v>
-      </c>
-      <c r="H17" t="str">
-        <f>'Arduino Uno'!$C$2</f>
-        <v>Arduino Uno</v>
-      </c>
-      <c r="I17" t="str">
-        <f>'Arduino M0 Pro'!$C$2</f>
-        <v>Arduino M0 Pro</v>
-      </c>
-      <c r="J17" t="str">
-        <f>'Teensy 3.2'!$C$2</f>
-        <v>Teensy 3.2</v>
-      </c>
-      <c r="K17" t="str">
-        <f>'NXP K66'!$C$2</f>
-        <v>NXP K66</v>
-      </c>
-      <c r="M17" t="str">
-        <f>'Arduino Uno'!$C$2</f>
-        <v>Arduino Uno</v>
-      </c>
-      <c r="N17" t="str">
-        <f>'Arduino M0 Pro'!$C$2</f>
-        <v>Arduino M0 Pro</v>
-      </c>
-      <c r="O17" t="str">
-        <f>'Teensy 3.2'!$C$2</f>
-        <v>Teensy 3.2</v>
-      </c>
-      <c r="P17" t="str">
-        <f>'NXP K66'!$C$2</f>
-        <v>NXP K66</v>
+        <v>FRDM-K66F</v>
       </c>
     </row>
     <row r="18" spans="2:16" x14ac:dyDescent="0.25">
@@ -12673,14 +13519,14 @@
   <dimension ref="B2:M17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K10" sqref="K10:K17"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
-        <v>36</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.25">

--- a/Arduino/Audio Processing Benchmarking/FFT Speed Results.xlsx
+++ b/Arduino/Audio Processing Benchmarking/FFT Speed Results.xlsx
@@ -22,7 +22,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">AllData!$B$4:$G$128</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="145621" calcOnSave="0"/>
   <pivotCaches>
     <pivotCache cacheId="0" r:id="rId12"/>
   </pivotCaches>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="94">
   <si>
     <t>N</t>
   </si>
@@ -254,16 +254,64 @@
     <t>Arduino M0</t>
   </si>
   <si>
-    <t>Teensy CMSIS</t>
-  </si>
-  <si>
-    <t>K66 CMSIS</t>
-  </si>
-  <si>
     <t>FFTs Per second</t>
   </si>
   <si>
     <t>Max Sample Rate for 250 Hz resolution</t>
+  </si>
+  <si>
+    <t>Fit Power Law</t>
+  </si>
+  <si>
+    <t>usec/FFT/NLogN</t>
+  </si>
+  <si>
+    <t>Ave Last 3</t>
+  </si>
+  <si>
+    <t>Ave Last 4</t>
+  </si>
+  <si>
+    <t>FFT NlogN Coefficient</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>Desired Resolution</t>
+  </si>
+  <si>
+    <t>Hz</t>
+  </si>
+  <si>
+    <t>fs</t>
+  </si>
+  <si>
+    <t>fr =</t>
+  </si>
+  <si>
+    <t>fs*log(fs/fr)</t>
+  </si>
+  <si>
+    <t>Sample Rate to get desired resolution FFT-IFFT, 50% Overlap</t>
+  </si>
+  <si>
+    <t>N FFT Per Data Block</t>
+  </si>
+  <si>
+    <t>= [FFT-IFFT = 2] * [1/50% overlap]</t>
+  </si>
+  <si>
+    <t>Intermediate Value:</t>
+  </si>
+  <si>
+    <t>Sample Rate:</t>
+  </si>
+  <si>
+    <t>Teensy 3.2 CMSIS</t>
+  </si>
+  <si>
+    <t>FRDM-K66F CMSIS</t>
   </si>
 </sst>
 </file>
@@ -351,7 +399,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -359,12 +407,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -387,6 +444,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -744,11 +808,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="44747392"/>
-        <c:axId val="44749568"/>
+        <c:axId val="178447488"/>
+        <c:axId val="178449408"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="44747392"/>
+        <c:axId val="178447488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -777,7 +841,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="44749568"/>
+        <c:crossAx val="178449408"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -785,7 +849,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="44749568"/>
+        <c:axId val="178449408"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -817,7 +881,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="44747392"/>
+        <c:crossAx val="178447488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -839,1609 +903,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1600"/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" sz="1600"/>
-              <a:t>FFT Calculation Speed</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" sz="1600" baseline="0"/>
-              <a:t> </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" sz="1600"/>
-              <a:t>(KissFFT, Int32)</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Compare (2)'!$H$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Arduino Uno</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:numRef>
-              <c:f>'Compare (2)'!$B$6:$B$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>128</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>256</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>512</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1024</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Compare (2)'!$H$6:$H$11</c:f>
-              <c:numCache>
-                <c:formatCode>0</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>79.622905917574357</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Compare (2)'!$I$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Arduino M0</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:numRef>
-              <c:f>'Compare (2)'!$B$6:$B$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>128</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>256</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>512</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1024</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Compare (2)'!$I$6:$I$11</c:f>
-              <c:numCache>
-                <c:formatCode>0</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>1246.8827930174564</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>597.37156511350065</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>235.79344494223059</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>114.11617026132603</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>47.386627493721271</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>23.079231000023078</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Compare (2)'!$J$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Teensy 3.2</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:numRef>
-              <c:f>'Compare (2)'!$B$6:$B$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>128</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>256</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>512</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1024</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Compare (2)'!$J$6:$J$11</c:f>
-              <c:numCache>
-                <c:formatCode>0</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>5186.7219917012444</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2606.8821689259644</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1006.8465565847764</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>506.07287449392715</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>205.84602717167559</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>103.31645831180907</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Compare (2)'!$K$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>FRDM-K66F</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:numRef>
-              <c:f>'Compare (2)'!$B$6:$B$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>128</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>256</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>512</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1024</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Compare (2)'!$K$6:$K$11</c:f>
-              <c:numCache>
-                <c:formatCode>0</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>9803.9215686274511</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5263.1578947368425</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1953.125</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1030.9278350515465</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>406.33888663145063</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>212.40441801189465</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="99126656"/>
-        <c:axId val="99137024"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="99126656"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>FFT Size (Points)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="99137024"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="99137024"/>
-        <c:scaling>
-          <c:logBase val="10"/>
-          <c:orientation val="minMax"/>
-          <c:max val="100000"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" vert="horz"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>FFTs Per Second</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="0" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="99126656"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1600"/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" sz="1600"/>
-              <a:t>FFT Performance</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1600"/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" sz="1100"/>
-              <a:t>(Bigger</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" sz="1100" baseline="0"/>
-              <a:t> is Better)</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" sz="1100"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Compare (2)'!$S$6</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Int16</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Compare (2)'!$U$5:$Y$5</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>Arduino M0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Teensy 3.2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>FRDM-K66F</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Teensy CMSIS</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>K66 CMSIS</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Compare (2)'!$U$6:$Y$6</c:f>
-              <c:numCache>
-                <c:formatCode>0</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>638.9776357827476</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1921.5987701767872</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2865.3295128939826</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>7156.1471303850003</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>14285.714285714286</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Compare (2)'!$S$7</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Int32</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Compare (2)'!$U$5:$Y$5</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>Arduino M0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Teensy 3.2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>FRDM-K66F</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Teensy CMSIS</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>K66 CMSIS</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Compare (2)'!$U$7:$Y$7</c:f>
-              <c:numCache>
-                <c:formatCode>0</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>235.79344494223059</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1006.8465565847764</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1953.125</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3292.723081988805</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6211.1801242236024</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Compare (2)'!$S$8</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Float</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="tx2">
-                <a:lumMod val="60000"/>
-                <a:lumOff val="40000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Compare (2)'!$U$5:$Y$5</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>Arduino M0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Teensy 3.2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>FRDM-K66F</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Teensy CMSIS</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>K66 CMSIS</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Compare (2)'!$U$8:$Y$8</c:f>
-              <c:numCache>
-                <c:formatCode>0</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>81.221572449642622</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>350.90181767141553</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4608.294930875576</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>657.56595386517267</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>9523.8095238095229</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:axId val="99167616"/>
-        <c:axId val="99169408"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="99167616"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="99169408"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="99169408"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" vert="horz"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>128-pt FFTs per Second</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="#,##0" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="99167616"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>FFT Calculation Time (KissFFT, Float32)</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Compare!$M$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Arduino Uno</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:numRef>
-              <c:f>Compare!$B$6:$B$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>128</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>256</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>512</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1024</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Compare!$M$6:$M$11</c:f>
-              <c:numCache>
-                <c:formatCode>0</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>6378</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Compare!$N$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Arduino M0</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:numRef>
-              <c:f>Compare!$B$6:$B$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>128</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>256</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>512</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1024</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Compare!$N$6:$N$11</c:f>
-              <c:numCache>
-                <c:formatCode>0</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>2188</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5035</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>12312</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>27349</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>63732</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>138469</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Compare!$O$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Teensy 3.2</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:numRef>
-              <c:f>Compare!$B$6:$B$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>128</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>256</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>512</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1024</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Compare!$O$6:$O$11</c:f>
-              <c:numCache>
-                <c:formatCode>0</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>496.4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1136</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2849.8</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6295.8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>14922</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>32259.4</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Compare!$P$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>FRDM-K66F</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:numRef>
-              <c:f>Compare!$B$6:$B$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>128</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>256</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>512</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1024</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Compare!$P$6:$P$11</c:f>
-              <c:numCache>
-                <c:formatCode>0</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>79</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>217</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>371</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>981</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1711</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="142418304"/>
-        <c:axId val="142420224"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="142418304"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>FFT Size (Points)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="142420224"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="142420224"/>
-        <c:scaling>
-          <c:logBase val="10"/>
-          <c:orientation val="minMax"/>
-          <c:max val="1000000"/>
-          <c:min val="10"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" vert="horz"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Time Per FFT (usec)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="0" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="142418304"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>FFT Calculation Time (KissFFT, Int32)</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Compare!$H$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Arduino Uno</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:numRef>
-              <c:f>Compare!$B$6:$B$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>128</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>256</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>512</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1024</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Compare!$H$6:$H$11</c:f>
-              <c:numCache>
-                <c:formatCode>0</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>12559.2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Compare!$I$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Arduino M0</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:numRef>
-              <c:f>Compare!$B$6:$B$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>128</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>256</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>512</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1024</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Compare!$I$6:$I$11</c:f>
-              <c:numCache>
-                <c:formatCode>0</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>802</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1674</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4241</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8763</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>21103</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>43329</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Compare!$J$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Teensy 3.2</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:numRef>
-              <c:f>Compare!$B$6:$B$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>128</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>256</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>512</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1024</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Compare!$J$6:$J$11</c:f>
-              <c:numCache>
-                <c:formatCode>0</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>192.8</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>383.6</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>993.2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1976</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4858</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>9679</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Compare!$K$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>FRDM-K66F</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:numRef>
-              <c:f>Compare!$B$6:$B$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>128</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>256</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>512</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1024</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Compare!$K$6:$K$11</c:f>
-              <c:numCache>
-                <c:formatCode>0</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>102</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>190</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>512</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>970</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2461</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4708</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="142472320"/>
-        <c:axId val="142474240"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="142472320"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>FFT Size (Points)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="142474240"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="142474240"/>
-        <c:scaling>
-          <c:logBase val="10"/>
-          <c:orientation val="minMax"/>
-          <c:max val="1000000"/>
-          <c:min val="10"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" vert="horz"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Time Per FFT (usec)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="0" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="142472320"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2683,11 +1145,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="146554240"/>
-        <c:axId val="146568320"/>
+        <c:axId val="180400512"/>
+        <c:axId val="180402048"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="146554240"/>
+        <c:axId val="180400512"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -2698,12 +1160,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="146568320"/>
+        <c:crossAx val="180402048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="146568320"/>
+        <c:axId val="180402048"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -2715,7 +1177,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="146554240"/>
+        <c:crossAx val="180400512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2737,7 +1199,2065 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600"/>
+              <a:t>FFT Coefficient, NAÏVE FFT, Int16</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Compare!$W$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Arduino M0</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Compare!$U$6:$U$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1024</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Compare!$W$6:$W$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>6.6397037796561156</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.4258158883160261</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.8022516389494667</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.9942463887491151</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.3368562687610988</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.7380945895574103</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Compare!$X$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Teensy 3.2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Compare!$U$6:$U$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1024</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Compare!$X$6:$X$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2.146796031320958</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.7682346421744191</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.9293877015394902</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.6713450727402044</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.8080285724777572</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.6139250265688112</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Compare!$Y$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FRDM-K66F</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Compare!$U$6:$U$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1024</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Compare!$Y$6:$Y$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.4325814909201748</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1765162002726075</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.2939206530309035</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.1127161489710597</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.2132823315311265</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0757337463521965</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="49690880"/>
+        <c:axId val="50978176"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="49690880"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>FFT Size (Points)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50978176"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="50978176"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>(usec/FFT) / (N*logN)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="49690880"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600"/>
+              <a:t>FFT Coefficient, NAÏVE FFT, Int32</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Compare!$W$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Arduino M0</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Compare!$U$6:$U$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1024</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Compare!$AB$6:$AB$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>16.651164575622904</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14.481530288649596</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15.723545815197884</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14.213894480223612</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15.213248391147571</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14.056232658532668</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Compare!$X$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Teensy 3.2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Compare!$U$6:$U$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1024</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Compare!$AC$6:$AC$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>4.0029233543392717</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.3184677531218552</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.6822979730380898</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.2051415603014783</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.5021542285075533</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.1399357451576932</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Compare!$Y$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FRDM-K66F</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Compare!$U$6:$U$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1024</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Compare!$AD$6:$AD$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2.1177291604906934</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.6436623386161429</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.8982446256499215</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5733741465042683</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.7741460593571612</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.5273083467509474</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="46924928"/>
+        <c:axId val="46926848"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="46924928"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>FFT Size (Points)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="46926848"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="46926848"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>(usec/FFT) / (N*logN)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="46924928"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600"/>
+              <a:t>FFT Coefficient, NAÏVE FFT, Float</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Compare!$W$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Arduino M0</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Compare!$U$6:$U$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1024</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Compare!$AG$6:$AG$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>45.427366697584681</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43.557051973327788</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45.646851232425455</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44.361040755407458</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45.944687791528075</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44.920318493257632</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Compare!$X$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Teensy 3.2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Compare!$U$6:$U$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1024</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Compare!$AH$6:$AH$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>10.306281914388041</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.8273706140417811</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.565659246439738</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.212009228413992</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10.757337463521965</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10.465176482832947</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Compare!$Y$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FRDM-K66F</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Compare!$U$6:$U$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1024</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Compare!$AI$6:$AI$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.97581637787316267</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.68341749868776469</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.80452946048053309</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.60177506015781812</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.70720734832562981</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.55506044632346452</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="72138112"/>
+        <c:axId val="72161920"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="72138112"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>FFT Size (Points)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="72161920"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="72161920"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>(usec/FFT) / (N*logN)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="72138112"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600"/>
+              <a:t>FFT Coefficient, CMSIS, Int16</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Compare!$W$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Arduino M0</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Compare!$U$6:$U$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1024</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Compare!$W$18:$W$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Compare!$X$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Teensy 3.2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Compare!$U$6:$U$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1024</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Compare!$X$18:$X$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.67269043921469085</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.52337669203303494</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.51808731247718753</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.44206947411162195</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.45781763366735417</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.40693619162370187</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Compare!$Y$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FRDM-K66F</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Compare!$U$6:$U$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1024</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Compare!$Y$18:$Y$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.35295486008178223</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.25952563241307519</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.25952563241307519</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.22059678755111389</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.22348040568903696</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.19918592287703518</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="49477120"/>
+        <c:axId val="51214592"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="49477120"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>FFT Size (Points)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="51214592"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="51214592"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>(usec/FFT) / (N*logN)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="49477120"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600"/>
+              <a:t>FFT Coefficient, CMSIS, Int32</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Compare!$W$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Arduino M0</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Compare!$U$6:$U$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1024</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Compare!$W$18:$W$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Compare!$X$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Teensy 3.2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Compare!$U$6:$U$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1024</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Compare!$AC$18:$AC$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.2602564709978932</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0085166075572103</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.1259704937692989</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.96848477875749339</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0641704376191252</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.94735939227906907</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Compare!$Y$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FRDM-K66F</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Compare!$U$6:$U$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1024</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Compare!$AD$18:$AD$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.66438561897747239</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.51905126482615038</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.59690895455007298</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.51418515921840524</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.56663096410188085</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.50542616912446392</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="178876800"/>
+        <c:axId val="178878720"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="178876800"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>FFT Size (Points)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="178878720"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="178878720"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>(usec/FFT) / (N*logN)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="178876800"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600"/>
+              <a:t>FFT Coefficient, CMSIS, Float</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Compare!$W$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Arduino M0</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Compare!$U$6:$U$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1024</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Compare!$W$18:$W$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Compare!$X$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Teensy 3.2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Compare!$U$6:$U$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1024</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Compare!$AH$18:$AH$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>5.8611268824168903</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.7756176705771338</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.6382314392644028</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.9026338405073</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.5591111367415182</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.9903470161221088</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Compare!$Y$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FRDM-K66F</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Compare!$U$6:$U$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1024</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Compare!$AI$18:$AI$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.51905126482615038</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.40659015744715116</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.38928844861961276</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.33251721652925259</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.33954603574044001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.3010497335991672</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="187914496"/>
+        <c:axId val="187920768"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="187914496"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>FFT Size (Points)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="187920768"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="187920768"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>(usec/FFT) / (N*logN)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="187914496"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2996,11 +3516,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="146782464"/>
-        <c:axId val="146792448"/>
+        <c:axId val="183025024"/>
+        <c:axId val="183030912"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="146782464"/>
+        <c:axId val="183025024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3009,7 +3529,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="146792448"/>
+        <c:crossAx val="183030912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3017,7 +3537,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="146792448"/>
+        <c:axId val="183030912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3040,19 +3560,21 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="146782464"/>
+        <c:crossAx val="183025024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3078,7 +3600,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3270,11 +3792,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="45930752"/>
-        <c:axId val="45936640"/>
+        <c:axId val="185142656"/>
+        <c:axId val="45155456"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="45930752"/>
+        <c:axId val="185142656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3283,7 +3805,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="45936640"/>
+        <c:crossAx val="45155456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3291,7 +3813,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="45936640"/>
+        <c:axId val="45155456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3302,7 +3824,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="45930752"/>
+        <c:crossAx val="185142656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3331,6 +3853,2682 @@
       </c14:pivotOptions>
     </c:ext>
   </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600"/>
+              <a:t>FFT Calculation Speed</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600"/>
+              <a:t>(KissFFT, Int32)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Compare (2)'!$H$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Arduino Uno</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Compare (2)'!$B$6:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1024</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Compare (2)'!$H$6:$H$11</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>79.622905917574357</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Compare (2)'!$I$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Arduino M0</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Compare (2)'!$B$6:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1024</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Compare (2)'!$I$6:$I$11</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1246.8827930174564</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>597.37156511350065</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>235.79344494223059</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>114.11617026132603</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>47.386627493721271</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>23.079231000023078</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Compare (2)'!$J$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Teensy 3.2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Compare (2)'!$B$6:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1024</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Compare (2)'!$J$6:$J$11</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>5186.7219917012444</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2606.8821689259644</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1006.8465565847764</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>506.07287449392715</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>205.84602717167559</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>103.31645831180907</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Compare (2)'!$K$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FRDM-K66F</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Compare (2)'!$B$6:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1024</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Compare (2)'!$K$6:$K$11</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>9803.9215686274511</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5263.1578947368425</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1953.125</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1030.9278350515465</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>406.33888663145063</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>212.40441801189465</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="49189632"/>
+        <c:axId val="49191552"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="49189632"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>FFT Size (Points)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="49191552"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="49191552"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:max val="100000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>FFTs Per Second</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="49189632"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600"/>
+              <a:t>FFT Performance</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100"/>
+              <a:t>(Bigger</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" baseline="0"/>
+              <a:t> is Better)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Compare (2)'!$S$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>c</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Compare (2)'!$U$5:$Y$5</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Arduino M0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Teensy 3.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>FRDM-K66F</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Teensy 3.2 CMSIS</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>FRDM-K66F CMSIS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Compare (2)'!$U$6:$Y$6</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>638.9776357827476</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1921.5987701767872</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2865.3295128939826</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7156.1471303850003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14285.714285714286</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Compare (2)'!$S$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Int32</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Compare (2)'!$U$5:$Y$5</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Arduino M0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Teensy 3.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>FRDM-K66F</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Teensy 3.2 CMSIS</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>FRDM-K66F CMSIS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Compare (2)'!$U$7:$Y$7</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>235.79344494223059</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1006.8465565847764</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1953.125</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3292.723081988805</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6211.1801242236024</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Compare (2)'!$S$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Float</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Compare (2)'!$U$5:$Y$5</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Arduino M0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Teensy 3.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>FRDM-K66F</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Teensy 3.2 CMSIS</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>FRDM-K66F CMSIS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Compare (2)'!$U$8:$Y$8</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>81.221572449642622</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>350.90181767141553</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4608.294930875576</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>657.56595386517267</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9523.8095238095229</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="49201920"/>
+        <c:axId val="49203456"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="49201920"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="49203456"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="49203456"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>128-pt FFTs per Second</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="#,##0" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="49201920"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600"/>
+              <a:t>FFT Performance</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100"/>
+              <a:t>(Bigger</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" baseline="0"/>
+              <a:t> is Better)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Compare (2)'!$S$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>c</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Compare (2)'!$U$5:$Y$5</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Arduino M0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Teensy 3.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>FRDM-K66F</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Teensy 3.2 CMSIS</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>FRDM-K66F CMSIS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Compare (2)'!$U$6:$Y$6</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>638.9776357827476</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1921.5987701767872</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2865.3295128939826</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7156.1471303850003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14285.714285714286</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Compare (2)'!$S$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Int32</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Compare (2)'!$U$5:$Y$5</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Arduino M0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Teensy 3.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>FRDM-K66F</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Teensy 3.2 CMSIS</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>FRDM-K66F CMSIS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Compare (2)'!$U$7:$Y$7</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>235.79344494223059</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1006.8465565847764</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1953.125</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3292.723081988805</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6211.1801242236024</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Compare (2)'!$S$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Float</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Compare (2)'!$U$5:$Y$5</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Arduino M0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Teensy 3.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>FRDM-K66F</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Teensy 3.2 CMSIS</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>FRDM-K66F CMSIS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Compare (2)'!$U$8:$Y$8</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>81.221572449642622</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>350.90181767141553</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4608.294930875576</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>657.56595386517267</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9523.8095238095229</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="97603584"/>
+        <c:axId val="97605120"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="97603584"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="97605120"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="97605120"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>128-pt FFTs per Second</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="#,##0" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="97603584"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Compare (2)'!$AA$26:$AA$34</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1250</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3125</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7812.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>19531.25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>48828.125</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>122070.3125</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>305175.78125</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>762939.453125</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Compare (2)'!$AB$26:$AB$34</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>150.5149978319906</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>873.7125054200236</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3427.8437906501763</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11678.515794375735</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>36968.555280315071</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>111852.05268672701</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>328206.79293166584</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>941958.63536628557</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2658500.7210085159</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="189636608"/>
+        <c:axId val="189630720"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="189636608"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="189630720"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="189630720"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="189636608"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600"/>
+              <a:t>Frequency</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600" baseline="0"/>
+              <a:t> Domain Processing Speed</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" baseline="0"/>
+              <a:t>(</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100"/>
+              <a:t>FFT+IFFT, 50% Overlap, Bigger is Better)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Compare (2)'!$S$33</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Int32</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Compare (2)'!$T$31:$Y$31</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Arduino Uno</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Arduino M0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Teensy 3.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>FRDM-K66F</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Teensy 3.2 CMSIS</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>FRDM-K66F CMSIS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Compare (2)'!$T$33:$Y$33</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>839.08300129390091</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7874.8737069063536</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27762.195973743223</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50086.091921602689</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>78442.636374410184</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>135646.77294750587</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Compare (2)'!$S$34</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Float</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Compare (2)'!$T$31:$Y$31</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Arduino Uno</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Arduino M0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Teensy 3.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>FRDM-K66F</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Teensy 3.2 CMSIS</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>FRDM-K66F CMSIS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Compare (2)'!$T$34:$Y$34</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1366.978582130911</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3162.1215377362619</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10582.009816073696</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>113426.84279157802</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18792.115091821412</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>207460.15137108372</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="97650176"/>
+        <c:axId val="97651712"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="97650176"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="97651712"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="97651712"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:min val="100"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>FFTs per Second for 250 Hz Resolution</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="2.4729516852743841E-2"/>
+              <c:y val="0.23231556453438088"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="97650176"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600"/>
+              <a:t>Frequency</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600" baseline="0"/>
+              <a:t> Domain Processing Speed</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" baseline="0"/>
+              <a:t>(Naive </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100"/>
+              <a:t>FFT+IFFT, 50% Overlap, Bigger is Better)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Compare (2)'!$S$33</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Int32</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Compare (2)'!$T$31:$W$31</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Arduino Uno</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Arduino M0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Teensy 3.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>FRDM-K66F</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Compare (2)'!$T$33:$W$33</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>839.08300129390091</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7874.8737069063536</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27762.195973743223</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50086.091921602689</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Compare (2)'!$S$34</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Float</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Compare (2)'!$T$31:$W$31</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Arduino Uno</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Arduino M0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Teensy 3.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>FRDM-K66F</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Compare (2)'!$T$34:$W$34</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1366.978582130911</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3162.1215377362619</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10582.009816073696</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>113426.84279157802</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="193359232"/>
+        <c:axId val="201122944"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="193359232"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="201122944"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="201122944"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Max Sample Rate (Hz)</a:t>
+                </a:r>
+              </a:p>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Keeping 250Hz Resolution</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="2.0607930710619869E-2"/>
+              <c:y val="0.30559799553637551"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="193359232"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>FFT Calculation Time (KissFFT, Float32)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Compare!$M$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Arduino Uno</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Compare!$B$6:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1024</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Compare!$M$6:$M$11</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>6378</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Compare!$N$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Arduino M0</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Compare!$B$6:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1024</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Compare!$N$6:$N$11</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2188</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5035</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12312</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>27349</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>63732</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>138469</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Compare!$O$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Teensy 3.2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Compare!$B$6:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1024</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Compare!$O$6:$O$11</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>496.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1136</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2849.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6295.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14922</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32259.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Compare!$P$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FRDM-K66F</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Compare!$B$6:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1024</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Compare!$P$6:$P$11</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>217</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>371</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>981</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1711</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="178398336"/>
+        <c:axId val="178400256"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="178398336"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>FFT Size (Points)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="178400256"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="178400256"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:max val="1000000"/>
+          <c:min val="10"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time Per FFT (usec)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="178398336"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>FFT Calculation Time (KissFFT, Int32)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Compare!$H$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Arduino Uno</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Compare!$B$6:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1024</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Compare!$H$6:$H$11</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>12559.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Compare!$I$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Arduino M0</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Compare!$B$6:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1024</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Compare!$I$6:$I$11</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>802</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1674</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4241</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8763</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>21103</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43329</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Compare!$J$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Teensy 3.2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Compare!$B$6:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1024</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Compare!$J$6:$J$11</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>192.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>383.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>993.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1976</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4858</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9679</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Compare!$K$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FRDM-K66F</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Compare!$B$6:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1024</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Compare!$K$6:$K$11</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>970</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2461</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4708</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="178465024"/>
+        <c:axId val="178467200"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="178465024"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>FFT Size (Points)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="178467200"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="178467200"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:max val="1000000"/>
+          <c:min val="10"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time Per FFT (usec)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="178465024"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
@@ -3402,16 +6600,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>14287</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>33336</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>90487</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3425,6 +6623,130 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>138113</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>100012</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>176212</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>266698</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>333374</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Chart 9"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="Chart 10"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3499,16 +6821,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>23812</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>100012</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3522,6 +6844,196 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>147637</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Chart 8"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Chart 9"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="Chart 10"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="12" name="Chart 11"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="13" name="Chart 12"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -8709,10 +12221,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:Y23"/>
+  <dimension ref="B2:AB36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L13" workbookViewId="0">
-      <selection activeCell="X40" sqref="X40"/>
+    <sheetView tabSelected="1" topLeftCell="E36" workbookViewId="0">
+      <selection activeCell="AD63" sqref="AD63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8753,7 +12265,7 @@
         <v>Float</v>
       </c>
       <c r="S3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="2:25" x14ac:dyDescent="0.25">
@@ -8845,10 +12357,10 @@
         <v>FRDM-K66F</v>
       </c>
       <c r="X5" t="s">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="Y5" t="s">
-        <v>75</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="2:25" x14ac:dyDescent="0.25">
@@ -8905,7 +12417,7 @@
         <v>21276.59574468085</v>
       </c>
       <c r="S6" t="s">
-        <v>31</v>
+        <v>81</v>
       </c>
       <c r="T6">
         <f>0</f>
@@ -9200,7 +12712,7 @@
         <v>1019.3679918450561</v>
       </c>
       <c r="S10" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="2:25" x14ac:dyDescent="0.25">
@@ -9257,6 +12769,11 @@
         <v>584.45353594389246</v>
       </c>
     </row>
+    <row r="13" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="S13" t="s">
+        <v>80</v>
+      </c>
+    </row>
     <row r="14" spans="2:25" x14ac:dyDescent="0.25">
       <c r="C14" t="str">
         <f>'Teensy 3.2'!$E$7</f>
@@ -9288,6 +12805,30 @@
         <f>'Teensy 3.2'!$K$6</f>
         <v>Float</v>
       </c>
+      <c r="T15" t="str">
+        <f>Compare!V5</f>
+        <v>Arduino Uno</v>
+      </c>
+      <c r="U15" t="str">
+        <f>Compare!W5</f>
+        <v>Arduino M0</v>
+      </c>
+      <c r="V15" t="str">
+        <f>Compare!X5</f>
+        <v>Teensy 3.2</v>
+      </c>
+      <c r="W15" t="str">
+        <f>Compare!Y5</f>
+        <v>FRDM-K66F</v>
+      </c>
+      <c r="X15" t="str">
+        <f>X5</f>
+        <v>Teensy 3.2 CMSIS</v>
+      </c>
+      <c r="Y15" t="str">
+        <f>Y5</f>
+        <v>FRDM-K66F CMSIS</v>
+      </c>
     </row>
     <row r="16" spans="2:25" x14ac:dyDescent="0.25">
       <c r="C16" t="str">
@@ -9310,8 +12851,36 @@
         <f>'NXP K66'!$C$2</f>
         <v>FRDM-K66F</v>
       </c>
-    </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="S16" t="str">
+        <f>Compare!V3</f>
+        <v>Int16</v>
+      </c>
+      <c r="T16">
+        <f>Compare!V12</f>
+        <v>87.394391629661698</v>
+      </c>
+      <c r="U16">
+        <f>Compare!W12</f>
+        <v>5.2178622215042729</v>
+      </c>
+      <c r="V16">
+        <f>Compare!X12</f>
+        <v>1.7556715933315656</v>
+      </c>
+      <c r="W16">
+        <f>Compare!Y12</f>
+        <v>1.1739132199713216</v>
+      </c>
+      <c r="X16">
+        <f>Compare!X24</f>
+        <v>0.45622765296996637</v>
+      </c>
+      <c r="Y16">
+        <f>Compare!Y24</f>
+        <v>0.22569718713256531</v>
+      </c>
+    </row>
+    <row r="17" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>0</v>
       </c>
@@ -9363,8 +12932,36 @@
         <f>'NXP K66'!$C$2</f>
         <v>FRDM-K66F</v>
       </c>
-    </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="S17" t="str">
+        <f>Compare!AA3</f>
+        <v>Int32</v>
+      </c>
+      <c r="T17">
+        <f>Compare!AA12</f>
+        <v>260.75474580818349</v>
+      </c>
+      <c r="U17">
+        <f>Compare!AB12</f>
+        <v>14.801730336275433</v>
+      </c>
+      <c r="V17">
+        <f>Compare!AC12</f>
+        <v>3.3823823767512038</v>
+      </c>
+      <c r="W17">
+        <f>Compare!AD12</f>
+        <v>1.6932682945655746</v>
+      </c>
+      <c r="X17">
+        <f>Compare!AC24</f>
+        <v>1.0264962756062466</v>
+      </c>
+      <c r="Y17">
+        <f>Compare!AD24</f>
+        <v>0.54578781174870583</v>
+      </c>
+    </row>
+    <row r="18" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B18">
         <f>'Teensy 3.2'!B12</f>
         <v>32</v>
@@ -9417,8 +13014,36 @@
         <f>1000000/Compare!P18</f>
         <v>40000</v>
       </c>
-    </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="S18" t="str">
+        <f>Compare!AF3</f>
+        <v>Float</v>
+      </c>
+      <c r="T18">
+        <f>Compare!AF12</f>
+        <v>132.42035868244747</v>
+      </c>
+      <c r="U18">
+        <f>Compare!AG12</f>
+        <v>45.21822456815466</v>
+      </c>
+      <c r="V18">
+        <f>Compare!AH12</f>
+        <v>10.50004560530216</v>
+      </c>
+      <c r="W18">
+        <f>Compare!AI12</f>
+        <v>0.6671430788218613</v>
+      </c>
+      <c r="X18">
+        <f>Compare!AH24</f>
+        <v>5.2725808581588325</v>
+      </c>
+      <c r="Y18">
+        <f>Compare!AI24</f>
+        <v>0.34060035862211813</v>
+      </c>
+    </row>
+    <row r="19" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B19">
         <f>'Teensy 3.2'!B13</f>
         <v>64</v>
@@ -9472,7 +13097,7 @@
         <v>21276.59574468085</v>
       </c>
     </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B20">
         <f>'Teensy 3.2'!B14</f>
         <v>128</v>
@@ -9526,7 +13151,7 @@
         <v>9523.8095238095229</v>
       </c>
     </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B21">
         <f>'Teensy 3.2'!B15</f>
         <v>256</v>
@@ -9579,8 +13204,11 @@
         <f>1000000/Compare!P21</f>
         <v>4878.0487804878048</v>
       </c>
-    </row>
-    <row r="22" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="S21" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="22" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B22">
         <f>'Teensy 3.2'!B16</f>
         <v>512</v>
@@ -9633,8 +13261,20 @@
         <f>1000000/Compare!P22</f>
         <v>2123.1422505307855</v>
       </c>
-    </row>
-    <row r="23" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="S22" t="s">
+        <v>82</v>
+      </c>
+      <c r="U22" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="V22">
+        <v>250</v>
+      </c>
+      <c r="W22" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="23" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B23">
         <f>'Teensy 3.2'!B17</f>
         <v>1024</v>
@@ -9687,19 +13327,381 @@
         <f>1000000/Compare!P23</f>
         <v>1077.5862068965516</v>
       </c>
+      <c r="S23" t="s">
+        <v>88</v>
+      </c>
+      <c r="U23" s="21"/>
+      <c r="V23">
+        <f>2*(1/0.5)</f>
+        <v>4</v>
+      </c>
+      <c r="W23" s="20" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="24" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="S24" t="s">
+        <v>90</v>
+      </c>
+      <c r="U24" s="21"/>
+      <c r="W24" s="20"/>
+    </row>
+    <row r="25" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="T25" t="str">
+        <f>T15</f>
+        <v>Arduino Uno</v>
+      </c>
+      <c r="U25" t="str">
+        <f t="shared" ref="U25:Y25" si="0">U15</f>
+        <v>Arduino M0</v>
+      </c>
+      <c r="V25" t="str">
+        <f t="shared" si="0"/>
+        <v>Teensy 3.2</v>
+      </c>
+      <c r="W25" t="str">
+        <f>W15</f>
+        <v>FRDM-K66F</v>
+      </c>
+      <c r="X25" t="str">
+        <f>X15</f>
+        <v>Teensy 3.2 CMSIS</v>
+      </c>
+      <c r="Y25" t="str">
+        <f t="shared" si="0"/>
+        <v>FRDM-K66F CMSIS</v>
+      </c>
+      <c r="AA25" t="s">
+        <v>84</v>
+      </c>
+      <c r="AB25" s="20" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="26" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="S26" t="str">
+        <f>S16</f>
+        <v>Int16</v>
+      </c>
+      <c r="T26" s="23">
+        <f>1/(T16/1000000)</f>
+        <v>11442.381843420255</v>
+      </c>
+      <c r="U26" s="23">
+        <f>1/(U16/1000000)</f>
+        <v>191649.36856299493</v>
+      </c>
+      <c r="V26" s="23">
+        <f>1/(V16/1000000)</f>
+        <v>569582.60519690823</v>
+      </c>
+      <c r="W26" s="23">
+        <f>1/(W16/1000000)</f>
+        <v>851851.72377940314</v>
+      </c>
+      <c r="X26" s="23">
+        <f>1/(X16/1000000)</f>
+        <v>2191888.1801446402</v>
+      </c>
+      <c r="Y26" s="23">
+        <f>1/(Y16/1000000)</f>
+        <v>4430715.3877493422</v>
+      </c>
+      <c r="AA26">
+        <f>2*V22</f>
+        <v>500</v>
+      </c>
+      <c r="AB26" s="23">
+        <f>AA26*LOG(AA26/$V$22)</f>
+        <v>150.5149978319906</v>
+      </c>
+    </row>
+    <row r="27" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="S27" t="str">
+        <f t="shared" ref="S27:S28" si="1">S17</f>
+        <v>Int32</v>
+      </c>
+      <c r="T27" s="23">
+        <f>1/(T17/1000000)</f>
+        <v>3835.0212836993596</v>
+      </c>
+      <c r="U27" s="23">
+        <f>1/(U17/1000000)</f>
+        <v>67559.66885501513</v>
+      </c>
+      <c r="V27" s="23">
+        <f>1/(V17/1000000)</f>
+        <v>295649.60096572677</v>
+      </c>
+      <c r="W27" s="23">
+        <f>1/(W17/1000000)</f>
+        <v>590573.86428921483</v>
+      </c>
+      <c r="X27" s="23">
+        <f>1/(X17/1000000)</f>
+        <v>974187.65539056831</v>
+      </c>
+      <c r="Y27" s="23">
+        <f>1/(Y17/1000000)</f>
+        <v>1832213.8722665808</v>
+      </c>
+      <c r="AA27" s="16">
+        <f>AA26*2.5</f>
+        <v>1250</v>
+      </c>
+      <c r="AB27" s="23">
+        <f t="shared" ref="AB27:AB36" si="2">AA27*LOG(AA27/$V$22)</f>
+        <v>873.7125054200236</v>
+      </c>
+    </row>
+    <row r="28" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="S28" t="str">
+        <f t="shared" si="1"/>
+        <v>Float</v>
+      </c>
+      <c r="T28" s="23">
+        <f>1/(T18/1000000)</f>
+        <v>7551.7088909120412</v>
+      </c>
+      <c r="U28" s="23">
+        <f>1/(U18/1000000)</f>
+        <v>22114.97708170212</v>
+      </c>
+      <c r="V28" s="23">
+        <f>1/(V18/1000000)</f>
+        <v>95237.681586357532</v>
+      </c>
+      <c r="W28" s="23">
+        <f>1/(W18/1000000)</f>
+        <v>1498928.83812262</v>
+      </c>
+      <c r="X28" s="23">
+        <f>1/(X18/1000000)</f>
+        <v>189660.43895800901</v>
+      </c>
+      <c r="Y28" s="23">
+        <f>1/(Y18/1000000)</f>
+        <v>2935992.2110635773</v>
+      </c>
+      <c r="AA28" s="16">
+        <f t="shared" ref="AA28:AA34" si="3">AA27*2.5</f>
+        <v>3125</v>
+      </c>
+      <c r="AB28" s="23">
+        <f t="shared" si="2"/>
+        <v>3427.8437906501763</v>
+      </c>
+    </row>
+    <row r="29" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="AA29" s="16">
+        <f t="shared" si="3"/>
+        <v>7812.5</v>
+      </c>
+      <c r="AB29" s="23">
+        <f t="shared" si="2"/>
+        <v>11678.515794375735</v>
+      </c>
+    </row>
+    <row r="30" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="S30" t="s">
+        <v>91</v>
+      </c>
+      <c r="AA30" s="16">
+        <f t="shared" si="3"/>
+        <v>19531.25</v>
+      </c>
+      <c r="AB30" s="23">
+        <f t="shared" si="2"/>
+        <v>36968.555280315071</v>
+      </c>
+    </row>
+    <row r="31" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="T31" t="str">
+        <f>T25</f>
+        <v>Arduino Uno</v>
+      </c>
+      <c r="U31" t="str">
+        <f t="shared" ref="U31:Y31" si="4">U25</f>
+        <v>Arduino M0</v>
+      </c>
+      <c r="V31" t="str">
+        <f t="shared" si="4"/>
+        <v>Teensy 3.2</v>
+      </c>
+      <c r="W31" t="str">
+        <f>W25</f>
+        <v>FRDM-K66F</v>
+      </c>
+      <c r="X31" t="str">
+        <f>X25</f>
+        <v>Teensy 3.2 CMSIS</v>
+      </c>
+      <c r="Y31" t="str">
+        <f t="shared" si="4"/>
+        <v>FRDM-K66F CMSIS</v>
+      </c>
+      <c r="AA31" s="16">
+        <f t="shared" si="3"/>
+        <v>48828.125</v>
+      </c>
+      <c r="AB31" s="23">
+        <f t="shared" si="2"/>
+        <v>111852.05268672701</v>
+      </c>
+    </row>
+    <row r="32" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="S32" t="str">
+        <f>S26</f>
+        <v>Int16</v>
+      </c>
+      <c r="T32" s="24">
+        <f ca="1">FORECAST(T26,OFFSET($AA$26:$AA$35,MATCH(T26,$AB$26:$AB$35,1)-1,0,2),OFFSET($AB$26:$AB$35,MATCH(T26,$AB$26:$AB$35,1)-1,0,2))/$V$23</f>
+        <v>1919.5859775238912</v>
+      </c>
+      <c r="U32" s="24">
+        <f ca="1">FORECAST(U26,OFFSET($AA$26:$AA$35,MATCH(U26,$AB$26:$AB$35,1)-1,0,2),OFFSET($AB$26:$AB$35,MATCH(U26,$AB$26:$AB$35,1)-1,0,2))/$V$23</f>
+        <v>18960.442297048994</v>
+      </c>
+      <c r="V32" s="24">
+        <f ca="1">FORECAST(V26,OFFSET($AA$26:$AA$35,MATCH(V26,$AB$26:$AB$35,1)-1,0,2),OFFSET($AB$26:$AB$35,MATCH(V26,$AB$26:$AB$35,1)-1,0,2))/$V$23</f>
+        <v>48520.469600819619</v>
+      </c>
+      <c r="W32" s="24">
+        <f ca="1">FORECAST(W26,OFFSET($AA$26:$AA$35,MATCH(W26,$AB$26:$AB$35,1)-1,0,2),OFFSET($AB$26:$AB$35,MATCH(W26,$AB$26:$AB$35,1)-1,0,2))/$V$23</f>
+        <v>69573.367408292543</v>
+      </c>
+      <c r="X32" s="24">
+        <f ca="1">FORECAST(X26,OFFSET($AA$26:$AA$35,MATCH(X26,$AB$26:$AB$35,1)-1,0,2),OFFSET($AB$26:$AB$35,MATCH(X26,$AB$26:$AB$35,1)-1,0,2))/$V$23</f>
+        <v>159626.06148789707</v>
+      </c>
+      <c r="Y32" s="24">
+        <f ca="1">FORECAST(Y26,OFFSET($AA$26:$AA$35,MATCH(Y26,$AB$26:$AB$35,1)-1,0,2),OFFSET($AB$26:$AB$35,MATCH(Y26,$AB$26:$AB$35,1)-1,0,2))/$V$23</f>
+        <v>297551.83576709969</v>
+      </c>
+      <c r="AA32" s="16">
+        <f t="shared" si="3"/>
+        <v>122070.3125</v>
+      </c>
+      <c r="AB32" s="23">
+        <f t="shared" si="2"/>
+        <v>328206.79293166584</v>
+      </c>
+    </row>
+    <row r="33" spans="19:28" x14ac:dyDescent="0.25">
+      <c r="S33" t="str">
+        <f t="shared" ref="S33:S34" si="5">S27</f>
+        <v>Int32</v>
+      </c>
+      <c r="T33" s="24">
+        <f ca="1">FORECAST(T27,OFFSET($AA$26:$AA$35,MATCH(T27,$AB$26:$AB$35,1)-1,0,2),OFFSET($AB$26:$AB$35,MATCH(T27,$AB$26:$AB$35,1)-1,0,2))/$V$23</f>
+        <v>839.08300129390091</v>
+      </c>
+      <c r="U33" s="24">
+        <f ca="1">FORECAST(U27,OFFSET($AA$26:$AA$35,MATCH(U27,$AB$26:$AB$35,1)-1,0,2),OFFSET($AB$26:$AB$35,MATCH(U27,$AB$26:$AB$35,1)-1,0,2))/$V$23</f>
+        <v>7874.8737069063536</v>
+      </c>
+      <c r="V33" s="24">
+        <f ca="1">FORECAST(V27,OFFSET($AA$26:$AA$35,MATCH(V27,$AB$26:$AB$35,1)-1,0,2),OFFSET($AB$26:$AB$35,MATCH(V27,$AB$26:$AB$35,1)-1,0,2))/$V$23</f>
+        <v>27762.195973743223</v>
+      </c>
+      <c r="W33" s="24">
+        <f ca="1">FORECAST(W27,OFFSET($AA$26:$AA$35,MATCH(W27,$AB$26:$AB$35,1)-1,0,2),OFFSET($AB$26:$AB$35,MATCH(W27,$AB$26:$AB$35,1)-1,0,2))/$V$23</f>
+        <v>50086.091921602689</v>
+      </c>
+      <c r="X33" s="24">
+        <f ca="1">FORECAST(X27,OFFSET($AA$26:$AA$35,MATCH(X27,$AB$26:$AB$35,1)-1,0,2),OFFSET($AB$26:$AB$35,MATCH(X27,$AB$26:$AB$35,1)-1,0,2))/$V$23</f>
+        <v>78442.636374410184</v>
+      </c>
+      <c r="Y33" s="24">
+        <f ca="1">FORECAST(Y27,OFFSET($AA$26:$AA$35,MATCH(Y27,$AB$26:$AB$35,1)-1,0,2),OFFSET($AB$26:$AB$35,MATCH(Y27,$AB$26:$AB$35,1)-1,0,2))/$V$23</f>
+        <v>135646.77294750587</v>
+      </c>
+      <c r="AA33" s="16">
+        <f t="shared" si="3"/>
+        <v>305175.78125</v>
+      </c>
+      <c r="AB33" s="23">
+        <f t="shared" si="2"/>
+        <v>941958.63536628557</v>
+      </c>
+    </row>
+    <row r="34" spans="19:28" x14ac:dyDescent="0.25">
+      <c r="S34" t="str">
+        <f t="shared" si="5"/>
+        <v>Float</v>
+      </c>
+      <c r="T34" s="24">
+        <f ca="1">FORECAST(T28,OFFSET($AA$26:$AA$35,MATCH(T28,$AB$26:$AB$35,1)-1,0,2),OFFSET($AB$26:$AB$35,MATCH(T28,$AB$26:$AB$35,1)-1,0,2))/$V$23</f>
+        <v>1366.978582130911</v>
+      </c>
+      <c r="U34" s="24">
+        <f ca="1">FORECAST(U28,OFFSET($AA$26:$AA$35,MATCH(U28,$AB$26:$AB$35,1)-1,0,2),OFFSET($AB$26:$AB$35,MATCH(U28,$AB$26:$AB$35,1)-1,0,2))/$V$23</f>
+        <v>3162.1215377362619</v>
+      </c>
+      <c r="V34" s="24">
+        <f ca="1">FORECAST(V28,OFFSET($AA$26:$AA$35,MATCH(V28,$AB$26:$AB$35,1)-1,0,2),OFFSET($AB$26:$AB$35,MATCH(V28,$AB$26:$AB$35,1)-1,0,2))/$V$23</f>
+        <v>10582.009816073696</v>
+      </c>
+      <c r="W34" s="24">
+        <f ca="1">FORECAST(W28,OFFSET($AA$26:$AA$35,MATCH(W28,$AB$26:$AB$35,1)-1,0,2),OFFSET($AB$26:$AB$35,MATCH(W28,$AB$26:$AB$35,1)-1,0,2))/$V$23</f>
+        <v>113426.84279157802</v>
+      </c>
+      <c r="X34" s="24">
+        <f ca="1">FORECAST(X28,OFFSET($AA$26:$AA$35,MATCH(X28,$AB$26:$AB$35,1)-1,0,2),OFFSET($AB$26:$AB$35,MATCH(X28,$AB$26:$AB$35,1)-1,0,2))/$V$23</f>
+        <v>18792.115091821412</v>
+      </c>
+      <c r="Y34" s="24">
+        <f ca="1">FORECAST(Y28,OFFSET($AA$26:$AA$35,MATCH(Y28,$AB$26:$AB$35,1)-1,0,2),OFFSET($AB$26:$AB$35,MATCH(Y28,$AB$26:$AB$35,1)-1,0,2))/$V$23</f>
+        <v>207460.15137108372</v>
+      </c>
+      <c r="AA34" s="16">
+        <f t="shared" si="3"/>
+        <v>762939.453125</v>
+      </c>
+      <c r="AB34" s="23">
+        <f t="shared" si="2"/>
+        <v>2658500.7210085159</v>
+      </c>
+    </row>
+    <row r="35" spans="19:28" x14ac:dyDescent="0.25">
+      <c r="T35" s="23"/>
+      <c r="U35" s="23"/>
+      <c r="V35" s="23"/>
+      <c r="W35" s="23"/>
+      <c r="X35" s="23"/>
+      <c r="Y35" s="23"/>
+      <c r="AA35" s="16">
+        <f t="shared" ref="AA35" si="6">AA34*2.5</f>
+        <v>1907348.6328125</v>
+      </c>
+      <c r="AB35" s="23">
+        <f t="shared" si="2"/>
+        <v>7405262.1340032946</v>
+      </c>
+    </row>
+    <row r="36" spans="19:28" x14ac:dyDescent="0.25">
+      <c r="AA36" s="16">
+        <f t="shared" ref="AA36" si="7">AA35*2.5</f>
+        <v>4768371.58203125</v>
+      </c>
+      <c r="AB36" s="23">
+        <f t="shared" si="2"/>
+        <v>20410681.16371325</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:P23"/>
+  <dimension ref="B2:AI24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q16" sqref="Q16"/>
+      <selection activeCell="AL24" sqref="AL24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9709,9 +13711,10 @@
     <col min="7" max="7" width="3.5703125" customWidth="1"/>
     <col min="8" max="11" width="10.140625" customWidth="1"/>
     <col min="12" max="12" width="3.42578125" customWidth="1"/>
+    <col min="19" max="19" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:35" x14ac:dyDescent="0.25">
       <c r="C2" t="str">
         <f>'Arduino Uno'!$C$7</f>
         <v>KissFFT</v>
@@ -9724,8 +13727,23 @@
         <f>'Arduino Uno'!$C$7</f>
         <v>KissFFT</v>
       </c>
-    </row>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="T2" t="s">
+        <v>76</v>
+      </c>
+      <c r="V2" t="str">
+        <f>C2</f>
+        <v>KissFFT</v>
+      </c>
+      <c r="AA2" t="str">
+        <f>H2</f>
+        <v>KissFFT</v>
+      </c>
+      <c r="AF2" t="str">
+        <f>M2</f>
+        <v>KissFFT</v>
+      </c>
+    </row>
+    <row r="3" spans="2:35" x14ac:dyDescent="0.25">
       <c r="C3" t="str">
         <f>'Arduino Uno'!$C$6</f>
         <v>Int16</v>
@@ -9738,8 +13756,20 @@
         <f>'Arduino Uno'!$K$6</f>
         <v>Float</v>
       </c>
-    </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="V3" t="str">
+        <f>C3</f>
+        <v>Int16</v>
+      </c>
+      <c r="AA3" t="str">
+        <f>H3</f>
+        <v>Int32</v>
+      </c>
+      <c r="AF3" t="str">
+        <f>M3</f>
+        <v>Float</v>
+      </c>
+    </row>
+    <row r="4" spans="2:35" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>57</v>
       </c>
@@ -9751,8 +13781,17 @@
         <f>C4</f>
         <v>usec per FFT</v>
       </c>
-    </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="V4" t="s">
+        <v>77</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>77</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>0</v>
       </c>
@@ -9804,8 +13843,59 @@
         <f>'NXP K66'!$C$2</f>
         <v>FRDM-K66F</v>
       </c>
-    </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="U5" t="s">
+        <v>0</v>
+      </c>
+      <c r="V5" t="str">
+        <f>C5</f>
+        <v>Arduino Uno</v>
+      </c>
+      <c r="W5" t="str">
+        <f t="shared" ref="W5:Y5" si="0">D5</f>
+        <v>Arduino M0</v>
+      </c>
+      <c r="X5" t="str">
+        <f t="shared" si="0"/>
+        <v>Teensy 3.2</v>
+      </c>
+      <c r="Y5" t="str">
+        <f t="shared" si="0"/>
+        <v>FRDM-K66F</v>
+      </c>
+      <c r="AA5" t="str">
+        <f>H5</f>
+        <v>Arduino Uno</v>
+      </c>
+      <c r="AB5" t="str">
+        <f t="shared" ref="AB5" si="1">I5</f>
+        <v>Arduino M0</v>
+      </c>
+      <c r="AC5" t="str">
+        <f t="shared" ref="AC5" si="2">J5</f>
+        <v>Teensy 3.2</v>
+      </c>
+      <c r="AD5" t="str">
+        <f t="shared" ref="AD5" si="3">K5</f>
+        <v>FRDM-K66F</v>
+      </c>
+      <c r="AF5" t="str">
+        <f>M5</f>
+        <v>Arduino Uno</v>
+      </c>
+      <c r="AG5" t="str">
+        <f t="shared" ref="AG5" si="4">N5</f>
+        <v>Arduino M0</v>
+      </c>
+      <c r="AH5" t="str">
+        <f t="shared" ref="AH5" si="5">O5</f>
+        <v>Teensy 3.2</v>
+      </c>
+      <c r="AI5" t="str">
+        <f t="shared" ref="AI5" si="6">P5</f>
+        <v>FRDM-K66F</v>
+      </c>
+    </row>
+    <row r="6" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B6">
         <f>'Arduino Uno'!$B12</f>
         <v>32</v>
@@ -9858,8 +13948,60 @@
         <f>'NXP K66'!K12</f>
         <v>47</v>
       </c>
-    </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="U6">
+        <f>B6</f>
+        <v>32</v>
+      </c>
+      <c r="V6">
+        <f>C6/($U6*LOG($U6))</f>
+        <v>103.41162159384359</v>
+      </c>
+      <c r="W6">
+        <f t="shared" ref="W6:Y6" si="7">D6/($U6*LOG($U6))</f>
+        <v>6.6397037796561156</v>
+      </c>
+      <c r="X6">
+        <f t="shared" si="7"/>
+        <v>2.146796031320958</v>
+      </c>
+      <c r="Y6">
+        <f t="shared" si="7"/>
+        <v>1.4325814909201748</v>
+      </c>
+      <c r="AA6">
+        <f>H6/($U6*LOG($U6))</f>
+        <v>260.75474580818349</v>
+      </c>
+      <c r="AB6">
+        <f t="shared" ref="AB6:AB11" si="8">I6/($U6*LOG($U6))</f>
+        <v>16.651164575622904</v>
+      </c>
+      <c r="AC6">
+        <f t="shared" ref="AC6:AC11" si="9">J6/($U6*LOG($U6))</f>
+        <v>4.0029233543392717</v>
+      </c>
+      <c r="AD6">
+        <f t="shared" ref="AD6:AD11" si="10">K6/($U6*LOG($U6))</f>
+        <v>2.1177291604906934</v>
+      </c>
+      <c r="AF6">
+        <f>M6/($U6*LOG($U6))</f>
+        <v>132.42035868244747</v>
+      </c>
+      <c r="AG6">
+        <f t="shared" ref="AG6:AG11" si="11">N6/($U6*LOG($U6))</f>
+        <v>45.427366697584681</v>
+      </c>
+      <c r="AH6">
+        <f t="shared" ref="AH6:AH11" si="12">O6/($U6*LOG($U6))</f>
+        <v>10.306281914388041</v>
+      </c>
+      <c r="AI6">
+        <f t="shared" ref="AI6:AI11" si="13">P6/($U6*LOG($U6))</f>
+        <v>0.97581637787316267</v>
+      </c>
+    </row>
+    <row r="7" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B7">
         <f>'Arduino Uno'!$B13</f>
         <v>64</v>
@@ -9906,8 +14048,60 @@
         <f>'NXP K66'!K13</f>
         <v>79</v>
       </c>
-    </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="U7">
+        <f t="shared" ref="U7:U23" si="14">B7</f>
+        <v>64</v>
+      </c>
+      <c r="V7">
+        <f t="shared" ref="V7:V11" si="15">C7/($U7*LOG($U7))</f>
+        <v>87.394391629661698</v>
+      </c>
+      <c r="W7">
+        <f t="shared" ref="W7:W11" si="16">D7/($U7*LOG($U7))</f>
+        <v>5.4258158883160261</v>
+      </c>
+      <c r="X7">
+        <f t="shared" ref="X7:X11" si="17">E7/($U7*LOG($U7))</f>
+        <v>1.7682346421744191</v>
+      </c>
+      <c r="Y7">
+        <f t="shared" ref="Y7:Y11" si="18">F7/($U7*LOG($U7))</f>
+        <v>1.1765162002726075</v>
+      </c>
+      <c r="AA7">
+        <f t="shared" ref="AA7:AA11" si="19">H7/($U7*LOG($U7))</f>
+        <v>0</v>
+      </c>
+      <c r="AB7">
+        <f t="shared" si="8"/>
+        <v>14.481530288649596</v>
+      </c>
+      <c r="AC7">
+        <f t="shared" si="9"/>
+        <v>3.3184677531218552</v>
+      </c>
+      <c r="AD7">
+        <f t="shared" si="10"/>
+        <v>1.6436623386161429</v>
+      </c>
+      <c r="AF7">
+        <f t="shared" ref="AF7:AF11" si="20">M7/($U7*LOG($U7))</f>
+        <v>0</v>
+      </c>
+      <c r="AG7">
+        <f t="shared" si="11"/>
+        <v>43.557051973327788</v>
+      </c>
+      <c r="AH7">
+        <f t="shared" si="12"/>
+        <v>9.8273706140417811</v>
+      </c>
+      <c r="AI7">
+        <f t="shared" si="13"/>
+        <v>0.68341749868776469</v>
+      </c>
+    </row>
+    <row r="8" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B8">
         <f>'Arduino Uno'!$B14</f>
         <v>128</v>
@@ -9951,8 +14145,48 @@
         <f>'NXP K66'!K14</f>
         <v>217</v>
       </c>
-    </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="U8">
+        <f t="shared" si="14"/>
+        <v>128</v>
+      </c>
+      <c r="W8">
+        <f t="shared" si="16"/>
+        <v>5.8022516389494667</v>
+      </c>
+      <c r="X8">
+        <f t="shared" si="17"/>
+        <v>1.9293877015394902</v>
+      </c>
+      <c r="Y8">
+        <f t="shared" si="18"/>
+        <v>1.2939206530309035</v>
+      </c>
+      <c r="AB8">
+        <f t="shared" si="8"/>
+        <v>15.723545815197884</v>
+      </c>
+      <c r="AC8">
+        <f t="shared" si="9"/>
+        <v>3.6822979730380898</v>
+      </c>
+      <c r="AD8">
+        <f t="shared" si="10"/>
+        <v>1.8982446256499215</v>
+      </c>
+      <c r="AG8">
+        <f t="shared" si="11"/>
+        <v>45.646851232425455</v>
+      </c>
+      <c r="AH8">
+        <f t="shared" si="12"/>
+        <v>10.565659246439738</v>
+      </c>
+      <c r="AI8">
+        <f t="shared" si="13"/>
+        <v>0.80452946048053309</v>
+      </c>
+    </row>
+    <row r="9" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B9">
         <f>'Arduino Uno'!$B15</f>
         <v>256</v>
@@ -9996,8 +14230,48 @@
         <f>'NXP K66'!K15</f>
         <v>371</v>
       </c>
-    </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="U9">
+        <f t="shared" si="14"/>
+        <v>256</v>
+      </c>
+      <c r="W9">
+        <f t="shared" si="16"/>
+        <v>4.9942463887491151</v>
+      </c>
+      <c r="X9">
+        <f t="shared" si="17"/>
+        <v>1.6713450727402044</v>
+      </c>
+      <c r="Y9">
+        <f t="shared" si="18"/>
+        <v>1.1127161489710597</v>
+      </c>
+      <c r="AB9">
+        <f t="shared" si="8"/>
+        <v>14.213894480223612</v>
+      </c>
+      <c r="AC9">
+        <f t="shared" si="9"/>
+        <v>3.2051415603014783</v>
+      </c>
+      <c r="AD9">
+        <f t="shared" si="10"/>
+        <v>1.5733741465042683</v>
+      </c>
+      <c r="AG9">
+        <f t="shared" si="11"/>
+        <v>44.361040755407458</v>
+      </c>
+      <c r="AH9">
+        <f t="shared" si="12"/>
+        <v>10.212009228413992</v>
+      </c>
+      <c r="AI9">
+        <f t="shared" si="13"/>
+        <v>0.60177506015781812</v>
+      </c>
+    </row>
+    <row r="10" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B10">
         <f>'Arduino Uno'!$B16</f>
         <v>512</v>
@@ -10041,8 +14315,48 @@
         <f>'NXP K66'!K16</f>
         <v>981</v>
       </c>
-    </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="U10">
+        <f t="shared" si="14"/>
+        <v>512</v>
+      </c>
+      <c r="W10">
+        <f t="shared" si="16"/>
+        <v>5.3368562687610988</v>
+      </c>
+      <c r="X10">
+        <f t="shared" si="17"/>
+        <v>1.8080285724777572</v>
+      </c>
+      <c r="Y10">
+        <f t="shared" si="18"/>
+        <v>1.2132823315311265</v>
+      </c>
+      <c r="AB10">
+        <f t="shared" si="8"/>
+        <v>15.213248391147571</v>
+      </c>
+      <c r="AC10">
+        <f t="shared" si="9"/>
+        <v>3.5021542285075533</v>
+      </c>
+      <c r="AD10">
+        <f t="shared" si="10"/>
+        <v>1.7741460593571612</v>
+      </c>
+      <c r="AG10">
+        <f t="shared" si="11"/>
+        <v>45.944687791528075</v>
+      </c>
+      <c r="AH10">
+        <f t="shared" si="12"/>
+        <v>10.757337463521965</v>
+      </c>
+      <c r="AI10">
+        <f t="shared" si="13"/>
+        <v>0.70720734832562981</v>
+      </c>
+    </row>
+    <row r="11" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B11">
         <f>'Arduino Uno'!$B17</f>
         <v>1024</v>
@@ -10086,8 +14400,104 @@
         <f>'NXP K66'!K17</f>
         <v>1711</v>
       </c>
-    </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="U11" s="22">
+        <f t="shared" si="14"/>
+        <v>1024</v>
+      </c>
+      <c r="V11" s="22"/>
+      <c r="W11" s="22">
+        <f t="shared" si="16"/>
+        <v>4.7380945895574103</v>
+      </c>
+      <c r="X11" s="22">
+        <f t="shared" si="17"/>
+        <v>1.6139250265688112</v>
+      </c>
+      <c r="Y11" s="22">
+        <f t="shared" si="18"/>
+        <v>1.0757337463521965</v>
+      </c>
+      <c r="AA11" s="22"/>
+      <c r="AB11" s="22">
+        <f t="shared" si="8"/>
+        <v>14.056232658532668</v>
+      </c>
+      <c r="AC11" s="22">
+        <f t="shared" si="9"/>
+        <v>3.1399357451576932</v>
+      </c>
+      <c r="AD11" s="22">
+        <f t="shared" si="10"/>
+        <v>1.5273083467509474</v>
+      </c>
+      <c r="AF11" s="22"/>
+      <c r="AG11" s="22">
+        <f t="shared" si="11"/>
+        <v>44.920318493257632</v>
+      </c>
+      <c r="AH11" s="22">
+        <f t="shared" si="12"/>
+        <v>10.465176482832947</v>
+      </c>
+      <c r="AI11" s="22">
+        <f t="shared" si="13"/>
+        <v>0.55506044632346452</v>
+      </c>
+    </row>
+    <row r="12" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="U12" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="V12">
+        <f>V7</f>
+        <v>87.394391629661698</v>
+      </c>
+      <c r="W12">
+        <f>AVERAGE(W8:W11)</f>
+        <v>5.2178622215042729</v>
+      </c>
+      <c r="X12">
+        <f t="shared" ref="X12:Y12" si="21">AVERAGE(X8:X11)</f>
+        <v>1.7556715933315656</v>
+      </c>
+      <c r="Y12">
+        <f t="shared" si="21"/>
+        <v>1.1739132199713216</v>
+      </c>
+      <c r="AA12">
+        <f>AA6</f>
+        <v>260.75474580818349</v>
+      </c>
+      <c r="AB12">
+        <f>AVERAGE(AB8:AB11)</f>
+        <v>14.801730336275433</v>
+      </c>
+      <c r="AC12">
+        <f t="shared" ref="AC12" si="22">AVERAGE(AC8:AC11)</f>
+        <v>3.3823823767512038</v>
+      </c>
+      <c r="AD12">
+        <f t="shared" ref="AD12" si="23">AVERAGE(AD8:AD11)</f>
+        <v>1.6932682945655746</v>
+      </c>
+      <c r="AF12">
+        <f>AF6</f>
+        <v>132.42035868244747</v>
+      </c>
+      <c r="AG12">
+        <f>AVERAGE(AG8:AG11)</f>
+        <v>45.21822456815466</v>
+      </c>
+      <c r="AH12">
+        <f t="shared" ref="AH12" si="24">AVERAGE(AH8:AH11)</f>
+        <v>10.50004560530216</v>
+      </c>
+      <c r="AI12">
+        <f t="shared" ref="AI12" si="25">AVERAGE(AI8:AI11)</f>
+        <v>0.6671430788218613</v>
+      </c>
+    </row>
+    <row r="14" spans="2:35" x14ac:dyDescent="0.25">
       <c r="C14" t="str">
         <f>'Teensy 3.2'!$E$7</f>
         <v>CMSIS FFT</v>
@@ -10104,8 +14514,20 @@
         <f>'Teensy 3.2'!$E$7</f>
         <v>CMSIS FFT</v>
       </c>
-    </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="V14" t="str">
+        <f>C14</f>
+        <v>CMSIS FFT</v>
+      </c>
+      <c r="AA14" t="str">
+        <f>H14</f>
+        <v>CMSIS FFT</v>
+      </c>
+      <c r="AF14" t="str">
+        <f>M14</f>
+        <v>CMSIS FFT</v>
+      </c>
+    </row>
+    <row r="15" spans="2:35" x14ac:dyDescent="0.25">
       <c r="C15" t="str">
         <f>'Arduino Uno'!$C$6</f>
         <v>Int16</v>
@@ -10118,8 +14540,20 @@
         <f>'Teensy 3.2'!$K$6</f>
         <v>Float</v>
       </c>
-    </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="V15" t="str">
+        <f>C15</f>
+        <v>Int16</v>
+      </c>
+      <c r="AA15" t="str">
+        <f>H15</f>
+        <v>Int32</v>
+      </c>
+      <c r="AF15" t="str">
+        <f>M15</f>
+        <v>Float</v>
+      </c>
+    </row>
+    <row r="16" spans="2:35" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>57</v>
       </c>
@@ -10139,8 +14573,17 @@
         <f>'NXP K66'!$C$2</f>
         <v>FRDM-K66F</v>
       </c>
-    </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="V16" t="s">
+        <v>77</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>77</v>
+      </c>
+      <c r="AF16" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="17" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>0</v>
       </c>
@@ -10192,8 +14635,59 @@
         <f>'NXP K66'!$C$2</f>
         <v>FRDM-K66F</v>
       </c>
-    </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="U17" t="s">
+        <v>0</v>
+      </c>
+      <c r="V17" t="str">
+        <f>C17</f>
+        <v>Arduino Uno</v>
+      </c>
+      <c r="W17" t="str">
+        <f t="shared" ref="W17" si="26">D17</f>
+        <v>Arduino M0</v>
+      </c>
+      <c r="X17" t="str">
+        <f t="shared" ref="X17" si="27">E17</f>
+        <v>Teensy 3.2</v>
+      </c>
+      <c r="Y17" t="str">
+        <f t="shared" ref="Y17" si="28">F17</f>
+        <v>FRDM-K66F</v>
+      </c>
+      <c r="AA17" t="str">
+        <f>H17</f>
+        <v>Arduino Uno</v>
+      </c>
+      <c r="AB17" t="str">
+        <f t="shared" ref="AB17" si="29">I17</f>
+        <v>Arduino M0</v>
+      </c>
+      <c r="AC17" t="str">
+        <f t="shared" ref="AC17" si="30">J17</f>
+        <v>Teensy 3.2</v>
+      </c>
+      <c r="AD17" t="str">
+        <f t="shared" ref="AD17" si="31">K17</f>
+        <v>FRDM-K66F</v>
+      </c>
+      <c r="AF17" t="str">
+        <f>M17</f>
+        <v>Arduino Uno</v>
+      </c>
+      <c r="AG17" t="str">
+        <f t="shared" ref="AG17" si="32">N17</f>
+        <v>Arduino M0</v>
+      </c>
+      <c r="AH17" t="str">
+        <f t="shared" ref="AH17" si="33">O17</f>
+        <v>Teensy 3.2</v>
+      </c>
+      <c r="AI17" t="str">
+        <f t="shared" ref="AI17" si="34">P17</f>
+        <v>FRDM-K66F</v>
+      </c>
+    </row>
+    <row r="18" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B18">
         <f>'Teensy 3.2'!B12</f>
         <v>32</v>
@@ -10226,8 +14720,36 @@
         <f>'NXP K66'!M12</f>
         <v>25</v>
       </c>
-    </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="U18">
+        <f>B18</f>
+        <v>32</v>
+      </c>
+      <c r="X18">
+        <f t="shared" ref="X18:X23" si="35">E18/($U18*LOG($U18))</f>
+        <v>0.67269043921469085</v>
+      </c>
+      <c r="Y18">
+        <f t="shared" ref="Y18:Y23" si="36">F18/($U18*LOG($U18))</f>
+        <v>0.35295486008178223</v>
+      </c>
+      <c r="AC18">
+        <f t="shared" ref="AC18:AC23" si="37">J18/($U18*LOG($U18))</f>
+        <v>1.2602564709978932</v>
+      </c>
+      <c r="AD18">
+        <f t="shared" ref="AD18:AD23" si="38">K18/($U18*LOG($U18))</f>
+        <v>0.66438561897747239</v>
+      </c>
+      <c r="AH18">
+        <f t="shared" ref="AH18:AH23" si="39">O18/($U18*LOG($U18))</f>
+        <v>5.8611268824168903</v>
+      </c>
+      <c r="AI18">
+        <f t="shared" ref="AI18:AI23" si="40">P18/($U18*LOG($U18))</f>
+        <v>0.51905126482615038</v>
+      </c>
+    </row>
+    <row r="19" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B19">
         <f>'Teensy 3.2'!B13</f>
         <v>64</v>
@@ -10256,8 +14778,36 @@
         <f>'NXP K66'!M13</f>
         <v>47</v>
       </c>
-    </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="U19">
+        <f t="shared" ref="U19:U24" si="41">B19</f>
+        <v>64</v>
+      </c>
+      <c r="X19">
+        <f t="shared" si="35"/>
+        <v>0.52337669203303494</v>
+      </c>
+      <c r="Y19">
+        <f t="shared" si="36"/>
+        <v>0.25952563241307519</v>
+      </c>
+      <c r="AC19">
+        <f t="shared" si="37"/>
+        <v>1.0085166075572103</v>
+      </c>
+      <c r="AD19">
+        <f t="shared" si="38"/>
+        <v>0.51905126482615038</v>
+      </c>
+      <c r="AH19">
+        <f t="shared" si="39"/>
+        <v>4.7756176705771338</v>
+      </c>
+      <c r="AI19">
+        <f t="shared" si="40"/>
+        <v>0.40659015744715116</v>
+      </c>
+    </row>
+    <row r="20" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B20">
         <f>'Teensy 3.2'!B14</f>
         <v>128</v>
@@ -10286,8 +14836,36 @@
         <f>'NXP K66'!M14</f>
         <v>105</v>
       </c>
-    </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="U20">
+        <f t="shared" si="41"/>
+        <v>128</v>
+      </c>
+      <c r="X20">
+        <f t="shared" si="35"/>
+        <v>0.51808731247718753</v>
+      </c>
+      <c r="Y20">
+        <f t="shared" si="36"/>
+        <v>0.25952563241307519</v>
+      </c>
+      <c r="AC20">
+        <f t="shared" si="37"/>
+        <v>1.1259704937692989</v>
+      </c>
+      <c r="AD20">
+        <f t="shared" si="38"/>
+        <v>0.59690895455007298</v>
+      </c>
+      <c r="AH20">
+        <f t="shared" si="39"/>
+        <v>5.6382314392644028</v>
+      </c>
+      <c r="AI20">
+        <f t="shared" si="40"/>
+        <v>0.38928844861961276</v>
+      </c>
+    </row>
+    <row r="21" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B21">
         <f>'Teensy 3.2'!B15</f>
         <v>256</v>
@@ -10316,8 +14894,36 @@
         <f>'NXP K66'!M15</f>
         <v>205</v>
       </c>
-    </row>
-    <row r="22" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="U21">
+        <f t="shared" si="41"/>
+        <v>256</v>
+      </c>
+      <c r="X21">
+        <f t="shared" si="35"/>
+        <v>0.44206947411162195</v>
+      </c>
+      <c r="Y21">
+        <f t="shared" si="36"/>
+        <v>0.22059678755111389</v>
+      </c>
+      <c r="AC21">
+        <f t="shared" si="37"/>
+        <v>0.96848477875749339</v>
+      </c>
+      <c r="AD21">
+        <f t="shared" si="38"/>
+        <v>0.51418515921840524</v>
+      </c>
+      <c r="AH21">
+        <f t="shared" si="39"/>
+        <v>4.9026338405073</v>
+      </c>
+      <c r="AI21">
+        <f t="shared" si="40"/>
+        <v>0.33251721652925259</v>
+      </c>
+    </row>
+    <row r="22" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B22">
         <f>'Teensy 3.2'!B16</f>
         <v>512</v>
@@ -10346,8 +14952,36 @@
         <f>'NXP K66'!M16</f>
         <v>471</v>
       </c>
-    </row>
-    <row r="23" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="U22">
+        <f t="shared" si="41"/>
+        <v>512</v>
+      </c>
+      <c r="X22">
+        <f t="shared" si="35"/>
+        <v>0.45781763366735417</v>
+      </c>
+      <c r="Y22">
+        <f t="shared" si="36"/>
+        <v>0.22348040568903696</v>
+      </c>
+      <c r="AC22">
+        <f t="shared" si="37"/>
+        <v>1.0641704376191252</v>
+      </c>
+      <c r="AD22">
+        <f t="shared" si="38"/>
+        <v>0.56663096410188085</v>
+      </c>
+      <c r="AH22">
+        <f t="shared" si="39"/>
+        <v>5.5591111367415182</v>
+      </c>
+      <c r="AI22">
+        <f t="shared" si="40"/>
+        <v>0.33954603574044001</v>
+      </c>
+    </row>
+    <row r="23" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B23">
         <f>'Teensy 3.2'!B17</f>
         <v>1024</v>
@@ -10375,6 +15009,69 @@
       <c r="P23">
         <f>'NXP K66'!M17</f>
         <v>928</v>
+      </c>
+      <c r="U23" s="22">
+        <f t="shared" si="41"/>
+        <v>1024</v>
+      </c>
+      <c r="V23" s="22"/>
+      <c r="W23" s="22"/>
+      <c r="X23" s="22">
+        <f t="shared" si="35"/>
+        <v>0.40693619162370187</v>
+      </c>
+      <c r="Y23" s="22">
+        <f t="shared" si="36"/>
+        <v>0.19918592287703518</v>
+      </c>
+      <c r="AA23" s="22"/>
+      <c r="AB23" s="22"/>
+      <c r="AC23" s="22">
+        <f t="shared" si="37"/>
+        <v>0.94735939227906907</v>
+      </c>
+      <c r="AD23" s="22">
+        <f t="shared" si="38"/>
+        <v>0.50542616912446392</v>
+      </c>
+      <c r="AF23" s="22"/>
+      <c r="AG23" s="22"/>
+      <c r="AH23" s="22">
+        <f t="shared" si="39"/>
+        <v>4.9903470161221088</v>
+      </c>
+      <c r="AI23" s="22">
+        <f t="shared" si="40"/>
+        <v>0.3010497335991672</v>
+      </c>
+    </row>
+    <row r="24" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="U24" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="X24">
+        <f t="shared" ref="X24" si="42">AVERAGE(X20:X23)</f>
+        <v>0.45622765296996637</v>
+      </c>
+      <c r="Y24">
+        <f t="shared" ref="Y24" si="43">AVERAGE(Y20:Y23)</f>
+        <v>0.22569718713256531</v>
+      </c>
+      <c r="AC24">
+        <f t="shared" ref="AC24" si="44">AVERAGE(AC20:AC23)</f>
+        <v>1.0264962756062466</v>
+      </c>
+      <c r="AD24">
+        <f t="shared" ref="AD24" si="45">AVERAGE(AD20:AD23)</f>
+        <v>0.54578781174870583</v>
+      </c>
+      <c r="AH24">
+        <f t="shared" ref="AH24" si="46">AVERAGE(AH20:AH23)</f>
+        <v>5.2725808581588325</v>
+      </c>
+      <c r="AI24">
+        <f t="shared" ref="AI24" si="47">AVERAGE(AI20:AI23)</f>
+        <v>0.34060035862211813</v>
       </c>
     </row>
   </sheetData>

--- a/Arduino/Audio Processing Benchmarking/FFT Speed Results.xlsx
+++ b/Arduino/Audio Processing Benchmarking/FFT Speed Results.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="75" windowWidth="19155" windowHeight="9015" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="75" windowWidth="19155" windowHeight="9015" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ARM-Specific Functions" sheetId="1" r:id="rId1"/>
@@ -15,22 +15,23 @@
     <sheet name="AllData" sheetId="7" r:id="rId6"/>
     <sheet name="Arduino Uno" sheetId="4" r:id="rId7"/>
     <sheet name="Arduino M0 Pro" sheetId="8" r:id="rId8"/>
-    <sheet name="Teensy 3.2" sheetId="3" r:id="rId9"/>
-    <sheet name="NXP K66" sheetId="5" r:id="rId10"/>
-    <sheet name="Old" sheetId="2" r:id="rId11"/>
+    <sheet name="Maple" sheetId="12" r:id="rId9"/>
+    <sheet name="Teensy 3.2" sheetId="3" r:id="rId10"/>
+    <sheet name="NXP K66" sheetId="5" r:id="rId11"/>
+    <sheet name="Old" sheetId="2" r:id="rId12"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">AllData!$B$4:$G$128</definedName>
   </definedNames>
   <calcPr calcId="145621" calcOnSave="0"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId12"/>
+    <pivotCache cacheId="0" r:id="rId13"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="856" uniqueCount="96">
   <si>
     <t>N</t>
   </si>
@@ -313,6 +314,12 @@
   <si>
     <t>FRDM-K66F CMSIS</t>
   </si>
+  <si>
+    <t>Maple</t>
+  </si>
+  <si>
+    <t>72 MHz</t>
+  </si>
 </sst>
 </file>
 
@@ -523,7 +530,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Compare (2)'!$M$5</c:f>
+              <c:f>'Compare (2)'!$O$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -561,7 +568,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Compare (2)'!$M$6:$M$11</c:f>
+              <c:f>'Compare (2)'!$O$6:$O$11</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="6"/>
@@ -593,7 +600,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Compare (2)'!$N$5</c:f>
+              <c:f>'Compare (2)'!$P$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -631,7 +638,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Compare (2)'!$N$6:$N$11</c:f>
+              <c:f>'Compare (2)'!$P$6:$P$11</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="6"/>
@@ -663,7 +670,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Compare (2)'!$O$5</c:f>
+              <c:f>'Compare (2)'!$R$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -701,7 +708,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Compare (2)'!$O$6:$O$11</c:f>
+              <c:f>'Compare (2)'!$R$6:$R$11</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="6"/>
@@ -733,7 +740,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Compare (2)'!$P$5</c:f>
+              <c:f>'Compare (2)'!$S$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -771,7 +778,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Compare (2)'!$P$6:$P$11</c:f>
+              <c:f>'Compare (2)'!$S$6:$S$11</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="6"/>
@@ -808,11 +815,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="178447488"/>
-        <c:axId val="178449408"/>
+        <c:axId val="147468672"/>
+        <c:axId val="147470592"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="178447488"/>
+        <c:axId val="147468672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -841,7 +848,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="178449408"/>
+        <c:crossAx val="147470592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -849,7 +856,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="178449408"/>
+        <c:axId val="147470592"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -881,7 +888,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="178447488"/>
+        <c:crossAx val="147468672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -964,7 +971,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Compare!$I$6:$I$11</c:f>
+              <c:f>Compare!$J$6:$J$11</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1037,7 +1044,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Compare!$J$6:$J$11</c:f>
+              <c:f>Compare!$L$6:$L$11</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1110,7 +1117,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Compare!$K$6:$K$11</c:f>
+              <c:f>Compare!$M$6:$M$11</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1145,11 +1152,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="180400512"/>
-        <c:axId val="180402048"/>
+        <c:axId val="147897728"/>
+        <c:axId val="147903616"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="180400512"/>
+        <c:axId val="147897728"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1160,12 +1167,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="180402048"/>
+        <c:crossAx val="147903616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="180402048"/>
+        <c:axId val="147903616"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1177,7 +1184,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="180400512"/>
+        <c:crossAx val="147897728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1243,7 +1250,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Compare!$W$5</c:f>
+              <c:f>Compare!$Z$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1254,7 +1261,7 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>Compare!$U$6:$U$11</c:f>
+              <c:f>Compare!$X$6:$X$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1281,7 +1288,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Compare!$W$6:$W$11</c:f>
+              <c:f>Compare!$Z$6:$Z$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1313,7 +1320,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Compare!$X$5</c:f>
+              <c:f>Compare!$AB$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1324,7 +1331,7 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>Compare!$U$6:$U$11</c:f>
+              <c:f>Compare!$X$6:$X$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1351,7 +1358,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Compare!$X$6:$X$11</c:f>
+              <c:f>Compare!$AB$6:$AB$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1383,7 +1390,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Compare!$Y$5</c:f>
+              <c:f>Compare!$AC$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1394,7 +1401,7 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>Compare!$U$6:$U$11</c:f>
+              <c:f>Compare!$X$6:$X$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1421,7 +1428,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Compare!$Y$6:$Y$11</c:f>
+              <c:f>Compare!$AC$6:$AC$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1458,11 +1465,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="49690880"/>
-        <c:axId val="50978176"/>
+        <c:axId val="147945728"/>
+        <c:axId val="147947904"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="49690880"/>
+        <c:axId val="147945728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1491,7 +1498,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="50978176"/>
+        <c:crossAx val="147947904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1499,7 +1506,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="50978176"/>
+        <c:axId val="147947904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1529,7 +1536,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="49690880"/>
+        <c:crossAx val="147945728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1595,7 +1602,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Compare!$W$5</c:f>
+              <c:f>Compare!$Z$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1606,7 +1613,7 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>Compare!$U$6:$U$11</c:f>
+              <c:f>Compare!$X$6:$X$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1633,7 +1640,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Compare!$AB$6:$AB$11</c:f>
+              <c:f>Compare!$AF$6:$AF$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1665,7 +1672,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Compare!$X$5</c:f>
+              <c:f>Compare!$AB$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1676,7 +1683,7 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>Compare!$U$6:$U$11</c:f>
+              <c:f>Compare!$X$6:$X$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1703,7 +1710,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Compare!$AC$6:$AC$11</c:f>
+              <c:f>Compare!$AH$6:$AH$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1735,7 +1742,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Compare!$Y$5</c:f>
+              <c:f>Compare!$AC$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1746,7 +1753,7 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>Compare!$U$6:$U$11</c:f>
+              <c:f>Compare!$X$6:$X$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1773,7 +1780,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Compare!$AD$6:$AD$11</c:f>
+              <c:f>Compare!$AI$6:$AI$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1810,11 +1817,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="46924928"/>
-        <c:axId val="46926848"/>
+        <c:axId val="147978496"/>
+        <c:axId val="147988864"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="46924928"/>
+        <c:axId val="147978496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1843,7 +1850,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="46926848"/>
+        <c:crossAx val="147988864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1851,7 +1858,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="46926848"/>
+        <c:axId val="147988864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1881,7 +1888,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="46924928"/>
+        <c:crossAx val="147978496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1947,7 +1954,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Compare!$W$5</c:f>
+              <c:f>Compare!$Z$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1958,7 +1965,7 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>Compare!$U$6:$U$11</c:f>
+              <c:f>Compare!$X$6:$X$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1985,7 +1992,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Compare!$AG$6:$AG$11</c:f>
+              <c:f>Compare!$AL$6:$AL$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2017,7 +2024,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Compare!$X$5</c:f>
+              <c:f>Compare!$AB$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2028,7 +2035,7 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>Compare!$U$6:$U$11</c:f>
+              <c:f>Compare!$X$6:$X$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2055,7 +2062,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Compare!$AH$6:$AH$11</c:f>
+              <c:f>Compare!$AN$6:$AN$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2087,7 +2094,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Compare!$Y$5</c:f>
+              <c:f>Compare!$AC$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2098,7 +2105,7 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>Compare!$U$6:$U$11</c:f>
+              <c:f>Compare!$X$6:$X$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2125,7 +2132,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Compare!$AI$6:$AI$11</c:f>
+              <c:f>Compare!$AO$6:$AO$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2162,11 +2169,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="72138112"/>
-        <c:axId val="72161920"/>
+        <c:axId val="148015744"/>
+        <c:axId val="148034304"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="72138112"/>
+        <c:axId val="148015744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2195,7 +2202,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="72161920"/>
+        <c:crossAx val="148034304"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2203,7 +2210,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="72161920"/>
+        <c:axId val="148034304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2233,7 +2240,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="72138112"/>
+        <c:crossAx val="148015744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2299,7 +2306,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Compare!$W$5</c:f>
+              <c:f>Compare!$Z$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2310,7 +2317,7 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>Compare!$U$6:$U$11</c:f>
+              <c:f>Compare!$X$6:$X$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2337,7 +2344,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Compare!$W$18:$W$23</c:f>
+              <c:f>Compare!$Z$18:$Z$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2351,7 +2358,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Compare!$X$5</c:f>
+              <c:f>Compare!$AB$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2362,7 +2369,7 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>Compare!$U$6:$U$11</c:f>
+              <c:f>Compare!$X$6:$X$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2389,7 +2396,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Compare!$X$18:$X$23</c:f>
+              <c:f>Compare!$AB$18:$AB$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2421,7 +2428,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Compare!$Y$5</c:f>
+              <c:f>Compare!$AC$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2432,7 +2439,7 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>Compare!$U$6:$U$11</c:f>
+              <c:f>Compare!$X$6:$X$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2459,7 +2466,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Compare!$Y$18:$Y$23</c:f>
+              <c:f>Compare!$AC$18:$AC$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2496,11 +2503,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="49477120"/>
-        <c:axId val="51214592"/>
+        <c:axId val="148130048"/>
+        <c:axId val="148136320"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="49477120"/>
+        <c:axId val="148130048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2529,7 +2536,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="51214592"/>
+        <c:crossAx val="148136320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2537,7 +2544,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="51214592"/>
+        <c:axId val="148136320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2567,7 +2574,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="49477120"/>
+        <c:crossAx val="148130048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2619,7 +2626,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2633,7 +2639,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Compare!$W$5</c:f>
+              <c:f>Compare!$Z$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2644,7 +2650,7 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>Compare!$U$6:$U$11</c:f>
+              <c:f>Compare!$X$6:$X$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2671,7 +2677,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Compare!$W$18:$W$23</c:f>
+              <c:f>Compare!$Z$18:$Z$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2685,7 +2691,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Compare!$X$5</c:f>
+              <c:f>Compare!$AB$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2696,7 +2702,7 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>Compare!$U$6:$U$11</c:f>
+              <c:f>Compare!$X$6:$X$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2723,7 +2729,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Compare!$AC$18:$AC$23</c:f>
+              <c:f>Compare!$AH$18:$AH$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2755,7 +2761,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Compare!$Y$5</c:f>
+              <c:f>Compare!$AC$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2766,7 +2772,7 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>Compare!$U$6:$U$11</c:f>
+              <c:f>Compare!$X$6:$X$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2793,7 +2799,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Compare!$AD$18:$AD$23</c:f>
+              <c:f>Compare!$AI$18:$AI$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2830,11 +2836,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="178876800"/>
-        <c:axId val="178878720"/>
+        <c:axId val="148183296"/>
+        <c:axId val="148185472"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="178876800"/>
+        <c:axId val="148183296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2856,14 +2862,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="178878720"/>
+        <c:crossAx val="148185472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2871,7 +2876,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="178878720"/>
+        <c:axId val="148185472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2894,21 +2899,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="178876800"/>
+        <c:crossAx val="148183296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2953,7 +2956,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2967,7 +2969,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Compare!$W$5</c:f>
+              <c:f>Compare!$Z$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2978,7 +2980,7 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>Compare!$U$6:$U$11</c:f>
+              <c:f>Compare!$X$6:$X$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -3005,7 +3007,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Compare!$W$18:$W$23</c:f>
+              <c:f>Compare!$Z$18:$Z$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -3019,7 +3021,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Compare!$X$5</c:f>
+              <c:f>Compare!$AB$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3030,7 +3032,7 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>Compare!$U$6:$U$11</c:f>
+              <c:f>Compare!$X$6:$X$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -3057,7 +3059,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Compare!$AH$18:$AH$23</c:f>
+              <c:f>Compare!$AN$18:$AN$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -3089,7 +3091,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Compare!$Y$5</c:f>
+              <c:f>Compare!$AC$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3100,7 +3102,7 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>Compare!$U$6:$U$11</c:f>
+              <c:f>Compare!$X$6:$X$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -3127,7 +3129,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Compare!$AI$18:$AI$23</c:f>
+              <c:f>Compare!$AO$18:$AO$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -3164,11 +3166,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="187914496"/>
-        <c:axId val="187920768"/>
+        <c:axId val="148224640"/>
+        <c:axId val="148230912"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="187914496"/>
+        <c:axId val="148224640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3190,14 +3192,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="187920768"/>
+        <c:crossAx val="148230912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3205,7 +3206,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="187920768"/>
+        <c:axId val="148230912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3228,21 +3229,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="187914496"/>
+        <c:crossAx val="148224640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3516,11 +3515,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="183025024"/>
-        <c:axId val="183030912"/>
+        <c:axId val="148274176"/>
+        <c:axId val="148300544"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="183025024"/>
+        <c:axId val="148274176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3529,7 +3528,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="183030912"/>
+        <c:crossAx val="148300544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3537,7 +3536,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="183030912"/>
+        <c:axId val="148300544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3560,21 +3559,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="183025024"/>
+        <c:crossAx val="148274176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3792,11 +3789,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="185142656"/>
-        <c:axId val="45155456"/>
+        <c:axId val="146410496"/>
+        <c:axId val="146412288"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="185142656"/>
+        <c:axId val="146410496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3805,7 +3802,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="45155456"/>
+        <c:crossAx val="146412288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3813,7 +3810,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="45155456"/>
+        <c:axId val="146412288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3824,7 +3821,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="185142656"/>
+        <c:crossAx val="146410496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3908,7 +3905,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Compare (2)'!$H$5</c:f>
+              <c:f>'Compare (2)'!$I$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3946,7 +3943,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Compare (2)'!$H$6:$H$11</c:f>
+              <c:f>'Compare (2)'!$I$6:$I$11</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="6"/>
@@ -3978,7 +3975,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Compare (2)'!$I$5</c:f>
+              <c:f>'Compare (2)'!$J$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4016,7 +4013,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Compare (2)'!$I$6:$I$11</c:f>
+              <c:f>'Compare (2)'!$J$6:$J$11</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="6"/>
@@ -4048,7 +4045,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Compare (2)'!$J$5</c:f>
+              <c:f>'Compare (2)'!$L$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4086,7 +4083,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Compare (2)'!$J$6:$J$11</c:f>
+              <c:f>'Compare (2)'!$L$6:$L$11</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="6"/>
@@ -4118,7 +4115,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Compare (2)'!$K$5</c:f>
+              <c:f>'Compare (2)'!$M$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4156,7 +4153,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Compare (2)'!$K$6:$K$11</c:f>
+              <c:f>'Compare (2)'!$M$6:$M$11</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="6"/>
@@ -4193,11 +4190,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="49189632"/>
-        <c:axId val="49191552"/>
+        <c:axId val="147506304"/>
+        <c:axId val="147508224"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="49189632"/>
+        <c:axId val="147506304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4226,7 +4223,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="49191552"/>
+        <c:crossAx val="147508224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4234,7 +4231,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="49191552"/>
+        <c:axId val="147508224"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -4266,7 +4263,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="49189632"/>
+        <c:crossAx val="147506304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4347,7 +4344,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Compare (2)'!$S$6</c:f>
+              <c:f>'Compare (2)'!$V$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4364,22 +4361,25 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Compare (2)'!$U$5:$Y$5</c:f>
+              <c:f>'Compare (2)'!$X$5:$AC$5</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>Arduino M0</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>Maple</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>Teensy 3.2</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>FRDM-K66F</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>Teensy 3.2 CMSIS</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>FRDM-K66F CMSIS</c:v>
                 </c:pt>
               </c:strCache>
@@ -4387,23 +4387,26 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Compare (2)'!$U$6:$Y$6</c:f>
+              <c:f>'Compare (2)'!$X$6:$AC$6</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>638.9776357827476</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>1643.6554898093361</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>1921.5987701767872</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>2865.3295128939826</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>7156.1471303850003</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>14285.714285714286</c:v>
                 </c:pt>
               </c:numCache>
@@ -4415,7 +4418,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Compare (2)'!$S$7</c:f>
+              <c:f>'Compare (2)'!$V$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4434,22 +4437,25 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Compare (2)'!$U$5:$Y$5</c:f>
+              <c:f>'Compare (2)'!$X$5:$AC$5</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>Arduino M0</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>Maple</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>Teensy 3.2</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>FRDM-K66F</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>Teensy 3.2 CMSIS</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>FRDM-K66F CMSIS</c:v>
                 </c:pt>
               </c:strCache>
@@ -4457,23 +4463,26 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Compare (2)'!$U$7:$Y$7</c:f>
+              <c:f>'Compare (2)'!$X$7:$AC$7</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>235.79344494223059</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>1031.3531353135313</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>1006.8465565847764</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>1953.125</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>3292.723081988805</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>6211.1801242236024</c:v>
                 </c:pt>
               </c:numCache>
@@ -4485,7 +4494,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Compare (2)'!$S$8</c:f>
+              <c:f>'Compare (2)'!$V$8</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4510,22 +4519,25 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Compare (2)'!$U$5:$Y$5</c:f>
+              <c:f>'Compare (2)'!$X$5:$AC$5</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>Arduino M0</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>Maple</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>Teensy 3.2</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>FRDM-K66F</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>Teensy 3.2 CMSIS</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>FRDM-K66F CMSIS</c:v>
                 </c:pt>
               </c:strCache>
@@ -4533,23 +4545,26 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Compare (2)'!$U$8:$Y$8</c:f>
+              <c:f>'Compare (2)'!$X$8:$AC$8</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>81.221572449642622</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>262.72923125426934</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>350.90181767141553</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>4608.294930875576</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>657.56595386517267</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>9523.8095238095229</c:v>
                 </c:pt>
               </c:numCache>
@@ -4565,11 +4580,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="49201920"/>
-        <c:axId val="49203456"/>
+        <c:axId val="147231872"/>
+        <c:axId val="147233408"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="49201920"/>
+        <c:axId val="147231872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4578,7 +4593,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="49203456"/>
+        <c:crossAx val="147233408"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4586,7 +4601,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="49203456"/>
+        <c:axId val="147233408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4616,7 +4631,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="49201920"/>
+        <c:crossAx val="147231872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4697,7 +4712,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Compare (2)'!$S$6</c:f>
+              <c:f>'Compare (2)'!$V$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4714,22 +4729,25 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Compare (2)'!$U$5:$Y$5</c:f>
+              <c:f>'Compare (2)'!$X$5:$AC$5</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>Arduino M0</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>Maple</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>Teensy 3.2</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>FRDM-K66F</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>Teensy 3.2 CMSIS</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>FRDM-K66F CMSIS</c:v>
                 </c:pt>
               </c:strCache>
@@ -4737,23 +4755,26 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Compare (2)'!$U$6:$Y$6</c:f>
+              <c:f>'Compare (2)'!$X$6:$AC$6</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>638.9776357827476</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>1643.6554898093361</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>1921.5987701767872</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>2865.3295128939826</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>7156.1471303850003</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>14285.714285714286</c:v>
                 </c:pt>
               </c:numCache>
@@ -4765,7 +4786,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Compare (2)'!$S$7</c:f>
+              <c:f>'Compare (2)'!$V$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4784,22 +4805,25 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Compare (2)'!$U$5:$Y$5</c:f>
+              <c:f>'Compare (2)'!$X$5:$AC$5</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>Arduino M0</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>Maple</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>Teensy 3.2</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>FRDM-K66F</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>Teensy 3.2 CMSIS</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>FRDM-K66F CMSIS</c:v>
                 </c:pt>
               </c:strCache>
@@ -4807,23 +4831,26 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Compare (2)'!$U$7:$Y$7</c:f>
+              <c:f>'Compare (2)'!$X$7:$AC$7</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>235.79344494223059</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>1031.3531353135313</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>1006.8465565847764</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>1953.125</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>3292.723081988805</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>6211.1801242236024</c:v>
                 </c:pt>
               </c:numCache>
@@ -4835,7 +4862,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Compare (2)'!$S$8</c:f>
+              <c:f>'Compare (2)'!$V$8</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4860,22 +4887,25 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Compare (2)'!$U$5:$Y$5</c:f>
+              <c:f>'Compare (2)'!$X$5:$AC$5</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>Arduino M0</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>Maple</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>Teensy 3.2</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>FRDM-K66F</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>Teensy 3.2 CMSIS</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>FRDM-K66F CMSIS</c:v>
                 </c:pt>
               </c:strCache>
@@ -4883,23 +4913,26 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Compare (2)'!$U$8:$Y$8</c:f>
+              <c:f>'Compare (2)'!$X$8:$AC$8</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>81.221572449642622</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>262.72923125426934</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>350.90181767141553</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>4608.294930875576</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>657.56595386517267</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>9523.8095238095229</c:v>
                 </c:pt>
               </c:numCache>
@@ -4915,11 +4948,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="97603584"/>
-        <c:axId val="97605120"/>
+        <c:axId val="147282176"/>
+        <c:axId val="147283968"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="97603584"/>
+        <c:axId val="147282176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4928,7 +4961,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="97605120"/>
+        <c:crossAx val="147283968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4936,7 +4969,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="97605120"/>
+        <c:axId val="147283968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4966,7 +4999,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="97603584"/>
+        <c:crossAx val="147282176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5013,7 +5046,7 @@
           <c:order val="0"/>
           <c:xVal>
             <c:numRef>
-              <c:f>'Compare (2)'!$AA$26:$AA$34</c:f>
+              <c:f>'Compare (2)'!$AE$26:$AE$34</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="9"/>
@@ -5049,7 +5082,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Compare (2)'!$AB$26:$AB$34</c:f>
+              <c:f>'Compare (2)'!$AF$26:$AF$34</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="9"/>
@@ -5093,11 +5126,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="189636608"/>
-        <c:axId val="189630720"/>
+        <c:axId val="147308928"/>
+        <c:axId val="147310464"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="189636608"/>
+        <c:axId val="147308928"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -5108,12 +5141,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="189630720"/>
+        <c:crossAx val="147310464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="189630720"/>
+        <c:axId val="147310464"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -5125,7 +5158,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="189636608"/>
+        <c:crossAx val="147308928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5209,7 +5242,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Compare (2)'!$S$33</c:f>
+              <c:f>'Compare (2)'!$V$33</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5221,9 +5254,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Compare (2)'!$T$31:$Y$31</c:f>
+              <c:f>'Compare (2)'!$W$31:$AC$31</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>Arduino Uno</c:v>
                 </c:pt>
@@ -5231,15 +5264,18 @@
                   <c:v>Arduino M0</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>Maple</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>Teensy 3.2</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>FRDM-K66F</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>Teensy 3.2 CMSIS</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>FRDM-K66F CMSIS</c:v>
                 </c:pt>
               </c:strCache>
@@ -5247,10 +5283,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Compare (2)'!$T$33:$Y$33</c:f>
+              <c:f>'Compare (2)'!$W$33:$AC$33</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>839.08300129390091</c:v>
                 </c:pt>
@@ -5258,15 +5294,18 @@
                   <c:v>7874.8737069063536</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>28186.310893385908</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>27762.195973743223</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>50086.091921602689</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>78442.636374410184</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>135646.77294750587</c:v>
                 </c:pt>
               </c:numCache>
@@ -5278,7 +5317,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Compare (2)'!$S$34</c:f>
+              <c:f>'Compare (2)'!$V$34</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5295,9 +5334,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Compare (2)'!$T$31:$Y$31</c:f>
+              <c:f>'Compare (2)'!$W$31:$AC$31</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>Arduino Uno</c:v>
                 </c:pt>
@@ -5305,15 +5344,18 @@
                   <c:v>Arduino M0</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>Maple</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>Teensy 3.2</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>FRDM-K66F</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>Teensy 3.2 CMSIS</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>FRDM-K66F CMSIS</c:v>
                 </c:pt>
               </c:strCache>
@@ -5321,10 +5363,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Compare (2)'!$T$34:$Y$34</c:f>
+              <c:f>'Compare (2)'!$W$34:$AC$34</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>1366.978582130911</c:v>
                 </c:pt>
@@ -5332,15 +5374,18 @@
                   <c:v>3162.1215377362619</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>8272.2673834696743</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>10582.009816073696</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>113426.84279157802</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>18792.115091821412</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>207460.15137108372</c:v>
                 </c:pt>
               </c:numCache>
@@ -5356,11 +5401,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="97650176"/>
-        <c:axId val="97651712"/>
+        <c:axId val="147322368"/>
+        <c:axId val="147323904"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="97650176"/>
+        <c:axId val="147322368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5369,7 +5414,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="97651712"/>
+        <c:crossAx val="147323904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5377,7 +5422,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="97651712"/>
+        <c:axId val="147323904"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -5416,7 +5461,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="97650176"/>
+        <c:crossAx val="147322368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5500,7 +5545,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Compare (2)'!$S$33</c:f>
+              <c:f>'Compare (2)'!$V$33</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5512,9 +5557,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Compare (2)'!$T$31:$W$31</c:f>
+              <c:f>'Compare (2)'!$W$31:$AA$31</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>Arduino Uno</c:v>
                 </c:pt>
@@ -5522,9 +5567,12 @@
                   <c:v>Arduino M0</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>Maple</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>Teensy 3.2</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>FRDM-K66F</c:v>
                 </c:pt>
               </c:strCache>
@@ -5532,10 +5580,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Compare (2)'!$T$33:$W$33</c:f>
+              <c:f>'Compare (2)'!$W$33:$AA$33</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>839.08300129390091</c:v>
                 </c:pt>
@@ -5543,9 +5591,12 @@
                   <c:v>7874.8737069063536</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>28186.310893385908</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>27762.195973743223</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>50086.091921602689</c:v>
                 </c:pt>
               </c:numCache>
@@ -5557,7 +5608,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Compare (2)'!$S$34</c:f>
+              <c:f>'Compare (2)'!$V$34</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5574,9 +5625,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Compare (2)'!$T$31:$W$31</c:f>
+              <c:f>'Compare (2)'!$W$31:$AA$31</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>Arduino Uno</c:v>
                 </c:pt>
@@ -5584,9 +5635,12 @@
                   <c:v>Arduino M0</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>Maple</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>Teensy 3.2</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>FRDM-K66F</c:v>
                 </c:pt>
               </c:strCache>
@@ -5594,10 +5648,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Compare (2)'!$T$34:$W$34</c:f>
+              <c:f>'Compare (2)'!$W$34:$AA$34</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>1366.978582130911</c:v>
                 </c:pt>
@@ -5605,9 +5659,12 @@
                   <c:v>3162.1215377362619</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>8272.2673834696743</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>10582.009816073696</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>113426.84279157802</c:v>
                 </c:pt>
               </c:numCache>
@@ -5623,11 +5680,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="193359232"/>
-        <c:axId val="201122944"/>
+        <c:axId val="147435904"/>
+        <c:axId val="147437440"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="193359232"/>
+        <c:axId val="147435904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5636,7 +5693,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="201122944"/>
+        <c:crossAx val="147437440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5644,7 +5701,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="201122944"/>
+        <c:axId val="147437440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5690,7 +5747,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="193359232"/>
+        <c:crossAx val="147435904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5756,7 +5813,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Compare!$M$5</c:f>
+              <c:f>Compare!$O$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5794,7 +5851,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Compare!$M$6:$M$11</c:f>
+              <c:f>Compare!$O$6:$O$11</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="6"/>
@@ -5811,7 +5868,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Compare!$N$5</c:f>
+              <c:f>Compare!$P$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5849,7 +5906,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Compare!$N$6:$N$11</c:f>
+              <c:f>Compare!$P$6:$P$11</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="6"/>
@@ -5881,7 +5938,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Compare!$O$5</c:f>
+              <c:f>Compare!$R$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5919,7 +5976,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Compare!$O$6:$O$11</c:f>
+              <c:f>Compare!$R$6:$R$11</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="6"/>
@@ -5951,7 +6008,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Compare!$P$5</c:f>
+              <c:f>Compare!$S$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5989,7 +6046,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Compare!$P$6:$P$11</c:f>
+              <c:f>Compare!$S$6:$S$11</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="6"/>
@@ -6026,11 +6083,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="178398336"/>
-        <c:axId val="178400256"/>
+        <c:axId val="147759872"/>
+        <c:axId val="147761792"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="178398336"/>
+        <c:axId val="147759872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6059,7 +6116,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="178400256"/>
+        <c:crossAx val="147761792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6067,7 +6124,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="178400256"/>
+        <c:axId val="147761792"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -6100,7 +6157,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="178398336"/>
+        <c:crossAx val="147759872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6166,7 +6223,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Compare!$H$5</c:f>
+              <c:f>Compare!$I$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6204,7 +6261,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Compare!$H$6:$H$11</c:f>
+              <c:f>Compare!$I$6:$I$11</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="6"/>
@@ -6221,7 +6278,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Compare!$I$5</c:f>
+              <c:f>Compare!$J$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6259,7 +6316,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Compare!$I$6:$I$11</c:f>
+              <c:f>Compare!$J$6:$J$11</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="6"/>
@@ -6291,7 +6348,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Compare!$J$5</c:f>
+              <c:f>Compare!$L$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6329,7 +6386,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Compare!$J$6:$J$11</c:f>
+              <c:f>Compare!$L$6:$L$11</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="6"/>
@@ -6361,7 +6418,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Compare!$K$5</c:f>
+              <c:f>Compare!$M$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6399,7 +6456,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Compare!$K$6:$K$11</c:f>
+              <c:f>Compare!$M$6:$M$11</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="6"/>
@@ -6436,11 +6493,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="178465024"/>
-        <c:axId val="178467200"/>
+        <c:axId val="147854848"/>
+        <c:axId val="147856768"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="178465024"/>
+        <c:axId val="147854848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6469,7 +6526,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="178467200"/>
+        <c:crossAx val="147856768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6477,7 +6534,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="178467200"/>
+        <c:axId val="147856768"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -6510,7 +6567,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="178465024"/>
+        <c:crossAx val="147854848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6536,13 +6593,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>23812</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>361950</xdr:colOff>
       <xdr:row>41</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
@@ -6574,7 +6631,7 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>495300</xdr:colOff>
       <xdr:row>41</xdr:row>
       <xdr:rowOff>52388</xdr:rowOff>
@@ -6606,7 +6663,7 @@
       <xdr:rowOff>33336</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
       <xdr:row>56</xdr:row>
       <xdr:rowOff>171449</xdr:rowOff>
@@ -6630,13 +6687,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>42</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>533400</xdr:colOff>
       <xdr:row>56</xdr:row>
       <xdr:rowOff>138113</xdr:rowOff>
@@ -6662,13 +6719,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>28</xdr:col>
+      <xdr:col>32</xdr:col>
       <xdr:colOff>428625</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>100012</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>36</xdr:col>
+      <xdr:col>40</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
       <xdr:row>35</xdr:row>
       <xdr:rowOff>176212</xdr:rowOff>
@@ -6692,13 +6749,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
+      <xdr:col>22</xdr:col>
       <xdr:colOff>266698</xdr:colOff>
       <xdr:row>38</xdr:row>
       <xdr:rowOff>33337</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
+      <xdr:col>33</xdr:col>
       <xdr:colOff>333374</xdr:colOff>
       <xdr:row>54</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
@@ -6722,13 +6779,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
+      <xdr:col>22</xdr:col>
       <xdr:colOff>200025</xdr:colOff>
       <xdr:row>55</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
+      <xdr:col>30</xdr:col>
       <xdr:colOff>504825</xdr:colOff>
       <xdr:row>70</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
@@ -6759,13 +6816,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>23812</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>361950</xdr:colOff>
       <xdr:row>41</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
@@ -6795,7 +6852,7 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>495300</xdr:colOff>
       <xdr:row>41</xdr:row>
       <xdr:rowOff>52388</xdr:rowOff>
@@ -6821,13 +6878,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>542925</xdr:colOff>
       <xdr:row>42</xdr:row>
       <xdr:rowOff>90487</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>495300</xdr:colOff>
       <xdr:row>56</xdr:row>
       <xdr:rowOff>166687</xdr:rowOff>
@@ -6851,13 +6908,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
+      <xdr:col>22</xdr:col>
       <xdr:colOff>581025</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>71437</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
+      <xdr:col>31</xdr:col>
       <xdr:colOff>276225</xdr:colOff>
       <xdr:row>40</xdr:row>
       <xdr:rowOff>147637</xdr:rowOff>
@@ -6881,13 +6938,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>28</xdr:col>
+      <xdr:col>33</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>35</xdr:col>
+      <xdr:col>41</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>40</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
@@ -6913,13 +6970,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>36</xdr:col>
+      <xdr:col>42</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>43</xdr:col>
+      <xdr:col>49</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>40</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
@@ -6945,13 +7002,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>42</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
+      <xdr:col>31</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>56</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
@@ -6977,13 +7034,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>28</xdr:col>
+      <xdr:col>33</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>42</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>35</xdr:col>
+      <xdr:col>41</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>56</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
@@ -7009,13 +7066,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>35</xdr:col>
+      <xdr:col>41</xdr:col>
       <xdr:colOff>571500</xdr:colOff>
       <xdr:row>42</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>43</xdr:col>
+      <xdr:col>49</xdr:col>
       <xdr:colOff>266700</xdr:colOff>
       <xdr:row>56</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
@@ -9950,6 +10007,397 @@
   <dimension ref="B2:M17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
+      <selection activeCell="M10" sqref="M10:M17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K6" t="s">
+        <v>22</v>
+      </c>
+      <c r="L6" t="s">
+        <v>22</v>
+      </c>
+      <c r="M6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H7" t="s">
+        <v>49</v>
+      </c>
+      <c r="I7" t="s">
+        <v>49</v>
+      </c>
+      <c r="K7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L7" t="s">
+        <v>49</v>
+      </c>
+      <c r="M7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D8" t="s">
+        <v>52</v>
+      </c>
+      <c r="E8" t="s">
+        <v>53</v>
+      </c>
+      <c r="H8" t="s">
+        <v>50</v>
+      </c>
+      <c r="I8" t="s">
+        <v>51</v>
+      </c>
+      <c r="L8" t="s">
+        <v>50</v>
+      </c>
+      <c r="M8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G9" t="s">
+        <v>4</v>
+      </c>
+      <c r="H9" t="s">
+        <v>4</v>
+      </c>
+      <c r="I9" t="s">
+        <v>4</v>
+      </c>
+      <c r="K9" t="s">
+        <v>4</v>
+      </c>
+      <c r="L9" t="s">
+        <v>4</v>
+      </c>
+      <c r="M9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="15">
+        <v>8</v>
+      </c>
+      <c r="C10" s="15">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="D10" s="15">
+        <v>8.8800000000000008</v>
+      </c>
+      <c r="E10" s="15">
+        <v>8.44</v>
+      </c>
+      <c r="G10" s="15">
+        <v>34.799999999999997</v>
+      </c>
+      <c r="H10" s="15">
+        <v>12.42</v>
+      </c>
+      <c r="I10" s="15">
+        <v>12.38</v>
+      </c>
+      <c r="K10" s="15">
+        <v>73.8</v>
+      </c>
+      <c r="L10" s="15">
+        <v>52.22</v>
+      </c>
+      <c r="M10" s="15">
+        <v>49.44</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="15">
+        <v>16</v>
+      </c>
+      <c r="C11" s="15">
+        <v>38</v>
+      </c>
+      <c r="D11" s="15">
+        <v>17</v>
+      </c>
+      <c r="E11" s="15">
+        <v>14.12</v>
+      </c>
+      <c r="G11" s="15">
+        <v>68.400000000000006</v>
+      </c>
+      <c r="H11" s="15">
+        <v>26.38</v>
+      </c>
+      <c r="I11" s="15">
+        <v>21.5</v>
+      </c>
+      <c r="K11" s="15">
+        <v>177.6</v>
+      </c>
+      <c r="L11" s="15">
+        <v>128.13999999999999</v>
+      </c>
+      <c r="M11" s="15">
+        <v>88.9</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>32</v>
+      </c>
+      <c r="C12">
+        <v>103.4</v>
+      </c>
+      <c r="D12">
+        <v>34.68</v>
+      </c>
+      <c r="E12">
+        <v>32.4</v>
+      </c>
+      <c r="G12">
+        <v>192.8</v>
+      </c>
+      <c r="H12">
+        <v>58.22</v>
+      </c>
+      <c r="I12">
+        <v>60.7</v>
+      </c>
+      <c r="K12">
+        <v>496.4</v>
+      </c>
+      <c r="L12">
+        <v>316.22000000000003</v>
+      </c>
+      <c r="M12">
+        <v>282.3</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>64</v>
+      </c>
+      <c r="C13">
+        <v>204.4</v>
+      </c>
+      <c r="D13">
+        <v>73.599999999999994</v>
+      </c>
+      <c r="E13">
+        <v>60.5</v>
+      </c>
+      <c r="G13">
+        <v>383.6</v>
+      </c>
+      <c r="H13">
+        <v>131.32</v>
+      </c>
+      <c r="I13">
+        <v>116.58</v>
+      </c>
+      <c r="K13">
+        <v>1136</v>
+      </c>
+      <c r="L13">
+        <v>757.58</v>
+      </c>
+      <c r="M13">
+        <v>552.04</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>128</v>
+      </c>
+      <c r="C14">
+        <v>520.4</v>
+      </c>
+      <c r="D14">
+        <v>157.96</v>
+      </c>
+      <c r="E14">
+        <v>139.74</v>
+      </c>
+      <c r="G14">
+        <v>993.2</v>
+      </c>
+      <c r="H14">
+        <v>293.62</v>
+      </c>
+      <c r="I14">
+        <v>303.7</v>
+      </c>
+      <c r="K14">
+        <v>2849.8</v>
+      </c>
+      <c r="L14">
+        <v>1768.72</v>
+      </c>
+      <c r="M14">
+        <v>1520.76</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>256</v>
+      </c>
+      <c r="C15">
+        <v>1030.4000000000001</v>
+      </c>
+      <c r="D15">
+        <v>339.58</v>
+      </c>
+      <c r="E15">
+        <v>272.54000000000002</v>
+      </c>
+      <c r="G15">
+        <v>1976</v>
+      </c>
+      <c r="H15">
+        <v>653.76</v>
+      </c>
+      <c r="I15">
+        <v>597.08000000000004</v>
+      </c>
+      <c r="K15">
+        <v>6295.8</v>
+      </c>
+      <c r="L15">
+        <v>4051.34</v>
+      </c>
+      <c r="M15">
+        <v>3022.52</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>512</v>
+      </c>
+      <c r="C16">
+        <v>2508</v>
+      </c>
+      <c r="D16">
+        <v>730.94</v>
+      </c>
+      <c r="E16">
+        <v>635.05999999999995</v>
+      </c>
+      <c r="G16">
+        <v>4858</v>
+      </c>
+      <c r="H16">
+        <v>1442.82</v>
+      </c>
+      <c r="I16">
+        <v>1476.16</v>
+      </c>
+      <c r="K16">
+        <v>14922</v>
+      </c>
+      <c r="L16">
+        <v>9132.7800000000007</v>
+      </c>
+      <c r="M16">
+        <v>7711.3</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>1024</v>
+      </c>
+      <c r="C17">
+        <v>4975</v>
+      </c>
+      <c r="D17">
+        <v>1570.74</v>
+      </c>
+      <c r="E17">
+        <v>1254.4000000000001</v>
+      </c>
+      <c r="G17">
+        <v>9679</v>
+      </c>
+      <c r="H17">
+        <v>3152.84</v>
+      </c>
+      <c r="I17">
+        <v>2920.28</v>
+      </c>
+      <c r="K17">
+        <v>32259.4</v>
+      </c>
+      <c r="L17">
+        <v>20338.98</v>
+      </c>
+      <c r="M17">
+        <v>15382.98</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:M17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -10336,7 +10784,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:AS32"/>
   <sheetViews>
@@ -12221,149 +12669,165 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:AB36"/>
+  <dimension ref="B2:AF36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E36" workbookViewId="0">
-      <selection activeCell="AD63" sqref="AD63"/>
+    <sheetView tabSelected="1" topLeftCell="T31" workbookViewId="0">
+      <selection activeCell="Z36" sqref="Z36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.85546875" customWidth="1"/>
-    <col min="3" max="6" width="10.85546875" customWidth="1"/>
-    <col min="7" max="7" width="3.5703125" customWidth="1"/>
-    <col min="8" max="11" width="10.140625" customWidth="1"/>
-    <col min="12" max="12" width="3.42578125" customWidth="1"/>
-    <col min="18" max="18" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="7" width="10.85546875" customWidth="1"/>
+    <col min="8" max="8" width="3.5703125" customWidth="1"/>
+    <col min="9" max="13" width="10.140625" customWidth="1"/>
+    <col min="14" max="14" width="3.42578125" customWidth="1"/>
+    <col min="21" max="21" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:29" x14ac:dyDescent="0.25">
       <c r="C2" t="str">
         <f>'Arduino Uno'!$C$7</f>
         <v>KissFFT</v>
       </c>
-      <c r="H2" t="str">
+      <c r="I2" t="str">
         <f>'Arduino Uno'!$C$7</f>
         <v>KissFFT</v>
       </c>
-      <c r="M2" t="str">
+      <c r="O2" t="str">
         <f>'Arduino Uno'!$C$7</f>
         <v>KissFFT</v>
       </c>
     </row>
-    <row r="3" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:29" x14ac:dyDescent="0.25">
       <c r="C3" t="str">
         <f>'Arduino Uno'!$C$6</f>
         <v>Int16</v>
       </c>
-      <c r="H3" t="str">
+      <c r="I3" t="str">
         <f>'Arduino Uno'!$G$6</f>
         <v>Int32</v>
       </c>
-      <c r="M3" t="str">
+      <c r="O3" t="str">
         <f>'Arduino Uno'!$K$6</f>
         <v>Float</v>
       </c>
-      <c r="S3" t="s">
+      <c r="V3" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="4" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:29" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>62</v>
       </c>
-      <c r="H4" t="str">
+      <c r="I4" t="str">
         <f>C4</f>
         <v>FFT per sec</v>
       </c>
-      <c r="M4" t="str">
+      <c r="O4" t="str">
         <f>C4</f>
         <v>FFT per sec</v>
       </c>
-      <c r="S4" t="s">
+      <c r="V4" t="s">
         <v>71</v>
       </c>
-      <c r="T4">
+      <c r="W4">
         <f>B8</f>
         <v>128</v>
       </c>
     </row>
-    <row r="5" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>0</v>
       </c>
       <c r="C5" t="str">
-        <f>'Arduino Uno'!$C$2</f>
+        <f>Compare!C5</f>
         <v>Arduino Uno</v>
       </c>
       <c r="D5" t="str">
-        <f>'Arduino M0 Pro'!$C$2</f>
+        <f>Compare!D5</f>
         <v>Arduino M0</v>
       </c>
       <c r="E5" t="str">
-        <f>'Teensy 3.2'!$C$2</f>
+        <f>Compare!E5</f>
+        <v>Maple</v>
+      </c>
+      <c r="F5" t="str">
+        <f>Compare!F5</f>
         <v>Teensy 3.2</v>
       </c>
-      <c r="F5" t="str">
-        <f>'NXP K66'!$C$2</f>
+      <c r="G5" t="str">
+        <f>Compare!G5</f>
         <v>FRDM-K66F</v>
       </c>
-      <c r="H5" t="str">
-        <f>'Arduino Uno'!$C$2</f>
+      <c r="I5" t="str">
+        <f>C5</f>
         <v>Arduino Uno</v>
       </c>
-      <c r="I5" t="str">
-        <f>'Arduino M0 Pro'!$C$2</f>
+      <c r="J5" t="str">
+        <f t="shared" ref="J5:M5" si="0">D5</f>
         <v>Arduino M0</v>
       </c>
-      <c r="J5" t="str">
-        <f>'Teensy 3.2'!$C$2</f>
+      <c r="K5" t="str">
+        <f t="shared" si="0"/>
+        <v>Maple</v>
+      </c>
+      <c r="L5" t="str">
+        <f t="shared" si="0"/>
         <v>Teensy 3.2</v>
       </c>
-      <c r="K5" t="str">
-        <f>'NXP K66'!$C$2</f>
+      <c r="M5" t="str">
+        <f t="shared" si="0"/>
         <v>FRDM-K66F</v>
       </c>
-      <c r="M5" t="str">
-        <f>'Arduino Uno'!$C$2</f>
+      <c r="O5" t="str">
+        <f>C5</f>
         <v>Arduino Uno</v>
       </c>
-      <c r="N5" t="str">
-        <f>'Arduino M0 Pro'!$C$2</f>
+      <c r="P5" t="str">
+        <f t="shared" ref="P5:S5" si="1">D5</f>
         <v>Arduino M0</v>
       </c>
-      <c r="O5" t="str">
-        <f>'Teensy 3.2'!$C$2</f>
+      <c r="Q5" t="str">
+        <f t="shared" si="1"/>
+        <v>Maple</v>
+      </c>
+      <c r="R5" t="str">
+        <f t="shared" si="1"/>
         <v>Teensy 3.2</v>
       </c>
-      <c r="P5" t="str">
-        <f>'NXP K66'!$C$2</f>
+      <c r="S5" t="str">
+        <f t="shared" si="1"/>
         <v>FRDM-K66F</v>
       </c>
-      <c r="T5" t="str">
-        <f>M5</f>
+      <c r="W5" t="str">
+        <f>O5</f>
         <v>Arduino Uno</v>
       </c>
-      <c r="U5" t="str">
-        <f>N5</f>
+      <c r="X5" t="str">
+        <f>P5</f>
         <v>Arduino M0</v>
       </c>
-      <c r="V5" t="str">
-        <f>O5</f>
+      <c r="Y5" t="str">
+        <f>Q5</f>
+        <v>Maple</v>
+      </c>
+      <c r="Z5" t="str">
+        <f>R5</f>
         <v>Teensy 3.2</v>
       </c>
-      <c r="W5" t="str">
-        <f>P5</f>
+      <c r="AA5" t="str">
+        <f>S5</f>
         <v>FRDM-K66F</v>
       </c>
-      <c r="X5" t="s">
+      <c r="AB5" t="s">
         <v>92</v>
       </c>
-      <c r="Y5" t="s">
+      <c r="AC5" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="6" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B6">
         <f>'Arduino Uno'!$B12</f>
         <v>32</v>
@@ -12378,73 +12842,89 @@
       </c>
       <c r="E6" s="16">
         <f>1000000/Compare!E6</f>
-        <v>9671.1798839458406</v>
+        <v>8051.5297906602254</v>
       </c>
       <c r="F6" s="16">
         <f>1000000/Compare!F6</f>
+        <v>9671.1798839458406</v>
+      </c>
+      <c r="G6" s="16">
+        <f>1000000/Compare!G6</f>
         <v>14492.753623188406</v>
-      </c>
-      <c r="H6" s="16">
-        <f>1000000/Compare!H6</f>
-        <v>79.622905917574357</v>
       </c>
       <c r="I6" s="16">
         <f>1000000/Compare!I6</f>
-        <v>1246.8827930174564</v>
+        <v>79.622905917574357</v>
       </c>
       <c r="J6" s="16">
         <f>1000000/Compare!J6</f>
-        <v>5186.7219917012444</v>
+        <v>1246.8827930174564</v>
       </c>
       <c r="K6" s="16">
         <f>1000000/Compare!K6</f>
-        <v>9803.9215686274511</v>
+        <v>5230.1255230125525</v>
+      </c>
+      <c r="L6" s="16">
+        <f>1000000/Compare!L6</f>
+        <v>5186.7219917012444</v>
       </c>
       <c r="M6" s="16">
         <f>1000000/Compare!M6</f>
-        <v>156.78896205707119</v>
-      </c>
-      <c r="N6" s="16">
-        <f>1000000/Compare!N6</f>
-        <v>457.03839122486289</v>
+        <v>9803.9215686274511</v>
       </c>
       <c r="O6" s="16">
         <f>1000000/Compare!O6</f>
-        <v>2014.5044319097503</v>
+        <v>156.78896205707119</v>
       </c>
       <c r="P6" s="16">
         <f>1000000/Compare!P6</f>
+        <v>457.03839122486289</v>
+      </c>
+      <c r="Q6" s="16">
+        <f>1000000/Compare!Q6</f>
+        <v>1498.8009592326139</v>
+      </c>
+      <c r="R6" s="16">
+        <f>1000000/Compare!R6</f>
+        <v>2014.5044319097503</v>
+      </c>
+      <c r="S6" s="16">
+        <f>1000000/Compare!S6</f>
         <v>21276.59574468085</v>
       </c>
-      <c r="S6" t="s">
+      <c r="V6" t="s">
         <v>81</v>
       </c>
-      <c r="T6">
+      <c r="W6">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="U6" s="16">
+      <c r="X6" s="16">
         <f>D8</f>
         <v>638.9776357827476</v>
       </c>
-      <c r="V6" s="16">
+      <c r="Y6" s="16">
         <f>E8</f>
+        <v>1643.6554898093361</v>
+      </c>
+      <c r="Z6" s="16">
+        <f>F8</f>
         <v>1921.5987701767872</v>
       </c>
-      <c r="W6" s="16">
-        <f>F8</f>
+      <c r="AA6" s="16">
+        <f>G8</f>
         <v>2865.3295128939826</v>
       </c>
-      <c r="X6" s="16">
-        <f>E20</f>
+      <c r="AB6" s="16">
+        <f>F20</f>
         <v>7156.1471303850003</v>
       </c>
-      <c r="Y6" s="16">
-        <f>F20</f>
+      <c r="AC6" s="16">
+        <f>G20</f>
         <v>14285.714285714286</v>
       </c>
     </row>
-    <row r="7" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B7">
         <f>'Arduino Uno'!$B13</f>
         <v>64</v>
@@ -12459,72 +12939,88 @@
       </c>
       <c r="E7" s="16">
         <f>1000000/Compare!E7</f>
-        <v>4892.3679060665363</v>
+        <v>4230.1184433164126</v>
       </c>
       <c r="F7" s="16">
         <f>1000000/Compare!F7</f>
+        <v>4892.3679060665363</v>
+      </c>
+      <c r="G7" s="16">
+        <f>1000000/Compare!G7</f>
         <v>7352.9411764705883</v>
       </c>
-      <c r="H7" s="16" t="e">
-        <f>1000000/Compare!H7</f>
+      <c r="I7" s="16" t="e">
+        <f>1000000/Compare!I7</f>
         <v>#DIV/0!</v>
-      </c>
-      <c r="I7" s="16">
-        <f>1000000/Compare!I7</f>
-        <v>597.37156511350065</v>
       </c>
       <c r="J7" s="16">
         <f>1000000/Compare!J7</f>
-        <v>2606.8821689259644</v>
+        <v>597.37156511350065</v>
       </c>
       <c r="K7" s="16">
         <f>1000000/Compare!K7</f>
+        <v>2714.4408251900109</v>
+      </c>
+      <c r="L7" s="16">
+        <f>1000000/Compare!L7</f>
+        <v>2606.8821689259644</v>
+      </c>
+      <c r="M7" s="16">
+        <f>1000000/Compare!M7</f>
         <v>5263.1578947368425</v>
       </c>
-      <c r="M7" s="16" t="e">
-        <f>1000000/Compare!M7</f>
+      <c r="O7" s="16" t="e">
+        <f>1000000/Compare!O7</f>
         <v>#DIV/0!</v>
-      </c>
-      <c r="N7" s="16">
-        <f>1000000/Compare!N7</f>
-        <v>198.60973187686196</v>
-      </c>
-      <c r="O7" s="16">
-        <f>1000000/Compare!O7</f>
-        <v>880.28169014084506</v>
       </c>
       <c r="P7" s="16">
         <f>1000000/Compare!P7</f>
+        <v>198.60973187686196</v>
+      </c>
+      <c r="Q7" s="16">
+        <f>1000000/Compare!Q7</f>
+        <v>649.35064935064941</v>
+      </c>
+      <c r="R7" s="16">
+        <f>1000000/Compare!R7</f>
+        <v>880.28169014084506</v>
+      </c>
+      <c r="S7" s="16">
+        <f>1000000/Compare!S7</f>
         <v>12658.227848101265</v>
       </c>
-      <c r="S7" t="s">
+      <c r="V7" t="s">
         <v>32</v>
       </c>
-      <c r="T7">
+      <c r="W7">
         <v>0</v>
       </c>
-      <c r="U7" s="16">
-        <f>I8</f>
+      <c r="X7" s="16">
+        <f>J8</f>
         <v>235.79344494223059</v>
       </c>
-      <c r="V7" s="16">
-        <f>J8</f>
+      <c r="Y7" s="16">
+        <f>K8</f>
+        <v>1031.3531353135313</v>
+      </c>
+      <c r="Z7" s="16">
+        <f>L8</f>
         <v>1006.8465565847764</v>
       </c>
-      <c r="W7" s="16">
-        <f>K8</f>
+      <c r="AA7" s="16">
+        <f>M8</f>
         <v>1953.125</v>
       </c>
-      <c r="X7" s="16">
-        <f>J20</f>
+      <c r="AB7" s="16">
+        <f>L20</f>
         <v>3292.723081988805</v>
       </c>
-      <c r="Y7" s="16">
-        <f>K20</f>
+      <c r="AC7" s="16">
+        <f>M20</f>
         <v>6211.1801242236024</v>
       </c>
     </row>
-    <row r="8" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B8">
         <f>'Arduino Uno'!$B14</f>
         <v>128</v>
@@ -12539,72 +13035,88 @@
       </c>
       <c r="E8" s="16">
         <f>1000000/Compare!E8</f>
-        <v>1921.5987701767872</v>
+        <v>1643.6554898093361</v>
       </c>
       <c r="F8" s="16">
         <f>1000000/Compare!F8</f>
+        <v>1921.5987701767872</v>
+      </c>
+      <c r="G8" s="16">
+        <f>1000000/Compare!G8</f>
         <v>2865.3295128939826</v>
       </c>
-      <c r="H8" s="16" t="e">
-        <f>1000000/Compare!H8</f>
+      <c r="I8" s="16" t="e">
+        <f>1000000/Compare!I8</f>
         <v>#DIV/0!</v>
-      </c>
-      <c r="I8" s="16">
-        <f>1000000/Compare!I8</f>
-        <v>235.79344494223059</v>
       </c>
       <c r="J8" s="16">
         <f>1000000/Compare!J8</f>
-        <v>1006.8465565847764</v>
+        <v>235.79344494223059</v>
       </c>
       <c r="K8" s="16">
         <f>1000000/Compare!K8</f>
+        <v>1031.3531353135313</v>
+      </c>
+      <c r="L8" s="16">
+        <f>1000000/Compare!L8</f>
+        <v>1006.8465565847764</v>
+      </c>
+      <c r="M8" s="16">
+        <f>1000000/Compare!M8</f>
         <v>1953.125</v>
       </c>
-      <c r="M8" s="16" t="e">
-        <f>1000000/Compare!M8</f>
+      <c r="O8" s="16" t="e">
+        <f>1000000/Compare!O8</f>
         <v>#DIV/0!</v>
-      </c>
-      <c r="N8" s="16">
-        <f>1000000/Compare!N8</f>
-        <v>81.221572449642622</v>
-      </c>
-      <c r="O8" s="16">
-        <f>1000000/Compare!O8</f>
-        <v>350.90181767141553</v>
       </c>
       <c r="P8" s="16">
         <f>1000000/Compare!P8</f>
+        <v>81.221572449642622</v>
+      </c>
+      <c r="Q8" s="16">
+        <f>1000000/Compare!Q8</f>
+        <v>262.72923125426934</v>
+      </c>
+      <c r="R8" s="16">
+        <f>1000000/Compare!R8</f>
+        <v>350.90181767141553</v>
+      </c>
+      <c r="S8" s="16">
+        <f>1000000/Compare!S8</f>
         <v>4608.294930875576</v>
       </c>
-      <c r="S8" t="s">
+      <c r="V8" t="s">
         <v>22</v>
       </c>
-      <c r="T8">
+      <c r="W8">
         <v>0</v>
       </c>
-      <c r="U8" s="16">
-        <f>N8</f>
+      <c r="X8" s="16">
+        <f>P8</f>
         <v>81.221572449642622</v>
       </c>
-      <c r="V8" s="16">
-        <f>O8</f>
+      <c r="Y8" s="16">
+        <f>Q8</f>
+        <v>262.72923125426934</v>
+      </c>
+      <c r="Z8" s="16">
+        <f>R8</f>
         <v>350.90181767141553</v>
       </c>
-      <c r="W8" s="16">
-        <f>P8</f>
+      <c r="AA8" s="16">
+        <f>S8</f>
         <v>4608.294930875576</v>
       </c>
-      <c r="X8" s="16">
-        <f>O20</f>
+      <c r="AB8" s="16">
+        <f>R20</f>
         <v>657.56595386517267</v>
       </c>
-      <c r="Y8" s="16">
-        <f>P20</f>
+      <c r="AC8" s="16">
+        <f>S20</f>
         <v>9523.8095238095229</v>
       </c>
     </row>
-    <row r="9" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B9">
         <f>'Arduino Uno'!$B15</f>
         <v>256</v>
@@ -12619,46 +13131,58 @@
       </c>
       <c r="E9" s="16">
         <f>1000000/Compare!E9</f>
-        <v>970.49689440993779</v>
+        <v>853.67935803312264</v>
       </c>
       <c r="F9" s="16">
         <f>1000000/Compare!F9</f>
+        <v>970.49689440993779</v>
+      </c>
+      <c r="G9" s="16">
+        <f>1000000/Compare!G9</f>
         <v>1457.7259475218659</v>
       </c>
-      <c r="H9" s="16" t="e">
-        <f>1000000/Compare!H9</f>
+      <c r="I9" s="16" t="e">
+        <f>1000000/Compare!I9</f>
         <v>#DIV/0!</v>
-      </c>
-      <c r="I9" s="16">
-        <f>1000000/Compare!I9</f>
-        <v>114.11617026132603</v>
       </c>
       <c r="J9" s="16">
         <f>1000000/Compare!J9</f>
-        <v>506.07287449392715</v>
+        <v>114.11617026132603</v>
       </c>
       <c r="K9" s="16">
         <f>1000000/Compare!K9</f>
+        <v>530.56027164685906</v>
+      </c>
+      <c r="L9" s="16">
+        <f>1000000/Compare!L9</f>
+        <v>506.07287449392715</v>
+      </c>
+      <c r="M9" s="16">
+        <f>1000000/Compare!M9</f>
         <v>1030.9278350515465</v>
       </c>
-      <c r="M9" s="16" t="e">
-        <f>1000000/Compare!M9</f>
+      <c r="O9" s="16" t="e">
+        <f>1000000/Compare!O9</f>
         <v>#DIV/0!</v>
-      </c>
-      <c r="N9" s="16">
-        <f>1000000/Compare!N9</f>
-        <v>36.564408205053198</v>
-      </c>
-      <c r="O9" s="16">
-        <f>1000000/Compare!O9</f>
-        <v>158.83604942977857</v>
       </c>
       <c r="P9" s="16">
         <f>1000000/Compare!P9</f>
+        <v>36.564408205053198</v>
+      </c>
+      <c r="Q9" s="16">
+        <f>1000000/Compare!Q9</f>
+        <v>117.43153741368782</v>
+      </c>
+      <c r="R9" s="16">
+        <f>1000000/Compare!R9</f>
+        <v>158.83604942977857</v>
+      </c>
+      <c r="S9" s="16">
+        <f>1000000/Compare!S9</f>
         <v>2695.4177897574123</v>
       </c>
     </row>
-    <row r="10" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B10">
         <f>'Arduino Uno'!$B16</f>
         <v>512</v>
@@ -12671,51 +13195,63 @@
         <f>1000000/Compare!D10</f>
         <v>135.080372821829</v>
       </c>
-      <c r="E10" s="16">
+      <c r="E10" s="16" t="e">
         <f>1000000/Compare!E10</f>
-        <v>398.72408293460927</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F10" s="16">
         <f>1000000/Compare!F10</f>
+        <v>398.72408293460927</v>
+      </c>
+      <c r="G10" s="16">
+        <f>1000000/Compare!G10</f>
         <v>594.17706476530009</v>
       </c>
-      <c r="H10" s="16" t="e">
-        <f>1000000/Compare!H10</f>
+      <c r="I10" s="16" t="e">
+        <f>1000000/Compare!I10</f>
         <v>#DIV/0!</v>
-      </c>
-      <c r="I10" s="16">
-        <f>1000000/Compare!I10</f>
-        <v>47.386627493721271</v>
       </c>
       <c r="J10" s="16">
         <f>1000000/Compare!J10</f>
+        <v>47.386627493721271</v>
+      </c>
+      <c r="K10" s="16" t="e">
+        <f>1000000/Compare!K10</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L10" s="16">
+        <f>1000000/Compare!L10</f>
         <v>205.84602717167559</v>
       </c>
-      <c r="K10" s="16">
-        <f>1000000/Compare!K10</f>
+      <c r="M10" s="16">
+        <f>1000000/Compare!M10</f>
         <v>406.33888663145063</v>
       </c>
-      <c r="M10" s="16" t="e">
-        <f>1000000/Compare!M10</f>
+      <c r="O10" s="16" t="e">
+        <f>1000000/Compare!O10</f>
         <v>#DIV/0!</v>
-      </c>
-      <c r="N10" s="16">
-        <f>1000000/Compare!N10</f>
-        <v>15.690704826460804</v>
-      </c>
-      <c r="O10" s="16">
-        <f>1000000/Compare!O10</f>
-        <v>67.015145422865572</v>
       </c>
       <c r="P10" s="16">
         <f>1000000/Compare!P10</f>
+        <v>15.690704826460804</v>
+      </c>
+      <c r="Q10" s="16" t="e">
+        <f>1000000/Compare!Q10</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R10" s="16">
+        <f>1000000/Compare!R10</f>
+        <v>67.015145422865572</v>
+      </c>
+      <c r="S10" s="16">
+        <f>1000000/Compare!S10</f>
         <v>1019.3679918450561</v>
       </c>
-      <c r="S10" t="s">
+      <c r="V10" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="11" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B11">
         <f>'Arduino Uno'!$B17</f>
         <v>1024</v>
@@ -12728,240 +13264,276 @@
         <f>1000000/Compare!D11</f>
         <v>68.467826968107687</v>
       </c>
-      <c r="E11" s="16">
+      <c r="E11" s="16" t="e">
         <f>1000000/Compare!E11</f>
-        <v>201.00502512562815</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F11" s="16">
         <f>1000000/Compare!F11</f>
+        <v>201.00502512562815</v>
+      </c>
+      <c r="G11" s="16">
+        <f>1000000/Compare!G11</f>
         <v>301.56815440289506</v>
       </c>
-      <c r="H11" s="16" t="e">
-        <f>1000000/Compare!H11</f>
+      <c r="I11" s="16" t="e">
+        <f>1000000/Compare!I11</f>
         <v>#DIV/0!</v>
-      </c>
-      <c r="I11" s="16">
-        <f>1000000/Compare!I11</f>
-        <v>23.079231000023078</v>
       </c>
       <c r="J11" s="16">
         <f>1000000/Compare!J11</f>
+        <v>23.079231000023078</v>
+      </c>
+      <c r="K11" s="16" t="e">
+        <f>1000000/Compare!K11</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L11" s="16">
+        <f>1000000/Compare!L11</f>
         <v>103.31645831180907</v>
       </c>
-      <c r="K11" s="16">
-        <f>1000000/Compare!K11</f>
+      <c r="M11" s="16">
+        <f>1000000/Compare!M11</f>
         <v>212.40441801189465</v>
       </c>
-      <c r="M11" s="16" t="e">
-        <f>1000000/Compare!M11</f>
+      <c r="O11" s="16" t="e">
+        <f>1000000/Compare!O11</f>
         <v>#DIV/0!</v>
-      </c>
-      <c r="N11" s="16">
-        <f>1000000/Compare!N11</f>
-        <v>7.2218330456636499</v>
-      </c>
-      <c r="O11" s="16">
-        <f>1000000/Compare!O11</f>
-        <v>30.998716653130558</v>
       </c>
       <c r="P11" s="16">
         <f>1000000/Compare!P11</f>
+        <v>7.2218330456636499</v>
+      </c>
+      <c r="Q11" s="16" t="e">
+        <f>1000000/Compare!Q11</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R11" s="16">
+        <f>1000000/Compare!R11</f>
+        <v>30.998716653130558</v>
+      </c>
+      <c r="S11" s="16">
+        <f>1000000/Compare!S11</f>
         <v>584.45353594389246</v>
       </c>
     </row>
-    <row r="13" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="S13" t="s">
+    <row r="13" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="V13" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="14" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:29" x14ac:dyDescent="0.25">
       <c r="C14" t="str">
         <f>'Teensy 3.2'!$E$7</f>
         <v>CMSIS FFT</v>
       </c>
-      <c r="E14" t="str">
+      <c r="F14" t="str">
         <f>'Teensy 3.2'!E8</f>
         <v>Radix4</v>
       </c>
-      <c r="H14" t="str">
+      <c r="I14" t="str">
         <f>'Teensy 3.2'!$E$7</f>
         <v>CMSIS FFT</v>
       </c>
-      <c r="M14" t="str">
+      <c r="O14" t="str">
         <f>'Teensy 3.2'!$E$7</f>
         <v>CMSIS FFT</v>
       </c>
     </row>
-    <row r="15" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:29" x14ac:dyDescent="0.25">
       <c r="C15" t="str">
         <f>'Arduino Uno'!$C$6</f>
         <v>Int16</v>
       </c>
-      <c r="H15" t="str">
+      <c r="I15" t="str">
         <f>'Teensy 3.2'!$H$6</f>
         <v>Int32</v>
       </c>
-      <c r="M15" t="str">
+      <c r="O15" t="str">
         <f>'Teensy 3.2'!$K$6</f>
         <v>Float</v>
       </c>
-      <c r="T15" t="str">
-        <f>Compare!V5</f>
-        <v>Arduino Uno</v>
-      </c>
-      <c r="U15" t="str">
-        <f>Compare!W5</f>
-        <v>Arduino M0</v>
-      </c>
-      <c r="V15" t="str">
-        <f>Compare!X5</f>
-        <v>Teensy 3.2</v>
-      </c>
       <c r="W15" t="str">
         <f>Compare!Y5</f>
+        <v>Arduino Uno</v>
+      </c>
+      <c r="X15" t="str">
+        <f>Compare!Z5</f>
+        <v>Arduino M0</v>
+      </c>
+      <c r="Y15" t="str">
+        <f>Compare!AA5</f>
+        <v>Maple</v>
+      </c>
+      <c r="Z15" t="str">
+        <f>Compare!AB5</f>
+        <v>Teensy 3.2</v>
+      </c>
+      <c r="AA15" t="str">
+        <f>Compare!AC5</f>
         <v>FRDM-K66F</v>
       </c>
-      <c r="X15" t="str">
-        <f>X5</f>
+      <c r="AB15" t="str">
+        <f>AB5</f>
         <v>Teensy 3.2 CMSIS</v>
       </c>
-      <c r="Y15" t="str">
-        <f>Y5</f>
+      <c r="AC15" t="str">
+        <f>AC5</f>
         <v>FRDM-K66F CMSIS</v>
       </c>
     </row>
-    <row r="16" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:29" x14ac:dyDescent="0.25">
       <c r="C16" t="str">
         <f>C4</f>
         <v>FFT per sec</v>
       </c>
-      <c r="H16" t="str">
+      <c r="I16" t="str">
         <f>C16</f>
         <v>FFT per sec</v>
       </c>
-      <c r="M16" t="str">
+      <c r="O16" t="str">
         <f>C16</f>
         <v>FFT per sec</v>
       </c>
-      <c r="O16" t="str">
+      <c r="R16" t="str">
         <f>'Teensy 3.2'!$C$2</f>
         <v>Teensy 3.2</v>
       </c>
-      <c r="P16" t="str">
+      <c r="S16" t="str">
         <f>'NXP K66'!$C$2</f>
         <v>FRDM-K66F</v>
       </c>
-      <c r="S16" t="str">
-        <f>Compare!V3</f>
+      <c r="V16" t="str">
+        <f>Compare!Y3</f>
         <v>Int16</v>
-      </c>
-      <c r="T16">
-        <f>Compare!V12</f>
-        <v>87.394391629661698</v>
-      </c>
-      <c r="U16">
-        <f>Compare!W12</f>
-        <v>5.2178622215042729</v>
-      </c>
-      <c r="V16">
-        <f>Compare!X12</f>
-        <v>1.7556715933315656</v>
       </c>
       <c r="W16">
         <f>Compare!Y12</f>
+        <v>87.394391629661698</v>
+      </c>
+      <c r="X16">
+        <f>Compare!Z12</f>
+        <v>5.2178622215042729</v>
+      </c>
+      <c r="Y16">
+        <f>Compare!AA12</f>
+        <v>2.0778502664386487</v>
+      </c>
+      <c r="Z16">
+        <f>Compare!AB12</f>
+        <v>1.7556715933315656</v>
+      </c>
+      <c r="AA16">
+        <f>Compare!AC12</f>
         <v>1.1739132199713216</v>
       </c>
-      <c r="X16">
-        <f>Compare!X24</f>
+      <c r="AB16">
+        <f>Compare!AB24</f>
         <v>0.45622765296996637</v>
       </c>
-      <c r="Y16">
-        <f>Compare!Y24</f>
+      <c r="AC16">
+        <f>Compare!AC24</f>
         <v>0.22569718713256531</v>
       </c>
     </row>
-    <row r="17" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>0</v>
       </c>
       <c r="C17" t="str">
-        <f>'Arduino Uno'!$C$2</f>
+        <f>C5</f>
         <v>Arduino Uno</v>
       </c>
       <c r="D17" t="str">
-        <f>'Arduino M0 Pro'!$C$2</f>
+        <f t="shared" ref="D17:G17" si="2">D5</f>
         <v>Arduino M0</v>
       </c>
       <c r="E17" t="str">
-        <f>'Teensy 3.2'!$C$2</f>
+        <f t="shared" si="2"/>
+        <v>Maple</v>
+      </c>
+      <c r="F17" t="str">
+        <f t="shared" si="2"/>
         <v>Teensy 3.2</v>
       </c>
-      <c r="F17" t="str">
-        <f>'NXP K66'!$C$2</f>
+      <c r="G17" t="str">
+        <f t="shared" si="2"/>
         <v>FRDM-K66F</v>
       </c>
-      <c r="H17" t="str">
-        <f>'Arduino Uno'!$C$2</f>
+      <c r="I17" t="str">
+        <f>C17</f>
         <v>Arduino Uno</v>
       </c>
-      <c r="I17" t="str">
-        <f>'Arduino M0 Pro'!$C$2</f>
+      <c r="J17" t="str">
+        <f t="shared" ref="J17" si="3">D17</f>
         <v>Arduino M0</v>
       </c>
-      <c r="J17" t="str">
-        <f>'Teensy 3.2'!$C$2</f>
+      <c r="K17" t="str">
+        <f t="shared" ref="K17" si="4">E17</f>
+        <v>Maple</v>
+      </c>
+      <c r="L17" t="str">
+        <f t="shared" ref="L17" si="5">F17</f>
         <v>Teensy 3.2</v>
       </c>
-      <c r="K17" t="str">
-        <f>'NXP K66'!$C$2</f>
+      <c r="M17" t="str">
+        <f t="shared" ref="M17" si="6">G17</f>
         <v>FRDM-K66F</v>
       </c>
-      <c r="M17" t="str">
-        <f>'Arduino Uno'!$C$2</f>
+      <c r="O17" t="str">
+        <f>C17</f>
         <v>Arduino Uno</v>
       </c>
-      <c r="N17" t="str">
-        <f>'Arduino M0 Pro'!$C$2</f>
+      <c r="P17" t="str">
+        <f t="shared" ref="P17" si="7">D17</f>
         <v>Arduino M0</v>
       </c>
-      <c r="O17" t="str">
-        <f>'Teensy 3.2'!$C$2</f>
+      <c r="Q17" t="str">
+        <f t="shared" ref="Q17" si="8">E17</f>
+        <v>Maple</v>
+      </c>
+      <c r="R17" t="str">
+        <f t="shared" ref="R17" si="9">F17</f>
         <v>Teensy 3.2</v>
       </c>
-      <c r="P17" t="str">
-        <f>'NXP K66'!$C$2</f>
+      <c r="S17" t="str">
+        <f t="shared" ref="S17" si="10">G17</f>
         <v>FRDM-K66F</v>
       </c>
-      <c r="S17" t="str">
-        <f>Compare!AA3</f>
+      <c r="V17" t="str">
+        <f>Compare!AE3</f>
         <v>Int32</v>
       </c>
-      <c r="T17">
-        <f>Compare!AA12</f>
+      <c r="W17">
+        <f>Compare!AE12</f>
         <v>260.75474580818349</v>
       </c>
-      <c r="U17">
-        <f>Compare!AB12</f>
+      <c r="X17">
+        <f>Compare!AF12</f>
         <v>14.801730336275433</v>
       </c>
-      <c r="V17">
-        <f>Compare!AC12</f>
+      <c r="Y17">
+        <f>Compare!AG12</f>
+        <v>3.3260063548252821</v>
+      </c>
+      <c r="Z17">
+        <f>Compare!AH12</f>
         <v>3.3823823767512038</v>
       </c>
-      <c r="W17">
-        <f>Compare!AD12</f>
+      <c r="AA17">
+        <f>Compare!AI12</f>
         <v>1.6932682945655746</v>
       </c>
-      <c r="X17">
-        <f>Compare!AC24</f>
+      <c r="AB17">
+        <f>Compare!AH24</f>
         <v>1.0264962756062466</v>
       </c>
-      <c r="Y17">
-        <f>Compare!AD24</f>
+      <c r="AC17">
+        <f>Compare!AI24</f>
         <v>0.54578781174870583</v>
       </c>
     </row>
-    <row r="18" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B18">
         <f>'Teensy 3.2'!B12</f>
         <v>32</v>
@@ -12974,76 +13546,89 @@
         <f>1000000/Compare!D18</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E18" s="16">
+      <c r="E18" s="16" t="e">
         <f>1000000/Compare!E18</f>
-        <v>30864.1975308642</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F18" s="16">
         <f>1000000/Compare!F18</f>
+        <v>30864.1975308642</v>
+      </c>
+      <c r="G18" s="16">
+        <f>1000000/Compare!G18</f>
         <v>58823.529411764706</v>
-      </c>
-      <c r="H18" s="16" t="e">
-        <f>1000000/Compare!H18</f>
-        <v>#DIV/0!</v>
       </c>
       <c r="I18" s="16" t="e">
         <f>1000000/Compare!I18</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J18" s="16">
+      <c r="J18" s="16" t="e">
         <f>1000000/Compare!J18</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K18" s="16" t="e">
+        <f>1000000/Compare!K18</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L18" s="16">
+        <f>1000000/Compare!L18</f>
         <v>16474.464579901152</v>
       </c>
-      <c r="K18" s="16">
-        <f>1000000/Compare!K18</f>
+      <c r="M18" s="16">
+        <f>1000000/Compare!M18</f>
         <v>31250</v>
       </c>
-      <c r="M18" s="16" t="e">
-        <f>1000000/Compare!M18</f>
+      <c r="O18" s="16" t="e">
+        <f>1000000/Compare!O18</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N18" s="16" t="e">
-        <f>1000000/Compare!N18</f>
+      <c r="P18" s="16" t="e">
+        <f>1000000/Compare!P18</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O18" s="16">
-        <f>1000000/Compare!O18</f>
+      <c r="Q18" s="16"/>
+      <c r="R18" s="16">
+        <f>1000000/Compare!R18</f>
         <v>3542.3308537017356</v>
       </c>
-      <c r="P18" s="16">
-        <f>1000000/Compare!P18</f>
+      <c r="S18" s="16">
+        <f>1000000/Compare!S18</f>
         <v>40000</v>
       </c>
-      <c r="S18" t="str">
-        <f>Compare!AF3</f>
+      <c r="V18" t="str">
+        <f>Compare!AK3</f>
         <v>Float</v>
       </c>
-      <c r="T18">
-        <f>Compare!AF12</f>
+      <c r="W18">
+        <f>Compare!AK12</f>
         <v>132.42035868244747</v>
       </c>
-      <c r="U18">
-        <f>Compare!AG12</f>
+      <c r="X18">
+        <f>Compare!AL12</f>
         <v>45.21822456815466</v>
       </c>
-      <c r="V18">
-        <f>Compare!AH12</f>
+      <c r="Y18">
+        <f>Compare!AM12</f>
+        <v>13.962061929057068</v>
+      </c>
+      <c r="Z18">
+        <f>Compare!AN12</f>
         <v>10.50004560530216</v>
       </c>
-      <c r="W18">
-        <f>Compare!AI12</f>
+      <c r="AA18">
+        <f>Compare!AO12</f>
         <v>0.6671430788218613</v>
       </c>
-      <c r="X18">
-        <f>Compare!AH24</f>
+      <c r="AB18">
+        <f>Compare!AN24</f>
         <v>5.2725808581588325</v>
       </c>
-      <c r="Y18">
-        <f>Compare!AI24</f>
+      <c r="AC18">
+        <f>Compare!AO24</f>
         <v>0.34060035862211813</v>
       </c>
     </row>
-    <row r="19" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B19">
         <f>'Teensy 3.2'!B13</f>
         <v>64</v>
@@ -13056,48 +13641,57 @@
         <f>1000000/Compare!D19</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E19" s="16">
+      <c r="E19" s="16" t="e">
         <f>1000000/Compare!E19</f>
-        <v>16528.92561983471</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F19" s="16">
         <f>1000000/Compare!F19</f>
+        <v>16528.92561983471</v>
+      </c>
+      <c r="G19" s="16">
+        <f>1000000/Compare!G19</f>
         <v>33333.333333333336</v>
-      </c>
-      <c r="H19" s="16" t="e">
-        <f>1000000/Compare!H19</f>
-        <v>#DIV/0!</v>
       </c>
       <c r="I19" s="16" t="e">
         <f>1000000/Compare!I19</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J19" s="16">
+      <c r="J19" s="16" t="e">
         <f>1000000/Compare!J19</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K19" s="16" t="e">
+        <f>1000000/Compare!K19</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L19" s="16">
+        <f>1000000/Compare!L19</f>
         <v>8577.8006519128503</v>
       </c>
-      <c r="K19" s="16">
-        <f>1000000/Compare!K19</f>
+      <c r="M19" s="16">
+        <f>1000000/Compare!M19</f>
         <v>16666.666666666668</v>
       </c>
-      <c r="M19" s="16" t="e">
-        <f>1000000/Compare!M19</f>
+      <c r="O19" s="16" t="e">
+        <f>1000000/Compare!O19</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N19" s="16" t="e">
-        <f>1000000/Compare!N19</f>
+      <c r="P19" s="16" t="e">
+        <f>1000000/Compare!P19</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O19" s="16">
-        <f>1000000/Compare!O19</f>
+      <c r="Q19" s="16"/>
+      <c r="R19" s="16">
+        <f>1000000/Compare!R19</f>
         <v>1811.4629374682995</v>
       </c>
-      <c r="P19" s="16">
-        <f>1000000/Compare!P19</f>
+      <c r="S19" s="16">
+        <f>1000000/Compare!S19</f>
         <v>21276.59574468085</v>
       </c>
     </row>
-    <row r="20" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B20">
         <f>'Teensy 3.2'!B14</f>
         <v>128</v>
@@ -13110,48 +13704,57 @@
         <f>1000000/Compare!D20</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E20" s="16">
+      <c r="E20" s="16" t="e">
         <f>1000000/Compare!E20</f>
-        <v>7156.1471303850003</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F20" s="16">
         <f>1000000/Compare!F20</f>
+        <v>7156.1471303850003</v>
+      </c>
+      <c r="G20" s="16">
+        <f>1000000/Compare!G20</f>
         <v>14285.714285714286</v>
-      </c>
-      <c r="H20" s="16" t="e">
-        <f>1000000/Compare!H20</f>
-        <v>#DIV/0!</v>
       </c>
       <c r="I20" s="16" t="e">
         <f>1000000/Compare!I20</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J20" s="16">
+      <c r="J20" s="16" t="e">
         <f>1000000/Compare!J20</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K20" s="16" t="e">
+        <f>1000000/Compare!K20</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L20" s="16">
+        <f>1000000/Compare!L20</f>
         <v>3292.723081988805</v>
       </c>
-      <c r="K20" s="16">
-        <f>1000000/Compare!K20</f>
+      <c r="M20" s="16">
+        <f>1000000/Compare!M20</f>
         <v>6211.1801242236024</v>
       </c>
-      <c r="M20" s="16" t="e">
-        <f>1000000/Compare!M20</f>
+      <c r="O20" s="16" t="e">
+        <f>1000000/Compare!O20</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N20" s="16" t="e">
-        <f>1000000/Compare!N20</f>
+      <c r="P20" s="16" t="e">
+        <f>1000000/Compare!P20</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O20" s="16">
-        <f>1000000/Compare!O20</f>
+      <c r="Q20" s="16"/>
+      <c r="R20" s="16">
+        <f>1000000/Compare!R20</f>
         <v>657.56595386517267</v>
       </c>
-      <c r="P20" s="16">
-        <f>1000000/Compare!P20</f>
+      <c r="S20" s="16">
+        <f>1000000/Compare!S20</f>
         <v>9523.8095238095229</v>
       </c>
     </row>
-    <row r="21" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B21">
         <f>'Teensy 3.2'!B15</f>
         <v>256</v>
@@ -13164,51 +13767,60 @@
         <f>1000000/Compare!D21</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E21" s="16">
+      <c r="E21" s="16" t="e">
         <f>1000000/Compare!E21</f>
-        <v>3669.1861745064944</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F21" s="16">
         <f>1000000/Compare!F21</f>
+        <v>3669.1861745064944</v>
+      </c>
+      <c r="G21" s="16">
+        <f>1000000/Compare!G21</f>
         <v>7352.9411764705883</v>
-      </c>
-      <c r="H21" s="16" t="e">
-        <f>1000000/Compare!H21</f>
-        <v>#DIV/0!</v>
       </c>
       <c r="I21" s="16" t="e">
         <f>1000000/Compare!I21</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J21" s="16">
+      <c r="J21" s="16" t="e">
         <f>1000000/Compare!J21</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K21" s="16" t="e">
+        <f>1000000/Compare!K21</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L21" s="16">
+        <f>1000000/Compare!L21</f>
         <v>1674.817444898506</v>
       </c>
-      <c r="K21" s="16">
-        <f>1000000/Compare!K21</f>
+      <c r="M21" s="16">
+        <f>1000000/Compare!M21</f>
         <v>3154.5741324921137</v>
       </c>
-      <c r="M21" s="16" t="e">
-        <f>1000000/Compare!M21</f>
+      <c r="O21" s="16" t="e">
+        <f>1000000/Compare!O21</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N21" s="16" t="e">
-        <f>1000000/Compare!N21</f>
+      <c r="P21" s="16" t="e">
+        <f>1000000/Compare!P21</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O21" s="16">
-        <f>1000000/Compare!O21</f>
+      <c r="Q21" s="16"/>
+      <c r="R21" s="16">
+        <f>1000000/Compare!R21</f>
         <v>330.84975450948218</v>
       </c>
-      <c r="P21" s="16">
-        <f>1000000/Compare!P21</f>
+      <c r="S21" s="16">
+        <f>1000000/Compare!S21</f>
         <v>4878.0487804878048</v>
       </c>
-      <c r="S21" t="s">
+      <c r="V21" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="22" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B22">
         <f>'Teensy 3.2'!B16</f>
         <v>512</v>
@@ -13221,60 +13833,69 @@
         <f>1000000/Compare!D22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E22" s="16">
+      <c r="E22" s="16" t="e">
         <f>1000000/Compare!E22</f>
-        <v>1574.6543633672411</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F22" s="16">
         <f>1000000/Compare!F22</f>
+        <v>1574.6543633672411</v>
+      </c>
+      <c r="G22" s="16">
+        <f>1000000/Compare!G22</f>
         <v>3225.8064516129034</v>
-      </c>
-      <c r="H22" s="16" t="e">
-        <f>1000000/Compare!H22</f>
-        <v>#DIV/0!</v>
       </c>
       <c r="I22" s="16" t="e">
         <f>1000000/Compare!I22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J22" s="16">
+      <c r="J22" s="16" t="e">
         <f>1000000/Compare!J22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K22" s="16" t="e">
+        <f>1000000/Compare!K22</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L22" s="16">
+        <f>1000000/Compare!L22</f>
         <v>677.43334055928892</v>
       </c>
-      <c r="K22" s="16">
-        <f>1000000/Compare!K22</f>
+      <c r="M22" s="16">
+        <f>1000000/Compare!M22</f>
         <v>1272.2646310432569</v>
       </c>
-      <c r="M22" s="16" t="e">
-        <f>1000000/Compare!M22</f>
+      <c r="O22" s="16" t="e">
+        <f>1000000/Compare!O22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N22" s="16" t="e">
-        <f>1000000/Compare!N22</f>
+      <c r="P22" s="16" t="e">
+        <f>1000000/Compare!P22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O22" s="16">
-        <f>1000000/Compare!O22</f>
+      <c r="Q22" s="16"/>
+      <c r="R22" s="16">
+        <f>1000000/Compare!R22</f>
         <v>129.6798205231284</v>
       </c>
-      <c r="P22" s="16">
-        <f>1000000/Compare!P22</f>
+      <c r="S22" s="16">
+        <f>1000000/Compare!S22</f>
         <v>2123.1422505307855</v>
       </c>
-      <c r="S22" t="s">
+      <c r="V22" t="s">
         <v>82</v>
       </c>
-      <c r="U22" s="21" t="s">
+      <c r="X22" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="V22">
+      <c r="Y22">
         <v>250</v>
       </c>
-      <c r="W22" t="s">
+      <c r="Z22" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="23" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B23">
         <f>'Teensy 3.2'!B17</f>
         <v>1024</v>
@@ -13287,405 +13908,448 @@
         <f>1000000/Compare!D23</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E23" s="16">
+      <c r="E23" s="16" t="e">
         <f>1000000/Compare!E23</f>
-        <v>797.19387755102036</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F23" s="16">
         <f>1000000/Compare!F23</f>
+        <v>797.19387755102036</v>
+      </c>
+      <c r="G23" s="16">
+        <f>1000000/Compare!G23</f>
         <v>1628.6644951140065</v>
-      </c>
-      <c r="H23" s="16" t="e">
-        <f>1000000/Compare!H23</f>
-        <v>#DIV/0!</v>
       </c>
       <c r="I23" s="16" t="e">
         <f>1000000/Compare!I23</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J23" s="16">
+      <c r="J23" s="16" t="e">
         <f>1000000/Compare!J23</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K23" s="16" t="e">
+        <f>1000000/Compare!K23</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L23" s="16">
+        <f>1000000/Compare!L23</f>
         <v>342.43291739148299</v>
       </c>
-      <c r="K23" s="16">
-        <f>1000000/Compare!K23</f>
+      <c r="M23" s="16">
+        <f>1000000/Compare!M23</f>
         <v>641.84852374839534</v>
       </c>
-      <c r="M23" s="16" t="e">
-        <f>1000000/Compare!M23</f>
+      <c r="O23" s="16" t="e">
+        <f>1000000/Compare!O23</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N23" s="16" t="e">
-        <f>1000000/Compare!N23</f>
+      <c r="P23" s="16" t="e">
+        <f>1000000/Compare!P23</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O23" s="16">
-        <f>1000000/Compare!O23</f>
+      <c r="Q23" s="16"/>
+      <c r="R23" s="16">
+        <f>1000000/Compare!R23</f>
         <v>65.006910234557935</v>
       </c>
-      <c r="P23" s="16">
-        <f>1000000/Compare!P23</f>
+      <c r="S23" s="16">
+        <f>1000000/Compare!S23</f>
         <v>1077.5862068965516</v>
       </c>
-      <c r="S23" t="s">
+      <c r="V23" t="s">
         <v>88</v>
       </c>
-      <c r="U23" s="21"/>
-      <c r="V23">
+      <c r="X23" s="21"/>
+      <c r="Y23">
         <f>2*(1/0.5)</f>
         <v>4</v>
       </c>
-      <c r="W23" s="20" t="s">
+      <c r="Z23" s="20" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="24" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="S24" t="s">
+    <row r="24" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="V24" t="s">
         <v>90</v>
       </c>
-      <c r="U24" s="21"/>
-      <c r="W24" s="20"/>
-    </row>
-    <row r="25" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="T25" t="str">
-        <f>T15</f>
-        <v>Arduino Uno</v>
-      </c>
-      <c r="U25" t="str">
-        <f t="shared" ref="U25:Y25" si="0">U15</f>
-        <v>Arduino M0</v>
-      </c>
-      <c r="V25" t="str">
-        <f t="shared" si="0"/>
-        <v>Teensy 3.2</v>
-      </c>
+      <c r="X24" s="21"/>
+      <c r="Y24" s="21"/>
+      <c r="AA24" s="20"/>
+    </row>
+    <row r="25" spans="2:32" x14ac:dyDescent="0.25">
       <c r="W25" t="str">
         <f>W15</f>
+        <v>Arduino Uno</v>
+      </c>
+      <c r="X25" t="str">
+        <f t="shared" ref="X25:AC25" si="11">X15</f>
+        <v>Arduino M0</v>
+      </c>
+      <c r="Y25" t="str">
+        <f t="shared" ref="Y25" si="12">Y15</f>
+        <v>Maple</v>
+      </c>
+      <c r="Z25" t="str">
+        <f t="shared" si="11"/>
+        <v>Teensy 3.2</v>
+      </c>
+      <c r="AA25" t="str">
+        <f>AA15</f>
         <v>FRDM-K66F</v>
       </c>
-      <c r="X25" t="str">
-        <f>X15</f>
+      <c r="AB25" t="str">
+        <f>AB15</f>
         <v>Teensy 3.2 CMSIS</v>
       </c>
-      <c r="Y25" t="str">
-        <f t="shared" si="0"/>
+      <c r="AC25" t="str">
+        <f t="shared" si="11"/>
         <v>FRDM-K66F CMSIS</v>
       </c>
-      <c r="AA25" t="s">
+      <c r="AE25" t="s">
         <v>84</v>
       </c>
-      <c r="AB25" s="20" t="s">
+      <c r="AF25" s="20" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="26" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="S26" t="str">
-        <f>S16</f>
+    <row r="26" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="V26" t="str">
+        <f>V16</f>
         <v>Int16</v>
       </c>
-      <c r="T26" s="23">
-        <f>1/(T16/1000000)</f>
+      <c r="W26" s="23">
+        <f t="shared" ref="W26:AC28" si="13">1/(W16/1000000)</f>
         <v>11442.381843420255</v>
       </c>
-      <c r="U26" s="23">
-        <f>1/(U16/1000000)</f>
+      <c r="X26" s="23">
+        <f t="shared" si="13"/>
         <v>191649.36856299493</v>
       </c>
-      <c r="V26" s="23">
-        <f>1/(V16/1000000)</f>
+      <c r="Y26" s="23">
+        <f t="shared" ref="Y26" si="14">1/(Y16/1000000)</f>
+        <v>481266.63222656539</v>
+      </c>
+      <c r="Z26" s="23">
+        <f t="shared" si="13"/>
         <v>569582.60519690823</v>
       </c>
-      <c r="W26" s="23">
-        <f>1/(W16/1000000)</f>
+      <c r="AA26" s="23">
+        <f t="shared" si="13"/>
         <v>851851.72377940314</v>
       </c>
-      <c r="X26" s="23">
-        <f>1/(X16/1000000)</f>
+      <c r="AB26" s="23">
+        <f t="shared" si="13"/>
         <v>2191888.1801446402</v>
       </c>
-      <c r="Y26" s="23">
-        <f>1/(Y16/1000000)</f>
+      <c r="AC26" s="23">
+        <f t="shared" si="13"/>
         <v>4430715.3877493422</v>
       </c>
-      <c r="AA26">
-        <f>2*V22</f>
+      <c r="AE26">
+        <f>2*Y22</f>
         <v>500</v>
       </c>
-      <c r="AB26" s="23">
-        <f>AA26*LOG(AA26/$V$22)</f>
+      <c r="AF26" s="23">
+        <f>AE26*LOG(AE26/$Y$22)</f>
         <v>150.5149978319906</v>
       </c>
     </row>
-    <row r="27" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="S27" t="str">
-        <f t="shared" ref="S27:S28" si="1">S17</f>
+    <row r="27" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="V27" t="str">
+        <f t="shared" ref="V27:V28" si="15">V17</f>
         <v>Int32</v>
       </c>
-      <c r="T27" s="23">
-        <f>1/(T17/1000000)</f>
+      <c r="W27" s="23">
+        <f t="shared" si="13"/>
         <v>3835.0212836993596</v>
       </c>
-      <c r="U27" s="23">
-        <f>1/(U17/1000000)</f>
+      <c r="X27" s="23">
+        <f t="shared" si="13"/>
         <v>67559.66885501513</v>
       </c>
-      <c r="V27" s="23">
-        <f>1/(V17/1000000)</f>
+      <c r="Y27" s="23">
+        <f t="shared" ref="Y27" si="16">1/(Y17/1000000)</f>
+        <v>300660.88074342569</v>
+      </c>
+      <c r="Z27" s="23">
+        <f t="shared" si="13"/>
         <v>295649.60096572677</v>
       </c>
-      <c r="W27" s="23">
-        <f>1/(W17/1000000)</f>
+      <c r="AA27" s="23">
+        <f t="shared" si="13"/>
         <v>590573.86428921483</v>
       </c>
-      <c r="X27" s="23">
-        <f>1/(X17/1000000)</f>
+      <c r="AB27" s="23">
+        <f t="shared" si="13"/>
         <v>974187.65539056831</v>
       </c>
-      <c r="Y27" s="23">
-        <f>1/(Y17/1000000)</f>
+      <c r="AC27" s="23">
+        <f t="shared" si="13"/>
         <v>1832213.8722665808</v>
       </c>
-      <c r="AA27" s="16">
-        <f>AA26*2.5</f>
+      <c r="AE27" s="16">
+        <f>AE26*2.5</f>
         <v>1250</v>
       </c>
-      <c r="AB27" s="23">
-        <f t="shared" ref="AB27:AB36" si="2">AA27*LOG(AA27/$V$22)</f>
+      <c r="AF27" s="23">
+        <f>AE27*LOG(AE27/$Y$22)</f>
         <v>873.7125054200236</v>
       </c>
     </row>
-    <row r="28" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="S28" t="str">
-        <f t="shared" si="1"/>
+    <row r="28" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="V28" t="str">
+        <f t="shared" si="15"/>
         <v>Float</v>
       </c>
-      <c r="T28" s="23">
-        <f>1/(T18/1000000)</f>
+      <c r="W28" s="23">
+        <f t="shared" si="13"/>
         <v>7551.7088909120412</v>
       </c>
-      <c r="U28" s="23">
-        <f>1/(U18/1000000)</f>
+      <c r="X28" s="23">
+        <f t="shared" si="13"/>
         <v>22114.97708170212</v>
       </c>
-      <c r="V28" s="23">
-        <f>1/(V18/1000000)</f>
+      <c r="Y28" s="23">
+        <f t="shared" ref="Y28" si="17">1/(Y18/1000000)</f>
+        <v>71622.658965496739</v>
+      </c>
+      <c r="Z28" s="23">
+        <f t="shared" si="13"/>
         <v>95237.681586357532</v>
       </c>
-      <c r="W28" s="23">
-        <f>1/(W18/1000000)</f>
+      <c r="AA28" s="23">
+        <f t="shared" si="13"/>
         <v>1498928.83812262</v>
       </c>
-      <c r="X28" s="23">
-        <f>1/(X18/1000000)</f>
+      <c r="AB28" s="23">
+        <f t="shared" si="13"/>
         <v>189660.43895800901</v>
       </c>
-      <c r="Y28" s="23">
-        <f>1/(Y18/1000000)</f>
+      <c r="AC28" s="23">
+        <f t="shared" si="13"/>
         <v>2935992.2110635773</v>
       </c>
-      <c r="AA28" s="16">
-        <f t="shared" ref="AA28:AA34" si="3">AA27*2.5</f>
+      <c r="AE28" s="16">
+        <f t="shared" ref="AE28:AE34" si="18">AE27*2.5</f>
         <v>3125</v>
       </c>
-      <c r="AB28" s="23">
-        <f t="shared" si="2"/>
+      <c r="AF28" s="23">
+        <f>AE28*LOG(AE28/$Y$22)</f>
         <v>3427.8437906501763</v>
       </c>
     </row>
-    <row r="29" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="AA29" s="16">
-        <f t="shared" si="3"/>
+    <row r="29" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="AE29" s="16">
+        <f t="shared" si="18"/>
         <v>7812.5</v>
       </c>
-      <c r="AB29" s="23">
-        <f t="shared" si="2"/>
+      <c r="AF29" s="23">
+        <f>AE29*LOG(AE29/$Y$22)</f>
         <v>11678.515794375735</v>
       </c>
     </row>
-    <row r="30" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="S30" t="s">
+    <row r="30" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="V30" t="s">
         <v>91</v>
       </c>
-      <c r="AA30" s="16">
-        <f t="shared" si="3"/>
+      <c r="AE30" s="16">
+        <f t="shared" si="18"/>
         <v>19531.25</v>
       </c>
-      <c r="AB30" s="23">
-        <f t="shared" si="2"/>
+      <c r="AF30" s="23">
+        <f>AE30*LOG(AE30/$Y$22)</f>
         <v>36968.555280315071</v>
       </c>
     </row>
-    <row r="31" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="T31" t="str">
-        <f>T25</f>
-        <v>Arduino Uno</v>
-      </c>
-      <c r="U31" t="str">
-        <f t="shared" ref="U31:Y31" si="4">U25</f>
-        <v>Arduino M0</v>
-      </c>
-      <c r="V31" t="str">
-        <f t="shared" si="4"/>
-        <v>Teensy 3.2</v>
-      </c>
+    <row r="31" spans="2:32" x14ac:dyDescent="0.25">
       <c r="W31" t="str">
         <f>W25</f>
+        <v>Arduino Uno</v>
+      </c>
+      <c r="X31" t="str">
+        <f t="shared" ref="X31:AC31" si="19">X25</f>
+        <v>Arduino M0</v>
+      </c>
+      <c r="Y31" t="str">
+        <f t="shared" ref="Y31" si="20">Y25</f>
+        <v>Maple</v>
+      </c>
+      <c r="Z31" t="str">
+        <f t="shared" si="19"/>
+        <v>Teensy 3.2</v>
+      </c>
+      <c r="AA31" t="str">
+        <f>AA25</f>
         <v>FRDM-K66F</v>
       </c>
-      <c r="X31" t="str">
-        <f>X25</f>
+      <c r="AB31" t="str">
+        <f>AB25</f>
         <v>Teensy 3.2 CMSIS</v>
       </c>
-      <c r="Y31" t="str">
-        <f t="shared" si="4"/>
+      <c r="AC31" t="str">
+        <f t="shared" si="19"/>
         <v>FRDM-K66F CMSIS</v>
       </c>
-      <c r="AA31" s="16">
-        <f t="shared" si="3"/>
+      <c r="AE31" s="16">
+        <f t="shared" si="18"/>
         <v>48828.125</v>
       </c>
-      <c r="AB31" s="23">
-        <f t="shared" si="2"/>
+      <c r="AF31" s="23">
+        <f>AE31*LOG(AE31/$Y$22)</f>
         <v>111852.05268672701</v>
       </c>
     </row>
-    <row r="32" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="S32" t="str">
-        <f>S26</f>
+    <row r="32" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="V32" t="str">
+        <f>V26</f>
         <v>Int16</v>
       </c>
-      <c r="T32" s="24">
-        <f ca="1">FORECAST(T26,OFFSET($AA$26:$AA$35,MATCH(T26,$AB$26:$AB$35,1)-1,0,2),OFFSET($AB$26:$AB$35,MATCH(T26,$AB$26:$AB$35,1)-1,0,2))/$V$23</f>
+      <c r="W32" s="24">
+        <f ca="1">FORECAST(W26,OFFSET($AE$26:$AE$35,MATCH(W26,$AF$26:$AF$35,1)-1,0,2),OFFSET($AF$26:$AF$35,MATCH(W26,$AF$26:$AF$35,1)-1,0,2))/$Y$23</f>
         <v>1919.5859775238912</v>
       </c>
-      <c r="U32" s="24">
-        <f ca="1">FORECAST(U26,OFFSET($AA$26:$AA$35,MATCH(U26,$AB$26:$AB$35,1)-1,0,2),OFFSET($AB$26:$AB$35,MATCH(U26,$AB$26:$AB$35,1)-1,0,2))/$V$23</f>
+      <c r="X32" s="24">
+        <f ca="1">FORECAST(X26,OFFSET($AE$26:$AE$35,MATCH(X26,$AF$26:$AF$35,1)-1,0,2),OFFSET($AF$26:$AF$35,MATCH(X26,$AF$26:$AF$35,1)-1,0,2))/$Y$23</f>
         <v>18960.442297048994</v>
       </c>
-      <c r="V32" s="24">
-        <f ca="1">FORECAST(V26,OFFSET($AA$26:$AA$35,MATCH(V26,$AB$26:$AB$35,1)-1,0,2),OFFSET($AB$26:$AB$35,MATCH(V26,$AB$26:$AB$35,1)-1,0,2))/$V$23</f>
+      <c r="Y32" s="24">
+        <f ca="1">FORECAST(Y26,OFFSET($AE$26:$AE$35,MATCH(Y26,$AF$26:$AF$35,1)-1,0,2),OFFSET($AF$26:$AF$35,MATCH(Y26,$AF$26:$AF$35,1)-1,0,2))/$Y$23</f>
+        <v>41933.467937126203</v>
+      </c>
+      <c r="Z32" s="24">
+        <f ca="1">FORECAST(Z26,OFFSET($AE$26:$AE$35,MATCH(Z26,$AF$26:$AF$35,1)-1,0,2),OFFSET($AF$26:$AF$35,MATCH(Z26,$AF$26:$AF$35,1)-1,0,2))/$Y$23</f>
         <v>48520.469600819619</v>
       </c>
-      <c r="W32" s="24">
-        <f ca="1">FORECAST(W26,OFFSET($AA$26:$AA$35,MATCH(W26,$AB$26:$AB$35,1)-1,0,2),OFFSET($AB$26:$AB$35,MATCH(W26,$AB$26:$AB$35,1)-1,0,2))/$V$23</f>
+      <c r="AA32" s="24">
+        <f ca="1">FORECAST(AA26,OFFSET($AE$26:$AE$35,MATCH(AA26,$AF$26:$AF$35,1)-1,0,2),OFFSET($AF$26:$AF$35,MATCH(AA26,$AF$26:$AF$35,1)-1,0,2))/$Y$23</f>
         <v>69573.367408292543</v>
       </c>
-      <c r="X32" s="24">
-        <f ca="1">FORECAST(X26,OFFSET($AA$26:$AA$35,MATCH(X26,$AB$26:$AB$35,1)-1,0,2),OFFSET($AB$26:$AB$35,MATCH(X26,$AB$26:$AB$35,1)-1,0,2))/$V$23</f>
+      <c r="AB32" s="24">
+        <f ca="1">FORECAST(AB26,OFFSET($AE$26:$AE$35,MATCH(AB26,$AF$26:$AF$35,1)-1,0,2),OFFSET($AF$26:$AF$35,MATCH(AB26,$AF$26:$AF$35,1)-1,0,2))/$Y$23</f>
         <v>159626.06148789707</v>
       </c>
-      <c r="Y32" s="24">
-        <f ca="1">FORECAST(Y26,OFFSET($AA$26:$AA$35,MATCH(Y26,$AB$26:$AB$35,1)-1,0,2),OFFSET($AB$26:$AB$35,MATCH(Y26,$AB$26:$AB$35,1)-1,0,2))/$V$23</f>
+      <c r="AC32" s="24">
+        <f ca="1">FORECAST(AC26,OFFSET($AE$26:$AE$35,MATCH(AC26,$AF$26:$AF$35,1)-1,0,2),OFFSET($AF$26:$AF$35,MATCH(AC26,$AF$26:$AF$35,1)-1,0,2))/$Y$23</f>
         <v>297551.83576709969</v>
       </c>
-      <c r="AA32" s="16">
-        <f t="shared" si="3"/>
+      <c r="AE32" s="16">
+        <f t="shared" si="18"/>
         <v>122070.3125</v>
       </c>
-      <c r="AB32" s="23">
-        <f t="shared" si="2"/>
+      <c r="AF32" s="23">
+        <f>AE32*LOG(AE32/$Y$22)</f>
         <v>328206.79293166584</v>
       </c>
     </row>
-    <row r="33" spans="19:28" x14ac:dyDescent="0.25">
-      <c r="S33" t="str">
-        <f t="shared" ref="S33:S34" si="5">S27</f>
+    <row r="33" spans="22:32" x14ac:dyDescent="0.25">
+      <c r="V33" t="str">
+        <f t="shared" ref="V33:V34" si="21">V27</f>
         <v>Int32</v>
       </c>
-      <c r="T33" s="24">
-        <f ca="1">FORECAST(T27,OFFSET($AA$26:$AA$35,MATCH(T27,$AB$26:$AB$35,1)-1,0,2),OFFSET($AB$26:$AB$35,MATCH(T27,$AB$26:$AB$35,1)-1,0,2))/$V$23</f>
+      <c r="W33" s="24">
+        <f ca="1">FORECAST(W27,OFFSET($AE$26:$AE$35,MATCH(W27,$AF$26:$AF$35,1)-1,0,2),OFFSET($AF$26:$AF$35,MATCH(W27,$AF$26:$AF$35,1)-1,0,2))/$Y$23</f>
         <v>839.08300129390091</v>
       </c>
-      <c r="U33" s="24">
-        <f ca="1">FORECAST(U27,OFFSET($AA$26:$AA$35,MATCH(U27,$AB$26:$AB$35,1)-1,0,2),OFFSET($AB$26:$AB$35,MATCH(U27,$AB$26:$AB$35,1)-1,0,2))/$V$23</f>
+      <c r="X33" s="24">
+        <f ca="1">FORECAST(X27,OFFSET($AE$26:$AE$35,MATCH(X27,$AF$26:$AF$35,1)-1,0,2),OFFSET($AF$26:$AF$35,MATCH(X27,$AF$26:$AF$35,1)-1,0,2))/$Y$23</f>
         <v>7874.8737069063536</v>
       </c>
-      <c r="V33" s="24">
-        <f ca="1">FORECAST(V27,OFFSET($AA$26:$AA$35,MATCH(V27,$AB$26:$AB$35,1)-1,0,2),OFFSET($AB$26:$AB$35,MATCH(V27,$AB$26:$AB$35,1)-1,0,2))/$V$23</f>
+      <c r="Y33" s="24">
+        <f ca="1">FORECAST(Y27,OFFSET($AE$26:$AE$35,MATCH(Y27,$AF$26:$AF$35,1)-1,0,2),OFFSET($AF$26:$AF$35,MATCH(Y27,$AF$26:$AF$35,1)-1,0,2))/$Y$23</f>
+        <v>28186.310893385908</v>
+      </c>
+      <c r="Z33" s="24">
+        <f ca="1">FORECAST(Z27,OFFSET($AE$26:$AE$35,MATCH(Z27,$AF$26:$AF$35,1)-1,0,2),OFFSET($AF$26:$AF$35,MATCH(Z27,$AF$26:$AF$35,1)-1,0,2))/$Y$23</f>
         <v>27762.195973743223</v>
       </c>
-      <c r="W33" s="24">
-        <f ca="1">FORECAST(W27,OFFSET($AA$26:$AA$35,MATCH(W27,$AB$26:$AB$35,1)-1,0,2),OFFSET($AB$26:$AB$35,MATCH(W27,$AB$26:$AB$35,1)-1,0,2))/$V$23</f>
+      <c r="AA33" s="24">
+        <f ca="1">FORECAST(AA27,OFFSET($AE$26:$AE$35,MATCH(AA27,$AF$26:$AF$35,1)-1,0,2),OFFSET($AF$26:$AF$35,MATCH(AA27,$AF$26:$AF$35,1)-1,0,2))/$Y$23</f>
         <v>50086.091921602689</v>
       </c>
-      <c r="X33" s="24">
-        <f ca="1">FORECAST(X27,OFFSET($AA$26:$AA$35,MATCH(X27,$AB$26:$AB$35,1)-1,0,2),OFFSET($AB$26:$AB$35,MATCH(X27,$AB$26:$AB$35,1)-1,0,2))/$V$23</f>
+      <c r="AB33" s="24">
+        <f ca="1">FORECAST(AB27,OFFSET($AE$26:$AE$35,MATCH(AB27,$AF$26:$AF$35,1)-1,0,2),OFFSET($AF$26:$AF$35,MATCH(AB27,$AF$26:$AF$35,1)-1,0,2))/$Y$23</f>
         <v>78442.636374410184</v>
       </c>
-      <c r="Y33" s="24">
-        <f ca="1">FORECAST(Y27,OFFSET($AA$26:$AA$35,MATCH(Y27,$AB$26:$AB$35,1)-1,0,2),OFFSET($AB$26:$AB$35,MATCH(Y27,$AB$26:$AB$35,1)-1,0,2))/$V$23</f>
+      <c r="AC33" s="24">
+        <f ca="1">FORECAST(AC27,OFFSET($AE$26:$AE$35,MATCH(AC27,$AF$26:$AF$35,1)-1,0,2),OFFSET($AF$26:$AF$35,MATCH(AC27,$AF$26:$AF$35,1)-1,0,2))/$Y$23</f>
         <v>135646.77294750587</v>
       </c>
-      <c r="AA33" s="16">
-        <f t="shared" si="3"/>
+      <c r="AE33" s="16">
+        <f t="shared" si="18"/>
         <v>305175.78125</v>
       </c>
-      <c r="AB33" s="23">
-        <f t="shared" si="2"/>
+      <c r="AF33" s="23">
+        <f>AE33*LOG(AE33/$Y$22)</f>
         <v>941958.63536628557</v>
       </c>
     </row>
-    <row r="34" spans="19:28" x14ac:dyDescent="0.25">
-      <c r="S34" t="str">
-        <f t="shared" si="5"/>
+    <row r="34" spans="22:32" x14ac:dyDescent="0.25">
+      <c r="V34" t="str">
+        <f t="shared" si="21"/>
         <v>Float</v>
       </c>
-      <c r="T34" s="24">
-        <f ca="1">FORECAST(T28,OFFSET($AA$26:$AA$35,MATCH(T28,$AB$26:$AB$35,1)-1,0,2),OFFSET($AB$26:$AB$35,MATCH(T28,$AB$26:$AB$35,1)-1,0,2))/$V$23</f>
+      <c r="W34" s="24">
+        <f ca="1">FORECAST(W28,OFFSET($AE$26:$AE$35,MATCH(W28,$AF$26:$AF$35,1)-1,0,2),OFFSET($AF$26:$AF$35,MATCH(W28,$AF$26:$AF$35,1)-1,0,2))/$Y$23</f>
         <v>1366.978582130911</v>
       </c>
-      <c r="U34" s="24">
-        <f ca="1">FORECAST(U28,OFFSET($AA$26:$AA$35,MATCH(U28,$AB$26:$AB$35,1)-1,0,2),OFFSET($AB$26:$AB$35,MATCH(U28,$AB$26:$AB$35,1)-1,0,2))/$V$23</f>
+      <c r="X34" s="24">
+        <f ca="1">FORECAST(X28,OFFSET($AE$26:$AE$35,MATCH(X28,$AF$26:$AF$35,1)-1,0,2),OFFSET($AF$26:$AF$35,MATCH(X28,$AF$26:$AF$35,1)-1,0,2))/$Y$23</f>
         <v>3162.1215377362619</v>
       </c>
-      <c r="V34" s="24">
-        <f ca="1">FORECAST(V28,OFFSET($AA$26:$AA$35,MATCH(V28,$AB$26:$AB$35,1)-1,0,2),OFFSET($AB$26:$AB$35,MATCH(V28,$AB$26:$AB$35,1)-1,0,2))/$V$23</f>
+      <c r="Y34" s="24">
+        <f ca="1">FORECAST(Y28,OFFSET($AE$26:$AE$35,MATCH(Y28,$AF$26:$AF$35,1)-1,0,2),OFFSET($AF$26:$AF$35,MATCH(Y28,$AF$26:$AF$35,1)-1,0,2))/$Y$23</f>
+        <v>8272.2673834696743</v>
+      </c>
+      <c r="Z34" s="24">
+        <f ca="1">FORECAST(Z28,OFFSET($AE$26:$AE$35,MATCH(Z28,$AF$26:$AF$35,1)-1,0,2),OFFSET($AF$26:$AF$35,MATCH(Z28,$AF$26:$AF$35,1)-1,0,2))/$Y$23</f>
         <v>10582.009816073696</v>
       </c>
-      <c r="W34" s="24">
-        <f ca="1">FORECAST(W28,OFFSET($AA$26:$AA$35,MATCH(W28,$AB$26:$AB$35,1)-1,0,2),OFFSET($AB$26:$AB$35,MATCH(W28,$AB$26:$AB$35,1)-1,0,2))/$V$23</f>
+      <c r="AA34" s="24">
+        <f ca="1">FORECAST(AA28,OFFSET($AE$26:$AE$35,MATCH(AA28,$AF$26:$AF$35,1)-1,0,2),OFFSET($AF$26:$AF$35,MATCH(AA28,$AF$26:$AF$35,1)-1,0,2))/$Y$23</f>
         <v>113426.84279157802</v>
       </c>
-      <c r="X34" s="24">
-        <f ca="1">FORECAST(X28,OFFSET($AA$26:$AA$35,MATCH(X28,$AB$26:$AB$35,1)-1,0,2),OFFSET($AB$26:$AB$35,MATCH(X28,$AB$26:$AB$35,1)-1,0,2))/$V$23</f>
+      <c r="AB34" s="24">
+        <f ca="1">FORECAST(AB28,OFFSET($AE$26:$AE$35,MATCH(AB28,$AF$26:$AF$35,1)-1,0,2),OFFSET($AF$26:$AF$35,MATCH(AB28,$AF$26:$AF$35,1)-1,0,2))/$Y$23</f>
         <v>18792.115091821412</v>
       </c>
-      <c r="Y34" s="24">
-        <f ca="1">FORECAST(Y28,OFFSET($AA$26:$AA$35,MATCH(Y28,$AB$26:$AB$35,1)-1,0,2),OFFSET($AB$26:$AB$35,MATCH(Y28,$AB$26:$AB$35,1)-1,0,2))/$V$23</f>
+      <c r="AC34" s="24">
+        <f ca="1">FORECAST(AC28,OFFSET($AE$26:$AE$35,MATCH(AC28,$AF$26:$AF$35,1)-1,0,2),OFFSET($AF$26:$AF$35,MATCH(AC28,$AF$26:$AF$35,1)-1,0,2))/$Y$23</f>
         <v>207460.15137108372</v>
       </c>
-      <c r="AA34" s="16">
-        <f t="shared" si="3"/>
+      <c r="AE34" s="16">
+        <f t="shared" si="18"/>
         <v>762939.453125</v>
       </c>
-      <c r="AB34" s="23">
-        <f t="shared" si="2"/>
+      <c r="AF34" s="23">
+        <f>AE34*LOG(AE34/$Y$22)</f>
         <v>2658500.7210085159</v>
       </c>
     </row>
-    <row r="35" spans="19:28" x14ac:dyDescent="0.25">
-      <c r="T35" s="23"/>
-      <c r="U35" s="23"/>
-      <c r="V35" s="23"/>
+    <row r="35" spans="22:32" x14ac:dyDescent="0.25">
       <c r="W35" s="23"/>
       <c r="X35" s="23"/>
       <c r="Y35" s="23"/>
-      <c r="AA35" s="16">
-        <f t="shared" ref="AA35" si="6">AA34*2.5</f>
+      <c r="Z35" s="23"/>
+      <c r="AA35" s="23"/>
+      <c r="AB35" s="23"/>
+      <c r="AC35" s="23"/>
+      <c r="AE35" s="16">
+        <f t="shared" ref="AE35" si="22">AE34*2.5</f>
         <v>1907348.6328125</v>
       </c>
-      <c r="AB35" s="23">
-        <f t="shared" si="2"/>
+      <c r="AF35" s="23">
+        <f>AE35*LOG(AE35/$Y$22)</f>
         <v>7405262.1340032946</v>
       </c>
     </row>
-    <row r="36" spans="19:28" x14ac:dyDescent="0.25">
-      <c r="AA36" s="16">
-        <f t="shared" ref="AA36" si="7">AA35*2.5</f>
+    <row r="36" spans="22:32" x14ac:dyDescent="0.25">
+      <c r="AE36" s="16">
+        <f t="shared" ref="AE36" si="23">AE35*2.5</f>
         <v>4768371.58203125</v>
       </c>
-      <c r="AB36" s="23">
-        <f t="shared" si="2"/>
+      <c r="AF36" s="23">
+        <f>AE36*LOG(AE36/$Y$22)</f>
         <v>20410681.16371325</v>
       </c>
     </row>
@@ -13698,100 +14362,100 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:AI24"/>
+  <dimension ref="B2:AO24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AL24" sqref="AL24"/>
+    <sheetView topLeftCell="Z1" workbookViewId="0">
+      <selection activeCell="AN16" sqref="AN16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.85546875" customWidth="1"/>
-    <col min="3" max="6" width="10.85546875" customWidth="1"/>
-    <col min="7" max="7" width="3.5703125" customWidth="1"/>
-    <col min="8" max="11" width="10.140625" customWidth="1"/>
-    <col min="12" max="12" width="3.42578125" customWidth="1"/>
-    <col min="19" max="19" width="9.140625" style="6"/>
+    <col min="3" max="7" width="10.85546875" customWidth="1"/>
+    <col min="8" max="8" width="3.5703125" customWidth="1"/>
+    <col min="9" max="13" width="10.140625" customWidth="1"/>
+    <col min="14" max="14" width="3.42578125" customWidth="1"/>
+    <col min="22" max="22" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:41" x14ac:dyDescent="0.25">
       <c r="C2" t="str">
         <f>'Arduino Uno'!$C$7</f>
         <v>KissFFT</v>
       </c>
-      <c r="H2" t="str">
+      <c r="I2" t="str">
         <f>'Arduino Uno'!$C$7</f>
         <v>KissFFT</v>
       </c>
-      <c r="M2" t="str">
+      <c r="O2" t="str">
         <f>'Arduino Uno'!$C$7</f>
         <v>KissFFT</v>
       </c>
-      <c r="T2" t="s">
+      <c r="W2" t="s">
         <v>76</v>
       </c>
-      <c r="V2" t="str">
+      <c r="Y2" t="str">
         <f>C2</f>
         <v>KissFFT</v>
       </c>
-      <c r="AA2" t="str">
-        <f>H2</f>
+      <c r="AE2" t="str">
+        <f>I2</f>
         <v>KissFFT</v>
       </c>
-      <c r="AF2" t="str">
-        <f>M2</f>
+      <c r="AK2" t="str">
+        <f>O2</f>
         <v>KissFFT</v>
       </c>
     </row>
-    <row r="3" spans="2:35" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:41" x14ac:dyDescent="0.25">
       <c r="C3" t="str">
         <f>'Arduino Uno'!$C$6</f>
         <v>Int16</v>
       </c>
-      <c r="H3" t="str">
+      <c r="I3" t="str">
         <f>'Arduino Uno'!$G$6</f>
         <v>Int32</v>
       </c>
-      <c r="M3" t="str">
+      <c r="O3" t="str">
         <f>'Arduino Uno'!$K$6</f>
         <v>Float</v>
       </c>
-      <c r="V3" t="str">
+      <c r="Y3" t="str">
         <f>C3</f>
         <v>Int16</v>
       </c>
-      <c r="AA3" t="str">
-        <f>H3</f>
+      <c r="AE3" t="str">
+        <f>I3</f>
         <v>Int32</v>
       </c>
-      <c r="AF3" t="str">
-        <f>M3</f>
+      <c r="AK3" t="str">
+        <f>O3</f>
         <v>Float</v>
       </c>
     </row>
-    <row r="4" spans="2:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:41" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>57</v>
       </c>
-      <c r="H4" t="str">
+      <c r="I4" t="str">
         <f>C4</f>
         <v>usec per FFT</v>
       </c>
-      <c r="M4" t="str">
+      <c r="O4" t="str">
         <f>C4</f>
         <v>usec per FFT</v>
       </c>
-      <c r="V4" t="s">
+      <c r="Y4" t="s">
         <v>77</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AE4" t="s">
         <v>77</v>
       </c>
-      <c r="AF4" t="s">
+      <c r="AK4" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="5" spans="2:35" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:41" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>0</v>
       </c>
@@ -13804,98 +14468,122 @@
         <v>Arduino M0</v>
       </c>
       <c r="E5" t="str">
+        <f>Maple!$C$2</f>
+        <v>Maple</v>
+      </c>
+      <c r="F5" t="str">
         <f>'Teensy 3.2'!$C$2</f>
         <v>Teensy 3.2</v>
       </c>
-      <c r="F5" t="str">
+      <c r="G5" t="str">
         <f>'NXP K66'!$C$2</f>
         <v>FRDM-K66F</v>
       </c>
-      <c r="H5" t="str">
-        <f>'Arduino Uno'!$C$2</f>
-        <v>Arduino Uno</v>
-      </c>
       <c r="I5" t="str">
-        <f>'Arduino M0 Pro'!$C$2</f>
-        <v>Arduino M0</v>
-      </c>
-      <c r="J5" t="str">
-        <f>'Teensy 3.2'!$C$2</f>
-        <v>Teensy 3.2</v>
-      </c>
-      <c r="K5" t="str">
-        <f>'NXP K66'!$C$2</f>
-        <v>FRDM-K66F</v>
-      </c>
-      <c r="M5" t="str">
-        <f>'Arduino Uno'!$C$2</f>
-        <v>Arduino Uno</v>
-      </c>
-      <c r="N5" t="str">
-        <f>'Arduino M0 Pro'!$C$2</f>
-        <v>Arduino M0</v>
-      </c>
-      <c r="O5" t="str">
-        <f>'Teensy 3.2'!$C$2</f>
-        <v>Teensy 3.2</v>
-      </c>
-      <c r="P5" t="str">
-        <f>'NXP K66'!$C$2</f>
-        <v>FRDM-K66F</v>
-      </c>
-      <c r="U5" t="s">
-        <v>0</v>
-      </c>
-      <c r="V5" t="str">
         <f>C5</f>
         <v>Arduino Uno</v>
       </c>
-      <c r="W5" t="str">
-        <f t="shared" ref="W5:Y5" si="0">D5</f>
+      <c r="J5" t="str">
+        <f t="shared" ref="J5:M5" si="0">D5</f>
         <v>Arduino M0</v>
       </c>
-      <c r="X5" t="str">
+      <c r="K5" t="str">
+        <f t="shared" si="0"/>
+        <v>Maple</v>
+      </c>
+      <c r="L5" t="str">
         <f t="shared" si="0"/>
         <v>Teensy 3.2</v>
       </c>
-      <c r="Y5" t="str">
+      <c r="M5" t="str">
         <f t="shared" si="0"/>
         <v>FRDM-K66F</v>
       </c>
+      <c r="O5" t="str">
+        <f>C5</f>
+        <v>Arduino Uno</v>
+      </c>
+      <c r="P5" t="str">
+        <f t="shared" ref="P5:S5" si="1">D5</f>
+        <v>Arduino M0</v>
+      </c>
+      <c r="Q5" t="str">
+        <f t="shared" si="1"/>
+        <v>Maple</v>
+      </c>
+      <c r="R5" t="str">
+        <f t="shared" si="1"/>
+        <v>Teensy 3.2</v>
+      </c>
+      <c r="S5" t="str">
+        <f t="shared" si="1"/>
+        <v>FRDM-K66F</v>
+      </c>
+      <c r="X5" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="str">
+        <f>C5</f>
+        <v>Arduino Uno</v>
+      </c>
+      <c r="Z5" t="str">
+        <f>D5</f>
+        <v>Arduino M0</v>
+      </c>
       <c r="AA5" t="str">
-        <f>H5</f>
+        <f>E5</f>
+        <v>Maple</v>
+      </c>
+      <c r="AB5" t="str">
+        <f>F5</f>
+        <v>Teensy 3.2</v>
+      </c>
+      <c r="AC5" t="str">
+        <f>G5</f>
+        <v>FRDM-K66F</v>
+      </c>
+      <c r="AE5" t="str">
+        <f>I5</f>
         <v>Arduino Uno</v>
       </c>
-      <c r="AB5" t="str">
-        <f t="shared" ref="AB5" si="1">I5</f>
+      <c r="AF5" t="str">
+        <f t="shared" ref="AF5:AG5" si="2">J5</f>
         <v>Arduino M0</v>
       </c>
-      <c r="AC5" t="str">
-        <f t="shared" ref="AC5" si="2">J5</f>
+      <c r="AG5" t="str">
+        <f t="shared" si="2"/>
+        <v>Maple</v>
+      </c>
+      <c r="AH5" t="str">
+        <f t="shared" ref="AH5" si="3">L5</f>
         <v>Teensy 3.2</v>
       </c>
-      <c r="AD5" t="str">
-        <f t="shared" ref="AD5" si="3">K5</f>
+      <c r="AI5" t="str">
+        <f t="shared" ref="AI5" si="4">M5</f>
         <v>FRDM-K66F</v>
       </c>
-      <c r="AF5" t="str">
-        <f>M5</f>
+      <c r="AK5" t="str">
+        <f>O5</f>
         <v>Arduino Uno</v>
       </c>
-      <c r="AG5" t="str">
-        <f t="shared" ref="AG5" si="4">N5</f>
+      <c r="AL5" t="str">
+        <f t="shared" ref="AL5:AM5" si="5">P5</f>
         <v>Arduino M0</v>
       </c>
-      <c r="AH5" t="str">
-        <f t="shared" ref="AH5" si="5">O5</f>
+      <c r="AM5" t="str">
+        <f t="shared" si="5"/>
+        <v>Maple</v>
+      </c>
+      <c r="AN5" t="str">
+        <f t="shared" ref="AN5" si="6">R5</f>
         <v>Teensy 3.2</v>
       </c>
-      <c r="AI5" t="str">
-        <f t="shared" ref="AI5" si="6">P5</f>
+      <c r="AO5" t="str">
+        <f t="shared" ref="AO5" si="7">S5</f>
         <v>FRDM-K66F</v>
       </c>
     </row>
-    <row r="6" spans="2:35" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:41" x14ac:dyDescent="0.25">
       <c r="B6">
         <f>'Arduino Uno'!$B12</f>
         <v>32</v>
@@ -13909,99 +14597,123 @@
         <v>319.8</v>
       </c>
       <c r="E6" s="16">
+        <f>Maple!C12</f>
+        <v>124.2</v>
+      </c>
+      <c r="F6" s="16">
         <f>'Teensy 3.2'!C12</f>
         <v>103.4</v>
       </c>
-      <c r="F6" s="16">
+      <c r="G6" s="16">
         <f>'NXP K66'!C12</f>
         <v>69</v>
       </c>
-      <c r="H6" s="16">
+      <c r="I6" s="16">
         <f>'Arduino Uno'!G12</f>
         <v>12559.2</v>
       </c>
-      <c r="I6" s="16">
+      <c r="J6" s="16">
         <f>'Arduino M0 Pro'!G12</f>
         <v>802</v>
       </c>
-      <c r="J6" s="16">
+      <c r="K6" s="16">
+        <f>Maple!G12</f>
+        <v>191.2</v>
+      </c>
+      <c r="L6" s="16">
         <f>'Teensy 3.2'!G12</f>
         <v>192.8</v>
       </c>
-      <c r="K6" s="16">
+      <c r="M6" s="16">
         <f>'NXP K66'!G12</f>
         <v>102</v>
       </c>
-      <c r="M6" s="16">
+      <c r="O6" s="16">
         <f>'Arduino Uno'!K12</f>
         <v>6378</v>
       </c>
-      <c r="N6" s="16">
+      <c r="P6" s="16">
         <f>'Arduino M0 Pro'!K12</f>
         <v>2188</v>
       </c>
-      <c r="O6" s="16">
+      <c r="Q6" s="16">
+        <f>Maple!K12</f>
+        <v>667.2</v>
+      </c>
+      <c r="R6" s="16">
         <f>'Teensy 3.2'!K12</f>
         <v>496.4</v>
       </c>
-      <c r="P6" s="16">
+      <c r="S6" s="16">
         <f>'NXP K66'!K12</f>
         <v>47</v>
       </c>
-      <c r="U6">
+      <c r="X6">
         <f>B6</f>
         <v>32</v>
       </c>
-      <c r="V6">
-        <f>C6/($U6*LOG($U6))</f>
+      <c r="Y6">
+        <f>C6/($X6*LOG($X6))</f>
         <v>103.41162159384359</v>
       </c>
-      <c r="W6">
-        <f t="shared" ref="W6:Y6" si="7">D6/($U6*LOG($U6))</f>
+      <c r="Z6">
+        <f>D6/($X6*LOG($X6))</f>
         <v>6.6397037796561156</v>
       </c>
-      <c r="X6">
-        <f t="shared" si="7"/>
+      <c r="AA6">
+        <f>E6/($X6*LOG($X6))</f>
+        <v>2.5786466836563151</v>
+      </c>
+      <c r="AB6">
+        <f>F6/($X6*LOG($X6))</f>
         <v>2.146796031320958</v>
       </c>
-      <c r="Y6">
-        <f t="shared" si="7"/>
+      <c r="AC6">
+        <f>G6/($X6*LOG($X6))</f>
         <v>1.4325814909201748</v>
       </c>
-      <c r="AA6">
-        <f>H6/($U6*LOG($U6))</f>
+      <c r="AE6">
+        <f>I6/($X6*LOG($X6))</f>
         <v>260.75474580818349</v>
       </c>
-      <c r="AB6">
-        <f t="shared" ref="AB6:AB11" si="8">I6/($U6*LOG($U6))</f>
+      <c r="AF6">
+        <f t="shared" ref="AF6:AG11" si="8">J6/($X6*LOG($X6))</f>
         <v>16.651164575622904</v>
       </c>
-      <c r="AC6">
-        <f t="shared" ref="AC6:AC11" si="9">J6/($U6*LOG($U6))</f>
+      <c r="AG6">
+        <f t="shared" si="8"/>
+        <v>3.9697040733903974</v>
+      </c>
+      <c r="AH6">
+        <f t="shared" ref="AH6:AH11" si="9">L6/($X6*LOG($X6))</f>
         <v>4.0029233543392717</v>
       </c>
-      <c r="AD6">
-        <f t="shared" ref="AD6:AD11" si="10">K6/($U6*LOG($U6))</f>
+      <c r="AI6">
+        <f t="shared" ref="AI6:AI11" si="10">M6/($X6*LOG($X6))</f>
         <v>2.1177291604906934</v>
       </c>
-      <c r="AF6">
-        <f>M6/($U6*LOG($U6))</f>
+      <c r="AK6">
+        <f>O6/($X6*LOG($X6))</f>
         <v>132.42035868244747</v>
       </c>
-      <c r="AG6">
-        <f t="shared" ref="AG6:AG11" si="11">N6/($U6*LOG($U6))</f>
+      <c r="AL6">
+        <f t="shared" ref="AL6:AM11" si="11">P6/($X6*LOG($X6))</f>
         <v>45.427366697584681</v>
       </c>
-      <c r="AH6">
-        <f t="shared" ref="AH6:AH11" si="12">O6/($U6*LOG($U6))</f>
+      <c r="AM6">
+        <f t="shared" si="11"/>
+        <v>13.852440155680302</v>
+      </c>
+      <c r="AN6">
+        <f t="shared" ref="AN6:AN11" si="12">R6/($X6*LOG($X6))</f>
         <v>10.306281914388041</v>
       </c>
-      <c r="AI6">
-        <f t="shared" ref="AI6:AI11" si="13">P6/($U6*LOG($U6))</f>
+      <c r="AO6">
+        <f t="shared" ref="AO6:AO11" si="13">S6/($X6*LOG($X6))</f>
         <v>0.97581637787316267</v>
       </c>
     </row>
-    <row r="7" spans="2:35" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:41" x14ac:dyDescent="0.25">
       <c r="B7">
         <f>'Arduino Uno'!$B13</f>
         <v>64</v>
@@ -14015,93 +14727,117 @@
         <v>627.20000000000005</v>
       </c>
       <c r="E7" s="16">
+        <f>Maple!C13</f>
+        <v>236.4</v>
+      </c>
+      <c r="F7" s="16">
         <f>'Teensy 3.2'!C13</f>
         <v>204.4</v>
       </c>
-      <c r="F7" s="16">
+      <c r="G7" s="16">
         <f>'NXP K66'!C13</f>
         <v>136</v>
       </c>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16">
+      <c r="I7" s="16"/>
+      <c r="J7" s="16">
         <f>'Arduino M0 Pro'!G13</f>
         <v>1674</v>
       </c>
-      <c r="J7" s="16">
+      <c r="K7" s="16">
+        <f>Maple!G13</f>
+        <v>368.4</v>
+      </c>
+      <c r="L7" s="16">
         <f>'Teensy 3.2'!G13</f>
         <v>383.6</v>
       </c>
-      <c r="K7" s="16">
+      <c r="M7" s="16">
         <f>'NXP K66'!G13</f>
         <v>190</v>
       </c>
-      <c r="M7" s="16"/>
-      <c r="N7" s="16">
+      <c r="O7" s="16"/>
+      <c r="P7" s="16">
         <f>'Arduino M0 Pro'!K13</f>
         <v>5035</v>
       </c>
-      <c r="O7" s="16">
+      <c r="Q7" s="16">
+        <f>Maple!K13</f>
+        <v>1540</v>
+      </c>
+      <c r="R7" s="16">
         <f>'Teensy 3.2'!K13</f>
         <v>1136</v>
       </c>
-      <c r="P7" s="16">
+      <c r="S7" s="16">
         <f>'NXP K66'!K13</f>
         <v>79</v>
       </c>
-      <c r="U7">
-        <f t="shared" ref="U7:U23" si="14">B7</f>
+      <c r="X7">
+        <f t="shared" ref="X7:X11" si="14">B7</f>
         <v>64</v>
       </c>
-      <c r="V7">
-        <f t="shared" ref="V7:V11" si="15">C7/($U7*LOG($U7))</f>
+      <c r="Y7">
+        <f t="shared" ref="Y7" si="15">C7/($X7*LOG($X7))</f>
         <v>87.394391629661698</v>
       </c>
-      <c r="W7">
-        <f t="shared" ref="W7:W11" si="16">D7/($U7*LOG($U7))</f>
+      <c r="Z7">
+        <f t="shared" ref="Z7:AA11" si="16">D7/($X7*LOG($X7))</f>
         <v>5.4258158883160261</v>
       </c>
-      <c r="X7">
-        <f t="shared" ref="X7:X11" si="17">E7/($U7*LOG($U7))</f>
+      <c r="AA7">
+        <f t="shared" si="16"/>
+        <v>2.0450619834150325</v>
+      </c>
+      <c r="AB7">
+        <f t="shared" ref="AB7:AB11" si="17">F7/($X7*LOG($X7))</f>
         <v>1.7682346421744191</v>
       </c>
-      <c r="Y7">
-        <f t="shared" ref="Y7:Y11" si="18">F7/($U7*LOG($U7))</f>
+      <c r="AC7">
+        <f t="shared" ref="AC7:AC11" si="18">G7/($X7*LOG($X7))</f>
         <v>1.1765162002726075</v>
       </c>
-      <c r="AA7">
-        <f t="shared" ref="AA7:AA11" si="19">H7/($U7*LOG($U7))</f>
+      <c r="AE7">
+        <f t="shared" ref="AE7" si="19">I7/($X7*LOG($X7))</f>
         <v>0</v>
       </c>
-      <c r="AB7">
+      <c r="AF7">
         <f t="shared" si="8"/>
         <v>14.481530288649596</v>
       </c>
-      <c r="AC7">
+      <c r="AG7">
+        <f t="shared" si="8"/>
+        <v>3.1869747660325634</v>
+      </c>
+      <c r="AH7">
         <f t="shared" si="9"/>
         <v>3.3184677531218552</v>
       </c>
-      <c r="AD7">
+      <c r="AI7">
         <f t="shared" si="10"/>
         <v>1.6436623386161429</v>
       </c>
-      <c r="AF7">
-        <f t="shared" ref="AF7:AF11" si="20">M7/($U7*LOG($U7))</f>
+      <c r="AK7">
+        <f t="shared" ref="AK7" si="20">O7/($X7*LOG($X7))</f>
         <v>0</v>
       </c>
-      <c r="AG7">
+      <c r="AL7">
         <f t="shared" si="11"/>
         <v>43.557051973327788</v>
       </c>
-      <c r="AH7">
+      <c r="AM7">
+        <f t="shared" si="11"/>
+        <v>13.322315797204526</v>
+      </c>
+      <c r="AN7">
         <f t="shared" si="12"/>
         <v>9.8273706140417811</v>
       </c>
-      <c r="AI7">
+      <c r="AO7">
         <f t="shared" si="13"/>
         <v>0.68341749868776469</v>
       </c>
     </row>
-    <row r="8" spans="2:35" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:41" x14ac:dyDescent="0.25">
       <c r="B8">
         <f>'Arduino Uno'!$B14</f>
         <v>128</v>
@@ -14112,81 +14848,105 @@
         <v>1565</v>
       </c>
       <c r="E8" s="16">
+        <f>Maple!C14</f>
+        <v>608.4</v>
+      </c>
+      <c r="F8" s="16">
         <f>'Teensy 3.2'!C14</f>
         <v>520.4</v>
       </c>
-      <c r="F8" s="16">
+      <c r="G8" s="16">
         <f>'NXP K66'!C14</f>
         <v>349</v>
       </c>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16">
+      <c r="I8" s="16"/>
+      <c r="J8" s="16">
         <f>'Arduino M0 Pro'!G14</f>
         <v>4241</v>
       </c>
-      <c r="J8" s="16">
+      <c r="K8" s="16">
+        <f>Maple!G14</f>
+        <v>969.6</v>
+      </c>
+      <c r="L8" s="16">
         <f>'Teensy 3.2'!G14</f>
         <v>993.2</v>
       </c>
-      <c r="K8" s="16">
+      <c r="M8" s="16">
         <f>'NXP K66'!G14</f>
         <v>512</v>
       </c>
-      <c r="M8" s="16"/>
-      <c r="N8" s="16">
+      <c r="O8" s="16"/>
+      <c r="P8" s="16">
         <f>'Arduino M0 Pro'!K14</f>
         <v>12312</v>
       </c>
-      <c r="O8" s="16">
+      <c r="Q8" s="16">
+        <f>Maple!K14</f>
+        <v>3806.2</v>
+      </c>
+      <c r="R8" s="16">
         <f>'Teensy 3.2'!K14</f>
         <v>2849.8</v>
       </c>
-      <c r="P8" s="16">
+      <c r="S8" s="16">
         <f>'NXP K66'!K14</f>
         <v>217</v>
       </c>
-      <c r="U8">
+      <c r="X8">
         <f t="shared" si="14"/>
         <v>128</v>
       </c>
-      <c r="W8">
+      <c r="Z8">
         <f t="shared" si="16"/>
         <v>5.8022516389494667</v>
       </c>
-      <c r="X8">
+      <c r="AA8">
+        <f t="shared" si="16"/>
+        <v>2.2556484965730705</v>
+      </c>
+      <c r="AB8">
         <f t="shared" si="17"/>
         <v>1.9293877015394902</v>
       </c>
-      <c r="Y8">
+      <c r="AC8">
         <f t="shared" si="18"/>
         <v>1.2939206530309035</v>
       </c>
-      <c r="AB8">
+      <c r="AF8">
         <f t="shared" si="8"/>
         <v>15.723545815197884</v>
       </c>
-      <c r="AC8">
+      <c r="AG8">
+        <f t="shared" si="8"/>
+        <v>3.5948007598245386</v>
+      </c>
+      <c r="AH8">
         <f t="shared" si="9"/>
         <v>3.6822979730380898</v>
       </c>
-      <c r="AD8">
+      <c r="AI8">
         <f t="shared" si="10"/>
         <v>1.8982446256499215</v>
       </c>
-      <c r="AG8">
+      <c r="AL8">
         <f t="shared" si="11"/>
         <v>45.646851232425455</v>
       </c>
-      <c r="AH8">
+      <c r="AM8">
+        <f t="shared" si="11"/>
+        <v>14.11152088700924</v>
+      </c>
+      <c r="AN8">
         <f t="shared" si="12"/>
         <v>10.565659246439738</v>
       </c>
-      <c r="AI8">
+      <c r="AO8">
         <f t="shared" si="13"/>
         <v>0.80452946048053309</v>
       </c>
     </row>
-    <row r="9" spans="2:35" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:41" x14ac:dyDescent="0.25">
       <c r="B9">
         <f>'Arduino Uno'!$B15</f>
         <v>256</v>
@@ -14197,81 +14957,105 @@
         <v>3079</v>
       </c>
       <c r="E9" s="16">
+        <f>Maple!C15</f>
+        <v>1171.4000000000001</v>
+      </c>
+      <c r="F9" s="16">
         <f>'Teensy 3.2'!C15</f>
         <v>1030.4000000000001</v>
       </c>
-      <c r="F9" s="16">
+      <c r="G9" s="16">
         <f>'NXP K66'!C15</f>
         <v>686</v>
       </c>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16">
+      <c r="I9" s="16"/>
+      <c r="J9" s="16">
         <f>'Arduino M0 Pro'!G15</f>
         <v>8763</v>
       </c>
-      <c r="J9" s="16">
+      <c r="K9" s="16">
+        <f>Maple!G15</f>
+        <v>1884.8</v>
+      </c>
+      <c r="L9" s="16">
         <f>'Teensy 3.2'!G15</f>
         <v>1976</v>
       </c>
-      <c r="K9" s="16">
+      <c r="M9" s="16">
         <f>'NXP K66'!G15</f>
         <v>970</v>
       </c>
-      <c r="M9" s="16"/>
-      <c r="N9" s="16">
+      <c r="O9" s="16"/>
+      <c r="P9" s="16">
         <f>'Arduino M0 Pro'!K15</f>
         <v>27349</v>
       </c>
-      <c r="O9" s="16">
+      <c r="Q9" s="16">
+        <f>Maple!K15</f>
+        <v>8515.6</v>
+      </c>
+      <c r="R9" s="16">
         <f>'Teensy 3.2'!K15</f>
         <v>6295.8</v>
       </c>
-      <c r="P9" s="16">
+      <c r="S9" s="16">
         <f>'NXP K66'!K15</f>
         <v>371</v>
       </c>
-      <c r="U9">
+      <c r="X9">
         <f t="shared" si="14"/>
         <v>256</v>
       </c>
-      <c r="W9">
+      <c r="Z9">
         <f t="shared" si="16"/>
         <v>4.9942463887491151</v>
       </c>
-      <c r="X9">
+      <c r="AA9">
+        <f t="shared" si="16"/>
+        <v>1.9000520363042268</v>
+      </c>
+      <c r="AB9">
         <f t="shared" si="17"/>
         <v>1.6713450727402044</v>
       </c>
-      <c r="Y9">
+      <c r="AC9">
         <f t="shared" si="18"/>
         <v>1.1127161489710597</v>
       </c>
-      <c r="AB9">
+      <c r="AF9">
         <f t="shared" si="8"/>
         <v>14.213894480223612</v>
       </c>
-      <c r="AC9">
+      <c r="AG9">
+        <f t="shared" si="8"/>
+        <v>3.0572119498260255</v>
+      </c>
+      <c r="AH9">
         <f t="shared" si="9"/>
         <v>3.2051415603014783</v>
       </c>
-      <c r="AD9">
+      <c r="AI9">
         <f t="shared" si="10"/>
         <v>1.5733741465042683</v>
       </c>
-      <c r="AG9">
+      <c r="AL9">
         <f t="shared" si="11"/>
         <v>44.361040755407458</v>
       </c>
-      <c r="AH9">
+      <c r="AM9">
+        <f t="shared" si="11"/>
+        <v>13.812602971104894</v>
+      </c>
+      <c r="AN9">
         <f t="shared" si="12"/>
         <v>10.212009228413992</v>
       </c>
-      <c r="AI9">
+      <c r="AO9">
         <f t="shared" si="13"/>
         <v>0.60177506015781812</v>
       </c>
     </row>
-    <row r="10" spans="2:35" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:41" x14ac:dyDescent="0.25">
       <c r="B10">
         <f>'Arduino Uno'!$B16</f>
         <v>512</v>
@@ -14281,82 +15065,85 @@
         <f>'Arduino M0 Pro'!C16</f>
         <v>7403</v>
       </c>
-      <c r="E10" s="16">
+      <c r="E10" s="16"/>
+      <c r="F10" s="16">
         <f>'Teensy 3.2'!C16</f>
         <v>2508</v>
       </c>
-      <c r="F10" s="16">
+      <c r="G10" s="16">
         <f>'NXP K66'!C16</f>
         <v>1683</v>
       </c>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16">
+      <c r="I10" s="16"/>
+      <c r="J10" s="16">
         <f>'Arduino M0 Pro'!G16</f>
         <v>21103</v>
       </c>
-      <c r="J10" s="16">
+      <c r="K10" s="16"/>
+      <c r="L10" s="16">
         <f>'Teensy 3.2'!G16</f>
         <v>4858</v>
       </c>
-      <c r="K10" s="16">
+      <c r="M10" s="16">
         <f>'NXP K66'!G16</f>
         <v>2461</v>
       </c>
-      <c r="M10" s="16"/>
-      <c r="N10" s="16">
+      <c r="O10" s="16"/>
+      <c r="P10" s="16">
         <f>'Arduino M0 Pro'!K16</f>
         <v>63732</v>
       </c>
-      <c r="O10" s="16">
+      <c r="Q10" s="16"/>
+      <c r="R10" s="16">
         <f>'Teensy 3.2'!K16</f>
         <v>14922</v>
       </c>
-      <c r="P10" s="16">
+      <c r="S10" s="16">
         <f>'NXP K66'!K16</f>
         <v>981</v>
       </c>
-      <c r="U10">
+      <c r="X10">
         <f t="shared" si="14"/>
         <v>512</v>
       </c>
-      <c r="W10">
+      <c r="Z10">
         <f t="shared" si="16"/>
         <v>5.3368562687610988</v>
       </c>
-      <c r="X10">
+      <c r="AB10">
         <f t="shared" si="17"/>
         <v>1.8080285724777572</v>
       </c>
-      <c r="Y10">
+      <c r="AC10">
         <f t="shared" si="18"/>
         <v>1.2132823315311265</v>
       </c>
-      <c r="AB10">
+      <c r="AF10">
         <f t="shared" si="8"/>
         <v>15.213248391147571</v>
       </c>
-      <c r="AC10">
+      <c r="AH10">
         <f t="shared" si="9"/>
         <v>3.5021542285075533</v>
       </c>
-      <c r="AD10">
+      <c r="AI10">
         <f t="shared" si="10"/>
         <v>1.7741460593571612</v>
       </c>
-      <c r="AG10">
+      <c r="AL10">
         <f t="shared" si="11"/>
         <v>45.944687791528075</v>
       </c>
-      <c r="AH10">
+      <c r="AN10">
         <f t="shared" si="12"/>
         <v>10.757337463521965</v>
       </c>
-      <c r="AI10">
+      <c r="AO10">
         <f t="shared" si="13"/>
         <v>0.70720734832562981</v>
       </c>
     </row>
-    <row r="11" spans="2:35" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:41" x14ac:dyDescent="0.25">
       <c r="B11">
         <f>'Arduino Uno'!$B17</f>
         <v>1024</v>
@@ -14366,711 +15153,756 @@
         <f>'Arduino M0 Pro'!C17</f>
         <v>14605.4</v>
       </c>
-      <c r="E11" s="16">
+      <c r="E11" s="16"/>
+      <c r="F11" s="16">
         <f>'Teensy 3.2'!C17</f>
         <v>4975</v>
       </c>
-      <c r="F11" s="16">
+      <c r="G11" s="16">
         <f>'NXP K66'!C17</f>
         <v>3316</v>
       </c>
-      <c r="H11" s="16"/>
-      <c r="I11" s="16">
+      <c r="I11" s="16"/>
+      <c r="J11" s="16">
         <f>'Arduino M0 Pro'!G17</f>
         <v>43329</v>
       </c>
-      <c r="J11" s="16">
+      <c r="K11" s="16"/>
+      <c r="L11" s="16">
         <f>'Teensy 3.2'!G17</f>
         <v>9679</v>
       </c>
-      <c r="K11" s="16">
+      <c r="M11" s="16">
         <f>'NXP K66'!G17</f>
         <v>4708</v>
       </c>
-      <c r="M11" s="16"/>
-      <c r="N11" s="16">
+      <c r="O11" s="16"/>
+      <c r="P11" s="16">
         <f>'Arduino M0 Pro'!K17</f>
         <v>138469</v>
       </c>
-      <c r="O11" s="16">
+      <c r="Q11" s="16"/>
+      <c r="R11" s="16">
         <f>'Teensy 3.2'!K17</f>
         <v>32259.4</v>
       </c>
-      <c r="P11" s="16">
+      <c r="S11" s="16">
         <f>'NXP K66'!K17</f>
         <v>1711</v>
       </c>
-      <c r="U11" s="22">
+      <c r="X11" s="22">
         <f t="shared" si="14"/>
         <v>1024</v>
       </c>
-      <c r="V11" s="22"/>
-      <c r="W11" s="22">
+      <c r="Y11" s="22"/>
+      <c r="Z11" s="22">
         <f t="shared" si="16"/>
         <v>4.7380945895574103</v>
       </c>
-      <c r="X11" s="22">
+      <c r="AA11" s="22"/>
+      <c r="AB11" s="22">
         <f t="shared" si="17"/>
         <v>1.6139250265688112</v>
       </c>
-      <c r="Y11" s="22">
+      <c r="AC11" s="22">
         <f t="shared" si="18"/>
         <v>1.0757337463521965</v>
       </c>
-      <c r="AA11" s="22"/>
-      <c r="AB11" s="22">
+      <c r="AE11" s="22"/>
+      <c r="AF11" s="22">
         <f t="shared" si="8"/>
         <v>14.056232658532668</v>
       </c>
-      <c r="AC11" s="22">
+      <c r="AG11" s="22"/>
+      <c r="AH11" s="22">
         <f t="shared" si="9"/>
         <v>3.1399357451576932</v>
       </c>
-      <c r="AD11" s="22">
+      <c r="AI11" s="22">
         <f t="shared" si="10"/>
         <v>1.5273083467509474</v>
       </c>
-      <c r="AF11" s="22"/>
-      <c r="AG11" s="22">
+      <c r="AK11" s="22"/>
+      <c r="AL11" s="22">
         <f t="shared" si="11"/>
         <v>44.920318493257632</v>
       </c>
-      <c r="AH11" s="22">
+      <c r="AM11" s="22"/>
+      <c r="AN11" s="22">
         <f t="shared" si="12"/>
         <v>10.465176482832947</v>
       </c>
-      <c r="AI11" s="22">
+      <c r="AO11" s="22">
         <f t="shared" si="13"/>
         <v>0.55506044632346452</v>
       </c>
     </row>
-    <row r="12" spans="2:35" x14ac:dyDescent="0.25">
-      <c r="U12" s="21" t="s">
+    <row r="12" spans="2:41" x14ac:dyDescent="0.25">
+      <c r="X12" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="V12">
-        <f>V7</f>
+      <c r="Y12">
+        <f>Y7</f>
         <v>87.394391629661698</v>
       </c>
-      <c r="W12">
-        <f>AVERAGE(W8:W11)</f>
+      <c r="Z12">
+        <f>AVERAGE(Z8:Z11)</f>
         <v>5.2178622215042729</v>
       </c>
-      <c r="X12">
-        <f t="shared" ref="X12:Y12" si="21">AVERAGE(X8:X11)</f>
+      <c r="AA12">
+        <f>AVERAGE(AA8:AA11)</f>
+        <v>2.0778502664386487</v>
+      </c>
+      <c r="AB12">
+        <f t="shared" ref="AB12:AC12" si="21">AVERAGE(AB8:AB11)</f>
         <v>1.7556715933315656</v>
       </c>
-      <c r="Y12">
+      <c r="AC12">
         <f t="shared" si="21"/>
         <v>1.1739132199713216</v>
       </c>
-      <c r="AA12">
-        <f>AA6</f>
+      <c r="AE12">
+        <f>AE6</f>
         <v>260.75474580818349</v>
       </c>
-      <c r="AB12">
-        <f>AVERAGE(AB8:AB11)</f>
+      <c r="AF12">
+        <f>AVERAGE(AF8:AF11)</f>
         <v>14.801730336275433</v>
-      </c>
-      <c r="AC12">
-        <f t="shared" ref="AC12" si="22">AVERAGE(AC8:AC11)</f>
-        <v>3.3823823767512038</v>
-      </c>
-      <c r="AD12">
-        <f t="shared" ref="AD12" si="23">AVERAGE(AD8:AD11)</f>
-        <v>1.6932682945655746</v>
-      </c>
-      <c r="AF12">
-        <f>AF6</f>
-        <v>132.42035868244747</v>
       </c>
       <c r="AG12">
         <f>AVERAGE(AG8:AG11)</f>
+        <v>3.3260063548252821</v>
+      </c>
+      <c r="AH12">
+        <f t="shared" ref="AH12" si="22">AVERAGE(AH8:AH11)</f>
+        <v>3.3823823767512038</v>
+      </c>
+      <c r="AI12">
+        <f t="shared" ref="AI12" si="23">AVERAGE(AI8:AI11)</f>
+        <v>1.6932682945655746</v>
+      </c>
+      <c r="AK12">
+        <f>AK6</f>
+        <v>132.42035868244747</v>
+      </c>
+      <c r="AL12">
+        <f>AVERAGE(AL8:AL11)</f>
         <v>45.21822456815466</v>
       </c>
-      <c r="AH12">
-        <f t="shared" ref="AH12" si="24">AVERAGE(AH8:AH11)</f>
+      <c r="AM12">
+        <f>AVERAGE(AM8:AM11)</f>
+        <v>13.962061929057068</v>
+      </c>
+      <c r="AN12">
+        <f t="shared" ref="AN12" si="24">AVERAGE(AN8:AN11)</f>
         <v>10.50004560530216</v>
       </c>
-      <c r="AI12">
-        <f t="shared" ref="AI12" si="25">AVERAGE(AI8:AI11)</f>
+      <c r="AO12">
+        <f t="shared" ref="AO12" si="25">AVERAGE(AO8:AO11)</f>
         <v>0.6671430788218613</v>
       </c>
     </row>
-    <row r="14" spans="2:35" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:41" x14ac:dyDescent="0.25">
       <c r="C14" t="str">
         <f>'Teensy 3.2'!$E$7</f>
         <v>CMSIS FFT</v>
       </c>
-      <c r="E14" t="str">
+      <c r="F14" t="str">
         <f>'Teensy 3.2'!E8</f>
         <v>Radix4</v>
       </c>
-      <c r="H14" t="str">
+      <c r="I14" t="str">
         <f>'Teensy 3.2'!$E$7</f>
         <v>CMSIS FFT</v>
       </c>
-      <c r="M14" t="str">
+      <c r="O14" t="str">
         <f>'Teensy 3.2'!$E$7</f>
         <v>CMSIS FFT</v>
       </c>
-      <c r="V14" t="str">
+      <c r="Y14" t="str">
         <f>C14</f>
         <v>CMSIS FFT</v>
       </c>
-      <c r="AA14" t="str">
-        <f>H14</f>
+      <c r="AE14" t="str">
+        <f>I14</f>
         <v>CMSIS FFT</v>
       </c>
-      <c r="AF14" t="str">
-        <f>M14</f>
+      <c r="AK14" t="str">
+        <f>O14</f>
         <v>CMSIS FFT</v>
       </c>
     </row>
-    <row r="15" spans="2:35" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:41" x14ac:dyDescent="0.25">
       <c r="C15" t="str">
         <f>'Arduino Uno'!$C$6</f>
         <v>Int16</v>
       </c>
-      <c r="H15" t="str">
+      <c r="I15" t="str">
         <f>'Teensy 3.2'!$H$6</f>
         <v>Int32</v>
       </c>
-      <c r="M15" t="str">
+      <c r="O15" t="str">
         <f>'Teensy 3.2'!$K$6</f>
         <v>Float</v>
       </c>
-      <c r="V15" t="str">
+      <c r="Y15" t="str">
         <f>C15</f>
         <v>Int16</v>
       </c>
-      <c r="AA15" t="str">
-        <f>H15</f>
+      <c r="AE15" t="str">
+        <f>I15</f>
         <v>Int32</v>
       </c>
-      <c r="AF15" t="str">
-        <f>M15</f>
+      <c r="AK15" t="str">
+        <f>O15</f>
         <v>Float</v>
       </c>
     </row>
-    <row r="16" spans="2:35" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:41" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>57</v>
       </c>
-      <c r="H16" t="str">
+      <c r="I16" t="str">
         <f>C16</f>
         <v>usec per FFT</v>
       </c>
-      <c r="M16" t="str">
+      <c r="O16" t="str">
         <f>C16</f>
         <v>usec per FFT</v>
       </c>
-      <c r="O16" t="str">
+      <c r="R16" t="str">
         <f>'Teensy 3.2'!$C$2</f>
         <v>Teensy 3.2</v>
       </c>
-      <c r="P16" t="str">
+      <c r="S16" t="str">
         <f>'NXP K66'!$C$2</f>
         <v>FRDM-K66F</v>
       </c>
-      <c r="V16" t="s">
+      <c r="Y16" t="s">
         <v>77</v>
       </c>
-      <c r="AA16" t="s">
+      <c r="AE16" t="s">
         <v>77</v>
       </c>
-      <c r="AF16" t="s">
+      <c r="AK16" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="17" spans="2:35" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:41" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>0</v>
       </c>
       <c r="C17" t="str">
-        <f>'Arduino Uno'!$C$2</f>
+        <f>C5</f>
         <v>Arduino Uno</v>
       </c>
       <c r="D17" t="str">
-        <f>'Arduino M0 Pro'!$C$2</f>
+        <f t="shared" ref="D17:G17" si="26">D5</f>
         <v>Arduino M0</v>
       </c>
       <c r="E17" t="str">
-        <f>'Teensy 3.2'!$C$2</f>
+        <f t="shared" si="26"/>
+        <v>Maple</v>
+      </c>
+      <c r="F17" t="str">
+        <f t="shared" si="26"/>
         <v>Teensy 3.2</v>
       </c>
-      <c r="F17" t="str">
-        <f>'NXP K66'!$C$2</f>
+      <c r="G17" t="str">
+        <f t="shared" si="26"/>
         <v>FRDM-K66F</v>
       </c>
-      <c r="H17" t="str">
-        <f>'Arduino Uno'!$C$2</f>
-        <v>Arduino Uno</v>
-      </c>
       <c r="I17" t="str">
-        <f>'Arduino M0 Pro'!$C$2</f>
-        <v>Arduino M0</v>
-      </c>
-      <c r="J17" t="str">
-        <f>'Teensy 3.2'!$C$2</f>
-        <v>Teensy 3.2</v>
-      </c>
-      <c r="K17" t="str">
-        <f>'NXP K66'!$C$2</f>
-        <v>FRDM-K66F</v>
-      </c>
-      <c r="M17" t="str">
-        <f>'Arduino Uno'!$C$2</f>
-        <v>Arduino Uno</v>
-      </c>
-      <c r="N17" t="str">
-        <f>'Arduino M0 Pro'!$C$2</f>
-        <v>Arduino M0</v>
-      </c>
-      <c r="O17" t="str">
-        <f>'Teensy 3.2'!$C$2</f>
-        <v>Teensy 3.2</v>
-      </c>
-      <c r="P17" t="str">
-        <f>'NXP K66'!$C$2</f>
-        <v>FRDM-K66F</v>
-      </c>
-      <c r="U17" t="s">
-        <v>0</v>
-      </c>
-      <c r="V17" t="str">
         <f>C17</f>
         <v>Arduino Uno</v>
       </c>
-      <c r="W17" t="str">
-        <f t="shared" ref="W17" si="26">D17</f>
+      <c r="J17" t="str">
+        <f t="shared" ref="J17:M17" si="27">D17</f>
         <v>Arduino M0</v>
       </c>
-      <c r="X17" t="str">
-        <f t="shared" ref="X17" si="27">E17</f>
+      <c r="K17" t="str">
+        <f t="shared" si="27"/>
+        <v>Maple</v>
+      </c>
+      <c r="L17" t="str">
+        <f t="shared" si="27"/>
         <v>Teensy 3.2</v>
       </c>
+      <c r="M17" t="str">
+        <f t="shared" si="27"/>
+        <v>FRDM-K66F</v>
+      </c>
+      <c r="O17" t="str">
+        <f>C17</f>
+        <v>Arduino Uno</v>
+      </c>
+      <c r="P17" t="str">
+        <f t="shared" ref="P17:S17" si="28">D17</f>
+        <v>Arduino M0</v>
+      </c>
+      <c r="Q17" t="str">
+        <f t="shared" si="28"/>
+        <v>Maple</v>
+      </c>
+      <c r="R17" t="str">
+        <f t="shared" si="28"/>
+        <v>Teensy 3.2</v>
+      </c>
+      <c r="S17" t="str">
+        <f t="shared" si="28"/>
+        <v>FRDM-K66F</v>
+      </c>
+      <c r="X17" t="s">
+        <v>0</v>
+      </c>
       <c r="Y17" t="str">
-        <f t="shared" ref="Y17" si="28">F17</f>
+        <f>C17</f>
+        <v>Arduino Uno</v>
+      </c>
+      <c r="Z17" t="str">
+        <f t="shared" ref="Z17:AC17" si="29">D17</f>
+        <v>Arduino M0</v>
+      </c>
+      <c r="AA17" t="str">
+        <f t="shared" si="29"/>
+        <v>Maple</v>
+      </c>
+      <c r="AB17" t="str">
+        <f t="shared" si="29"/>
+        <v>Teensy 3.2</v>
+      </c>
+      <c r="AC17" t="str">
+        <f t="shared" si="29"/>
         <v>FRDM-K66F</v>
       </c>
-      <c r="AA17" t="str">
-        <f>H17</f>
+      <c r="AE17" t="str">
+        <f>I17</f>
         <v>Arduino Uno</v>
       </c>
-      <c r="AB17" t="str">
-        <f t="shared" ref="AB17" si="29">I17</f>
+      <c r="AF17" t="str">
+        <f t="shared" ref="AF17:AG17" si="30">J17</f>
         <v>Arduino M0</v>
       </c>
-      <c r="AC17" t="str">
-        <f t="shared" ref="AC17" si="30">J17</f>
+      <c r="AG17" t="str">
+        <f t="shared" si="30"/>
+        <v>Maple</v>
+      </c>
+      <c r="AH17" t="str">
+        <f t="shared" ref="AH17" si="31">L17</f>
         <v>Teensy 3.2</v>
       </c>
-      <c r="AD17" t="str">
-        <f t="shared" ref="AD17" si="31">K17</f>
+      <c r="AI17" t="str">
+        <f t="shared" ref="AI17" si="32">M17</f>
         <v>FRDM-K66F</v>
       </c>
-      <c r="AF17" t="str">
-        <f>M17</f>
+      <c r="AK17" t="str">
+        <f>O17</f>
         <v>Arduino Uno</v>
       </c>
-      <c r="AG17" t="str">
-        <f t="shared" ref="AG17" si="32">N17</f>
+      <c r="AL17" t="str">
+        <f t="shared" ref="AL17:AM17" si="33">P17</f>
         <v>Arduino M0</v>
       </c>
-      <c r="AH17" t="str">
-        <f t="shared" ref="AH17" si="33">O17</f>
+      <c r="AM17" t="str">
+        <f t="shared" si="33"/>
+        <v>Maple</v>
+      </c>
+      <c r="AN17" t="str">
+        <f t="shared" ref="AN17" si="34">R17</f>
         <v>Teensy 3.2</v>
       </c>
-      <c r="AI17" t="str">
-        <f t="shared" ref="AI17" si="34">P17</f>
+      <c r="AO17" t="str">
+        <f t="shared" ref="AO17" si="35">S17</f>
         <v>FRDM-K66F</v>
       </c>
     </row>
-    <row r="18" spans="2:35" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:41" x14ac:dyDescent="0.25">
       <c r="B18">
         <f>'Teensy 3.2'!B12</f>
         <v>32</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <f>'Teensy 3.2'!E12</f>
         <v>32.4</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <f>'NXP K66'!E12</f>
         <v>17</v>
       </c>
-      <c r="J18">
+      <c r="L18">
         <f>'Teensy 3.2'!I12</f>
         <v>60.7</v>
       </c>
-      <c r="K18">
+      <c r="M18">
         <f>'NXP K66'!I12</f>
         <v>32</v>
       </c>
-      <c r="M18">
+      <c r="O18">
         <f>'Arduino Uno'!K24</f>
         <v>0</v>
       </c>
-      <c r="O18">
+      <c r="R18">
         <f>'Teensy 3.2'!M12</f>
         <v>282.3</v>
       </c>
-      <c r="P18">
+      <c r="S18">
         <f>'NXP K66'!M12</f>
         <v>25</v>
       </c>
-      <c r="U18">
+      <c r="X18">
         <f>B18</f>
         <v>32</v>
       </c>
-      <c r="X18">
-        <f t="shared" ref="X18:X23" si="35">E18/($U18*LOG($U18))</f>
+      <c r="AB18">
+        <f t="shared" ref="AB18:AB23" si="36">F18/($X18*LOG($X18))</f>
         <v>0.67269043921469085</v>
       </c>
-      <c r="Y18">
-        <f t="shared" ref="Y18:Y23" si="36">F18/($U18*LOG($U18))</f>
+      <c r="AC18">
+        <f t="shared" ref="AC18:AC23" si="37">G18/($X18*LOG($X18))</f>
         <v>0.35295486008178223</v>
       </c>
-      <c r="AC18">
-        <f t="shared" ref="AC18:AC23" si="37">J18/($U18*LOG($U18))</f>
+      <c r="AH18">
+        <f t="shared" ref="AH18:AH23" si="38">L18/($X18*LOG($X18))</f>
         <v>1.2602564709978932</v>
       </c>
-      <c r="AD18">
-        <f t="shared" ref="AD18:AD23" si="38">K18/($U18*LOG($U18))</f>
+      <c r="AI18">
+        <f t="shared" ref="AI18:AI23" si="39">M18/($X18*LOG($X18))</f>
         <v>0.66438561897747239</v>
       </c>
-      <c r="AH18">
-        <f t="shared" ref="AH18:AH23" si="39">O18/($U18*LOG($U18))</f>
+      <c r="AN18">
+        <f t="shared" ref="AN18:AN23" si="40">R18/($X18*LOG($X18))</f>
         <v>5.8611268824168903</v>
       </c>
-      <c r="AI18">
-        <f t="shared" ref="AI18:AI23" si="40">P18/($U18*LOG($U18))</f>
+      <c r="AO18">
+        <f t="shared" ref="AO18:AO23" si="41">S18/($X18*LOG($X18))</f>
         <v>0.51905126482615038</v>
       </c>
     </row>
-    <row r="19" spans="2:35" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:41" x14ac:dyDescent="0.25">
       <c r="B19">
         <f>'Teensy 3.2'!B13</f>
         <v>64</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <f>'Teensy 3.2'!E13</f>
         <v>60.5</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <f>'NXP K66'!E13</f>
         <v>30</v>
       </c>
-      <c r="J19">
+      <c r="L19">
         <f>'Teensy 3.2'!I13</f>
         <v>116.58</v>
       </c>
-      <c r="K19">
+      <c r="M19">
         <f>'NXP K66'!I13</f>
         <v>60</v>
       </c>
-      <c r="O19">
+      <c r="R19">
         <f>'Teensy 3.2'!M13</f>
         <v>552.04</v>
       </c>
-      <c r="P19">
+      <c r="S19">
         <f>'NXP K66'!M13</f>
         <v>47</v>
       </c>
-      <c r="U19">
-        <f t="shared" ref="U19:U24" si="41">B19</f>
+      <c r="X19">
+        <f t="shared" ref="X19:X23" si="42">B19</f>
         <v>64</v>
       </c>
-      <c r="X19">
-        <f t="shared" si="35"/>
+      <c r="AB19">
+        <f t="shared" si="36"/>
         <v>0.52337669203303494</v>
-      </c>
-      <c r="Y19">
-        <f t="shared" si="36"/>
-        <v>0.25952563241307519</v>
       </c>
       <c r="AC19">
         <f t="shared" si="37"/>
+        <v>0.25952563241307519</v>
+      </c>
+      <c r="AH19">
+        <f t="shared" si="38"/>
         <v>1.0085166075572103</v>
       </c>
-      <c r="AD19">
-        <f t="shared" si="38"/>
+      <c r="AI19">
+        <f t="shared" si="39"/>
         <v>0.51905126482615038</v>
       </c>
-      <c r="AH19">
-        <f t="shared" si="39"/>
+      <c r="AN19">
+        <f t="shared" si="40"/>
         <v>4.7756176705771338</v>
       </c>
-      <c r="AI19">
-        <f t="shared" si="40"/>
+      <c r="AO19">
+        <f t="shared" si="41"/>
         <v>0.40659015744715116</v>
       </c>
     </row>
-    <row r="20" spans="2:35" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:41" x14ac:dyDescent="0.25">
       <c r="B20">
         <f>'Teensy 3.2'!B14</f>
         <v>128</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <f>'Teensy 3.2'!E14</f>
         <v>139.74</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <f>'NXP K66'!E14</f>
         <v>70</v>
       </c>
-      <c r="J20">
+      <c r="L20">
         <f>'Teensy 3.2'!I14</f>
         <v>303.7</v>
       </c>
-      <c r="K20">
+      <c r="M20">
         <f>'NXP K66'!I14</f>
         <v>161</v>
       </c>
-      <c r="O20">
+      <c r="R20">
         <f>'Teensy 3.2'!M14</f>
         <v>1520.76</v>
       </c>
-      <c r="P20">
+      <c r="S20">
         <f>'NXP K66'!M14</f>
         <v>105</v>
       </c>
-      <c r="U20">
-        <f t="shared" si="41"/>
+      <c r="X20">
+        <f t="shared" si="42"/>
         <v>128</v>
       </c>
-      <c r="X20">
-        <f t="shared" si="35"/>
+      <c r="AB20">
+        <f t="shared" si="36"/>
         <v>0.51808731247718753</v>
-      </c>
-      <c r="Y20">
-        <f t="shared" si="36"/>
-        <v>0.25952563241307519</v>
       </c>
       <c r="AC20">
         <f t="shared" si="37"/>
+        <v>0.25952563241307519</v>
+      </c>
+      <c r="AH20">
+        <f t="shared" si="38"/>
         <v>1.1259704937692989</v>
       </c>
-      <c r="AD20">
-        <f t="shared" si="38"/>
+      <c r="AI20">
+        <f t="shared" si="39"/>
         <v>0.59690895455007298</v>
       </c>
-      <c r="AH20">
-        <f t="shared" si="39"/>
+      <c r="AN20">
+        <f t="shared" si="40"/>
         <v>5.6382314392644028</v>
       </c>
-      <c r="AI20">
-        <f t="shared" si="40"/>
+      <c r="AO20">
+        <f t="shared" si="41"/>
         <v>0.38928844861961276</v>
       </c>
     </row>
-    <row r="21" spans="2:35" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:41" x14ac:dyDescent="0.25">
       <c r="B21">
         <f>'Teensy 3.2'!B15</f>
         <v>256</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <f>'Teensy 3.2'!E15</f>
         <v>272.54000000000002</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <f>'NXP K66'!E15</f>
         <v>136</v>
       </c>
-      <c r="J21">
+      <c r="L21">
         <f>'Teensy 3.2'!I15</f>
         <v>597.08000000000004</v>
       </c>
-      <c r="K21">
+      <c r="M21">
         <f>'NXP K66'!I15</f>
         <v>317</v>
       </c>
-      <c r="O21">
+      <c r="R21">
         <f>'Teensy 3.2'!M15</f>
         <v>3022.52</v>
       </c>
-      <c r="P21">
+      <c r="S21">
         <f>'NXP K66'!M15</f>
         <v>205</v>
       </c>
-      <c r="U21">
-        <f t="shared" si="41"/>
+      <c r="X21">
+        <f t="shared" si="42"/>
         <v>256</v>
       </c>
-      <c r="X21">
-        <f t="shared" si="35"/>
+      <c r="AB21">
+        <f t="shared" si="36"/>
         <v>0.44206947411162195</v>
-      </c>
-      <c r="Y21">
-        <f t="shared" si="36"/>
-        <v>0.22059678755111389</v>
       </c>
       <c r="AC21">
         <f t="shared" si="37"/>
+        <v>0.22059678755111389</v>
+      </c>
+      <c r="AH21">
+        <f t="shared" si="38"/>
         <v>0.96848477875749339</v>
       </c>
-      <c r="AD21">
-        <f t="shared" si="38"/>
+      <c r="AI21">
+        <f t="shared" si="39"/>
         <v>0.51418515921840524</v>
       </c>
-      <c r="AH21">
-        <f t="shared" si="39"/>
+      <c r="AN21">
+        <f t="shared" si="40"/>
         <v>4.9026338405073</v>
       </c>
-      <c r="AI21">
-        <f t="shared" si="40"/>
+      <c r="AO21">
+        <f t="shared" si="41"/>
         <v>0.33251721652925259</v>
       </c>
     </row>
-    <row r="22" spans="2:35" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:41" x14ac:dyDescent="0.25">
       <c r="B22">
         <f>'Teensy 3.2'!B16</f>
         <v>512</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <f>'Teensy 3.2'!E16</f>
         <v>635.05999999999995</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <f>'NXP K66'!E16</f>
         <v>310</v>
       </c>
-      <c r="J22">
+      <c r="L22">
         <f>'Teensy 3.2'!I16</f>
         <v>1476.16</v>
       </c>
-      <c r="K22">
+      <c r="M22">
         <f>'NXP K66'!I16</f>
         <v>786</v>
       </c>
-      <c r="O22">
+      <c r="R22">
         <f>'Teensy 3.2'!M16</f>
         <v>7711.3</v>
       </c>
-      <c r="P22">
+      <c r="S22">
         <f>'NXP K66'!M16</f>
         <v>471</v>
       </c>
-      <c r="U22">
-        <f t="shared" si="41"/>
+      <c r="X22">
+        <f t="shared" si="42"/>
         <v>512</v>
       </c>
-      <c r="X22">
-        <f t="shared" si="35"/>
+      <c r="AB22">
+        <f t="shared" si="36"/>
         <v>0.45781763366735417</v>
-      </c>
-      <c r="Y22">
-        <f t="shared" si="36"/>
-        <v>0.22348040568903696</v>
       </c>
       <c r="AC22">
         <f t="shared" si="37"/>
+        <v>0.22348040568903696</v>
+      </c>
+      <c r="AH22">
+        <f t="shared" si="38"/>
         <v>1.0641704376191252</v>
       </c>
-      <c r="AD22">
-        <f t="shared" si="38"/>
+      <c r="AI22">
+        <f t="shared" si="39"/>
         <v>0.56663096410188085</v>
       </c>
-      <c r="AH22">
-        <f t="shared" si="39"/>
+      <c r="AN22">
+        <f t="shared" si="40"/>
         <v>5.5591111367415182</v>
       </c>
-      <c r="AI22">
-        <f t="shared" si="40"/>
+      <c r="AO22">
+        <f t="shared" si="41"/>
         <v>0.33954603574044001</v>
       </c>
     </row>
-    <row r="23" spans="2:35" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:41" x14ac:dyDescent="0.25">
       <c r="B23">
         <f>'Teensy 3.2'!B17</f>
         <v>1024</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <f>'Teensy 3.2'!E17</f>
         <v>1254.4000000000001</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <f>'NXP K66'!E17</f>
         <v>614</v>
       </c>
-      <c r="J23">
+      <c r="L23">
         <f>'Teensy 3.2'!I17</f>
         <v>2920.28</v>
       </c>
-      <c r="K23">
+      <c r="M23">
         <f>'NXP K66'!I17</f>
         <v>1558</v>
       </c>
-      <c r="O23">
+      <c r="R23">
         <f>'Teensy 3.2'!M17</f>
         <v>15382.98</v>
       </c>
-      <c r="P23">
+      <c r="S23">
         <f>'NXP K66'!M17</f>
         <v>928</v>
       </c>
-      <c r="U23" s="22">
-        <f t="shared" si="41"/>
+      <c r="X23" s="22">
+        <f t="shared" si="42"/>
         <v>1024</v>
       </c>
-      <c r="V23" s="22"/>
-      <c r="W23" s="22"/>
-      <c r="X23" s="22">
-        <f t="shared" si="35"/>
+      <c r="Y23" s="22"/>
+      <c r="Z23" s="22"/>
+      <c r="AA23" s="22"/>
+      <c r="AB23" s="22">
+        <f t="shared" si="36"/>
         <v>0.40693619162370187</v>
       </c>
-      <c r="Y23" s="22">
-        <f t="shared" si="36"/>
-        <v>0.19918592287703518</v>
-      </c>
-      <c r="AA23" s="22"/>
-      <c r="AB23" s="22"/>
       <c r="AC23" s="22">
         <f t="shared" si="37"/>
-        <v>0.94735939227906907</v>
-      </c>
-      <c r="AD23" s="22">
-        <f t="shared" si="38"/>
-        <v>0.50542616912446392</v>
-      </c>
+        <v>0.19918592287703518</v>
+      </c>
+      <c r="AE23" s="22"/>
       <c r="AF23" s="22"/>
       <c r="AG23" s="22"/>
       <c r="AH23" s="22">
+        <f t="shared" si="38"/>
+        <v>0.94735939227906907</v>
+      </c>
+      <c r="AI23" s="22">
         <f t="shared" si="39"/>
+        <v>0.50542616912446392</v>
+      </c>
+      <c r="AK23" s="22"/>
+      <c r="AL23" s="22"/>
+      <c r="AM23" s="22"/>
+      <c r="AN23" s="22">
+        <f t="shared" si="40"/>
         <v>4.9903470161221088</v>
       </c>
-      <c r="AI23" s="22">
-        <f t="shared" si="40"/>
+      <c r="AO23" s="22">
+        <f t="shared" si="41"/>
         <v>0.3010497335991672</v>
       </c>
     </row>
-    <row r="24" spans="2:35" x14ac:dyDescent="0.25">
-      <c r="U24" s="21" t="s">
+    <row r="24" spans="2:41" x14ac:dyDescent="0.25">
+      <c r="X24" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="X24">
-        <f t="shared" ref="X24" si="42">AVERAGE(X20:X23)</f>
+      <c r="AB24">
+        <f t="shared" ref="AB24" si="43">AVERAGE(AB20:AB23)</f>
         <v>0.45622765296996637</v>
-      </c>
-      <c r="Y24">
-        <f t="shared" ref="Y24" si="43">AVERAGE(Y20:Y23)</f>
-        <v>0.22569718713256531</v>
       </c>
       <c r="AC24">
         <f t="shared" ref="AC24" si="44">AVERAGE(AC20:AC23)</f>
+        <v>0.22569718713256531</v>
+      </c>
+      <c r="AH24">
+        <f t="shared" ref="AH24" si="45">AVERAGE(AH20:AH23)</f>
         <v>1.0264962756062466</v>
       </c>
-      <c r="AD24">
-        <f t="shared" ref="AD24" si="45">AVERAGE(AD20:AD23)</f>
+      <c r="AI24">
+        <f t="shared" ref="AI24" si="46">AVERAGE(AI20:AI23)</f>
         <v>0.54578781174870583</v>
       </c>
-      <c r="AH24">
-        <f t="shared" ref="AH24" si="46">AVERAGE(AH20:AH23)</f>
+      <c r="AN24">
+        <f t="shared" ref="AN24" si="47">AVERAGE(AN20:AN23)</f>
         <v>5.2725808581588325</v>
       </c>
-      <c r="AI24">
-        <f t="shared" ref="AI24" si="47">AVERAGE(AI20:AI23)</f>
+      <c r="AO24">
+        <f t="shared" ref="AO24" si="48">AVERAGE(AO20:AO23)</f>
         <v>0.34060035862211813</v>
       </c>
     </row>
@@ -18463,19 +19295,19 @@
   <dimension ref="B2:M17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M10" sqref="M10:M17"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
-        <v>48</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
-        <v>54</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.25">
@@ -18593,31 +19425,13 @@
         <v>8</v>
       </c>
       <c r="C10" s="15">
-        <v>19.600000000000001</v>
-      </c>
-      <c r="D10" s="15">
-        <v>8.8800000000000008</v>
-      </c>
-      <c r="E10" s="15">
-        <v>8.44</v>
+        <v>24.4</v>
       </c>
       <c r="G10" s="15">
-        <v>34.799999999999997</v>
-      </c>
-      <c r="H10" s="15">
-        <v>12.42</v>
-      </c>
-      <c r="I10" s="15">
-        <v>12.38</v>
+        <v>35.4</v>
       </c>
       <c r="K10" s="15">
-        <v>73.8</v>
-      </c>
-      <c r="L10" s="15">
-        <v>52.22</v>
-      </c>
-      <c r="M10" s="15">
-        <v>49.44</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11" spans="2:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
@@ -18625,31 +19439,13 @@
         <v>16</v>
       </c>
       <c r="C11" s="15">
-        <v>38</v>
-      </c>
-      <c r="D11" s="15">
-        <v>17</v>
-      </c>
-      <c r="E11" s="15">
-        <v>14.12</v>
+        <v>45.2</v>
       </c>
       <c r="G11" s="15">
-        <v>68.400000000000006</v>
-      </c>
-      <c r="H11" s="15">
-        <v>26.38</v>
-      </c>
-      <c r="I11" s="15">
-        <v>21.5</v>
+        <v>66.599999999999994</v>
       </c>
       <c r="K11" s="15">
-        <v>177.6</v>
-      </c>
-      <c r="L11" s="15">
-        <v>128.13999999999999</v>
-      </c>
-      <c r="M11" s="15">
-        <v>88.9</v>
+        <v>247.8</v>
       </c>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.25">
@@ -18657,31 +19453,13 @@
         <v>32</v>
       </c>
       <c r="C12">
-        <v>103.4</v>
-      </c>
-      <c r="D12">
-        <v>34.68</v>
-      </c>
-      <c r="E12">
-        <v>32.4</v>
+        <v>124.2</v>
       </c>
       <c r="G12">
-        <v>192.8</v>
-      </c>
-      <c r="H12">
-        <v>58.22</v>
-      </c>
-      <c r="I12">
-        <v>60.7</v>
+        <v>191.2</v>
       </c>
       <c r="K12">
-        <v>496.4</v>
-      </c>
-      <c r="L12">
-        <v>316.22000000000003</v>
-      </c>
-      <c r="M12">
-        <v>282.3</v>
+        <v>667.2</v>
       </c>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.25">
@@ -18689,31 +19467,13 @@
         <v>64</v>
       </c>
       <c r="C13">
-        <v>204.4</v>
-      </c>
-      <c r="D13">
-        <v>73.599999999999994</v>
-      </c>
-      <c r="E13">
-        <v>60.5</v>
+        <v>236.4</v>
       </c>
       <c r="G13">
-        <v>383.6</v>
-      </c>
-      <c r="H13">
-        <v>131.32</v>
-      </c>
-      <c r="I13">
-        <v>116.58</v>
+        <v>368.4</v>
       </c>
       <c r="K13">
-        <v>1136</v>
-      </c>
-      <c r="L13">
-        <v>757.58</v>
-      </c>
-      <c r="M13">
-        <v>552.04</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.25">
@@ -18721,31 +19481,13 @@
         <v>128</v>
       </c>
       <c r="C14">
-        <v>520.4</v>
-      </c>
-      <c r="D14">
-        <v>157.96</v>
-      </c>
-      <c r="E14">
-        <v>139.74</v>
+        <v>608.4</v>
       </c>
       <c r="G14">
-        <v>993.2</v>
-      </c>
-      <c r="H14">
-        <v>293.62</v>
-      </c>
-      <c r="I14">
-        <v>303.7</v>
+        <v>969.6</v>
       </c>
       <c r="K14">
-        <v>2849.8</v>
-      </c>
-      <c r="L14">
-        <v>1768.72</v>
-      </c>
-      <c r="M14">
-        <v>1520.76</v>
+        <v>3806.2</v>
       </c>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.25">
@@ -18753,95 +19495,23 @@
         <v>256</v>
       </c>
       <c r="C15">
-        <v>1030.4000000000001</v>
-      </c>
-      <c r="D15">
-        <v>339.58</v>
-      </c>
-      <c r="E15">
-        <v>272.54000000000002</v>
+        <v>1171.4000000000001</v>
       </c>
       <c r="G15">
-        <v>1976</v>
-      </c>
-      <c r="H15">
-        <v>653.76</v>
-      </c>
-      <c r="I15">
-        <v>597.08000000000004</v>
+        <v>1884.8</v>
       </c>
       <c r="K15">
-        <v>6295.8</v>
-      </c>
-      <c r="L15">
-        <v>4051.34</v>
-      </c>
-      <c r="M15">
-        <v>3022.52</v>
+        <v>8515.6</v>
       </c>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>512</v>
       </c>
-      <c r="C16">
-        <v>2508</v>
-      </c>
-      <c r="D16">
-        <v>730.94</v>
-      </c>
-      <c r="E16">
-        <v>635.05999999999995</v>
-      </c>
-      <c r="G16">
-        <v>4858</v>
-      </c>
-      <c r="H16">
-        <v>1442.82</v>
-      </c>
-      <c r="I16">
-        <v>1476.16</v>
-      </c>
-      <c r="K16">
-        <v>14922</v>
-      </c>
-      <c r="L16">
-        <v>9132.7800000000007</v>
-      </c>
-      <c r="M16">
-        <v>7711.3</v>
-      </c>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>1024</v>
-      </c>
-      <c r="C17">
-        <v>4975</v>
-      </c>
-      <c r="D17">
-        <v>1570.74</v>
-      </c>
-      <c r="E17">
-        <v>1254.4000000000001</v>
-      </c>
-      <c r="G17">
-        <v>9679</v>
-      </c>
-      <c r="H17">
-        <v>3152.84</v>
-      </c>
-      <c r="I17">
-        <v>2920.28</v>
-      </c>
-      <c r="K17">
-        <v>32259.4</v>
-      </c>
-      <c r="L17">
-        <v>20338.98</v>
-      </c>
-      <c r="M17">
-        <v>15382.98</v>
       </c>
     </row>
   </sheetData>

--- a/Arduino/Audio Processing Benchmarking/FFT Speed Results.xlsx
+++ b/Arduino/Audio Processing Benchmarking/FFT Speed Results.xlsx
@@ -7,25 +7,26 @@
     <workbookView xWindow="360" yWindow="75" windowWidth="19155" windowHeight="9015"/>
   </bookViews>
   <sheets>
-    <sheet name="Summary Table" sheetId="13" r:id="rId1"/>
-    <sheet name="Summary_Speed" sheetId="9" r:id="rId2"/>
-    <sheet name="Summary-Duration" sheetId="6" r:id="rId3"/>
-    <sheet name="AllData" sheetId="7" r:id="rId4"/>
-    <sheet name="Arduino Uno" sheetId="4" r:id="rId5"/>
-    <sheet name="Arduino M0 Pro" sheetId="8" r:id="rId6"/>
-    <sheet name="Maple" sheetId="12" r:id="rId7"/>
-    <sheet name="Teensy 3.2" sheetId="3" r:id="rId8"/>
-    <sheet name="NXP K66" sheetId="5" r:id="rId9"/>
+    <sheet name="Systems" sheetId="14" r:id="rId1"/>
+    <sheet name="Summary Table" sheetId="13" r:id="rId2"/>
+    <sheet name="Summary_Speed" sheetId="9" r:id="rId3"/>
+    <sheet name="Summary-Duration" sheetId="6" r:id="rId4"/>
+    <sheet name="AllData" sheetId="7" r:id="rId5"/>
+    <sheet name="Arduino Uno" sheetId="4" r:id="rId6"/>
+    <sheet name="Arduino M0 Pro" sheetId="8" r:id="rId7"/>
+    <sheet name="Maple" sheetId="12" r:id="rId8"/>
+    <sheet name="Teensy 3.2" sheetId="3" r:id="rId9"/>
+    <sheet name="NXP K66" sheetId="5" r:id="rId10"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">AllData!$B$4:$G$128</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">AllData!$B$4:$G$128</definedName>
   </definedNames>
   <calcPr calcId="145621" calcOnSave="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698" uniqueCount="108">
   <si>
     <t>N</t>
   </si>
@@ -234,20 +235,132 @@
     <t>Num Ops</t>
   </si>
   <si>
-    <t>Speedup Due to CMSIS</t>
+    <t>Speedup in FFT Due to CMSIS</t>
   </si>
   <si>
-    <t>Max Sample Rate (Hz) for FFT+IFFT (50% Overlap) of Given Size  (Bigger is Better)</t>
+    <t>Max Sample Rate (Hz) for FFT+IFFT with 50% Overlap  (Bigger is Better)</t>
+  </si>
+  <si>
+    <t>Microcontroller</t>
+  </si>
+  <si>
+    <t>Brand</t>
+  </si>
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>Core</t>
+  </si>
+  <si>
+    <t>Clock</t>
+  </si>
+  <si>
+    <t>Width</t>
+  </si>
+  <si>
+    <t>FPU</t>
+  </si>
+  <si>
+    <t>RAM</t>
+  </si>
+  <si>
+    <t>Arduino</t>
+  </si>
+  <si>
+    <t>Uno</t>
+  </si>
+  <si>
+    <t>Atmel</t>
+  </si>
+  <si>
+    <t>MEGA328P</t>
+  </si>
+  <si>
+    <t>AVR</t>
+  </si>
+  <si>
+    <t>8-bit</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>2 KB</t>
+  </si>
+  <si>
+    <t>M0 PRO</t>
+  </si>
+  <si>
+    <t>SAMD21G18</t>
+  </si>
+  <si>
+    <t>ARM Cortex-M0+</t>
+  </si>
+  <si>
+    <t>32-bit</t>
+  </si>
+  <si>
+    <t>32 KB</t>
+  </si>
+  <si>
+    <t>LeafLabs</t>
+  </si>
+  <si>
+    <t>STM</t>
+  </si>
+  <si>
+    <t>STM32F103</t>
+  </si>
+  <si>
+    <t>ARM Cortex-M3</t>
+  </si>
+  <si>
+    <t>20 KB</t>
+  </si>
+  <si>
+    <t>PJRC</t>
+  </si>
+  <si>
+    <t>NXP</t>
+  </si>
+  <si>
+    <t>MK20DX256</t>
+  </si>
+  <si>
+    <t>ARM Cortex-M4</t>
+  </si>
+  <si>
+    <t>96 MHz</t>
+  </si>
+  <si>
+    <t>64 KB</t>
+  </si>
+  <si>
+    <t>MK66FN2M0</t>
+  </si>
+  <si>
+    <t>ARM Cortex-M4F</t>
+  </si>
+  <si>
+    <t>180 MHz</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>256 KB</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="0.0\x"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -293,6 +406,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -417,7 +544,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -437,29 +564,51 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -471,73 +620,37 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="37" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCCFFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCCFFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
         <b/>
@@ -587,6 +700,34 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600"/>
+              <a:t>FFTs Per Second</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="0"/>
+              <a:t>(Generic C, Bigger Values are Better)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -1051,21 +1192,40 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="49487232"/>
-        <c:axId val="49493120"/>
+        <c:axId val="145706368"/>
+        <c:axId val="145712256"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="49487232"/>
+        <c:axId val="145706368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>FFT Length (samples)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="49493120"/>
+        <c:crossAx val="145712256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1073,7 +1233,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="49493120"/>
+        <c:axId val="145712256"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1082,18 +1242,46 @@
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>FFTs Completed Per Second</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="#,##0" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="49487232"/>
+        <c:crossAx val="145706368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.74129809425995663"/>
+          <c:y val="0.2761556830182213"/>
+          <c:w val="0.24478886226178251"/>
+          <c:h val="0.52171199654176204"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1304,11 +1492,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="49398912"/>
-        <c:axId val="49400448"/>
+        <c:axId val="144942592"/>
+        <c:axId val="144944128"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="49398912"/>
+        <c:axId val="144942592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1317,7 +1505,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="49400448"/>
+        <c:crossAx val="144944128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1325,7 +1513,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="49400448"/>
+        <c:axId val="144944128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1371,7 +1559,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="49398912"/>
+        <c:crossAx val="144942592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1762,11 +1950,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="49451776"/>
-        <c:axId val="49453312"/>
+        <c:axId val="146351232"/>
+        <c:axId val="146352768"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="49451776"/>
+        <c:axId val="146351232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1775,7 +1963,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="49453312"/>
+        <c:crossAx val="146352768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1783,7 +1971,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="49453312"/>
+        <c:axId val="146352768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1812,7 +2000,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="49451776"/>
+        <c:crossAx val="146351232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="2000"/>
@@ -2147,11 +2335,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="50206592"/>
-        <c:axId val="50212864"/>
+        <c:axId val="145877248"/>
+        <c:axId val="146145664"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="50206592"/>
+        <c:axId val="145877248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2179,7 +2367,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="50212864"/>
+        <c:crossAx val="146145664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2187,7 +2375,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="50212864"/>
+        <c:axId val="146145664"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -2219,7 +2407,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="50206592"/>
+        <c:crossAx val="145877248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2553,11 +2741,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="50252416"/>
-        <c:axId val="50258688"/>
+        <c:axId val="146181120"/>
+        <c:axId val="146187392"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="50252416"/>
+        <c:axId val="146181120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2585,7 +2773,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="50258688"/>
+        <c:crossAx val="146187392"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2593,7 +2781,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="50258688"/>
+        <c:axId val="146187392"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -2625,7 +2813,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="50252416"/>
+        <c:crossAx val="146181120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2904,11 +3092,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="49703552"/>
-        <c:axId val="49713920"/>
+        <c:axId val="146283520"/>
+        <c:axId val="146293888"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="49703552"/>
+        <c:axId val="146283520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2936,7 +3124,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="49713920"/>
+        <c:crossAx val="146293888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2944,7 +3132,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="49713920"/>
+        <c:axId val="146293888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2973,7 +3161,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="49703552"/>
+        <c:crossAx val="146283520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3252,11 +3440,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="49740800"/>
-        <c:axId val="49816704"/>
+        <c:axId val="146308480"/>
+        <c:axId val="146331136"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="49740800"/>
+        <c:axId val="146308480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3284,7 +3472,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="49816704"/>
+        <c:crossAx val="146331136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3292,7 +3480,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="49816704"/>
+        <c:axId val="146331136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3321,7 +3509,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="49740800"/>
+        <c:crossAx val="146308480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3600,11 +3788,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="49842816"/>
-        <c:axId val="49857280"/>
+        <c:axId val="146705408"/>
+        <c:axId val="146707584"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="49842816"/>
+        <c:axId val="146705408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3632,7 +3820,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="49857280"/>
+        <c:crossAx val="146707584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3640,7 +3828,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="49857280"/>
+        <c:axId val="146707584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3669,7 +3857,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="49842816"/>
+        <c:crossAx val="146705408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3930,11 +4118,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="50543232"/>
-        <c:axId val="50545408"/>
+        <c:axId val="146545664"/>
+        <c:axId val="146547840"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="50543232"/>
+        <c:axId val="146545664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3962,7 +4150,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="50545408"/>
+        <c:crossAx val="146547840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3970,7 +4158,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="50545408"/>
+        <c:axId val="146547840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3999,7 +4187,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="50543232"/>
+        <c:crossAx val="146545664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4260,11 +4448,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="50592384"/>
-        <c:axId val="50340608"/>
+        <c:axId val="146586624"/>
+        <c:axId val="146592896"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="50592384"/>
+        <c:axId val="146586624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4292,7 +4480,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="50340608"/>
+        <c:crossAx val="146592896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4300,7 +4488,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="50340608"/>
+        <c:axId val="146592896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4329,7 +4517,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="50592384"/>
+        <c:crossAx val="146586624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4590,11 +4778,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="50363392"/>
-        <c:axId val="50369664"/>
+        <c:axId val="146488704"/>
+        <c:axId val="146511360"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="50363392"/>
+        <c:axId val="146488704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4622,7 +4810,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="50369664"/>
+        <c:crossAx val="146511360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4630,7 +4818,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="50369664"/>
+        <c:axId val="146511360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4659,7 +4847,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="50363392"/>
+        <c:crossAx val="146488704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4805,11 +4993,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="49517312"/>
-        <c:axId val="49518848"/>
+        <c:axId val="145740544"/>
+        <c:axId val="145742080"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="49517312"/>
+        <c:axId val="145740544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4818,7 +5006,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="49518848"/>
+        <c:crossAx val="145742080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4826,7 +5014,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="49518848"/>
+        <c:axId val="145742080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4837,7 +5025,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="49517312"/>
+        <c:crossAx val="145740544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5041,11 +5229,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="84680704"/>
-        <c:axId val="108827776"/>
+        <c:axId val="145642240"/>
+        <c:axId val="145643776"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="84680704"/>
+        <c:axId val="145642240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5054,7 +5242,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="108827776"/>
+        <c:crossAx val="145643776"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5062,7 +5250,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="108827776"/>
+        <c:axId val="145643776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5073,9 +5261,10 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="84680704"/>
+        <c:crossAx val="145642240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:majorUnit val="500"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -5301,11 +5490,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="84763008"/>
-        <c:axId val="84765312"/>
+        <c:axId val="145652736"/>
+        <c:axId val="145679104"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="84763008"/>
+        <c:axId val="145652736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5314,7 +5503,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="84765312"/>
+        <c:crossAx val="145679104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5322,7 +5511,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="84765312"/>
+        <c:axId val="145679104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5333,9 +5522,10 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="84763008"/>
+        <c:crossAx val="145652736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:majorUnit val="2000"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -5386,7 +5576,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -5685,11 +5874,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="48661248"/>
-        <c:axId val="48663168"/>
+        <c:axId val="144856576"/>
+        <c:axId val="144858496"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="48661248"/>
+        <c:axId val="144856576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5711,14 +5900,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="48663168"/>
+        <c:crossAx val="144858496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5726,7 +5914,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="48663168"/>
+        <c:axId val="144858496"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -5751,21 +5939,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="48661248"/>
+        <c:crossAx val="144856576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -5818,7 +6004,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -6117,11 +6302,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="49571712"/>
-        <c:axId val="126955520"/>
+        <c:axId val="145781504"/>
+        <c:axId val="145783424"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="49571712"/>
+        <c:axId val="145781504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6143,14 +6328,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="126955520"/>
+        <c:crossAx val="145783424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6158,7 +6342,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="126955520"/>
+        <c:axId val="145783424"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -6183,21 +6367,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="49571712"/>
+        <c:crossAx val="145781504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -6363,11 +6545,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="48710400"/>
-        <c:axId val="48711936"/>
+        <c:axId val="144776576"/>
+        <c:axId val="144778368"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="48710400"/>
+        <c:axId val="144776576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6376,7 +6558,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="48711936"/>
+        <c:crossAx val="144778368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6384,7 +6566,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="48711936"/>
+        <c:axId val="144778368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="10000"/>
@@ -6414,7 +6596,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="48710400"/>
+        <c:crossAx val="144776576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="2000"/>
@@ -6541,11 +6723,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="48745472"/>
-        <c:axId val="48751360"/>
+        <c:axId val="144807424"/>
+        <c:axId val="144808960"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="48745472"/>
+        <c:axId val="144807424"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -6556,12 +6738,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="48751360"/>
+        <c:crossAx val="144808960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="48751360"/>
+        <c:axId val="144808960"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -6573,7 +6755,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="48745472"/>
+        <c:crossAx val="144807424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6814,11 +6996,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="49350912"/>
-        <c:axId val="49373184"/>
+        <c:axId val="144910976"/>
+        <c:axId val="144916864"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="49350912"/>
+        <c:axId val="144910976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6827,7 +7009,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="49373184"/>
+        <c:crossAx val="144916864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6835,7 +7017,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="49373184"/>
+        <c:axId val="144916864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="100"/>
@@ -6873,7 +7055,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="49350912"/>
+        <c:crossAx val="144910976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6899,15 +7081,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>590549</xdr:colOff>
+      <xdr:colOff>590550</xdr:colOff>
       <xdr:row>38</xdr:row>
       <xdr:rowOff>42862</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>247649</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>119062</xdr:rowOff>
+      <xdr:colOff>247651</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7951,81 +8133,695 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B4:J10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="9.85546875" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" customWidth="1"/>
+    <col min="4" max="4" width="8" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.42578125" customWidth="1"/>
+    <col min="7" max="7" width="9.5703125" customWidth="1"/>
+    <col min="8" max="8" width="7.85546875" customWidth="1"/>
+    <col min="9" max="9" width="5.28515625" customWidth="1"/>
+    <col min="10" max="10" width="7.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B4" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="40"/>
+      <c r="D4" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="41"/>
+      <c r="J4" s="41"/>
+    </row>
+    <row r="5" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B5" s="42" t="s">
+        <v>72</v>
+      </c>
+      <c r="C5" s="42" t="s">
+        <v>73</v>
+      </c>
+      <c r="D5" s="43" t="s">
+        <v>72</v>
+      </c>
+      <c r="E5" s="43" t="s">
+        <v>73</v>
+      </c>
+      <c r="F5" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="G5" s="43" t="s">
+        <v>75</v>
+      </c>
+      <c r="H5" s="43" t="s">
+        <v>76</v>
+      </c>
+      <c r="I5" s="43" t="s">
+        <v>77</v>
+      </c>
+      <c r="J5" s="43" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B6" s="44" t="s">
+        <v>79</v>
+      </c>
+      <c r="C6" s="44" t="s">
+        <v>80</v>
+      </c>
+      <c r="D6" s="44" t="s">
+        <v>81</v>
+      </c>
+      <c r="E6" s="44" t="s">
+        <v>82</v>
+      </c>
+      <c r="F6" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="G6" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="H6" s="44" t="s">
+        <v>84</v>
+      </c>
+      <c r="I6" s="44" t="s">
+        <v>85</v>
+      </c>
+      <c r="J6" s="44" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B7" s="44" t="s">
+        <v>79</v>
+      </c>
+      <c r="C7" s="44" t="s">
+        <v>87</v>
+      </c>
+      <c r="D7" s="44" t="s">
+        <v>81</v>
+      </c>
+      <c r="E7" s="44" t="s">
+        <v>88</v>
+      </c>
+      <c r="F7" s="44" t="s">
+        <v>89</v>
+      </c>
+      <c r="G7" s="44" t="s">
+        <v>7</v>
+      </c>
+      <c r="H7" s="44" t="s">
+        <v>90</v>
+      </c>
+      <c r="I7" s="44" t="s">
+        <v>85</v>
+      </c>
+      <c r="J7" s="44" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B8" s="44" t="s">
+        <v>92</v>
+      </c>
+      <c r="C8" s="44" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" s="44" t="s">
+        <v>93</v>
+      </c>
+      <c r="E8" s="44" t="s">
+        <v>94</v>
+      </c>
+      <c r="F8" s="44" t="s">
+        <v>95</v>
+      </c>
+      <c r="G8" s="44" t="s">
+        <v>51</v>
+      </c>
+      <c r="H8" s="44" t="s">
+        <v>90</v>
+      </c>
+      <c r="I8" s="44" t="s">
+        <v>85</v>
+      </c>
+      <c r="J8" s="44" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B9" s="44" t="s">
+        <v>97</v>
+      </c>
+      <c r="C9" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="45" t="s">
+        <v>98</v>
+      </c>
+      <c r="E9" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="F9" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="G9" s="44" t="s">
+        <v>101</v>
+      </c>
+      <c r="H9" s="44" t="s">
+        <v>90</v>
+      </c>
+      <c r="I9" s="44" t="s">
+        <v>85</v>
+      </c>
+      <c r="J9" s="44" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B10" s="44" t="s">
+        <v>98</v>
+      </c>
+      <c r="C10" s="44" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="44" t="s">
+        <v>98</v>
+      </c>
+      <c r="E10" s="44" t="s">
+        <v>103</v>
+      </c>
+      <c r="F10" s="44" t="s">
+        <v>104</v>
+      </c>
+      <c r="G10" s="44" t="s">
+        <v>105</v>
+      </c>
+      <c r="H10" s="44" t="s">
+        <v>90</v>
+      </c>
+      <c r="I10" s="44" t="s">
+        <v>106</v>
+      </c>
+      <c r="J10" s="44" t="s">
+        <v>107</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:J4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:M17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6" t="s">
+        <v>5</v>
+      </c>
+      <c r="I6" t="s">
+        <v>5</v>
+      </c>
+      <c r="K6" t="s">
+        <v>57</v>
+      </c>
+      <c r="L6" t="s">
+        <v>57</v>
+      </c>
+      <c r="M6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K7" t="s">
+        <v>3</v>
+      </c>
+      <c r="L7" t="s">
+        <v>10</v>
+      </c>
+      <c r="M7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I8" t="s">
+        <v>12</v>
+      </c>
+      <c r="L8" t="s">
+        <v>11</v>
+      </c>
+      <c r="M8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>1</v>
+      </c>
+      <c r="E9" t="s">
+        <v>1</v>
+      </c>
+      <c r="G9" t="s">
+        <v>1</v>
+      </c>
+      <c r="H9" t="s">
+        <v>1</v>
+      </c>
+      <c r="I9" t="s">
+        <v>1</v>
+      </c>
+      <c r="K9" t="s">
+        <v>1</v>
+      </c>
+      <c r="L9" t="s">
+        <v>1</v>
+      </c>
+      <c r="M9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>8</v>
+      </c>
+      <c r="C10">
+        <v>13</v>
+      </c>
+      <c r="D10">
+        <v>6</v>
+      </c>
+      <c r="E10">
+        <v>4</v>
+      </c>
+      <c r="G10">
+        <v>19</v>
+      </c>
+      <c r="H10">
+        <v>8</v>
+      </c>
+      <c r="I10">
+        <v>6</v>
+      </c>
+      <c r="K10">
+        <v>10</v>
+      </c>
+      <c r="L10">
+        <v>7</v>
+      </c>
+      <c r="M10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>16</v>
+      </c>
+      <c r="C11">
+        <v>25</v>
+      </c>
+      <c r="D11">
+        <v>9.5</v>
+      </c>
+      <c r="E11">
+        <v>7</v>
+      </c>
+      <c r="G11">
+        <v>35</v>
+      </c>
+      <c r="H11">
+        <v>15</v>
+      </c>
+      <c r="I11">
+        <v>11</v>
+      </c>
+      <c r="K11">
+        <v>16</v>
+      </c>
+      <c r="L11">
+        <v>13</v>
+      </c>
+      <c r="M11">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>32</v>
+      </c>
+      <c r="C12">
+        <v>69</v>
+      </c>
+      <c r="D12">
+        <v>19</v>
+      </c>
+      <c r="E12">
+        <v>17</v>
+      </c>
+      <c r="G12">
+        <v>102</v>
+      </c>
+      <c r="H12">
+        <v>34</v>
+      </c>
+      <c r="I12">
+        <v>32</v>
+      </c>
+      <c r="K12">
+        <v>47</v>
+      </c>
+      <c r="L12">
+        <v>25</v>
+      </c>
+      <c r="M12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>64</v>
+      </c>
+      <c r="C13">
+        <v>136</v>
+      </c>
+      <c r="D13">
+        <v>38</v>
+      </c>
+      <c r="E13">
+        <v>30</v>
+      </c>
+      <c r="G13">
+        <v>190</v>
+      </c>
+      <c r="H13">
+        <v>75</v>
+      </c>
+      <c r="I13">
+        <v>60</v>
+      </c>
+      <c r="K13">
+        <v>79</v>
+      </c>
+      <c r="L13">
+        <v>55</v>
+      </c>
+      <c r="M13">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>128</v>
+      </c>
+      <c r="C14">
+        <v>349</v>
+      </c>
+      <c r="D14">
+        <v>79</v>
+      </c>
+      <c r="E14">
+        <v>70</v>
+      </c>
+      <c r="G14">
+        <v>512</v>
+      </c>
+      <c r="H14">
+        <v>169</v>
+      </c>
+      <c r="I14">
+        <v>161</v>
+      </c>
+      <c r="K14">
+        <v>217</v>
+      </c>
+      <c r="L14">
+        <v>119</v>
+      </c>
+      <c r="M14">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>256</v>
+      </c>
+      <c r="C15">
+        <v>686</v>
+      </c>
+      <c r="D15">
+        <v>170</v>
+      </c>
+      <c r="E15">
+        <v>136</v>
+      </c>
+      <c r="G15">
+        <v>970</v>
+      </c>
+      <c r="H15">
+        <v>375</v>
+      </c>
+      <c r="I15">
+        <v>317</v>
+      </c>
+      <c r="K15">
+        <v>371</v>
+      </c>
+      <c r="L15">
+        <v>253</v>
+      </c>
+      <c r="M15">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>512</v>
+      </c>
+      <c r="C16">
+        <v>1683</v>
+      </c>
+      <c r="D16">
+        <v>344</v>
+      </c>
+      <c r="E16">
+        <v>310</v>
+      </c>
+      <c r="G16">
+        <v>2461</v>
+      </c>
+      <c r="H16">
+        <v>820</v>
+      </c>
+      <c r="I16">
+        <v>786</v>
+      </c>
+      <c r="K16">
+        <v>981</v>
+      </c>
+      <c r="L16">
+        <v>535</v>
+      </c>
+      <c r="M16">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>1024</v>
+      </c>
+      <c r="C17">
+        <v>3316</v>
+      </c>
+      <c r="D17">
+        <v>745</v>
+      </c>
+      <c r="E17">
+        <v>614</v>
+      </c>
+      <c r="G17">
+        <v>4708</v>
+      </c>
+      <c r="H17">
+        <v>1798</v>
+      </c>
+      <c r="I17">
+        <v>1558</v>
+      </c>
+      <c r="K17">
+        <v>1711</v>
+      </c>
+      <c r="L17">
+        <v>1153</v>
+      </c>
+      <c r="M17">
+        <v>928</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:S37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="K31" sqref="K31"/>
+    <sheetView topLeftCell="B19" workbookViewId="0">
+      <selection activeCell="N31" sqref="N31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="3" width="7.28515625" customWidth="1"/>
     <col min="4" max="10" width="12.7109375" customWidth="1"/>
+    <col min="12" max="12" width="10.5703125" customWidth="1"/>
+    <col min="13" max="16" width="9.140625" customWidth="1"/>
+    <col min="17" max="17" width="11.85546875" customWidth="1"/>
+    <col min="18" max="19" width="12" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15" t="s">
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28" t="s">
         <v>64</v>
       </c>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
     </row>
     <row r="3" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="C3" s="26"/>
-      <c r="D3" s="27" t="s">
+      <c r="C3" s="34"/>
+      <c r="D3" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="19" t="s">
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="J3" s="19"/>
+      <c r="J3" s="27"/>
     </row>
     <row r="4" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B4" s="22" t="str">
+      <c r="B4" s="16" t="str">
         <f>Summary_Speed!B7</f>
         <v>N</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="D4" s="22" t="str">
+      <c r="D4" s="16" t="str">
         <f>Summary_Speed!C7</f>
         <v>Arduino Uno</v>
       </c>
-      <c r="E4" s="22" t="str">
+      <c r="E4" s="16" t="str">
         <f>Summary_Speed!D7</f>
         <v>Arduino M0</v>
       </c>
-      <c r="F4" s="22" t="str">
+      <c r="F4" s="16" t="str">
         <f>Summary_Speed!E7</f>
         <v>Maple</v>
       </c>
-      <c r="G4" s="22" t="str">
+      <c r="G4" s="16" t="str">
         <f>Summary_Speed!F7</f>
         <v>Teensy 3.2</v>
       </c>
-      <c r="H4" s="22" t="str">
+      <c r="H4" s="16" t="str">
         <f>Summary_Speed!G7</f>
         <v>FRDM-K66F</v>
       </c>
-      <c r="I4" s="22" t="str">
+      <c r="I4" s="16" t="str">
         <f>G4</f>
         <v>Teensy 3.2</v>
       </c>
-      <c r="J4" s="22" t="str">
+      <c r="J4" s="16" t="str">
         <f>H4</f>
         <v>FRDM-K66F</v>
       </c>
@@ -8057,39 +8853,39 @@
       </c>
     </row>
     <row r="5" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B5" s="29">
+      <c r="B5" s="20">
         <f>Summary_Speed!B8</f>
         <v>32</v>
       </c>
-      <c r="C5" s="29" t="str">
+      <c r="C5" s="20" t="str">
         <f>Summary_Speed!C5</f>
         <v>Int16</v>
       </c>
-      <c r="D5" s="23">
+      <c r="D5" s="17">
         <f>Summary_Speed!C8</f>
         <v>200.77096048827497</v>
       </c>
-      <c r="E5" s="23">
+      <c r="E5" s="17">
         <f>Summary_Speed!D8</f>
         <v>3126.9543464665417</v>
       </c>
-      <c r="F5" s="23">
+      <c r="F5" s="17">
         <f>Summary_Speed!E8</f>
         <v>8051.5297906602254</v>
       </c>
-      <c r="G5" s="23">
+      <c r="G5" s="17">
         <f>Summary_Speed!F8</f>
         <v>9671.1798839458406</v>
       </c>
-      <c r="H5" s="23">
+      <c r="H5" s="17">
         <f>Summary_Speed!G8</f>
         <v>14492.753623188406</v>
       </c>
-      <c r="I5" s="23">
+      <c r="I5" s="17">
         <f>Summary_Speed!F20</f>
         <v>30864.1975308642</v>
       </c>
-      <c r="J5" s="23">
+      <c r="J5" s="17">
         <f>Summary_Speed!G20</f>
         <v>58823.529411764706</v>
       </c>
@@ -8123,39 +8919,39 @@
       </c>
     </row>
     <row r="6" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B6" s="29">
+      <c r="B6" s="20">
         <f>Summary_Speed!B9</f>
         <v>64</v>
       </c>
-      <c r="C6" s="29" t="str">
+      <c r="C6" s="20" t="str">
         <f>C5</f>
         <v>Int16</v>
       </c>
-      <c r="D6" s="23">
+      <c r="D6" s="17">
         <f>Summary_Speed!C9</f>
         <v>98.986379474184361</v>
       </c>
-      <c r="E6" s="23">
+      <c r="E6" s="17">
         <f>Summary_Speed!D9</f>
         <v>1594.3877551020407</v>
       </c>
-      <c r="F6" s="23">
+      <c r="F6" s="17">
         <f>Summary_Speed!E9</f>
         <v>4230.1184433164126</v>
       </c>
-      <c r="G6" s="23">
+      <c r="G6" s="17">
         <f>Summary_Speed!F9</f>
         <v>4892.3679060665363</v>
       </c>
-      <c r="H6" s="23">
+      <c r="H6" s="17">
         <f>Summary_Speed!G9</f>
         <v>7352.9411764705883</v>
       </c>
-      <c r="I6" s="23">
+      <c r="I6" s="17">
         <f>Summary_Speed!F21</f>
         <v>16528.92561983471</v>
       </c>
-      <c r="J6" s="23">
+      <c r="J6" s="17">
         <f>Summary_Speed!G21</f>
         <v>33333.333333333336</v>
       </c>
@@ -8189,38 +8985,38 @@
       </c>
     </row>
     <row r="7" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B7" s="29">
+      <c r="B7" s="20">
         <f>Summary_Speed!B10</f>
         <v>128</v>
       </c>
-      <c r="C7" s="29" t="str">
+      <c r="C7" s="20" t="str">
         <f t="shared" ref="C7:C9" si="7">C6</f>
         <v>Int16</v>
       </c>
-      <c r="D7" s="23" t="s">
+      <c r="D7" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="E7" s="23">
+      <c r="E7" s="17">
         <f>Summary_Speed!D10</f>
         <v>638.9776357827476</v>
       </c>
-      <c r="F7" s="23">
+      <c r="F7" s="17">
         <f>Summary_Speed!E10</f>
         <v>1643.6554898093361</v>
       </c>
-      <c r="G7" s="23">
+      <c r="G7" s="17">
         <f>Summary_Speed!F10</f>
         <v>1921.5987701767872</v>
       </c>
-      <c r="H7" s="23">
+      <c r="H7" s="17">
         <f>Summary_Speed!G10</f>
         <v>2865.3295128939826</v>
       </c>
-      <c r="I7" s="23">
+      <c r="I7" s="17">
         <f>Summary_Speed!F22</f>
         <v>7156.1471303850003</v>
       </c>
-      <c r="J7" s="23">
+      <c r="J7" s="17">
         <f>Summary_Speed!G22</f>
         <v>14285.714285714286</v>
       </c>
@@ -8254,38 +9050,38 @@
       </c>
     </row>
     <row r="8" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B8" s="29">
+      <c r="B8" s="20">
         <f>Summary_Speed!B11</f>
         <v>256</v>
       </c>
-      <c r="C8" s="29" t="str">
+      <c r="C8" s="20" t="str">
         <f t="shared" si="7"/>
         <v>Int16</v>
       </c>
-      <c r="D8" s="23" t="s">
+      <c r="D8" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="E8" s="23">
+      <c r="E8" s="17">
         <f>Summary_Speed!D11</f>
         <v>324.78077297823967</v>
       </c>
-      <c r="F8" s="23">
+      <c r="F8" s="17">
         <f>Summary_Speed!E11</f>
         <v>853.67935803312264</v>
       </c>
-      <c r="G8" s="23">
+      <c r="G8" s="17">
         <f>Summary_Speed!F11</f>
         <v>970.49689440993779</v>
       </c>
-      <c r="H8" s="23">
+      <c r="H8" s="17">
         <f>Summary_Speed!G11</f>
         <v>1457.7259475218659</v>
       </c>
-      <c r="I8" s="23">
+      <c r="I8" s="17">
         <f>Summary_Speed!F23</f>
         <v>3669.1861745064944</v>
       </c>
-      <c r="J8" s="23">
+      <c r="J8" s="17">
         <f>Summary_Speed!G23</f>
         <v>7352.9411764705883</v>
       </c>
@@ -8319,37 +9115,37 @@
       </c>
     </row>
     <row r="9" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B9" s="29">
+      <c r="B9" s="20">
         <f>Summary_Speed!B12</f>
         <v>512</v>
       </c>
-      <c r="C9" s="29" t="str">
+      <c r="C9" s="20" t="str">
         <f t="shared" si="7"/>
         <v>Int16</v>
       </c>
-      <c r="D9" s="23" t="s">
+      <c r="D9" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="E9" s="23">
+      <c r="E9" s="17">
         <f>Summary_Speed!D12</f>
         <v>135.080372821829</v>
       </c>
-      <c r="F9" s="23" t="s">
+      <c r="F9" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="G9" s="23">
+      <c r="G9" s="17">
         <f>Summary_Speed!F12</f>
         <v>398.72408293460927</v>
       </c>
-      <c r="H9" s="23">
+      <c r="H9" s="17">
         <f>Summary_Speed!G12</f>
         <v>594.17706476530009</v>
       </c>
-      <c r="I9" s="23">
+      <c r="I9" s="17">
         <f>Summary_Speed!F24</f>
         <v>1574.6543633672411</v>
       </c>
-      <c r="J9" s="23">
+      <c r="J9" s="17">
         <f>Summary_Speed!G24</f>
         <v>3225.8064516129034</v>
       </c>
@@ -8383,79 +9179,79 @@
       </c>
     </row>
     <row r="10" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B10" s="30"/>
-      <c r="C10" s="30"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="30"/>
-      <c r="H10" s="30"/>
-      <c r="I10" s="30"/>
-      <c r="J10" s="30"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="25"/>
     </row>
     <row r="11" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15" t="s">
+      <c r="B11" s="28"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="28" t="s">
         <v>64</v>
       </c>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="15"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="28"/>
     </row>
     <row r="12" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B12" s="26" t="s">
+      <c r="B12" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="C12" s="26"/>
-      <c r="D12" s="27" t="s">
+      <c r="C12" s="34"/>
+      <c r="D12" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="E12" s="27"/>
-      <c r="F12" s="27"/>
-      <c r="G12" s="27"/>
-      <c r="H12" s="27"/>
-      <c r="I12" s="19" t="s">
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="J12" s="19"/>
+      <c r="J12" s="27"/>
     </row>
     <row r="13" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B13" s="22" t="str">
+      <c r="B13" s="18" t="str">
         <f>Summary_Speed!B7</f>
         <v>N</v>
       </c>
-      <c r="C13" s="22" t="s">
+      <c r="C13" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="D13" s="22" t="str">
+      <c r="D13" s="18" t="str">
         <f>Summary_Speed!C7</f>
         <v>Arduino Uno</v>
       </c>
-      <c r="E13" s="22" t="str">
+      <c r="E13" s="18" t="str">
         <f>Summary_Speed!D7</f>
         <v>Arduino M0</v>
       </c>
-      <c r="F13" s="22" t="str">
+      <c r="F13" s="18" t="str">
         <f>Summary_Speed!E7</f>
         <v>Maple</v>
       </c>
-      <c r="G13" s="22" t="str">
+      <c r="G13" s="18" t="str">
         <f>Summary_Speed!F7</f>
         <v>Teensy 3.2</v>
       </c>
-      <c r="H13" s="22" t="str">
+      <c r="H13" s="18" t="str">
         <f>Summary_Speed!G7</f>
         <v>FRDM-K66F</v>
       </c>
-      <c r="I13" s="22" t="str">
+      <c r="I13" s="18" t="str">
         <f>G13</f>
         <v>Teensy 3.2</v>
       </c>
-      <c r="J13" s="22" t="str">
+      <c r="J13" s="18" t="str">
         <f>H13</f>
         <v>FRDM-K66F</v>
       </c>
@@ -8487,39 +9283,39 @@
       </c>
     </row>
     <row r="14" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B14" s="29">
+      <c r="B14" s="21">
         <f>Summary_Speed!B8</f>
         <v>32</v>
       </c>
-      <c r="C14" s="29" t="str">
+      <c r="C14" s="21" t="str">
         <f>Summary_Speed!I5</f>
         <v>Int32</v>
       </c>
-      <c r="D14" s="23">
+      <c r="D14" s="17">
         <f>Summary_Speed!I8</f>
         <v>79.622905917574357</v>
       </c>
-      <c r="E14" s="23">
+      <c r="E14" s="17">
         <f>Summary_Speed!J8</f>
         <v>1246.8827930174564</v>
       </c>
-      <c r="F14" s="23">
+      <c r="F14" s="17">
         <f>Summary_Speed!K8</f>
         <v>5230.1255230125525</v>
       </c>
-      <c r="G14" s="23">
+      <c r="G14" s="17">
         <f>Summary_Speed!L8</f>
         <v>5186.7219917012444</v>
       </c>
-      <c r="H14" s="23">
+      <c r="H14" s="17">
         <f>Summary_Speed!M8</f>
         <v>9803.9215686274511</v>
       </c>
-      <c r="I14" s="23">
+      <c r="I14" s="17">
         <f>Summary_Speed!L20</f>
         <v>16474.464579901152</v>
       </c>
-      <c r="J14" s="23">
+      <c r="J14" s="17">
         <f>Summary_Speed!M20</f>
         <v>31250</v>
       </c>
@@ -8553,38 +9349,38 @@
       </c>
     </row>
     <row r="15" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B15" s="29">
+      <c r="B15" s="21">
         <f>Summary_Speed!B9</f>
         <v>64</v>
       </c>
-      <c r="C15" s="29" t="str">
+      <c r="C15" s="21" t="str">
         <f>C14</f>
         <v>Int32</v>
       </c>
-      <c r="D15" s="23" t="s">
+      <c r="D15" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="E15" s="23">
+      <c r="E15" s="17">
         <f>Summary_Speed!J9</f>
         <v>597.37156511350065</v>
       </c>
-      <c r="F15" s="23">
+      <c r="F15" s="17">
         <f>Summary_Speed!K9</f>
         <v>2714.4408251900109</v>
       </c>
-      <c r="G15" s="23">
+      <c r="G15" s="17">
         <f>Summary_Speed!L9</f>
         <v>2606.8821689259644</v>
       </c>
-      <c r="H15" s="23">
+      <c r="H15" s="17">
         <f>Summary_Speed!M9</f>
         <v>5263.1578947368425</v>
       </c>
-      <c r="I15" s="23">
+      <c r="I15" s="17">
         <f>Summary_Speed!L21</f>
         <v>8577.8006519128503</v>
       </c>
-      <c r="J15" s="23">
+      <c r="J15" s="17">
         <f>Summary_Speed!M21</f>
         <v>16666.666666666668</v>
       </c>
@@ -8618,38 +9414,38 @@
       </c>
     </row>
     <row r="16" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B16" s="29">
+      <c r="B16" s="21">
         <f>Summary_Speed!B10</f>
         <v>128</v>
       </c>
-      <c r="C16" s="29" t="str">
+      <c r="C16" s="21" t="str">
         <f>C15</f>
         <v>Int32</v>
       </c>
-      <c r="D16" s="23" t="s">
+      <c r="D16" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="E16" s="23">
+      <c r="E16" s="17">
         <f>Summary_Speed!J10</f>
         <v>235.79344494223059</v>
       </c>
-      <c r="F16" s="23">
+      <c r="F16" s="17">
         <f>Summary_Speed!K10</f>
         <v>1031.3531353135313</v>
       </c>
-      <c r="G16" s="23">
+      <c r="G16" s="17">
         <f>Summary_Speed!L10</f>
         <v>1006.8465565847764</v>
       </c>
-      <c r="H16" s="23">
+      <c r="H16" s="17">
         <f>Summary_Speed!M10</f>
         <v>1953.125</v>
       </c>
-      <c r="I16" s="23">
+      <c r="I16" s="17">
         <f>Summary_Speed!L22</f>
         <v>3292.723081988805</v>
       </c>
-      <c r="J16" s="23">
+      <c r="J16" s="17">
         <f>Summary_Speed!M22</f>
         <v>6211.1801242236024</v>
       </c>
@@ -8683,38 +9479,38 @@
       </c>
     </row>
     <row r="17" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B17" s="29">
+      <c r="B17" s="21">
         <f>Summary_Speed!B11</f>
         <v>256</v>
       </c>
-      <c r="C17" s="29" t="str">
+      <c r="C17" s="21" t="str">
         <f>C16</f>
         <v>Int32</v>
       </c>
-      <c r="D17" s="23" t="s">
+      <c r="D17" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="E17" s="23">
+      <c r="E17" s="17">
         <f>Summary_Speed!J11</f>
         <v>114.11617026132603</v>
       </c>
-      <c r="F17" s="23">
+      <c r="F17" s="17">
         <f>Summary_Speed!K11</f>
         <v>530.56027164685906</v>
       </c>
-      <c r="G17" s="23">
+      <c r="G17" s="17">
         <f>Summary_Speed!L11</f>
         <v>506.07287449392715</v>
       </c>
-      <c r="H17" s="23">
+      <c r="H17" s="17">
         <f>Summary_Speed!M11</f>
         <v>1030.9278350515465</v>
       </c>
-      <c r="I17" s="23">
+      <c r="I17" s="17">
         <f>Summary_Speed!L23</f>
         <v>1674.817444898506</v>
       </c>
-      <c r="J17" s="23">
+      <c r="J17" s="17">
         <f>Summary_Speed!M23</f>
         <v>3154.5741324921137</v>
       </c>
@@ -8748,37 +9544,37 @@
       </c>
     </row>
     <row r="18" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B18" s="29">
+      <c r="B18" s="21">
         <f>Summary_Speed!B12</f>
         <v>512</v>
       </c>
-      <c r="C18" s="29" t="str">
+      <c r="C18" s="21" t="str">
         <f>C17</f>
         <v>Int32</v>
       </c>
-      <c r="D18" s="23" t="s">
+      <c r="D18" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="E18" s="23">
+      <c r="E18" s="17">
         <f>Summary_Speed!J12</f>
         <v>47.386627493721271</v>
       </c>
-      <c r="F18" s="23" t="s">
+      <c r="F18" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="G18" s="23">
+      <c r="G18" s="17">
         <f>Summary_Speed!L12</f>
         <v>205.84602717167559</v>
       </c>
-      <c r="H18" s="23">
+      <c r="H18" s="17">
         <f>Summary_Speed!M12</f>
         <v>406.33888663145063</v>
       </c>
-      <c r="I18" s="23">
+      <c r="I18" s="17">
         <f>Summary_Speed!L24</f>
         <v>677.43334055928892</v>
       </c>
-      <c r="J18" s="23">
+      <c r="J18" s="17">
         <f>Summary_Speed!M24</f>
         <v>1272.2646310432569</v>
       </c>
@@ -8812,84 +9608,84 @@
       </c>
     </row>
     <row r="19" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B19" s="30"/>
-      <c r="C19" s="30"/>
-      <c r="D19" s="30"/>
-      <c r="E19" s="30"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="30"/>
-      <c r="H19" s="30"/>
-      <c r="I19" s="30"/>
-      <c r="J19" s="30"/>
+      <c r="B19" s="25"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="25"/>
+      <c r="I19" s="25"/>
+      <c r="J19" s="25"/>
     </row>
     <row r="20" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B20" s="15"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15" t="s">
+      <c r="B20" s="28"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="28" t="s">
         <v>64</v>
       </c>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="15"/>
-      <c r="I20" s="15"/>
-      <c r="J20" s="15"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="28"/>
+      <c r="I20" s="28"/>
+      <c r="J20" s="28"/>
     </row>
     <row r="21" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B21" s="26" t="str">
-        <f>B12</f>
+      <c r="B21" s="34" t="str">
+        <f t="shared" ref="B21:B27" si="14">B12</f>
         <v>Inputs</v>
       </c>
-      <c r="C21" s="26"/>
-      <c r="D21" s="27" t="str">
+      <c r="C21" s="34"/>
+      <c r="D21" s="26" t="str">
         <f>D12</f>
         <v>Generic C</v>
       </c>
-      <c r="E21" s="27"/>
-      <c r="F21" s="27"/>
-      <c r="G21" s="27"/>
-      <c r="H21" s="27"/>
-      <c r="I21" s="19" t="str">
+      <c r="E21" s="26"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="26"/>
+      <c r="I21" s="27" t="str">
         <f>I12</f>
         <v>CMSIS</v>
       </c>
-      <c r="J21" s="19"/>
+      <c r="J21" s="27"/>
     </row>
     <row r="22" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B22" s="22" t="str">
-        <f>B13</f>
+      <c r="B22" s="18" t="str">
+        <f t="shared" si="14"/>
         <v>N</v>
       </c>
-      <c r="C22" s="22" t="str">
+      <c r="C22" s="18" t="str">
         <f>C13</f>
         <v>Data</v>
       </c>
-      <c r="D22" s="22" t="str">
-        <f t="shared" ref="D22:J22" si="14">D13</f>
+      <c r="D22" s="18" t="str">
+        <f t="shared" ref="D22:J22" si="15">D13</f>
         <v>Arduino Uno</v>
       </c>
-      <c r="E22" s="22" t="str">
-        <f t="shared" si="14"/>
+      <c r="E22" s="18" t="str">
+        <f t="shared" si="15"/>
         <v>Arduino M0</v>
       </c>
-      <c r="F22" s="22" t="str">
-        <f t="shared" si="14"/>
+      <c r="F22" s="18" t="str">
+        <f t="shared" si="15"/>
         <v>Maple</v>
       </c>
-      <c r="G22" s="22" t="str">
-        <f t="shared" si="14"/>
+      <c r="G22" s="18" t="str">
+        <f t="shared" si="15"/>
         <v>Teensy 3.2</v>
       </c>
-      <c r="H22" s="22" t="str">
-        <f t="shared" si="14"/>
+      <c r="H22" s="18" t="str">
+        <f t="shared" si="15"/>
         <v>FRDM-K66F</v>
       </c>
-      <c r="I22" s="22" t="str">
-        <f t="shared" si="14"/>
+      <c r="I22" s="18" t="str">
+        <f t="shared" si="15"/>
         <v>Teensy 3.2</v>
       </c>
-      <c r="J22" s="22" t="str">
-        <f t="shared" si="14"/>
+      <c r="J22" s="18" t="str">
+        <f t="shared" si="15"/>
         <v>FRDM-K66F</v>
       </c>
       <c r="L22" t="str">
@@ -8897,19 +9693,19 @@
         <v>Arduino Uno</v>
       </c>
       <c r="M22" t="str">
-        <f t="shared" ref="M22:M27" si="15">E22</f>
+        <f t="shared" ref="M22:M27" si="16">E22</f>
         <v>Arduino M0</v>
       </c>
       <c r="N22" t="str">
-        <f t="shared" ref="N22:N27" si="16">F22</f>
+        <f t="shared" ref="N22:N27" si="17">F22</f>
         <v>Maple</v>
       </c>
       <c r="O22" t="str">
-        <f t="shared" ref="O22:O27" si="17">G22</f>
+        <f t="shared" ref="O22:O27" si="18">G22</f>
         <v>Teensy 3.2</v>
       </c>
       <c r="P22" t="str">
-        <f t="shared" ref="P22:P27" si="18">H22</f>
+        <f t="shared" ref="P22:P27" si="19">H22</f>
         <v>FRDM-K66F</v>
       </c>
       <c r="R22" t="s">
@@ -8920,39 +9716,39 @@
       </c>
     </row>
     <row r="23" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B23" s="29">
-        <f>B14</f>
+      <c r="B23" s="21">
+        <f t="shared" si="14"/>
         <v>32</v>
       </c>
-      <c r="C23" s="29" t="str">
+      <c r="C23" s="21" t="str">
         <f>Summary_Speed!O5</f>
         <v>Float32</v>
       </c>
-      <c r="D23" s="23">
+      <c r="D23" s="17">
         <f>Summary_Speed!O8</f>
         <v>156.78896205707119</v>
       </c>
-      <c r="E23" s="23">
+      <c r="E23" s="17">
         <f>Summary_Speed!P8</f>
         <v>457.03839122486289</v>
       </c>
-      <c r="F23" s="23">
+      <c r="F23" s="17">
         <f>Summary_Speed!Q8</f>
         <v>1498.8009592326139</v>
       </c>
-      <c r="G23" s="23">
+      <c r="G23" s="17">
         <f>Summary_Speed!R8</f>
         <v>2014.5044319097503</v>
       </c>
-      <c r="H23" s="23">
+      <c r="H23" s="17">
         <f>Summary_Speed!S8</f>
         <v>21276.59574468085</v>
       </c>
-      <c r="I23" s="23">
+      <c r="I23" s="17">
         <f>Summary_Speed!R20</f>
         <v>3542.3308537017356</v>
       </c>
-      <c r="J23" s="23">
+      <c r="J23" s="17">
         <f>Summary_Speed!S20</f>
         <v>40000</v>
       </c>
@@ -8961,518 +9757,527 @@
         <v>156.78896205707119</v>
       </c>
       <c r="M23" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>457.03839122486289</v>
       </c>
       <c r="N23" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1498.8009592326139</v>
       </c>
       <c r="O23" s="10">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>2014.5044319097503</v>
       </c>
       <c r="P23" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>21276.59574468085</v>
       </c>
       <c r="R23" s="10">
-        <f t="shared" ref="R23:R27" si="19">I23</f>
+        <f t="shared" ref="R23:R27" si="20">I23</f>
         <v>3542.3308537017356</v>
       </c>
       <c r="S23" s="10">
-        <f t="shared" ref="S23:S27" si="20">J23</f>
+        <f t="shared" ref="S23:S27" si="21">J23</f>
         <v>40000</v>
       </c>
     </row>
     <row r="24" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B24" s="29">
-        <f>B15</f>
+      <c r="B24" s="21">
+        <f t="shared" si="14"/>
         <v>64</v>
       </c>
-      <c r="C24" s="29" t="str">
+      <c r="C24" s="21" t="str">
         <f>C23</f>
         <v>Float32</v>
       </c>
-      <c r="D24" s="23" t="s">
+      <c r="D24" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="E24" s="23">
+      <c r="E24" s="17">
         <f>Summary_Speed!P9</f>
         <v>198.60973187686196</v>
       </c>
-      <c r="F24" s="23">
+      <c r="F24" s="17">
         <f>Summary_Speed!Q9</f>
         <v>649.35064935064941</v>
       </c>
-      <c r="G24" s="23">
+      <c r="G24" s="17">
         <f>Summary_Speed!R9</f>
         <v>880.28169014084506</v>
       </c>
-      <c r="H24" s="23">
+      <c r="H24" s="17">
         <f>Summary_Speed!S9</f>
         <v>12658.227848101265</v>
       </c>
-      <c r="I24" s="23">
+      <c r="I24" s="17">
         <f>Summary_Speed!R21</f>
         <v>1811.4629374682995</v>
       </c>
-      <c r="J24" s="23">
+      <c r="J24" s="17">
         <f>Summary_Speed!S21</f>
         <v>21276.59574468085</v>
       </c>
       <c r="L24" s="10" t="str">
-        <f t="shared" ref="L24:L27" si="21">D24</f>
+        <f t="shared" ref="L24:L27" si="22">D24</f>
         <v>*</v>
       </c>
       <c r="M24" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>198.60973187686196</v>
       </c>
       <c r="N24" s="10">
+        <f t="shared" si="17"/>
+        <v>649.35064935064941</v>
+      </c>
+      <c r="O24" s="10">
+        <f t="shared" si="18"/>
+        <v>880.28169014084506</v>
+      </c>
+      <c r="P24" s="10">
+        <f t="shared" si="19"/>
+        <v>12658.227848101265</v>
+      </c>
+      <c r="R24" s="10">
+        <f t="shared" si="20"/>
+        <v>1811.4629374682995</v>
+      </c>
+      <c r="S24" s="10">
+        <f t="shared" si="21"/>
+        <v>21276.59574468085</v>
+      </c>
+    </row>
+    <row r="25" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B25" s="21">
+        <f t="shared" si="14"/>
+        <v>128</v>
+      </c>
+      <c r="C25" s="21" t="str">
+        <f>C24</f>
+        <v>Float32</v>
+      </c>
+      <c r="D25" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="E25" s="17">
+        <f>Summary_Speed!P10</f>
+        <v>81.221572449642622</v>
+      </c>
+      <c r="F25" s="17">
+        <f>Summary_Speed!Q10</f>
+        <v>262.72923125426934</v>
+      </c>
+      <c r="G25" s="17">
+        <f>Summary_Speed!R10</f>
+        <v>350.90181767141553</v>
+      </c>
+      <c r="H25" s="17">
+        <f>Summary_Speed!S10</f>
+        <v>4608.294930875576</v>
+      </c>
+      <c r="I25" s="17">
+        <f>Summary_Speed!R22</f>
+        <v>657.56595386517267</v>
+      </c>
+      <c r="J25" s="17">
+        <f>Summary_Speed!S22</f>
+        <v>9523.8095238095229</v>
+      </c>
+      <c r="L25" s="10" t="str">
+        <f t="shared" si="22"/>
+        <v>*</v>
+      </c>
+      <c r="M25" s="10">
         <f t="shared" si="16"/>
-        <v>649.35064935064941</v>
-      </c>
-      <c r="O24" s="10">
+        <v>81.221572449642622</v>
+      </c>
+      <c r="N25" s="10">
         <f t="shared" si="17"/>
-        <v>880.28169014084506</v>
-      </c>
-      <c r="P24" s="10">
+        <v>262.72923125426934</v>
+      </c>
+      <c r="O25" s="10">
         <f t="shared" si="18"/>
-        <v>12658.227848101265</v>
-      </c>
-      <c r="R24" s="10">
+        <v>350.90181767141553</v>
+      </c>
+      <c r="P25" s="10">
         <f t="shared" si="19"/>
-        <v>1811.4629374682995</v>
-      </c>
-      <c r="S24" s="10">
+        <v>4608.294930875576</v>
+      </c>
+      <c r="R25" s="10">
         <f t="shared" si="20"/>
-        <v>21276.59574468085</v>
-      </c>
-    </row>
-    <row r="25" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B25" s="29">
+        <v>657.56595386517267</v>
+      </c>
+      <c r="S25" s="10">
+        <f t="shared" si="21"/>
+        <v>9523.8095238095229</v>
+      </c>
+    </row>
+    <row r="26" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B26" s="21">
+        <f t="shared" si="14"/>
+        <v>256</v>
+      </c>
+      <c r="C26" s="21" t="str">
+        <f>C25</f>
+        <v>Float32</v>
+      </c>
+      <c r="D26" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="E26" s="17">
+        <f>Summary_Speed!P11</f>
+        <v>36.564408205053198</v>
+      </c>
+      <c r="F26" s="17">
+        <f>Summary_Speed!Q11</f>
+        <v>117.43153741368782</v>
+      </c>
+      <c r="G26" s="17">
+        <f>Summary_Speed!R11</f>
+        <v>158.83604942977857</v>
+      </c>
+      <c r="H26" s="17">
+        <f>Summary_Speed!S11</f>
+        <v>2695.4177897574123</v>
+      </c>
+      <c r="I26" s="17">
+        <f>Summary_Speed!R23</f>
+        <v>330.84975450948218</v>
+      </c>
+      <c r="J26" s="17">
+        <f>Summary_Speed!S23</f>
+        <v>4878.0487804878048</v>
+      </c>
+      <c r="L26" s="10" t="str">
+        <f t="shared" si="22"/>
+        <v>*</v>
+      </c>
+      <c r="M26" s="10">
+        <f t="shared" si="16"/>
+        <v>36.564408205053198</v>
+      </c>
+      <c r="N26" s="10">
+        <f t="shared" si="17"/>
+        <v>117.43153741368782</v>
+      </c>
+      <c r="O26" s="10">
+        <f t="shared" si="18"/>
+        <v>158.83604942977857</v>
+      </c>
+      <c r="P26" s="10">
+        <f t="shared" si="19"/>
+        <v>2695.4177897574123</v>
+      </c>
+      <c r="R26" s="10">
+        <f t="shared" si="20"/>
+        <v>330.84975450948218</v>
+      </c>
+      <c r="S26" s="10">
+        <f t="shared" si="21"/>
+        <v>4878.0487804878048</v>
+      </c>
+    </row>
+    <row r="27" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B27" s="21">
+        <f t="shared" si="14"/>
+        <v>512</v>
+      </c>
+      <c r="C27" s="21" t="str">
+        <f>C26</f>
+        <v>Float32</v>
+      </c>
+      <c r="D27" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="E27" s="17">
+        <f>Summary_Speed!P12</f>
+        <v>15.690704826460804</v>
+      </c>
+      <c r="F27" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="G27" s="17">
+        <f>Summary_Speed!R12</f>
+        <v>67.015145422865572</v>
+      </c>
+      <c r="H27" s="17">
+        <f>Summary_Speed!S12</f>
+        <v>1019.3679918450561</v>
+      </c>
+      <c r="I27" s="17">
+        <f>Summary_Speed!R24</f>
+        <v>129.6798205231284</v>
+      </c>
+      <c r="J27" s="17">
+        <f>Summary_Speed!S24</f>
+        <v>2123.1422505307855</v>
+      </c>
+      <c r="L27" s="10" t="str">
+        <f t="shared" si="22"/>
+        <v>*</v>
+      </c>
+      <c r="M27" s="10">
+        <f t="shared" si="16"/>
+        <v>15.690704826460804</v>
+      </c>
+      <c r="N27" s="10" t="str">
+        <f t="shared" si="17"/>
+        <v>*</v>
+      </c>
+      <c r="O27" s="10">
+        <f t="shared" si="18"/>
+        <v>67.015145422865572</v>
+      </c>
+      <c r="P27" s="10">
+        <f t="shared" si="19"/>
+        <v>1019.3679918450561</v>
+      </c>
+      <c r="R27" s="10">
+        <f t="shared" si="20"/>
+        <v>129.6798205231284</v>
+      </c>
+      <c r="S27" s="10">
+        <f t="shared" si="21"/>
+        <v>2123.1422505307855</v>
+      </c>
+    </row>
+    <row r="28" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B28" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="C28" s="25"/>
+      <c r="D28" s="25"/>
+      <c r="E28" s="25"/>
+      <c r="F28" s="25"/>
+      <c r="G28" s="25"/>
+      <c r="H28" s="25"/>
+      <c r="I28" s="25"/>
+      <c r="J28" s="25"/>
+    </row>
+    <row r="29" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B29" s="22"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="22"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="22"/>
+      <c r="G29" s="22"/>
+      <c r="H29" s="22"/>
+      <c r="I29" s="22"/>
+      <c r="J29" s="22"/>
+    </row>
+    <row r="30" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B30" s="15"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15">
+        <v>3</v>
+      </c>
+      <c r="E30" s="15">
+        <f>D30+1</f>
+        <v>4</v>
+      </c>
+      <c r="F30" s="15">
+        <f t="shared" ref="F30:J30" si="23">E30+1</f>
+        <v>5</v>
+      </c>
+      <c r="G30" s="15">
+        <f t="shared" si="23"/>
+        <v>6</v>
+      </c>
+      <c r="H30" s="15">
+        <f t="shared" si="23"/>
+        <v>7</v>
+      </c>
+      <c r="I30" s="15">
+        <f t="shared" si="23"/>
+        <v>8</v>
+      </c>
+      <c r="J30" s="15">
+        <f t="shared" si="23"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B31" s="28"/>
+      <c r="C31" s="28"/>
+      <c r="D31" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="E31" s="30"/>
+      <c r="F31" s="30"/>
+      <c r="G31" s="30"/>
+      <c r="H31" s="30"/>
+      <c r="I31" s="30"/>
+      <c r="J31" s="31"/>
+    </row>
+    <row r="32" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B32" s="32" t="str">
+        <f>B12</f>
+        <v>Inputs</v>
+      </c>
+      <c r="C32" s="33"/>
+      <c r="D32" s="26" t="str">
+        <f>D12</f>
+        <v>Generic C</v>
+      </c>
+      <c r="E32" s="26"/>
+      <c r="F32" s="26"/>
+      <c r="G32" s="26"/>
+      <c r="H32" s="26"/>
+      <c r="I32" s="27" t="str">
+        <f>I12</f>
+        <v>CMSIS</v>
+      </c>
+      <c r="J32" s="27"/>
+      <c r="Q32" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="R32" s="28"/>
+      <c r="S32" s="28"/>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B33" s="18" t="str">
+        <f>B22</f>
+        <v>N</v>
+      </c>
+      <c r="C33" s="18" t="str">
+        <f>C22</f>
+        <v>Data</v>
+      </c>
+      <c r="D33" s="18" t="str">
+        <f>D13</f>
+        <v>Arduino Uno</v>
+      </c>
+      <c r="E33" s="18" t="str">
+        <f t="shared" ref="E33:J33" si="24">E13</f>
+        <v>Arduino M0</v>
+      </c>
+      <c r="F33" s="18" t="str">
+        <f t="shared" si="24"/>
+        <v>Maple</v>
+      </c>
+      <c r="G33" s="18" t="str">
+        <f t="shared" si="24"/>
+        <v>Teensy 3.2</v>
+      </c>
+      <c r="H33" s="18" t="str">
+        <f t="shared" si="24"/>
+        <v>FRDM-K66F</v>
+      </c>
+      <c r="I33" s="18" t="str">
+        <f t="shared" si="24"/>
+        <v>Teensy 3.2</v>
+      </c>
+      <c r="J33" s="18" t="str">
+        <f t="shared" si="24"/>
+        <v>FRDM-K66F</v>
+      </c>
+      <c r="L33" t="s">
+        <v>65</v>
+      </c>
+      <c r="M33" s="19">
+        <v>0.5</v>
+      </c>
+      <c r="Q33" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="R33" s="37" t="str">
+        <f>I33</f>
+        <v>Teensy 3.2</v>
+      </c>
+      <c r="S33" s="37" t="str">
+        <f>J33</f>
+        <v>FRDM-K66F</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B34" s="21">
+        <f>B7</f>
+        <v>128</v>
+      </c>
+      <c r="C34" s="21" t="str">
+        <f>C7</f>
+        <v>Int16</v>
+      </c>
+      <c r="D34" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="E34" s="24">
+        <f>VLOOKUP($B34,$B5:$J9,E$30)/$M$36*$B34</f>
+        <v>20447.284345047923</v>
+      </c>
+      <c r="F34" s="24">
+        <f t="shared" ref="F34:J34" si="25">VLOOKUP($B34,$B5:$J9,F$30)/$M$36*$B34</f>
+        <v>52596.975673898756</v>
+      </c>
+      <c r="G34" s="24">
+        <f t="shared" si="25"/>
+        <v>61491.16064565719</v>
+      </c>
+      <c r="H34" s="24">
+        <f t="shared" si="25"/>
+        <v>91690.544412607444</v>
+      </c>
+      <c r="I34" s="24">
+        <f t="shared" si="25"/>
+        <v>228996.70817232001</v>
+      </c>
+      <c r="J34" s="24">
+        <f t="shared" si="25"/>
+        <v>457142.85714285716</v>
+      </c>
+      <c r="L34" t="s">
+        <v>66</v>
+      </c>
+      <c r="M34">
+        <f>1/(1-M33)</f>
+        <v>2</v>
+      </c>
+      <c r="Q34" s="38" t="str">
+        <f>C34</f>
+        <v>Int16</v>
+      </c>
+      <c r="R34" s="39">
+        <f>I7/G7</f>
+        <v>3.724058966652354</v>
+      </c>
+      <c r="S34" s="39">
+        <f>J7/H7</f>
+        <v>4.9857142857142867</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B35" s="21">
         <f>B16</f>
         <v>128</v>
       </c>
-      <c r="C25" s="29" t="str">
-        <f>C24</f>
-        <v>Float32</v>
-      </c>
-      <c r="D25" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="E25" s="23">
-        <f>Summary_Speed!P10</f>
-        <v>81.221572449642622</v>
-      </c>
-      <c r="F25" s="23">
-        <f>Summary_Speed!Q10</f>
-        <v>262.72923125426934</v>
-      </c>
-      <c r="G25" s="23">
-        <f>Summary_Speed!R10</f>
-        <v>350.90181767141553</v>
-      </c>
-      <c r="H25" s="23">
-        <f>Summary_Speed!S10</f>
-        <v>4608.294930875576</v>
-      </c>
-      <c r="I25" s="23">
-        <f>Summary_Speed!R22</f>
-        <v>657.56595386517267</v>
-      </c>
-      <c r="J25" s="23">
-        <f>Summary_Speed!S22</f>
-        <v>9523.8095238095229</v>
-      </c>
-      <c r="L25" s="10" t="str">
-        <f t="shared" si="21"/>
-        <v>*</v>
-      </c>
-      <c r="M25" s="10">
-        <f t="shared" si="15"/>
-        <v>81.221572449642622</v>
-      </c>
-      <c r="N25" s="10">
-        <f t="shared" si="16"/>
-        <v>262.72923125426934</v>
-      </c>
-      <c r="O25" s="10">
-        <f t="shared" si="17"/>
-        <v>350.90181767141553</v>
-      </c>
-      <c r="P25" s="10">
-        <f t="shared" si="18"/>
-        <v>4608.294930875576</v>
-      </c>
-      <c r="R25" s="10">
-        <f t="shared" si="19"/>
-        <v>657.56595386517267</v>
-      </c>
-      <c r="S25" s="10">
-        <f t="shared" si="20"/>
-        <v>9523.8095238095229</v>
-      </c>
-    </row>
-    <row r="26" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B26" s="29">
-        <f>B17</f>
-        <v>256</v>
-      </c>
-      <c r="C26" s="29" t="str">
-        <f>C25</f>
-        <v>Float32</v>
-      </c>
-      <c r="D26" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="E26" s="23">
-        <f>Summary_Speed!P11</f>
-        <v>36.564408205053198</v>
-      </c>
-      <c r="F26" s="23">
-        <f>Summary_Speed!Q11</f>
-        <v>117.43153741368782</v>
-      </c>
-      <c r="G26" s="23">
-        <f>Summary_Speed!R11</f>
-        <v>158.83604942977857</v>
-      </c>
-      <c r="H26" s="23">
-        <f>Summary_Speed!S11</f>
-        <v>2695.4177897574123</v>
-      </c>
-      <c r="I26" s="23">
-        <f>Summary_Speed!R23</f>
-        <v>330.84975450948218</v>
-      </c>
-      <c r="J26" s="23">
-        <f>Summary_Speed!S23</f>
-        <v>4878.0487804878048</v>
-      </c>
-      <c r="L26" s="10" t="str">
-        <f t="shared" si="21"/>
-        <v>*</v>
-      </c>
-      <c r="M26" s="10">
-        <f t="shared" si="15"/>
-        <v>36.564408205053198</v>
-      </c>
-      <c r="N26" s="10">
-        <f t="shared" si="16"/>
-        <v>117.43153741368782</v>
-      </c>
-      <c r="O26" s="10">
-        <f t="shared" si="17"/>
-        <v>158.83604942977857</v>
-      </c>
-      <c r="P26" s="10">
-        <f t="shared" si="18"/>
-        <v>2695.4177897574123</v>
-      </c>
-      <c r="R26" s="10">
-        <f t="shared" si="19"/>
-        <v>330.84975450948218</v>
-      </c>
-      <c r="S26" s="10">
-        <f t="shared" si="20"/>
-        <v>4878.0487804878048</v>
-      </c>
-    </row>
-    <row r="27" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B27" s="29">
-        <f>B18</f>
-        <v>512</v>
-      </c>
-      <c r="C27" s="29" t="str">
-        <f>C26</f>
-        <v>Float32</v>
-      </c>
-      <c r="D27" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="E27" s="23">
-        <f>Summary_Speed!P12</f>
-        <v>15.690704826460804</v>
-      </c>
-      <c r="F27" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="G27" s="23">
-        <f>Summary_Speed!R12</f>
-        <v>67.015145422865572</v>
-      </c>
-      <c r="H27" s="23">
-        <f>Summary_Speed!S12</f>
-        <v>1019.3679918450561</v>
-      </c>
-      <c r="I27" s="23">
-        <f>Summary_Speed!R24</f>
-        <v>129.6798205231284</v>
-      </c>
-      <c r="J27" s="23">
-        <f>Summary_Speed!S24</f>
-        <v>2123.1422505307855</v>
-      </c>
-      <c r="L27" s="10" t="str">
-        <f t="shared" si="21"/>
-        <v>*</v>
-      </c>
-      <c r="M27" s="10">
-        <f t="shared" si="15"/>
-        <v>15.690704826460804</v>
-      </c>
-      <c r="N27" s="10" t="str">
-        <f t="shared" si="16"/>
-        <v>*</v>
-      </c>
-      <c r="O27" s="10">
-        <f t="shared" si="17"/>
-        <v>67.015145422865572</v>
-      </c>
-      <c r="P27" s="10">
-        <f t="shared" si="18"/>
-        <v>1019.3679918450561</v>
-      </c>
-      <c r="R27" s="10">
-        <f t="shared" si="19"/>
-        <v>129.6798205231284</v>
-      </c>
-      <c r="S27" s="10">
-        <f t="shared" si="20"/>
-        <v>2123.1422505307855</v>
-      </c>
-    </row>
-    <row r="28" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B28" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="C28" s="30"/>
-      <c r="D28" s="30"/>
-      <c r="E28" s="30"/>
-      <c r="F28" s="30"/>
-      <c r="G28" s="30"/>
-      <c r="H28" s="30"/>
-      <c r="I28" s="30"/>
-      <c r="J28" s="30"/>
-    </row>
-    <row r="29" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B29" s="32"/>
-      <c r="C29" s="32"/>
-      <c r="D29" s="32"/>
-      <c r="E29" s="32"/>
-      <c r="F29" s="32"/>
-      <c r="G29" s="32"/>
-      <c r="H29" s="32"/>
-      <c r="I29" s="32"/>
-      <c r="J29" s="32"/>
-    </row>
-    <row r="30" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B30" s="18"/>
-      <c r="C30" s="18"/>
-      <c r="D30" s="18">
-        <v>3</v>
-      </c>
-      <c r="E30" s="18">
-        <f>D30+1</f>
-        <v>4</v>
-      </c>
-      <c r="F30" s="18">
-        <f t="shared" ref="F30:J30" si="22">E30+1</f>
-        <v>5</v>
-      </c>
-      <c r="G30" s="18">
-        <f t="shared" si="22"/>
-        <v>6</v>
-      </c>
-      <c r="H30" s="18">
-        <f t="shared" si="22"/>
-        <v>7</v>
-      </c>
-      <c r="I30" s="18">
-        <f t="shared" si="22"/>
-        <v>8</v>
-      </c>
-      <c r="J30" s="18">
-        <f t="shared" si="22"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="31" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B31" s="15"/>
-      <c r="C31" s="15"/>
-      <c r="D31" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="E31" s="31"/>
-      <c r="F31" s="31"/>
-      <c r="G31" s="31"/>
-      <c r="H31" s="31"/>
-      <c r="I31" s="31"/>
-      <c r="J31" s="21"/>
-    </row>
-    <row r="32" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B32" s="24" t="str">
-        <f>B12</f>
-        <v>Inputs</v>
-      </c>
-      <c r="C32" s="25"/>
-      <c r="D32" s="27" t="str">
-        <f>D12</f>
-        <v>Generic C</v>
-      </c>
-      <c r="E32" s="27"/>
-      <c r="F32" s="27"/>
-      <c r="G32" s="27"/>
-      <c r="H32" s="27"/>
-      <c r="I32" s="19" t="str">
-        <f>I12</f>
-        <v>CMSIS</v>
-      </c>
-      <c r="J32" s="19"/>
-      <c r="O32" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B33" s="22" t="str">
-        <f>B22</f>
-        <v>N</v>
-      </c>
-      <c r="C33" s="22" t="str">
-        <f>C22</f>
-        <v>Data</v>
-      </c>
-      <c r="D33" s="22" t="str">
-        <f>D13</f>
-        <v>Arduino Uno</v>
-      </c>
-      <c r="E33" s="22" t="str">
-        <f t="shared" ref="E33:J33" si="23">E13</f>
-        <v>Arduino M0</v>
-      </c>
-      <c r="F33" s="22" t="str">
-        <f t="shared" si="23"/>
-        <v>Maple</v>
-      </c>
-      <c r="G33" s="22" t="str">
-        <f t="shared" si="23"/>
-        <v>Teensy 3.2</v>
-      </c>
-      <c r="H33" s="22" t="str">
-        <f t="shared" si="23"/>
-        <v>FRDM-K66F</v>
-      </c>
-      <c r="I33" s="22" t="str">
-        <f t="shared" si="23"/>
-        <v>Teensy 3.2</v>
-      </c>
-      <c r="J33" s="22" t="str">
-        <f t="shared" si="23"/>
-        <v>FRDM-K66F</v>
-      </c>
-      <c r="L33" t="s">
-        <v>65</v>
-      </c>
-      <c r="M33" s="28">
-        <v>0.5</v>
-      </c>
-      <c r="O33" t="str">
-        <f>I33</f>
-        <v>Teensy 3.2</v>
-      </c>
-      <c r="P33" t="str">
-        <f>J33</f>
-        <v>FRDM-K66F</v>
-      </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B34" s="29">
-        <f>B7</f>
-        <v>128</v>
-      </c>
-      <c r="C34" s="29" t="str">
-        <f>C7</f>
-        <v>Int16</v>
-      </c>
-      <c r="D34" s="34" t="s">
-        <v>62</v>
-      </c>
-      <c r="E34" s="35">
-        <f>VLOOKUP($B34,$B5:$J9,E$30)/$M$36*$B34</f>
-        <v>20447.284345047923</v>
-      </c>
-      <c r="F34" s="35">
-        <f t="shared" ref="F34:J34" si="24">VLOOKUP($B34,$B5:$J9,F$30)/$M$36*$B34</f>
-        <v>52596.975673898756</v>
-      </c>
-      <c r="G34" s="35">
-        <f t="shared" si="24"/>
-        <v>61491.16064565719</v>
-      </c>
-      <c r="H34" s="35">
-        <f t="shared" si="24"/>
-        <v>91690.544412607444</v>
-      </c>
-      <c r="I34" s="35">
-        <f t="shared" si="24"/>
-        <v>228996.70817232001</v>
-      </c>
-      <c r="J34" s="35">
-        <f t="shared" si="24"/>
-        <v>457142.85714285716</v>
-      </c>
-      <c r="L34" t="s">
-        <v>66</v>
-      </c>
-      <c r="M34">
-        <f>1/M33</f>
-        <v>2</v>
-      </c>
-      <c r="O34" s="33">
-        <f>I7/G7</f>
-        <v>3.724058966652354</v>
-      </c>
-      <c r="P34" s="33">
-        <f>J7/H7</f>
-        <v>4.9857142857142867</v>
-      </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B35" s="29">
-        <f>B16</f>
-        <v>128</v>
-      </c>
-      <c r="C35" s="29" t="str">
+      <c r="C35" s="21" t="str">
         <f>C16</f>
         <v>Int32</v>
       </c>
-      <c r="D35" s="34" t="s">
+      <c r="D35" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="E35" s="35">
+      <c r="E35" s="24">
         <f>VLOOKUP($B35,$B14:$J18,E$30)/$M$36*$B35</f>
         <v>7545.390238151379</v>
       </c>
-      <c r="F35" s="35">
-        <f t="shared" ref="F35:J35" si="25">VLOOKUP($B35,$B14:$J18,F$30)/$M$36*$B35</f>
+      <c r="F35" s="24">
+        <f t="shared" ref="F35:J35" si="26">VLOOKUP($B35,$B14:$J18,F$30)/$M$36*$B35</f>
         <v>33003.300330033002</v>
       </c>
-      <c r="G35" s="35">
-        <f t="shared" si="25"/>
+      <c r="G35" s="24">
+        <f t="shared" si="26"/>
         <v>32219.089810712845</v>
       </c>
-      <c r="H35" s="35">
-        <f t="shared" si="25"/>
+      <c r="H35" s="24">
+        <f t="shared" si="26"/>
         <v>62500</v>
       </c>
-      <c r="I35" s="35">
-        <f t="shared" si="25"/>
+      <c r="I35" s="24">
+        <f t="shared" si="26"/>
         <v>105367.13862364176</v>
       </c>
-      <c r="J35" s="35">
-        <f t="shared" si="25"/>
+      <c r="J35" s="24">
+        <f t="shared" si="26"/>
         <v>198757.76397515528</v>
       </c>
       <c r="L35" t="s">
@@ -9482,49 +10287,53 @@
         <f>M34</f>
         <v>2</v>
       </c>
-      <c r="O35" s="33">
+      <c r="Q35" s="38" t="str">
+        <f>C35</f>
+        <v>Int32</v>
+      </c>
+      <c r="R35" s="39">
         <f>I16/G16</f>
         <v>3.2703325650312816</v>
       </c>
-      <c r="P35" s="33">
+      <c r="S35" s="39">
         <f>J16/H16</f>
         <v>3.1801242236024843</v>
       </c>
     </row>
-    <row r="36" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B36" s="29">
+    <row r="36" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B36" s="21">
         <f>B25</f>
         <v>128</v>
       </c>
-      <c r="C36" s="29" t="str">
+      <c r="C36" s="21" t="str">
         <f>C25</f>
         <v>Float32</v>
       </c>
-      <c r="D36" s="34" t="s">
+      <c r="D36" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="E36" s="35">
+      <c r="E36" s="24">
         <f>VLOOKUP($B36,$B23:$J27,E$30)/$M$36*$B36</f>
         <v>2599.0903183885639</v>
       </c>
-      <c r="F36" s="35">
-        <f t="shared" ref="F36:J36" si="26">VLOOKUP($B36,$B23:$J27,F$30)/$M$36*$B36</f>
+      <c r="F36" s="24">
+        <f t="shared" ref="F36:J36" si="27">VLOOKUP($B36,$B23:$J27,F$30)/$M$36*$B36</f>
         <v>8407.3354001366188</v>
       </c>
-      <c r="G36" s="35">
-        <f t="shared" si="26"/>
+      <c r="G36" s="24">
+        <f t="shared" si="27"/>
         <v>11228.858165485297</v>
       </c>
-      <c r="H36" s="35">
-        <f t="shared" si="26"/>
+      <c r="H36" s="24">
+        <f t="shared" si="27"/>
         <v>147465.43778801843</v>
       </c>
-      <c r="I36" s="35">
-        <f t="shared" si="26"/>
+      <c r="I36" s="24">
+        <f t="shared" si="27"/>
         <v>21042.110523685526</v>
       </c>
-      <c r="J36" s="35">
-        <f t="shared" si="26"/>
+      <c r="J36" s="24">
+        <f t="shared" si="27"/>
         <v>304761.90476190473</v>
       </c>
       <c r="L36" t="s">
@@ -9534,30 +10343,43 @@
         <f>M34+M35</f>
         <v>4</v>
       </c>
-      <c r="O36" s="33">
+      <c r="Q36" s="38" t="str">
+        <f>C36</f>
+        <v>Float32</v>
+      </c>
+      <c r="R36" s="39">
         <f>I25/G25</f>
         <v>1.8739314553249691</v>
       </c>
-      <c r="P36" s="33">
+      <c r="S36" s="39">
         <f>J25/H25</f>
         <v>2.0666666666666664</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B37" s="30" t="s">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B37" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="C37" s="30"/>
-      <c r="D37" s="30"/>
-      <c r="E37" s="30"/>
-      <c r="F37" s="30"/>
-      <c r="G37" s="30"/>
-      <c r="H37" s="30"/>
-      <c r="I37" s="30"/>
-      <c r="J37" s="30"/>
+      <c r="C37" s="25"/>
+      <c r="D37" s="25"/>
+      <c r="E37" s="25"/>
+      <c r="F37" s="25"/>
+      <c r="G37" s="25"/>
+      <c r="H37" s="25"/>
+      <c r="I37" s="25"/>
+      <c r="J37" s="25"/>
     </row>
   </sheetData>
-  <mergeCells count="24">
+  <mergeCells count="25">
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="Q32:S32"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D2:J2"/>
+    <mergeCell ref="D3:H3"/>
+    <mergeCell ref="I3:J3"/>
     <mergeCell ref="B10:J10"/>
     <mergeCell ref="D32:H32"/>
     <mergeCell ref="I32:J32"/>
@@ -9565,11 +10387,6 @@
     <mergeCell ref="B31:C31"/>
     <mergeCell ref="D31:J31"/>
     <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D2:J2"/>
-    <mergeCell ref="D3:H3"/>
-    <mergeCell ref="I3:J3"/>
     <mergeCell ref="D21:H21"/>
     <mergeCell ref="I21:J21"/>
     <mergeCell ref="B21:C21"/>
@@ -9579,15 +10396,12 @@
     <mergeCell ref="D20:J20"/>
     <mergeCell ref="D12:H12"/>
     <mergeCell ref="I12:J12"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
   </mergeCells>
   <conditionalFormatting sqref="E34:J36">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
       <formula>44100</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThanOrEqual">
       <formula>44100</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9596,7 +10410,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:AG38"/>
   <sheetViews>
@@ -9616,39 +10430,39 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:33" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
-      <c r="N2" s="16"/>
-      <c r="O2" s="16"/>
-      <c r="P2" s="16"/>
-      <c r="Q2" s="16"/>
-      <c r="R2" s="16"/>
-      <c r="S2" s="16"/>
-      <c r="W2" s="17" t="s">
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="35"/>
+      <c r="P2" s="35"/>
+      <c r="Q2" s="35"/>
+      <c r="R2" s="35"/>
+      <c r="S2" s="35"/>
+      <c r="W2" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="X2" s="17"/>
-      <c r="Y2" s="17"/>
-      <c r="Z2" s="17"/>
-      <c r="AA2" s="17"/>
-      <c r="AB2" s="17"/>
-      <c r="AC2" s="17"/>
-      <c r="AD2" s="17"/>
-      <c r="AE2" s="17"/>
-      <c r="AF2" s="17"/>
-      <c r="AG2" s="17"/>
+      <c r="X2" s="36"/>
+      <c r="Y2" s="36"/>
+      <c r="Z2" s="36"/>
+      <c r="AA2" s="36"/>
+      <c r="AB2" s="36"/>
+      <c r="AC2" s="36"/>
+      <c r="AD2" s="36"/>
+      <c r="AE2" s="36"/>
+      <c r="AF2" s="36"/>
+      <c r="AG2" s="36"/>
     </row>
     <row r="4" spans="2:33" x14ac:dyDescent="0.25">
       <c r="C4" t="str">
@@ -11329,7 +12143,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:AO26"/>
   <sheetViews>
@@ -11348,46 +12162,46 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:41" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
-      <c r="N2" s="16"/>
-      <c r="O2" s="16"/>
-      <c r="P2" s="16"/>
-      <c r="Q2" s="16"/>
-      <c r="R2" s="16"/>
-      <c r="S2" s="16"/>
-      <c r="X2" s="17" t="s">
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="35"/>
+      <c r="P2" s="35"/>
+      <c r="Q2" s="35"/>
+      <c r="R2" s="35"/>
+      <c r="S2" s="35"/>
+      <c r="X2" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="Y2" s="17"/>
-      <c r="Z2" s="17"/>
-      <c r="AA2" s="17"/>
-      <c r="AB2" s="17"/>
-      <c r="AC2" s="17"/>
-      <c r="AD2" s="17"/>
-      <c r="AE2" s="17"/>
-      <c r="AF2" s="17"/>
-      <c r="AG2" s="17"/>
-      <c r="AH2" s="17"/>
-      <c r="AI2" s="17"/>
-      <c r="AJ2" s="17"/>
-      <c r="AK2" s="17"/>
-      <c r="AL2" s="17"/>
-      <c r="AM2" s="17"/>
-      <c r="AN2" s="17"/>
-      <c r="AO2" s="17"/>
+      <c r="Y2" s="36"/>
+      <c r="Z2" s="36"/>
+      <c r="AA2" s="36"/>
+      <c r="AB2" s="36"/>
+      <c r="AC2" s="36"/>
+      <c r="AD2" s="36"/>
+      <c r="AE2" s="36"/>
+      <c r="AF2" s="36"/>
+      <c r="AG2" s="36"/>
+      <c r="AH2" s="36"/>
+      <c r="AI2" s="36"/>
+      <c r="AJ2" s="36"/>
+      <c r="AK2" s="36"/>
+      <c r="AL2" s="36"/>
+      <c r="AM2" s="36"/>
+      <c r="AN2" s="36"/>
+      <c r="AO2" s="36"/>
     </row>
     <row r="4" spans="2:41" x14ac:dyDescent="0.25">
       <c r="C4" s="1" t="str">
@@ -12943,7 +13757,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:G128"/>
   <sheetViews>
@@ -15590,7 +16404,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:M17"/>
   <sheetViews>
@@ -15819,253 +16633,6 @@
       <c r="I17" s="3"/>
       <c r="L17" s="3"/>
       <c r="M17" s="3"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:M17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G6" t="s">
-        <v>5</v>
-      </c>
-      <c r="H6" t="s">
-        <v>5</v>
-      </c>
-      <c r="I6" t="s">
-        <v>5</v>
-      </c>
-      <c r="K6" t="s">
-        <v>57</v>
-      </c>
-      <c r="L6" t="s">
-        <v>57</v>
-      </c>
-      <c r="M6" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G7" t="s">
-        <v>3</v>
-      </c>
-      <c r="H7" t="s">
-        <v>10</v>
-      </c>
-      <c r="I7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K7" t="s">
-        <v>3</v>
-      </c>
-      <c r="L7" t="s">
-        <v>10</v>
-      </c>
-      <c r="M7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H8" t="s">
-        <v>11</v>
-      </c>
-      <c r="I8" t="s">
-        <v>12</v>
-      </c>
-      <c r="L8" t="s">
-        <v>11</v>
-      </c>
-      <c r="M8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D9" t="s">
-        <v>1</v>
-      </c>
-      <c r="E9" t="s">
-        <v>1</v>
-      </c>
-      <c r="G9" t="s">
-        <v>1</v>
-      </c>
-      <c r="H9" t="s">
-        <v>1</v>
-      </c>
-      <c r="I9" t="s">
-        <v>1</v>
-      </c>
-      <c r="K9" t="s">
-        <v>1</v>
-      </c>
-      <c r="L9" t="s">
-        <v>1</v>
-      </c>
-      <c r="M9" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="2:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="3">
-        <v>8</v>
-      </c>
-      <c r="C10" s="3">
-        <v>62.2</v>
-      </c>
-      <c r="G10" s="3">
-        <v>136</v>
-      </c>
-      <c r="K10" s="3">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="11" spans="2:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="3">
-        <v>16</v>
-      </c>
-      <c r="C11" s="3">
-        <v>121</v>
-      </c>
-      <c r="G11" s="3">
-        <v>289</v>
-      </c>
-      <c r="K11" s="3">
-        <v>822</v>
-      </c>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B12">
-        <v>32</v>
-      </c>
-      <c r="C12">
-        <v>319.8</v>
-      </c>
-      <c r="G12">
-        <v>802</v>
-      </c>
-      <c r="K12">
-        <v>2188</v>
-      </c>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B13">
-        <v>64</v>
-      </c>
-      <c r="C13">
-        <v>627.20000000000005</v>
-      </c>
-      <c r="G13">
-        <v>1674</v>
-      </c>
-      <c r="K13">
-        <v>5035</v>
-      </c>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B14">
-        <v>128</v>
-      </c>
-      <c r="C14">
-        <v>1565</v>
-      </c>
-      <c r="G14">
-        <v>4241</v>
-      </c>
-      <c r="K14">
-        <v>12312</v>
-      </c>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B15">
-        <v>256</v>
-      </c>
-      <c r="C15">
-        <v>3079</v>
-      </c>
-      <c r="G15">
-        <v>8763</v>
-      </c>
-      <c r="K15">
-        <v>27349</v>
-      </c>
-    </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B16">
-        <v>512</v>
-      </c>
-      <c r="C16">
-        <v>7403</v>
-      </c>
-      <c r="G16">
-        <v>21103</v>
-      </c>
-      <c r="K16">
-        <v>63732</v>
-      </c>
-    </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B17">
-        <v>1024</v>
-      </c>
-      <c r="C17">
-        <v>14605.4</v>
-      </c>
-      <c r="G17">
-        <v>43329</v>
-      </c>
-      <c r="K17">
-        <v>138469</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16084,12 +16651,12 @@
   <sheetData>
     <row r="2" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
-        <v>51</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.25">
@@ -16207,13 +16774,13 @@
         <v>8</v>
       </c>
       <c r="C10" s="3">
-        <v>24.4</v>
+        <v>62.2</v>
       </c>
       <c r="G10" s="3">
-        <v>35.4</v>
+        <v>136</v>
       </c>
       <c r="K10" s="3">
-        <v>102</v>
+        <v>335</v>
       </c>
     </row>
     <row r="11" spans="2:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -16221,13 +16788,13 @@
         <v>16</v>
       </c>
       <c r="C11" s="3">
-        <v>45.2</v>
+        <v>121</v>
       </c>
       <c r="G11" s="3">
-        <v>66.599999999999994</v>
+        <v>289</v>
       </c>
       <c r="K11" s="3">
-        <v>247.8</v>
+        <v>822</v>
       </c>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.25">
@@ -16235,13 +16802,13 @@
         <v>32</v>
       </c>
       <c r="C12">
-        <v>124.2</v>
+        <v>319.8</v>
       </c>
       <c r="G12">
-        <v>191.2</v>
+        <v>802</v>
       </c>
       <c r="K12">
-        <v>667.2</v>
+        <v>2188</v>
       </c>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.25">
@@ -16249,13 +16816,13 @@
         <v>64</v>
       </c>
       <c r="C13">
-        <v>236.4</v>
+        <v>627.20000000000005</v>
       </c>
       <c r="G13">
-        <v>368.4</v>
+        <v>1674</v>
       </c>
       <c r="K13">
-        <v>1540</v>
+        <v>5035</v>
       </c>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.25">
@@ -16263,13 +16830,13 @@
         <v>128</v>
       </c>
       <c r="C14">
-        <v>608.4</v>
+        <v>1565</v>
       </c>
       <c r="G14">
-        <v>969.6</v>
+        <v>4241</v>
       </c>
       <c r="K14">
-        <v>3806.2</v>
+        <v>12312</v>
       </c>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.25">
@@ -16277,23 +16844,41 @@
         <v>256</v>
       </c>
       <c r="C15">
-        <v>1171.4000000000001</v>
+        <v>3079</v>
       </c>
       <c r="G15">
-        <v>1884.8</v>
+        <v>8763</v>
       </c>
       <c r="K15">
-        <v>8515.6</v>
+        <v>27349</v>
       </c>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>512</v>
       </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C16">
+        <v>7403</v>
+      </c>
+      <c r="G16">
+        <v>21103</v>
+      </c>
+      <c r="K16">
+        <v>63732</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>1024</v>
+      </c>
+      <c r="C17">
+        <v>14605.4</v>
+      </c>
+      <c r="G17">
+        <v>43329</v>
+      </c>
+      <c r="K17">
+        <v>138469</v>
       </c>
     </row>
   </sheetData>
@@ -16313,12 +16898,12 @@
   <sheetData>
     <row r="2" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
-        <v>9</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.25">
@@ -16436,31 +17021,13 @@
         <v>8</v>
       </c>
       <c r="C10" s="3">
-        <v>19.600000000000001</v>
-      </c>
-      <c r="D10" s="3">
-        <v>8.8800000000000008</v>
-      </c>
-      <c r="E10" s="3">
-        <v>8.44</v>
+        <v>24.4</v>
       </c>
       <c r="G10" s="3">
-        <v>34.799999999999997</v>
-      </c>
-      <c r="H10" s="3">
-        <v>12.42</v>
-      </c>
-      <c r="I10" s="3">
-        <v>12.38</v>
+        <v>35.4</v>
       </c>
       <c r="K10" s="3">
-        <v>73.8</v>
-      </c>
-      <c r="L10" s="3">
-        <v>52.22</v>
-      </c>
-      <c r="M10" s="3">
-        <v>49.44</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11" spans="2:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -16468,31 +17035,13 @@
         <v>16</v>
       </c>
       <c r="C11" s="3">
-        <v>38</v>
-      </c>
-      <c r="D11" s="3">
-        <v>17</v>
-      </c>
-      <c r="E11" s="3">
-        <v>14.12</v>
+        <v>45.2</v>
       </c>
       <c r="G11" s="3">
-        <v>68.400000000000006</v>
-      </c>
-      <c r="H11" s="3">
-        <v>26.38</v>
-      </c>
-      <c r="I11" s="3">
-        <v>21.5</v>
+        <v>66.599999999999994</v>
       </c>
       <c r="K11" s="3">
-        <v>177.6</v>
-      </c>
-      <c r="L11" s="3">
-        <v>128.13999999999999</v>
-      </c>
-      <c r="M11" s="3">
-        <v>88.9</v>
+        <v>247.8</v>
       </c>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.25">
@@ -16500,31 +17049,13 @@
         <v>32</v>
       </c>
       <c r="C12">
-        <v>103.4</v>
-      </c>
-      <c r="D12">
-        <v>34.68</v>
-      </c>
-      <c r="E12">
-        <v>32.4</v>
+        <v>124.2</v>
       </c>
       <c r="G12">
-        <v>192.8</v>
-      </c>
-      <c r="H12">
-        <v>58.22</v>
-      </c>
-      <c r="I12">
-        <v>60.7</v>
+        <v>191.2</v>
       </c>
       <c r="K12">
-        <v>496.4</v>
-      </c>
-      <c r="L12">
-        <v>316.22000000000003</v>
-      </c>
-      <c r="M12">
-        <v>282.3</v>
+        <v>667.2</v>
       </c>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.25">
@@ -16532,31 +17063,13 @@
         <v>64</v>
       </c>
       <c r="C13">
-        <v>204.4</v>
-      </c>
-      <c r="D13">
-        <v>73.599999999999994</v>
-      </c>
-      <c r="E13">
-        <v>60.5</v>
+        <v>236.4</v>
       </c>
       <c r="G13">
-        <v>383.6</v>
-      </c>
-      <c r="H13">
-        <v>131.32</v>
-      </c>
-      <c r="I13">
-        <v>116.58</v>
+        <v>368.4</v>
       </c>
       <c r="K13">
-        <v>1136</v>
-      </c>
-      <c r="L13">
-        <v>757.58</v>
-      </c>
-      <c r="M13">
-        <v>552.04</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.25">
@@ -16564,31 +17077,13 @@
         <v>128</v>
       </c>
       <c r="C14">
-        <v>520.4</v>
-      </c>
-      <c r="D14">
-        <v>157.96</v>
-      </c>
-      <c r="E14">
-        <v>139.74</v>
+        <v>608.4</v>
       </c>
       <c r="G14">
-        <v>993.2</v>
-      </c>
-      <c r="H14">
-        <v>293.62</v>
-      </c>
-      <c r="I14">
-        <v>303.7</v>
+        <v>969.6</v>
       </c>
       <c r="K14">
-        <v>2849.8</v>
-      </c>
-      <c r="L14">
-        <v>1768.72</v>
-      </c>
-      <c r="M14">
-        <v>1520.76</v>
+        <v>3806.2</v>
       </c>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.25">
@@ -16596,95 +17091,23 @@
         <v>256</v>
       </c>
       <c r="C15">
-        <v>1030.4000000000001</v>
-      </c>
-      <c r="D15">
-        <v>339.58</v>
-      </c>
-      <c r="E15">
-        <v>272.54000000000002</v>
+        <v>1171.4000000000001</v>
       </c>
       <c r="G15">
-        <v>1976</v>
-      </c>
-      <c r="H15">
-        <v>653.76</v>
-      </c>
-      <c r="I15">
-        <v>597.08000000000004</v>
+        <v>1884.8</v>
       </c>
       <c r="K15">
-        <v>6295.8</v>
-      </c>
-      <c r="L15">
-        <v>4051.34</v>
-      </c>
-      <c r="M15">
-        <v>3022.52</v>
+        <v>8515.6</v>
       </c>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>512</v>
       </c>
-      <c r="C16">
-        <v>2508</v>
-      </c>
-      <c r="D16">
-        <v>730.94</v>
-      </c>
-      <c r="E16">
-        <v>635.05999999999995</v>
-      </c>
-      <c r="G16">
-        <v>4858</v>
-      </c>
-      <c r="H16">
-        <v>1442.82</v>
-      </c>
-      <c r="I16">
-        <v>1476.16</v>
-      </c>
-      <c r="K16">
-        <v>14922</v>
-      </c>
-      <c r="L16">
-        <v>9132.7800000000007</v>
-      </c>
-      <c r="M16">
-        <v>7711.3</v>
-      </c>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>1024</v>
-      </c>
-      <c r="C17">
-        <v>4975</v>
-      </c>
-      <c r="D17">
-        <v>1570.74</v>
-      </c>
-      <c r="E17">
-        <v>1254.4000000000001</v>
-      </c>
-      <c r="G17">
-        <v>9679</v>
-      </c>
-      <c r="H17">
-        <v>3152.84</v>
-      </c>
-      <c r="I17">
-        <v>2920.28</v>
-      </c>
-      <c r="K17">
-        <v>32259.4</v>
-      </c>
-      <c r="L17">
-        <v>20338.98</v>
-      </c>
-      <c r="M17">
-        <v>15382.98</v>
       </c>
     </row>
   </sheetData>
@@ -16704,12 +17127,12 @@
   <sheetData>
     <row r="2" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.25">
@@ -16822,68 +17245,68 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B10">
+    <row r="10" spans="2:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="3">
         <v>8</v>
       </c>
-      <c r="C10">
-        <v>13</v>
-      </c>
-      <c r="D10">
-        <v>6</v>
-      </c>
-      <c r="E10">
-        <v>4</v>
-      </c>
-      <c r="G10">
-        <v>19</v>
-      </c>
-      <c r="H10">
-        <v>8</v>
-      </c>
-      <c r="I10">
-        <v>6</v>
-      </c>
-      <c r="K10">
-        <v>10</v>
-      </c>
-      <c r="L10">
-        <v>7</v>
-      </c>
-      <c r="M10">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B11">
+      <c r="C10" s="3">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="D10" s="3">
+        <v>8.8800000000000008</v>
+      </c>
+      <c r="E10" s="3">
+        <v>8.44</v>
+      </c>
+      <c r="G10" s="3">
+        <v>34.799999999999997</v>
+      </c>
+      <c r="H10" s="3">
+        <v>12.42</v>
+      </c>
+      <c r="I10" s="3">
+        <v>12.38</v>
+      </c>
+      <c r="K10" s="3">
+        <v>73.8</v>
+      </c>
+      <c r="L10" s="3">
+        <v>52.22</v>
+      </c>
+      <c r="M10" s="3">
+        <v>49.44</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="3">
         <v>16</v>
       </c>
-      <c r="C11">
-        <v>25</v>
-      </c>
-      <c r="D11">
-        <v>9.5</v>
-      </c>
-      <c r="E11">
-        <v>7</v>
-      </c>
-      <c r="G11">
-        <v>35</v>
-      </c>
-      <c r="H11">
-        <v>15</v>
-      </c>
-      <c r="I11">
-        <v>11</v>
-      </c>
-      <c r="K11">
-        <v>16</v>
-      </c>
-      <c r="L11">
-        <v>13</v>
-      </c>
-      <c r="M11">
-        <v>11</v>
+      <c r="C11" s="3">
+        <v>38</v>
+      </c>
+      <c r="D11" s="3">
+        <v>17</v>
+      </c>
+      <c r="E11" s="3">
+        <v>14.12</v>
+      </c>
+      <c r="G11" s="3">
+        <v>68.400000000000006</v>
+      </c>
+      <c r="H11" s="3">
+        <v>26.38</v>
+      </c>
+      <c r="I11" s="3">
+        <v>21.5</v>
+      </c>
+      <c r="K11" s="3">
+        <v>177.6</v>
+      </c>
+      <c r="L11" s="3">
+        <v>128.13999999999999</v>
+      </c>
+      <c r="M11" s="3">
+        <v>88.9</v>
       </c>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.25">
@@ -16891,31 +17314,31 @@
         <v>32</v>
       </c>
       <c r="C12">
-        <v>69</v>
+        <v>103.4</v>
       </c>
       <c r="D12">
-        <v>19</v>
+        <v>34.68</v>
       </c>
       <c r="E12">
-        <v>17</v>
+        <v>32.4</v>
       </c>
       <c r="G12">
-        <v>102</v>
+        <v>192.8</v>
       </c>
       <c r="H12">
-        <v>34</v>
+        <v>58.22</v>
       </c>
       <c r="I12">
-        <v>32</v>
+        <v>60.7</v>
       </c>
       <c r="K12">
-        <v>47</v>
+        <v>496.4</v>
       </c>
       <c r="L12">
-        <v>25</v>
+        <v>316.22000000000003</v>
       </c>
       <c r="M12">
-        <v>25</v>
+        <v>282.3</v>
       </c>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.25">
@@ -16923,31 +17346,31 @@
         <v>64</v>
       </c>
       <c r="C13">
-        <v>136</v>
+        <v>204.4</v>
       </c>
       <c r="D13">
-        <v>38</v>
+        <v>73.599999999999994</v>
       </c>
       <c r="E13">
-        <v>30</v>
+        <v>60.5</v>
       </c>
       <c r="G13">
-        <v>190</v>
+        <v>383.6</v>
       </c>
       <c r="H13">
-        <v>75</v>
+        <v>131.32</v>
       </c>
       <c r="I13">
-        <v>60</v>
+        <v>116.58</v>
       </c>
       <c r="K13">
-        <v>79</v>
+        <v>1136</v>
       </c>
       <c r="L13">
-        <v>55</v>
+        <v>757.58</v>
       </c>
       <c r="M13">
-        <v>47</v>
+        <v>552.04</v>
       </c>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.25">
@@ -16955,31 +17378,31 @@
         <v>128</v>
       </c>
       <c r="C14">
-        <v>349</v>
+        <v>520.4</v>
       </c>
       <c r="D14">
-        <v>79</v>
+        <v>157.96</v>
       </c>
       <c r="E14">
-        <v>70</v>
+        <v>139.74</v>
       </c>
       <c r="G14">
-        <v>512</v>
+        <v>993.2</v>
       </c>
       <c r="H14">
-        <v>169</v>
+        <v>293.62</v>
       </c>
       <c r="I14">
-        <v>161</v>
+        <v>303.7</v>
       </c>
       <c r="K14">
-        <v>217</v>
+        <v>2849.8</v>
       </c>
       <c r="L14">
-        <v>119</v>
+        <v>1768.72</v>
       </c>
       <c r="M14">
-        <v>105</v>
+        <v>1520.76</v>
       </c>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.25">
@@ -16987,31 +17410,31 @@
         <v>256</v>
       </c>
       <c r="C15">
-        <v>686</v>
+        <v>1030.4000000000001</v>
       </c>
       <c r="D15">
-        <v>170</v>
+        <v>339.58</v>
       </c>
       <c r="E15">
-        <v>136</v>
+        <v>272.54000000000002</v>
       </c>
       <c r="G15">
-        <v>970</v>
+        <v>1976</v>
       </c>
       <c r="H15">
-        <v>375</v>
+        <v>653.76</v>
       </c>
       <c r="I15">
-        <v>317</v>
+        <v>597.08000000000004</v>
       </c>
       <c r="K15">
-        <v>371</v>
+        <v>6295.8</v>
       </c>
       <c r="L15">
-        <v>253</v>
+        <v>4051.34</v>
       </c>
       <c r="M15">
-        <v>205</v>
+        <v>3022.52</v>
       </c>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.25">
@@ -17019,31 +17442,31 @@
         <v>512</v>
       </c>
       <c r="C16">
-        <v>1683</v>
+        <v>2508</v>
       </c>
       <c r="D16">
-        <v>344</v>
+        <v>730.94</v>
       </c>
       <c r="E16">
-        <v>310</v>
+        <v>635.05999999999995</v>
       </c>
       <c r="G16">
-        <v>2461</v>
+        <v>4858</v>
       </c>
       <c r="H16">
-        <v>820</v>
+        <v>1442.82</v>
       </c>
       <c r="I16">
-        <v>786</v>
+        <v>1476.16</v>
       </c>
       <c r="K16">
-        <v>981</v>
+        <v>14922</v>
       </c>
       <c r="L16">
-        <v>535</v>
+        <v>9132.7800000000007</v>
       </c>
       <c r="M16">
-        <v>471</v>
+        <v>7711.3</v>
       </c>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.25">
@@ -17051,31 +17474,31 @@
         <v>1024</v>
       </c>
       <c r="C17">
-        <v>3316</v>
+        <v>4975</v>
       </c>
       <c r="D17">
-        <v>745</v>
+        <v>1570.74</v>
       </c>
       <c r="E17">
-        <v>614</v>
+        <v>1254.4000000000001</v>
       </c>
       <c r="G17">
-        <v>4708</v>
+        <v>9679</v>
       </c>
       <c r="H17">
-        <v>1798</v>
+        <v>3152.84</v>
       </c>
       <c r="I17">
-        <v>1558</v>
+        <v>2920.28</v>
       </c>
       <c r="K17">
-        <v>1711</v>
+        <v>32259.4</v>
       </c>
       <c r="L17">
-        <v>1153</v>
+        <v>20338.98</v>
       </c>
       <c r="M17">
-        <v>928</v>
+        <v>15382.98</v>
       </c>
     </row>
   </sheetData>

--- a/Arduino/Audio Processing Benchmarking/FFT Speed Results.xlsx
+++ b/Arduino/Audio Processing Benchmarking/FFT Speed Results.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="75" windowWidth="19155" windowHeight="9015"/>
+    <workbookView xWindow="360" yWindow="75" windowWidth="19155" windowHeight="9015" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Systems" sheetId="14" r:id="rId1"/>
-    <sheet name="Summary Table" sheetId="13" r:id="rId2"/>
+    <sheet name="Summary For Blog" sheetId="13" r:id="rId2"/>
     <sheet name="Summary_Speed" sheetId="9" r:id="rId3"/>
     <sheet name="Summary-Duration" sheetId="6" r:id="rId4"/>
     <sheet name="AllData" sheetId="7" r:id="rId5"/>
@@ -590,7 +590,29 @@
     <xf numFmtId="37" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -599,7 +621,7 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -617,34 +639,12 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -711,7 +711,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="1600"/>
-              <a:t>FFTs Per Second</a:t>
+              <a:t>FFTs Per Second, Int32</a:t>
             </a:r>
           </a:p>
           <a:p>
@@ -739,7 +739,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Summary Table'!$L$13</c:f>
+              <c:f>'Summary For Blog'!$L$13</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -750,7 +750,7 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>'Summary Table'!$B$14:$B$18</c:f>
+              <c:f>'Summary For Blog'!$B$14:$B$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -774,7 +774,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Summary Table'!$L$14:$L$18</c:f>
+              <c:f>'Summary For Blog'!$L$14:$L$18</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="5"/>
@@ -803,7 +803,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Summary Table'!$M$13</c:f>
+              <c:f>'Summary For Blog'!$M$13</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -814,7 +814,7 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>'Summary Table'!$B$14:$B$18</c:f>
+              <c:f>'Summary For Blog'!$B$14:$B$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -838,7 +838,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Summary Table'!$M$14:$M$18</c:f>
+              <c:f>'Summary For Blog'!$M$14:$M$18</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="5"/>
@@ -867,7 +867,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Summary Table'!$N$13</c:f>
+              <c:f>'Summary For Blog'!$N$13</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -878,7 +878,7 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>'Summary Table'!$B$14:$B$18</c:f>
+              <c:f>'Summary For Blog'!$B$14:$B$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -902,7 +902,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Summary Table'!$N$14:$N$18</c:f>
+              <c:f>'Summary For Blog'!$N$14:$N$18</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="5"/>
@@ -931,7 +931,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Summary Table'!$O$13</c:f>
+              <c:f>'Summary For Blog'!$O$13</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -942,7 +942,7 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>'Summary Table'!$B$14:$B$18</c:f>
+              <c:f>'Summary For Blog'!$B$14:$B$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -966,7 +966,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Summary Table'!$O$14:$O$18</c:f>
+              <c:f>'Summary For Blog'!$O$14:$O$18</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="5"/>
@@ -995,7 +995,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Summary Table'!$P$13</c:f>
+              <c:f>'Summary For Blog'!$P$13</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1006,7 +1006,7 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>'Summary Table'!$B$14:$B$18</c:f>
+              <c:f>'Summary For Blog'!$B$14:$B$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1030,7 +1030,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Summary Table'!$P$14:$P$18</c:f>
+              <c:f>'Summary For Blog'!$P$14:$P$18</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1059,7 +1059,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Summary Table'!$R$13</c:f>
+              <c:f>'Summary For Blog'!$R$13</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1070,7 +1070,7 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>'Summary Table'!$B$14:$B$18</c:f>
+              <c:f>'Summary For Blog'!$B$14:$B$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1094,7 +1094,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Summary Table'!$R$14:$R$18</c:f>
+              <c:f>'Summary For Blog'!$R$14:$R$18</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1123,7 +1123,7 @@
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Summary Table'!$S$13</c:f>
+              <c:f>'Summary For Blog'!$S$13</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1134,7 +1134,7 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>'Summary Table'!$B$14:$B$18</c:f>
+              <c:f>'Summary For Blog'!$B$14:$B$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1158,7 +1158,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Summary Table'!$S$14:$S$18</c:f>
+              <c:f>'Summary For Blog'!$S$14:$S$18</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1192,11 +1192,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="145706368"/>
-        <c:axId val="145712256"/>
+        <c:axId val="154062848"/>
+        <c:axId val="154064768"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="145706368"/>
+        <c:axId val="154062848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1225,7 +1225,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="145712256"/>
+        <c:crossAx val="154064768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1233,7 +1233,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="145712256"/>
+        <c:axId val="154064768"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1265,7 +1265,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="145706368"/>
+        <c:crossAx val="154062848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1492,11 +1492,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="144942592"/>
-        <c:axId val="144944128"/>
+        <c:axId val="159099904"/>
+        <c:axId val="159101696"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="144942592"/>
+        <c:axId val="159099904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1505,7 +1505,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="144944128"/>
+        <c:crossAx val="159101696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1513,7 +1513,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="144944128"/>
+        <c:axId val="159101696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1559,7 +1559,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="144942592"/>
+        <c:crossAx val="159099904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1950,11 +1950,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="146351232"/>
-        <c:axId val="146352768"/>
+        <c:axId val="159394432"/>
+        <c:axId val="159420800"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="146351232"/>
+        <c:axId val="159394432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1963,7 +1963,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="146352768"/>
+        <c:crossAx val="159420800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1971,7 +1971,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="146352768"/>
+        <c:axId val="159420800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2000,7 +2000,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="146351232"/>
+        <c:crossAx val="159394432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="2000"/>
@@ -2335,11 +2335,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="145877248"/>
-        <c:axId val="146145664"/>
+        <c:axId val="159219712"/>
+        <c:axId val="159221632"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="145877248"/>
+        <c:axId val="159219712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2367,7 +2367,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="146145664"/>
+        <c:crossAx val="159221632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2375,7 +2375,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="146145664"/>
+        <c:axId val="159221632"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -2407,7 +2407,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="145877248"/>
+        <c:crossAx val="159219712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2741,11 +2741,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="146181120"/>
-        <c:axId val="146187392"/>
+        <c:axId val="159257344"/>
+        <c:axId val="159259264"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="146181120"/>
+        <c:axId val="159257344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2773,7 +2773,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="146187392"/>
+        <c:crossAx val="159259264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2781,7 +2781,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="146187392"/>
+        <c:axId val="159259264"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -2813,7 +2813,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="146181120"/>
+        <c:crossAx val="159257344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3092,11 +3092,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="146283520"/>
-        <c:axId val="146293888"/>
+        <c:axId val="159281920"/>
+        <c:axId val="159283840"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="146283520"/>
+        <c:axId val="159281920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3124,7 +3124,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="146293888"/>
+        <c:crossAx val="159283840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3132,7 +3132,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="146293888"/>
+        <c:axId val="159283840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3161,7 +3161,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="146283520"/>
+        <c:crossAx val="159281920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3440,11 +3440,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="146308480"/>
-        <c:axId val="146331136"/>
+        <c:axId val="159794304"/>
+        <c:axId val="159796224"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="146308480"/>
+        <c:axId val="159794304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3472,7 +3472,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="146331136"/>
+        <c:crossAx val="159796224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3480,7 +3480,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="146331136"/>
+        <c:axId val="159796224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3509,7 +3509,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="146308480"/>
+        <c:crossAx val="159794304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3788,11 +3788,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="146705408"/>
-        <c:axId val="146707584"/>
+        <c:axId val="159515392"/>
+        <c:axId val="159517312"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="146705408"/>
+        <c:axId val="159515392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3820,7 +3820,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="146707584"/>
+        <c:crossAx val="159517312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3828,7 +3828,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="146707584"/>
+        <c:axId val="159517312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3857,7 +3857,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="146705408"/>
+        <c:crossAx val="159515392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4118,11 +4118,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="146545664"/>
-        <c:axId val="146547840"/>
+        <c:axId val="159548160"/>
+        <c:axId val="159550080"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="146545664"/>
+        <c:axId val="159548160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4150,7 +4150,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="146547840"/>
+        <c:crossAx val="159550080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4158,7 +4158,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="146547840"/>
+        <c:axId val="159550080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4187,7 +4187,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="146545664"/>
+        <c:crossAx val="159548160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4448,11 +4448,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="146586624"/>
-        <c:axId val="146592896"/>
+        <c:axId val="159585024"/>
+        <c:axId val="159586944"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="146586624"/>
+        <c:axId val="159585024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4480,7 +4480,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="146592896"/>
+        <c:crossAx val="159586944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4488,7 +4488,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="146592896"/>
+        <c:axId val="159586944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4517,7 +4517,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="146586624"/>
+        <c:crossAx val="159585024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4778,11 +4778,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="146488704"/>
-        <c:axId val="146511360"/>
+        <c:axId val="159630464"/>
+        <c:axId val="159632384"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="146488704"/>
+        <c:axId val="159630464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4810,7 +4810,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="146511360"/>
+        <c:crossAx val="159632384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4818,7 +4818,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="146511360"/>
+        <c:axId val="159632384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4847,7 +4847,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="146488704"/>
+        <c:crossAx val="159630464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4932,7 +4932,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Summary Table'!$C$16</c:f>
+              <c:f>'Summary For Blog'!$C$16</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4944,7 +4944,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Summary Table'!$M$13:$P$13</c:f>
+              <c:f>'Summary For Blog'!$M$13:$P$13</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -4964,7 +4964,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Summary Table'!$M$16:$P$16</c:f>
+              <c:f>'Summary For Blog'!$M$16:$P$16</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="4"/>
@@ -4993,11 +4993,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="145740544"/>
-        <c:axId val="145742080"/>
+        <c:axId val="157956352"/>
+        <c:axId val="157966336"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="145740544"/>
+        <c:axId val="157956352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5006,7 +5006,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="145742080"/>
+        <c:crossAx val="157966336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5014,7 +5014,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="145742080"/>
+        <c:axId val="157966336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5025,7 +5025,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="145740544"/>
+        <c:crossAx val="157956352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5111,7 +5111,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Summary Table'!$C$16</c:f>
+              <c:f>'Summary For Blog'!$C$16</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5123,7 +5123,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Summary Table'!$M$13:$P$13</c:f>
+              <c:f>'Summary For Blog'!$M$13:$P$13</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -5143,7 +5143,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Summary Table'!$M$16:$P$16</c:f>
+              <c:f>'Summary For Blog'!$M$16:$P$16</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="4"/>
@@ -5168,7 +5168,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Summary Table'!$C$25</c:f>
+              <c:f>'Summary For Blog'!$C$25</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5180,7 +5180,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Summary Table'!$M$13:$P$13</c:f>
+              <c:f>'Summary For Blog'!$M$13:$P$13</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -5200,7 +5200,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Summary Table'!$M$25:$P$25</c:f>
+              <c:f>'Summary For Blog'!$M$25:$P$25</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="4"/>
@@ -5229,11 +5229,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="145642240"/>
-        <c:axId val="145643776"/>
+        <c:axId val="157989120"/>
+        <c:axId val="157990912"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="145642240"/>
+        <c:axId val="157989120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5242,7 +5242,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="145643776"/>
+        <c:crossAx val="157990912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5250,7 +5250,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="145643776"/>
+        <c:axId val="157990912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5261,7 +5261,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="145642240"/>
+        <c:crossAx val="157989120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="500"/>
@@ -5333,7 +5333,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -5348,7 +5347,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Summary Table'!$C$16</c:f>
+              <c:f>'Summary For Blog'!$C$16</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5360,7 +5359,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Summary Table'!$M$13:$S$13</c:f>
+              <c:f>'Summary For Blog'!$M$13:$S$13</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
@@ -5386,7 +5385,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Summary Table'!$M$16:$S$16</c:f>
+              <c:f>'Summary For Blog'!$M$16:$S$16</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="7"/>
@@ -5417,7 +5416,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Summary Table'!$C$25</c:f>
+              <c:f>'Summary For Blog'!$C$25</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5429,7 +5428,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Summary Table'!$M$13:$S$13</c:f>
+              <c:f>'Summary For Blog'!$M$13:$S$13</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
@@ -5455,7 +5454,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Summary Table'!$M$25:$S$25</c:f>
+              <c:f>'Summary For Blog'!$M$25:$S$25</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="7"/>
@@ -5490,11 +5489,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="145652736"/>
-        <c:axId val="145679104"/>
+        <c:axId val="157998080"/>
+        <c:axId val="158028544"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="145652736"/>
+        <c:axId val="157998080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5503,7 +5502,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="145679104"/>
+        <c:crossAx val="158028544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5511,7 +5510,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="145679104"/>
+        <c:axId val="158028544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5522,7 +5521,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="145652736"/>
+        <c:crossAx val="157998080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="2000"/>
@@ -5530,7 +5529,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -5874,11 +5872,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="144856576"/>
-        <c:axId val="144858496"/>
+        <c:axId val="153871488"/>
+        <c:axId val="153873408"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="144856576"/>
+        <c:axId val="153871488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5906,7 +5904,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="144858496"/>
+        <c:crossAx val="153873408"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5914,7 +5912,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="144858496"/>
+        <c:axId val="153873408"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -5945,7 +5943,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="144856576"/>
+        <c:crossAx val="153871488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6302,11 +6300,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="145781504"/>
-        <c:axId val="145783424"/>
+        <c:axId val="153909504"/>
+        <c:axId val="153911680"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="145781504"/>
+        <c:axId val="153909504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6334,7 +6332,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="145783424"/>
+        <c:crossAx val="153911680"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6342,7 +6340,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="145783424"/>
+        <c:axId val="153911680"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -6373,7 +6371,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="145781504"/>
+        <c:crossAx val="153909504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6545,11 +6543,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="144776576"/>
-        <c:axId val="144778368"/>
+        <c:axId val="158610176"/>
+        <c:axId val="158611712"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="144776576"/>
+        <c:axId val="158610176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6558,7 +6556,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="144778368"/>
+        <c:crossAx val="158611712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6566,7 +6564,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="144778368"/>
+        <c:axId val="158611712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="10000"/>
@@ -6596,7 +6594,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="144776576"/>
+        <c:crossAx val="158610176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="2000"/>
@@ -6723,11 +6721,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="144807424"/>
-        <c:axId val="144808960"/>
+        <c:axId val="158628480"/>
+        <c:axId val="158646656"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="144807424"/>
+        <c:axId val="158628480"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -6738,12 +6736,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="144808960"/>
+        <c:crossAx val="158646656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="144808960"/>
+        <c:axId val="158646656"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -6755,7 +6753,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="144807424"/>
+        <c:crossAx val="158628480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6996,11 +6994,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="144910976"/>
-        <c:axId val="144916864"/>
+        <c:axId val="159064448"/>
+        <c:axId val="159065984"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="144910976"/>
+        <c:axId val="159064448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7009,7 +7007,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="144916864"/>
+        <c:crossAx val="159065984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7017,7 +7015,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="144916864"/>
+        <c:axId val="159065984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="100"/>
@@ -7055,7 +7053,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="144910976"/>
+        <c:crossAx val="159064448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8135,7 +8133,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:J10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
@@ -8153,191 +8151,191 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B4" s="40" t="s">
+      <c r="B4" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="40"/>
-      <c r="D4" s="41" t="s">
+      <c r="C4" s="32"/>
+      <c r="D4" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="41"/>
-      <c r="I4" s="41"/>
-      <c r="J4" s="41"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="33"/>
+      <c r="J4" s="33"/>
     </row>
     <row r="5" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B5" s="42" t="s">
+      <c r="B5" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="C5" s="42" t="s">
+      <c r="C5" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="D5" s="43" t="s">
+      <c r="D5" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="E5" s="43" t="s">
+      <c r="E5" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="F5" s="43" t="s">
+      <c r="F5" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="G5" s="43" t="s">
+      <c r="G5" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="H5" s="43" t="s">
+      <c r="H5" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="I5" s="43" t="s">
+      <c r="I5" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="J5" s="43" t="s">
+      <c r="J5" s="29" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="6" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="44" t="s">
+      <c r="B6" s="30" t="s">
         <v>79</v>
       </c>
-      <c r="C6" s="44" t="s">
+      <c r="C6" s="30" t="s">
         <v>80</v>
       </c>
-      <c r="D6" s="44" t="s">
+      <c r="D6" s="30" t="s">
         <v>81</v>
       </c>
-      <c r="E6" s="44" t="s">
+      <c r="E6" s="30" t="s">
         <v>82</v>
       </c>
-      <c r="F6" s="44" t="s">
+      <c r="F6" s="30" t="s">
         <v>83</v>
       </c>
-      <c r="G6" s="44" t="s">
+      <c r="G6" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="H6" s="44" t="s">
+      <c r="H6" s="30" t="s">
         <v>84</v>
       </c>
-      <c r="I6" s="44" t="s">
+      <c r="I6" s="30" t="s">
         <v>85</v>
       </c>
-      <c r="J6" s="44" t="s">
+      <c r="J6" s="30" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="7" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B7" s="44" t="s">
+      <c r="B7" s="30" t="s">
         <v>79</v>
       </c>
-      <c r="C7" s="44" t="s">
+      <c r="C7" s="30" t="s">
         <v>87</v>
       </c>
-      <c r="D7" s="44" t="s">
+      <c r="D7" s="30" t="s">
         <v>81</v>
       </c>
-      <c r="E7" s="44" t="s">
+      <c r="E7" s="30" t="s">
         <v>88</v>
       </c>
-      <c r="F7" s="44" t="s">
+      <c r="F7" s="30" t="s">
         <v>89</v>
       </c>
-      <c r="G7" s="44" t="s">
+      <c r="G7" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="44" t="s">
+      <c r="H7" s="30" t="s">
         <v>90</v>
       </c>
-      <c r="I7" s="44" t="s">
+      <c r="I7" s="30" t="s">
         <v>85</v>
       </c>
-      <c r="J7" s="44" t="s">
+      <c r="J7" s="30" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="8" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="44" t="s">
+      <c r="B8" s="30" t="s">
         <v>92</v>
       </c>
-      <c r="C8" s="44" t="s">
+      <c r="C8" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="D8" s="44" t="s">
+      <c r="D8" s="30" t="s">
         <v>93</v>
       </c>
-      <c r="E8" s="44" t="s">
+      <c r="E8" s="30" t="s">
         <v>94</v>
       </c>
-      <c r="F8" s="44" t="s">
+      <c r="F8" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="G8" s="44" t="s">
+      <c r="G8" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="H8" s="44" t="s">
+      <c r="H8" s="30" t="s">
         <v>90</v>
       </c>
-      <c r="I8" s="44" t="s">
+      <c r="I8" s="30" t="s">
         <v>85</v>
       </c>
-      <c r="J8" s="44" t="s">
+      <c r="J8" s="30" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="9" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="44" t="s">
+      <c r="B9" s="30" t="s">
         <v>97</v>
       </c>
-      <c r="C9" s="45" t="s">
+      <c r="C9" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="45" t="s">
+      <c r="D9" s="31" t="s">
         <v>98</v>
       </c>
-      <c r="E9" s="44" t="s">
+      <c r="E9" s="30" t="s">
         <v>99</v>
       </c>
-      <c r="F9" s="44" t="s">
+      <c r="F9" s="30" t="s">
         <v>100</v>
       </c>
-      <c r="G9" s="44" t="s">
+      <c r="G9" s="30" t="s">
         <v>101</v>
       </c>
-      <c r="H9" s="44" t="s">
+      <c r="H9" s="30" t="s">
         <v>90</v>
       </c>
-      <c r="I9" s="44" t="s">
+      <c r="I9" s="30" t="s">
         <v>85</v>
       </c>
-      <c r="J9" s="44" t="s">
+      <c r="J9" s="30" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="10" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="44" t="s">
+      <c r="B10" s="30" t="s">
         <v>98</v>
       </c>
-      <c r="C10" s="44" t="s">
+      <c r="C10" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="44" t="s">
+      <c r="D10" s="30" t="s">
         <v>98</v>
       </c>
-      <c r="E10" s="44" t="s">
+      <c r="E10" s="30" t="s">
         <v>103</v>
       </c>
-      <c r="F10" s="44" t="s">
+      <c r="F10" s="30" t="s">
         <v>104</v>
       </c>
-      <c r="G10" s="44" t="s">
+      <c r="G10" s="30" t="s">
         <v>105</v>
       </c>
-      <c r="H10" s="44" t="s">
+      <c r="H10" s="30" t="s">
         <v>90</v>
       </c>
-      <c r="I10" s="44" t="s">
+      <c r="I10" s="30" t="s">
         <v>106</v>
       </c>
-      <c r="J10" s="44" t="s">
+      <c r="J10" s="30" t="s">
         <v>107</v>
       </c>
     </row>
@@ -8745,8 +8743,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:S37"/>
   <sheetViews>
-    <sheetView topLeftCell="B19" workbookViewId="0">
-      <selection activeCell="N31" sqref="N31"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="G56" sqref="G56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8760,34 +8758,34 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28" t="s">
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
     </row>
     <row r="3" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="35" t="s">
         <v>61</v>
       </c>
-      <c r="C3" s="34"/>
-      <c r="D3" s="26" t="s">
+      <c r="C3" s="35"/>
+      <c r="D3" s="36" t="s">
         <v>59</v>
       </c>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="27" t="s">
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="J3" s="27"/>
+      <c r="J3" s="37"/>
     </row>
     <row r="4" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B4" s="16" t="str">
@@ -9179,45 +9177,45 @@
       </c>
     </row>
     <row r="10" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B10" s="25"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="25"/>
-      <c r="I10" s="25"/>
-      <c r="J10" s="25"/>
+      <c r="B10" s="38"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="38"/>
+      <c r="H10" s="38"/>
+      <c r="I10" s="38"/>
+      <c r="J10" s="38"/>
     </row>
     <row r="11" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B11" s="28"/>
-      <c r="C11" s="28"/>
-      <c r="D11" s="28" t="s">
+      <c r="B11" s="34"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="28"/>
-      <c r="J11" s="28"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="34"/>
+      <c r="I11" s="34"/>
+      <c r="J11" s="34"/>
     </row>
     <row r="12" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B12" s="34" t="s">
+      <c r="B12" s="35" t="s">
         <v>61</v>
       </c>
-      <c r="C12" s="34"/>
-      <c r="D12" s="26" t="s">
+      <c r="C12" s="35"/>
+      <c r="D12" s="36" t="s">
         <v>59</v>
       </c>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="26"/>
-      <c r="I12" s="27" t="s">
+      <c r="E12" s="36"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="36"/>
+      <c r="I12" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="J12" s="27"/>
+      <c r="J12" s="37"/>
     </row>
     <row r="13" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B13" s="18" t="str">
@@ -9608,48 +9606,48 @@
       </c>
     </row>
     <row r="19" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B19" s="25"/>
-      <c r="C19" s="25"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="25"/>
-      <c r="I19" s="25"/>
-      <c r="J19" s="25"/>
+      <c r="B19" s="38"/>
+      <c r="C19" s="38"/>
+      <c r="D19" s="38"/>
+      <c r="E19" s="38"/>
+      <c r="F19" s="38"/>
+      <c r="G19" s="38"/>
+      <c r="H19" s="38"/>
+      <c r="I19" s="38"/>
+      <c r="J19" s="38"/>
     </row>
     <row r="20" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B20" s="28"/>
-      <c r="C20" s="28"/>
-      <c r="D20" s="28" t="s">
+      <c r="B20" s="34"/>
+      <c r="C20" s="34"/>
+      <c r="D20" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="E20" s="28"/>
-      <c r="F20" s="28"/>
-      <c r="G20" s="28"/>
-      <c r="H20" s="28"/>
-      <c r="I20" s="28"/>
-      <c r="J20" s="28"/>
+      <c r="E20" s="34"/>
+      <c r="F20" s="34"/>
+      <c r="G20" s="34"/>
+      <c r="H20" s="34"/>
+      <c r="I20" s="34"/>
+      <c r="J20" s="34"/>
     </row>
     <row r="21" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B21" s="34" t="str">
+      <c r="B21" s="35" t="str">
         <f t="shared" ref="B21:B27" si="14">B12</f>
         <v>Inputs</v>
       </c>
-      <c r="C21" s="34"/>
-      <c r="D21" s="26" t="str">
+      <c r="C21" s="35"/>
+      <c r="D21" s="36" t="str">
         <f>D12</f>
         <v>Generic C</v>
       </c>
-      <c r="E21" s="26"/>
-      <c r="F21" s="26"/>
-      <c r="G21" s="26"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="27" t="str">
+      <c r="E21" s="36"/>
+      <c r="F21" s="36"/>
+      <c r="G21" s="36"/>
+      <c r="H21" s="36"/>
+      <c r="I21" s="37" t="str">
         <f>I12</f>
         <v>CMSIS</v>
       </c>
-      <c r="J21" s="27"/>
+      <c r="J21" s="37"/>
     </row>
     <row r="22" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B22" s="18" t="str">
@@ -10041,17 +10039,17 @@
       </c>
     </row>
     <row r="28" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B28" s="25" t="s">
+      <c r="B28" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="C28" s="25"/>
-      <c r="D28" s="25"/>
-      <c r="E28" s="25"/>
-      <c r="F28" s="25"/>
-      <c r="G28" s="25"/>
-      <c r="H28" s="25"/>
-      <c r="I28" s="25"/>
-      <c r="J28" s="25"/>
+      <c r="C28" s="38"/>
+      <c r="D28" s="38"/>
+      <c r="E28" s="38"/>
+      <c r="F28" s="38"/>
+      <c r="G28" s="38"/>
+      <c r="H28" s="38"/>
+      <c r="I28" s="38"/>
+      <c r="J28" s="38"/>
     </row>
     <row r="29" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B29" s="22"/>
@@ -10096,42 +10094,42 @@
       </c>
     </row>
     <row r="31" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B31" s="28"/>
-      <c r="C31" s="28"/>
-      <c r="D31" s="29" t="s">
+      <c r="B31" s="34"/>
+      <c r="C31" s="34"/>
+      <c r="D31" s="39" t="s">
         <v>70</v>
       </c>
-      <c r="E31" s="30"/>
-      <c r="F31" s="30"/>
-      <c r="G31" s="30"/>
-      <c r="H31" s="30"/>
-      <c r="I31" s="30"/>
-      <c r="J31" s="31"/>
+      <c r="E31" s="40"/>
+      <c r="F31" s="40"/>
+      <c r="G31" s="40"/>
+      <c r="H31" s="40"/>
+      <c r="I31" s="40"/>
+      <c r="J31" s="41"/>
     </row>
     <row r="32" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B32" s="32" t="str">
+      <c r="B32" s="42" t="str">
         <f>B12</f>
         <v>Inputs</v>
       </c>
-      <c r="C32" s="33"/>
-      <c r="D32" s="26" t="str">
+      <c r="C32" s="43"/>
+      <c r="D32" s="36" t="str">
         <f>D12</f>
         <v>Generic C</v>
       </c>
-      <c r="E32" s="26"/>
-      <c r="F32" s="26"/>
-      <c r="G32" s="26"/>
-      <c r="H32" s="26"/>
-      <c r="I32" s="27" t="str">
+      <c r="E32" s="36"/>
+      <c r="F32" s="36"/>
+      <c r="G32" s="36"/>
+      <c r="H32" s="36"/>
+      <c r="I32" s="37" t="str">
         <f>I12</f>
         <v>CMSIS</v>
       </c>
-      <c r="J32" s="27"/>
-      <c r="Q32" s="28" t="s">
+      <c r="J32" s="37"/>
+      <c r="Q32" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="R32" s="28"/>
-      <c r="S32" s="28"/>
+      <c r="R32" s="34"/>
+      <c r="S32" s="34"/>
     </row>
     <row r="33" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B33" s="18" t="str">
@@ -10176,14 +10174,14 @@
       <c r="M33" s="19">
         <v>0.5</v>
       </c>
-      <c r="Q33" s="37" t="s">
+      <c r="Q33" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="R33" s="37" t="str">
+      <c r="R33" s="25" t="str">
         <f>I33</f>
         <v>Teensy 3.2</v>
       </c>
-      <c r="S33" s="37" t="str">
+      <c r="S33" s="25" t="str">
         <f>J33</f>
         <v>FRDM-K66F</v>
       </c>
@@ -10231,15 +10229,15 @@
         <f>1/(1-M33)</f>
         <v>2</v>
       </c>
-      <c r="Q34" s="38" t="str">
+      <c r="Q34" s="26" t="str">
         <f>C34</f>
         <v>Int16</v>
       </c>
-      <c r="R34" s="39">
+      <c r="R34" s="27">
         <f>I7/G7</f>
         <v>3.724058966652354</v>
       </c>
-      <c r="S34" s="39">
+      <c r="S34" s="27">
         <f>J7/H7</f>
         <v>4.9857142857142867</v>
       </c>
@@ -10287,15 +10285,15 @@
         <f>M34</f>
         <v>2</v>
       </c>
-      <c r="Q35" s="38" t="str">
+      <c r="Q35" s="26" t="str">
         <f>C35</f>
         <v>Int32</v>
       </c>
-      <c r="R35" s="39">
+      <c r="R35" s="27">
         <f>I16/G16</f>
         <v>3.2703325650312816</v>
       </c>
-      <c r="S35" s="39">
+      <c r="S35" s="27">
         <f>J16/H16</f>
         <v>3.1801242236024843</v>
       </c>
@@ -10343,34 +10341,43 @@
         <f>M34+M35</f>
         <v>4</v>
       </c>
-      <c r="Q36" s="38" t="str">
+      <c r="Q36" s="26" t="str">
         <f>C36</f>
         <v>Float32</v>
       </c>
-      <c r="R36" s="39">
+      <c r="R36" s="27">
         <f>I25/G25</f>
         <v>1.8739314553249691</v>
       </c>
-      <c r="S36" s="39">
+      <c r="S36" s="27">
         <f>J25/H25</f>
         <v>2.0666666666666664</v>
       </c>
     </row>
     <row r="37" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B37" s="25" t="s">
+      <c r="B37" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="C37" s="25"/>
-      <c r="D37" s="25"/>
-      <c r="E37" s="25"/>
-      <c r="F37" s="25"/>
-      <c r="G37" s="25"/>
-      <c r="H37" s="25"/>
-      <c r="I37" s="25"/>
-      <c r="J37" s="25"/>
+      <c r="C37" s="38"/>
+      <c r="D37" s="38"/>
+      <c r="E37" s="38"/>
+      <c r="F37" s="38"/>
+      <c r="G37" s="38"/>
+      <c r="H37" s="38"/>
+      <c r="I37" s="38"/>
+      <c r="J37" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="B37:J37"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:J31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D21:H21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B28:J28"/>
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="B12:C12"/>
@@ -10383,19 +10390,10 @@
     <mergeCell ref="B10:J10"/>
     <mergeCell ref="D32:H32"/>
     <mergeCell ref="I32:J32"/>
-    <mergeCell ref="B37:J37"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:J31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D21:H21"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B28:J28"/>
     <mergeCell ref="B19:J19"/>
     <mergeCell ref="D11:J11"/>
     <mergeCell ref="D20:J20"/>
     <mergeCell ref="D12:H12"/>
-    <mergeCell ref="I12:J12"/>
   </mergeCells>
   <conditionalFormatting sqref="E34:J36">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
@@ -10430,39 +10428,39 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:33" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="44" t="s">
         <v>53</v>
       </c>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35"/>
-      <c r="N2" s="35"/>
-      <c r="O2" s="35"/>
-      <c r="P2" s="35"/>
-      <c r="Q2" s="35"/>
-      <c r="R2" s="35"/>
-      <c r="S2" s="35"/>
-      <c r="W2" s="36" t="s">
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="44"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="44"/>
+      <c r="N2" s="44"/>
+      <c r="O2" s="44"/>
+      <c r="P2" s="44"/>
+      <c r="Q2" s="44"/>
+      <c r="R2" s="44"/>
+      <c r="S2" s="44"/>
+      <c r="W2" s="45" t="s">
         <v>56</v>
       </c>
-      <c r="X2" s="36"/>
-      <c r="Y2" s="36"/>
-      <c r="Z2" s="36"/>
-      <c r="AA2" s="36"/>
-      <c r="AB2" s="36"/>
-      <c r="AC2" s="36"/>
-      <c r="AD2" s="36"/>
-      <c r="AE2" s="36"/>
-      <c r="AF2" s="36"/>
-      <c r="AG2" s="36"/>
+      <c r="X2" s="45"/>
+      <c r="Y2" s="45"/>
+      <c r="Z2" s="45"/>
+      <c r="AA2" s="45"/>
+      <c r="AB2" s="45"/>
+      <c r="AC2" s="45"/>
+      <c r="AD2" s="45"/>
+      <c r="AE2" s="45"/>
+      <c r="AF2" s="45"/>
+      <c r="AG2" s="45"/>
     </row>
     <row r="4" spans="2:33" x14ac:dyDescent="0.25">
       <c r="C4" t="str">
@@ -12162,46 +12160,46 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:41" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="44" t="s">
         <v>55</v>
       </c>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35"/>
-      <c r="N2" s="35"/>
-      <c r="O2" s="35"/>
-      <c r="P2" s="35"/>
-      <c r="Q2" s="35"/>
-      <c r="R2" s="35"/>
-      <c r="S2" s="35"/>
-      <c r="X2" s="36" t="s">
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="44"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="44"/>
+      <c r="N2" s="44"/>
+      <c r="O2" s="44"/>
+      <c r="P2" s="44"/>
+      <c r="Q2" s="44"/>
+      <c r="R2" s="44"/>
+      <c r="S2" s="44"/>
+      <c r="X2" s="45" t="s">
         <v>54</v>
       </c>
-      <c r="Y2" s="36"/>
-      <c r="Z2" s="36"/>
-      <c r="AA2" s="36"/>
-      <c r="AB2" s="36"/>
-      <c r="AC2" s="36"/>
-      <c r="AD2" s="36"/>
-      <c r="AE2" s="36"/>
-      <c r="AF2" s="36"/>
-      <c r="AG2" s="36"/>
-      <c r="AH2" s="36"/>
-      <c r="AI2" s="36"/>
-      <c r="AJ2" s="36"/>
-      <c r="AK2" s="36"/>
-      <c r="AL2" s="36"/>
-      <c r="AM2" s="36"/>
-      <c r="AN2" s="36"/>
-      <c r="AO2" s="36"/>
+      <c r="Y2" s="45"/>
+      <c r="Z2" s="45"/>
+      <c r="AA2" s="45"/>
+      <c r="AB2" s="45"/>
+      <c r="AC2" s="45"/>
+      <c r="AD2" s="45"/>
+      <c r="AE2" s="45"/>
+      <c r="AF2" s="45"/>
+      <c r="AG2" s="45"/>
+      <c r="AH2" s="45"/>
+      <c r="AI2" s="45"/>
+      <c r="AJ2" s="45"/>
+      <c r="AK2" s="45"/>
+      <c r="AL2" s="45"/>
+      <c r="AM2" s="45"/>
+      <c r="AN2" s="45"/>
+      <c r="AO2" s="45"/>
     </row>
     <row r="4" spans="2:41" x14ac:dyDescent="0.25">
       <c r="C4" s="1" t="str">

--- a/Arduino/Audio Processing Benchmarking/FFT Speed Results.xlsx
+++ b/Arduino/Audio Processing Benchmarking/FFT Speed Results.xlsx
@@ -590,38 +590,29 @@
     <xf numFmtId="37" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -639,10 +630,19 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1192,11 +1192,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="154062848"/>
-        <c:axId val="154064768"/>
+        <c:axId val="153595904"/>
+        <c:axId val="153597824"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="154062848"/>
+        <c:axId val="153595904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1225,7 +1225,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="154064768"/>
+        <c:crossAx val="153597824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1233,7 +1233,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="154064768"/>
+        <c:axId val="153597824"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1265,7 +1265,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="154062848"/>
+        <c:crossAx val="153595904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1492,11 +1492,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="159099904"/>
-        <c:axId val="159101696"/>
+        <c:axId val="154475520"/>
+        <c:axId val="154477312"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="159099904"/>
+        <c:axId val="154475520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1505,7 +1505,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="159101696"/>
+        <c:crossAx val="154477312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1513,7 +1513,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="159101696"/>
+        <c:axId val="154477312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1559,7 +1559,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="159099904"/>
+        <c:crossAx val="154475520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1950,11 +1950,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="159394432"/>
-        <c:axId val="159420800"/>
+        <c:axId val="154507904"/>
+        <c:axId val="154534272"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="159394432"/>
+        <c:axId val="154507904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1963,7 +1963,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="159420800"/>
+        <c:crossAx val="154534272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1971,7 +1971,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="159420800"/>
+        <c:axId val="154534272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2000,7 +2000,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="159394432"/>
+        <c:crossAx val="154507904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="2000"/>
@@ -2335,11 +2335,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="159219712"/>
-        <c:axId val="159221632"/>
+        <c:axId val="153780224"/>
+        <c:axId val="153782144"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="159219712"/>
+        <c:axId val="153780224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2367,7 +2367,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="159221632"/>
+        <c:crossAx val="153782144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2375,7 +2375,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="159221632"/>
+        <c:axId val="153782144"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -2407,7 +2407,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="159219712"/>
+        <c:crossAx val="153780224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2741,11 +2741,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="159257344"/>
-        <c:axId val="159259264"/>
+        <c:axId val="153686784"/>
+        <c:axId val="153688704"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="159257344"/>
+        <c:axId val="153686784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2773,7 +2773,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="159259264"/>
+        <c:crossAx val="153688704"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2781,7 +2781,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="159259264"/>
+        <c:axId val="153688704"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -2813,7 +2813,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="159257344"/>
+        <c:crossAx val="153686784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3092,11 +3092,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="159281920"/>
-        <c:axId val="159283840"/>
+        <c:axId val="153735936"/>
+        <c:axId val="153737856"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="159281920"/>
+        <c:axId val="153735936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3124,7 +3124,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="159283840"/>
+        <c:crossAx val="153737856"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3132,7 +3132,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="159283840"/>
+        <c:axId val="153737856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3161,7 +3161,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="159281920"/>
+        <c:crossAx val="153735936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3440,11 +3440,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="159794304"/>
-        <c:axId val="159796224"/>
+        <c:axId val="154875008"/>
+        <c:axId val="154876928"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="159794304"/>
+        <c:axId val="154875008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3472,7 +3472,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="159796224"/>
+        <c:crossAx val="154876928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3480,7 +3480,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="159796224"/>
+        <c:axId val="154876928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3509,7 +3509,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="159794304"/>
+        <c:crossAx val="154875008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3788,11 +3788,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="159515392"/>
-        <c:axId val="159517312"/>
+        <c:axId val="154923776"/>
+        <c:axId val="154925696"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="159515392"/>
+        <c:axId val="154923776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3820,7 +3820,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="159517312"/>
+        <c:crossAx val="154925696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3828,7 +3828,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="159517312"/>
+        <c:axId val="154925696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3857,7 +3857,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="159515392"/>
+        <c:crossAx val="154923776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4118,11 +4118,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="159548160"/>
-        <c:axId val="159550080"/>
+        <c:axId val="154698496"/>
+        <c:axId val="154700416"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="159548160"/>
+        <c:axId val="154698496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4150,7 +4150,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="159550080"/>
+        <c:crossAx val="154700416"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4158,7 +4158,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="159550080"/>
+        <c:axId val="154700416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4187,7 +4187,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="159548160"/>
+        <c:crossAx val="154698496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4448,11 +4448,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="159585024"/>
-        <c:axId val="159586944"/>
+        <c:axId val="154731264"/>
+        <c:axId val="154733184"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="159585024"/>
+        <c:axId val="154731264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4480,7 +4480,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="159586944"/>
+        <c:crossAx val="154733184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4488,7 +4488,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="159586944"/>
+        <c:axId val="154733184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4517,7 +4517,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="159585024"/>
+        <c:crossAx val="154731264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4778,11 +4778,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="159630464"/>
-        <c:axId val="159632384"/>
+        <c:axId val="154780800"/>
+        <c:axId val="154782720"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="159630464"/>
+        <c:axId val="154780800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4810,7 +4810,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="159632384"/>
+        <c:crossAx val="154782720"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4818,7 +4818,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="159632384"/>
+        <c:axId val="154782720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4847,7 +4847,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="159630464"/>
+        <c:crossAx val="154780800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4993,11 +4993,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="157956352"/>
-        <c:axId val="157966336"/>
+        <c:axId val="153884928"/>
+        <c:axId val="153894912"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="157956352"/>
+        <c:axId val="153884928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5006,7 +5006,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="157966336"/>
+        <c:crossAx val="153894912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5014,7 +5014,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="157966336"/>
+        <c:axId val="153894912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5025,7 +5025,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="157956352"/>
+        <c:crossAx val="153884928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5229,11 +5229,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="157989120"/>
-        <c:axId val="157990912"/>
+        <c:axId val="153920256"/>
+        <c:axId val="153921792"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="157989120"/>
+        <c:axId val="153920256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5242,7 +5242,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="157990912"/>
+        <c:crossAx val="153921792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5250,7 +5250,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="157990912"/>
+        <c:axId val="153921792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5261,7 +5261,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="157989120"/>
+        <c:crossAx val="153920256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="500"/>
@@ -5333,6 +5333,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -5489,11 +5490,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="157998080"/>
-        <c:axId val="158028544"/>
+        <c:axId val="153938944"/>
+        <c:axId val="154030848"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="157998080"/>
+        <c:axId val="153938944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5502,7 +5503,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="158028544"/>
+        <c:crossAx val="154030848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5510,7 +5511,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="158028544"/>
+        <c:axId val="154030848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5521,7 +5522,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="157998080"/>
+        <c:crossAx val="153938944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="2000"/>
@@ -5529,6 +5530,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -5872,11 +5874,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="153871488"/>
-        <c:axId val="153873408"/>
+        <c:axId val="153969792"/>
+        <c:axId val="153971712"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="153871488"/>
+        <c:axId val="153969792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5904,7 +5906,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="153873408"/>
+        <c:crossAx val="153971712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5912,7 +5914,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="153873408"/>
+        <c:axId val="153971712"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -5943,7 +5945,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="153871488"/>
+        <c:crossAx val="153969792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6300,11 +6302,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="153909504"/>
-        <c:axId val="153911680"/>
+        <c:axId val="154003712"/>
+        <c:axId val="153092480"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="153909504"/>
+        <c:axId val="154003712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6332,7 +6334,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="153911680"/>
+        <c:crossAx val="153092480"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6340,7 +6342,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="153911680"/>
+        <c:axId val="153092480"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -6371,7 +6373,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="153909504"/>
+        <c:crossAx val="154003712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6543,11 +6545,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="158610176"/>
-        <c:axId val="158611712"/>
+        <c:axId val="153129728"/>
+        <c:axId val="153131264"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="158610176"/>
+        <c:axId val="153129728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6556,7 +6558,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="158611712"/>
+        <c:crossAx val="153131264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6564,7 +6566,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="158611712"/>
+        <c:axId val="153131264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="10000"/>
@@ -6594,7 +6596,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="158610176"/>
+        <c:crossAx val="153129728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="2000"/>
@@ -6721,11 +6723,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="158628480"/>
-        <c:axId val="158646656"/>
+        <c:axId val="153148032"/>
+        <c:axId val="153166208"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="158628480"/>
+        <c:axId val="153148032"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -6736,12 +6738,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="158646656"/>
+        <c:crossAx val="153166208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="158646656"/>
+        <c:axId val="153166208"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -6753,7 +6755,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="158628480"/>
+        <c:crossAx val="153148032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6994,11 +6996,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="159064448"/>
-        <c:axId val="159065984"/>
+        <c:axId val="153194880"/>
+        <c:axId val="153196416"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="159064448"/>
+        <c:axId val="153194880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7007,7 +7009,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="159065984"/>
+        <c:crossAx val="153196416"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7015,7 +7017,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="159065984"/>
+        <c:axId val="153196416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="100"/>
@@ -7053,7 +7055,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="159064448"/>
+        <c:crossAx val="153194880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8151,191 +8153,191 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="32"/>
-      <c r="D4" s="33" t="s">
+      <c r="C4" s="31"/>
+      <c r="D4" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="33"/>
-      <c r="I4" s="33"/>
-      <c r="J4" s="33"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
     </row>
     <row r="5" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B5" s="28" t="s">
+      <c r="B5" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="C5" s="28" t="s">
+      <c r="C5" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="D5" s="29" t="s">
+      <c r="D5" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="E5" s="29" t="s">
+      <c r="E5" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="F5" s="29" t="s">
+      <c r="F5" s="26" t="s">
         <v>74</v>
       </c>
-      <c r="G5" s="29" t="s">
+      <c r="G5" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="H5" s="29" t="s">
+      <c r="H5" s="26" t="s">
         <v>76</v>
       </c>
-      <c r="I5" s="29" t="s">
+      <c r="I5" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="J5" s="29" t="s">
+      <c r="J5" s="26" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="6" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="30" t="s">
+      <c r="B6" s="27" t="s">
         <v>79</v>
       </c>
-      <c r="C6" s="30" t="s">
+      <c r="C6" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="D6" s="30" t="s">
+      <c r="D6" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="E6" s="30" t="s">
+      <c r="E6" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="F6" s="30" t="s">
+      <c r="F6" s="27" t="s">
         <v>83</v>
       </c>
-      <c r="G6" s="30" t="s">
+      <c r="G6" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="H6" s="30" t="s">
+      <c r="H6" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="I6" s="30" t="s">
+      <c r="I6" s="27" t="s">
         <v>85</v>
       </c>
-      <c r="J6" s="30" t="s">
+      <c r="J6" s="27" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="7" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B7" s="30" t="s">
+      <c r="B7" s="27" t="s">
         <v>79</v>
       </c>
-      <c r="C7" s="30" t="s">
+      <c r="C7" s="27" t="s">
         <v>87</v>
       </c>
-      <c r="D7" s="30" t="s">
+      <c r="D7" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="E7" s="30" t="s">
+      <c r="E7" s="27" t="s">
         <v>88</v>
       </c>
-      <c r="F7" s="30" t="s">
+      <c r="F7" s="27" t="s">
         <v>89</v>
       </c>
-      <c r="G7" s="30" t="s">
+      <c r="G7" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="30" t="s">
+      <c r="H7" s="27" t="s">
         <v>90</v>
       </c>
-      <c r="I7" s="30" t="s">
+      <c r="I7" s="27" t="s">
         <v>85</v>
       </c>
-      <c r="J7" s="30" t="s">
+      <c r="J7" s="27" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="8" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="30" t="s">
+      <c r="B8" s="27" t="s">
         <v>92</v>
       </c>
-      <c r="C8" s="30" t="s">
+      <c r="C8" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="D8" s="30" t="s">
+      <c r="D8" s="27" t="s">
         <v>93</v>
       </c>
-      <c r="E8" s="30" t="s">
+      <c r="E8" s="27" t="s">
         <v>94</v>
       </c>
-      <c r="F8" s="30" t="s">
+      <c r="F8" s="27" t="s">
         <v>95</v>
       </c>
-      <c r="G8" s="30" t="s">
+      <c r="G8" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="H8" s="30" t="s">
+      <c r="H8" s="27" t="s">
         <v>90</v>
       </c>
-      <c r="I8" s="30" t="s">
+      <c r="I8" s="27" t="s">
         <v>85</v>
       </c>
-      <c r="J8" s="30" t="s">
+      <c r="J8" s="27" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="9" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="30" t="s">
+      <c r="B9" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="C9" s="31" t="s">
+      <c r="C9" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="31" t="s">
+      <c r="D9" s="28" t="s">
         <v>98</v>
       </c>
-      <c r="E9" s="30" t="s">
+      <c r="E9" s="27" t="s">
         <v>99</v>
       </c>
-      <c r="F9" s="30" t="s">
+      <c r="F9" s="27" t="s">
         <v>100</v>
       </c>
-      <c r="G9" s="30" t="s">
+      <c r="G9" s="27" t="s">
         <v>101</v>
       </c>
-      <c r="H9" s="30" t="s">
+      <c r="H9" s="27" t="s">
         <v>90</v>
       </c>
-      <c r="I9" s="30" t="s">
+      <c r="I9" s="27" t="s">
         <v>85</v>
       </c>
-      <c r="J9" s="30" t="s">
+      <c r="J9" s="27" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="10" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="30" t="s">
+      <c r="B10" s="27" t="s">
         <v>98</v>
       </c>
-      <c r="C10" s="30" t="s">
+      <c r="C10" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="30" t="s">
+      <c r="D10" s="27" t="s">
         <v>98</v>
       </c>
-      <c r="E10" s="30" t="s">
+      <c r="E10" s="27" t="s">
         <v>103</v>
       </c>
-      <c r="F10" s="30" t="s">
+      <c r="F10" s="27" t="s">
         <v>104</v>
       </c>
-      <c r="G10" s="30" t="s">
+      <c r="G10" s="27" t="s">
         <v>105</v>
       </c>
-      <c r="H10" s="30" t="s">
+      <c r="H10" s="27" t="s">
         <v>90</v>
       </c>
-      <c r="I10" s="30" t="s">
+      <c r="I10" s="27" t="s">
         <v>106</v>
       </c>
-      <c r="J10" s="30" t="s">
+      <c r="J10" s="27" t="s">
         <v>107</v>
       </c>
     </row>
@@ -8743,8 +8745,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:S37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="G56" sqref="G56"/>
+    <sheetView tabSelected="1" topLeftCell="H9" workbookViewId="0">
+      <selection activeCell="S36" sqref="Q32:S36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8758,34 +8760,34 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34" t="s">
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
     </row>
     <row r="3" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="42" t="s">
         <v>61</v>
       </c>
-      <c r="C3" s="35"/>
-      <c r="D3" s="36" t="s">
+      <c r="C3" s="42"/>
+      <c r="D3" s="41" t="s">
         <v>59</v>
       </c>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36"/>
-      <c r="I3" s="37" t="s">
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="J3" s="37"/>
+      <c r="J3" s="33"/>
     </row>
     <row r="4" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B4" s="16" t="str">
@@ -9177,45 +9179,45 @@
       </c>
     </row>
     <row r="10" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B10" s="38"/>
-      <c r="C10" s="38"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="38"/>
-      <c r="G10" s="38"/>
-      <c r="H10" s="38"/>
-      <c r="I10" s="38"/>
-      <c r="J10" s="38"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="34"/>
+      <c r="I10" s="34"/>
+      <c r="J10" s="34"/>
     </row>
     <row r="11" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B11" s="34"/>
-      <c r="C11" s="34"/>
-      <c r="D11" s="34" t="s">
+      <c r="B11" s="35"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="E11" s="34"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="34"/>
-      <c r="H11" s="34"/>
-      <c r="I11" s="34"/>
-      <c r="J11" s="34"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="35"/>
+      <c r="I11" s="35"/>
+      <c r="J11" s="35"/>
     </row>
     <row r="12" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B12" s="35" t="s">
+      <c r="B12" s="42" t="s">
         <v>61</v>
       </c>
-      <c r="C12" s="35"/>
-      <c r="D12" s="36" t="s">
+      <c r="C12" s="42"/>
+      <c r="D12" s="41" t="s">
         <v>59</v>
       </c>
-      <c r="E12" s="36"/>
-      <c r="F12" s="36"/>
-      <c r="G12" s="36"/>
-      <c r="H12" s="36"/>
-      <c r="I12" s="37" t="s">
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="41"/>
+      <c r="I12" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="J12" s="37"/>
+      <c r="J12" s="33"/>
     </row>
     <row r="13" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B13" s="18" t="str">
@@ -9606,48 +9608,48 @@
       </c>
     </row>
     <row r="19" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B19" s="38"/>
-      <c r="C19" s="38"/>
-      <c r="D19" s="38"/>
-      <c r="E19" s="38"/>
-      <c r="F19" s="38"/>
-      <c r="G19" s="38"/>
-      <c r="H19" s="38"/>
-      <c r="I19" s="38"/>
-      <c r="J19" s="38"/>
+      <c r="B19" s="34"/>
+      <c r="C19" s="34"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="34"/>
+      <c r="G19" s="34"/>
+      <c r="H19" s="34"/>
+      <c r="I19" s="34"/>
+      <c r="J19" s="34"/>
     </row>
     <row r="20" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B20" s="34"/>
-      <c r="C20" s="34"/>
-      <c r="D20" s="34" t="s">
+      <c r="B20" s="35"/>
+      <c r="C20" s="35"/>
+      <c r="D20" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="E20" s="34"/>
-      <c r="F20" s="34"/>
-      <c r="G20" s="34"/>
-      <c r="H20" s="34"/>
-      <c r="I20" s="34"/>
-      <c r="J20" s="34"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="35"/>
+      <c r="H20" s="35"/>
+      <c r="I20" s="35"/>
+      <c r="J20" s="35"/>
     </row>
     <row r="21" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B21" s="35" t="str">
+      <c r="B21" s="42" t="str">
         <f t="shared" ref="B21:B27" si="14">B12</f>
         <v>Inputs</v>
       </c>
-      <c r="C21" s="35"/>
-      <c r="D21" s="36" t="str">
+      <c r="C21" s="42"/>
+      <c r="D21" s="41" t="str">
         <f>D12</f>
         <v>Generic C</v>
       </c>
-      <c r="E21" s="36"/>
-      <c r="F21" s="36"/>
-      <c r="G21" s="36"/>
-      <c r="H21" s="36"/>
-      <c r="I21" s="37" t="str">
+      <c r="E21" s="41"/>
+      <c r="F21" s="41"/>
+      <c r="G21" s="41"/>
+      <c r="H21" s="41"/>
+      <c r="I21" s="33" t="str">
         <f>I12</f>
         <v>CMSIS</v>
       </c>
-      <c r="J21" s="37"/>
+      <c r="J21" s="33"/>
     </row>
     <row r="22" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B22" s="18" t="str">
@@ -10039,17 +10041,17 @@
       </c>
     </row>
     <row r="28" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B28" s="38" t="s">
+      <c r="B28" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="C28" s="38"/>
-      <c r="D28" s="38"/>
-      <c r="E28" s="38"/>
-      <c r="F28" s="38"/>
-      <c r="G28" s="38"/>
-      <c r="H28" s="38"/>
-      <c r="I28" s="38"/>
-      <c r="J28" s="38"/>
+      <c r="C28" s="34"/>
+      <c r="D28" s="34"/>
+      <c r="E28" s="34"/>
+      <c r="F28" s="34"/>
+      <c r="G28" s="34"/>
+      <c r="H28" s="34"/>
+      <c r="I28" s="34"/>
+      <c r="J28" s="34"/>
     </row>
     <row r="29" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B29" s="22"/>
@@ -10094,42 +10096,42 @@
       </c>
     </row>
     <row r="31" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B31" s="34"/>
-      <c r="C31" s="34"/>
-      <c r="D31" s="39" t="s">
+      <c r="B31" s="35"/>
+      <c r="C31" s="35"/>
+      <c r="D31" s="36" t="s">
         <v>70</v>
       </c>
-      <c r="E31" s="40"/>
-      <c r="F31" s="40"/>
-      <c r="G31" s="40"/>
-      <c r="H31" s="40"/>
-      <c r="I31" s="40"/>
-      <c r="J31" s="41"/>
+      <c r="E31" s="37"/>
+      <c r="F31" s="37"/>
+      <c r="G31" s="37"/>
+      <c r="H31" s="37"/>
+      <c r="I31" s="37"/>
+      <c r="J31" s="38"/>
     </row>
     <row r="32" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B32" s="42" t="str">
+      <c r="B32" s="39" t="str">
         <f>B12</f>
         <v>Inputs</v>
       </c>
-      <c r="C32" s="43"/>
-      <c r="D32" s="36" t="str">
+      <c r="C32" s="40"/>
+      <c r="D32" s="41" t="str">
         <f>D12</f>
         <v>Generic C</v>
       </c>
-      <c r="E32" s="36"/>
-      <c r="F32" s="36"/>
-      <c r="G32" s="36"/>
-      <c r="H32" s="36"/>
-      <c r="I32" s="37" t="str">
+      <c r="E32" s="41"/>
+      <c r="F32" s="41"/>
+      <c r="G32" s="41"/>
+      <c r="H32" s="41"/>
+      <c r="I32" s="33" t="str">
         <f>I12</f>
         <v>CMSIS</v>
       </c>
-      <c r="J32" s="37"/>
-      <c r="Q32" s="34" t="s">
+      <c r="J32" s="33"/>
+      <c r="Q32" s="35" t="s">
         <v>69</v>
       </c>
-      <c r="R32" s="34"/>
-      <c r="S32" s="34"/>
+      <c r="R32" s="35"/>
+      <c r="S32" s="35"/>
     </row>
     <row r="33" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B33" s="18" t="str">
@@ -10174,14 +10176,14 @@
       <c r="M33" s="19">
         <v>0.5</v>
       </c>
-      <c r="Q33" s="25" t="s">
+      <c r="Q33" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="R33" s="25" t="str">
+      <c r="R33" s="29" t="str">
         <f>I33</f>
         <v>Teensy 3.2</v>
       </c>
-      <c r="S33" s="25" t="str">
+      <c r="S33" s="29" t="str">
         <f>J33</f>
         <v>FRDM-K66F</v>
       </c>
@@ -10229,15 +10231,15 @@
         <f>1/(1-M33)</f>
         <v>2</v>
       </c>
-      <c r="Q34" s="26" t="str">
+      <c r="Q34" s="30" t="str">
         <f>C34</f>
         <v>Int16</v>
       </c>
-      <c r="R34" s="27">
+      <c r="R34" s="45">
         <f>I7/G7</f>
         <v>3.724058966652354</v>
       </c>
-      <c r="S34" s="27">
+      <c r="S34" s="45">
         <f>J7/H7</f>
         <v>4.9857142857142867</v>
       </c>
@@ -10285,15 +10287,15 @@
         <f>M34</f>
         <v>2</v>
       </c>
-      <c r="Q35" s="26" t="str">
+      <c r="Q35" s="30" t="str">
         <f>C35</f>
         <v>Int32</v>
       </c>
-      <c r="R35" s="27">
+      <c r="R35" s="45">
         <f>I16/G16</f>
         <v>3.2703325650312816</v>
       </c>
-      <c r="S35" s="27">
+      <c r="S35" s="45">
         <f>J16/H16</f>
         <v>3.1801242236024843</v>
       </c>
@@ -10341,44 +10343,34 @@
         <f>M34+M35</f>
         <v>4</v>
       </c>
-      <c r="Q36" s="26" t="str">
+      <c r="Q36" s="30" t="str">
         <f>C36</f>
         <v>Float32</v>
       </c>
-      <c r="R36" s="27">
+      <c r="R36" s="45">
         <f>I25/G25</f>
         <v>1.8739314553249691</v>
       </c>
-      <c r="S36" s="27">
+      <c r="S36" s="45">
         <f>J25/H25</f>
         <v>2.0666666666666664</v>
       </c>
     </row>
     <row r="37" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B37" s="38" t="s">
+      <c r="B37" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="C37" s="38"/>
-      <c r="D37" s="38"/>
-      <c r="E37" s="38"/>
-      <c r="F37" s="38"/>
-      <c r="G37" s="38"/>
-      <c r="H37" s="38"/>
-      <c r="I37" s="38"/>
-      <c r="J37" s="38"/>
+      <c r="C37" s="34"/>
+      <c r="D37" s="34"/>
+      <c r="E37" s="34"/>
+      <c r="F37" s="34"/>
+      <c r="G37" s="34"/>
+      <c r="H37" s="34"/>
+      <c r="I37" s="34"/>
+      <c r="J37" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="B37:J37"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:J31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D21:H21"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B28:J28"/>
-    <mergeCell ref="B20:C20"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="Q32:S32"/>
@@ -10394,6 +10386,16 @@
     <mergeCell ref="D11:J11"/>
     <mergeCell ref="D20:J20"/>
     <mergeCell ref="D12:H12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="B37:J37"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:J31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D21:H21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B28:J28"/>
+    <mergeCell ref="B20:C20"/>
   </mergeCells>
   <conditionalFormatting sqref="E34:J36">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
@@ -10428,39 +10430,39 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:33" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="43" t="s">
         <v>53</v>
       </c>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="44"/>
-      <c r="L2" s="44"/>
-      <c r="M2" s="44"/>
-      <c r="N2" s="44"/>
-      <c r="O2" s="44"/>
-      <c r="P2" s="44"/>
-      <c r="Q2" s="44"/>
-      <c r="R2" s="44"/>
-      <c r="S2" s="44"/>
-      <c r="W2" s="45" t="s">
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="43"/>
+      <c r="N2" s="43"/>
+      <c r="O2" s="43"/>
+      <c r="P2" s="43"/>
+      <c r="Q2" s="43"/>
+      <c r="R2" s="43"/>
+      <c r="S2" s="43"/>
+      <c r="W2" s="44" t="s">
         <v>56</v>
       </c>
-      <c r="X2" s="45"/>
-      <c r="Y2" s="45"/>
-      <c r="Z2" s="45"/>
-      <c r="AA2" s="45"/>
-      <c r="AB2" s="45"/>
-      <c r="AC2" s="45"/>
-      <c r="AD2" s="45"/>
-      <c r="AE2" s="45"/>
-      <c r="AF2" s="45"/>
-      <c r="AG2" s="45"/>
+      <c r="X2" s="44"/>
+      <c r="Y2" s="44"/>
+      <c r="Z2" s="44"/>
+      <c r="AA2" s="44"/>
+      <c r="AB2" s="44"/>
+      <c r="AC2" s="44"/>
+      <c r="AD2" s="44"/>
+      <c r="AE2" s="44"/>
+      <c r="AF2" s="44"/>
+      <c r="AG2" s="44"/>
     </row>
     <row r="4" spans="2:33" x14ac:dyDescent="0.25">
       <c r="C4" t="str">
@@ -12160,46 +12162,46 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:41" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="43" t="s">
         <v>55</v>
       </c>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="44"/>
-      <c r="L2" s="44"/>
-      <c r="M2" s="44"/>
-      <c r="N2" s="44"/>
-      <c r="O2" s="44"/>
-      <c r="P2" s="44"/>
-      <c r="Q2" s="44"/>
-      <c r="R2" s="44"/>
-      <c r="S2" s="44"/>
-      <c r="X2" s="45" t="s">
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="43"/>
+      <c r="N2" s="43"/>
+      <c r="O2" s="43"/>
+      <c r="P2" s="43"/>
+      <c r="Q2" s="43"/>
+      <c r="R2" s="43"/>
+      <c r="S2" s="43"/>
+      <c r="X2" s="44" t="s">
         <v>54</v>
       </c>
-      <c r="Y2" s="45"/>
-      <c r="Z2" s="45"/>
-      <c r="AA2" s="45"/>
-      <c r="AB2" s="45"/>
-      <c r="AC2" s="45"/>
-      <c r="AD2" s="45"/>
-      <c r="AE2" s="45"/>
-      <c r="AF2" s="45"/>
-      <c r="AG2" s="45"/>
-      <c r="AH2" s="45"/>
-      <c r="AI2" s="45"/>
-      <c r="AJ2" s="45"/>
-      <c r="AK2" s="45"/>
-      <c r="AL2" s="45"/>
-      <c r="AM2" s="45"/>
-      <c r="AN2" s="45"/>
-      <c r="AO2" s="45"/>
+      <c r="Y2" s="44"/>
+      <c r="Z2" s="44"/>
+      <c r="AA2" s="44"/>
+      <c r="AB2" s="44"/>
+      <c r="AC2" s="44"/>
+      <c r="AD2" s="44"/>
+      <c r="AE2" s="44"/>
+      <c r="AF2" s="44"/>
+      <c r="AG2" s="44"/>
+      <c r="AH2" s="44"/>
+      <c r="AI2" s="44"/>
+      <c r="AJ2" s="44"/>
+      <c r="AK2" s="44"/>
+      <c r="AL2" s="44"/>
+      <c r="AM2" s="44"/>
+      <c r="AN2" s="44"/>
+      <c r="AO2" s="44"/>
     </row>
     <row r="4" spans="2:41" x14ac:dyDescent="0.25">
       <c r="C4" s="1" t="str">

--- a/Arduino/Audio Processing Benchmarking/FFT Speed Results.xlsx
+++ b/Arduino/Audio Processing Benchmarking/FFT Speed Results.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="75" windowWidth="19155" windowHeight="9015" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="75" windowWidth="19155" windowHeight="9015"/>
   </bookViews>
   <sheets>
     <sheet name="Systems" sheetId="14" r:id="rId1"/>
@@ -402,7 +402,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.0\x"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -467,8 +467,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -508,6 +516,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -586,7 +600,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -660,10 +674,10 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -696,6 +710,10 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -892,11 +910,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="86652800"/>
-        <c:axId val="86654336"/>
+        <c:axId val="43614592"/>
+        <c:axId val="43616128"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="86652800"/>
+        <c:axId val="43614592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -905,7 +923,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="86654336"/>
+        <c:crossAx val="43616128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -913,7 +931,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="86654336"/>
+        <c:axId val="43616128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -924,7 +942,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="86652800"/>
+        <c:crossAx val="43614592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1051,11 +1069,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="145891328"/>
-        <c:axId val="145892864"/>
+        <c:axId val="44905216"/>
+        <c:axId val="44906752"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="145891328"/>
+        <c:axId val="44905216"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1066,12 +1084,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="145892864"/>
+        <c:crossAx val="44906752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="145892864"/>
+        <c:axId val="44906752"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1083,7 +1101,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="145891328"/>
+        <c:crossAx val="44905216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1360,11 +1378,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="145920384"/>
-        <c:axId val="145921920"/>
+        <c:axId val="44931712"/>
+        <c:axId val="44949888"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="145920384"/>
+        <c:axId val="44931712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1373,7 +1391,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="145921920"/>
+        <c:crossAx val="44949888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1381,7 +1399,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="145921920"/>
+        <c:axId val="44949888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="100"/>
@@ -1419,7 +1437,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="145920384"/>
+        <c:crossAx val="44931712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1648,11 +1666,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="146221696"/>
-        <c:axId val="146227584"/>
+        <c:axId val="44983808"/>
+        <c:axId val="44985344"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="146221696"/>
+        <c:axId val="44983808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1661,7 +1679,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="146227584"/>
+        <c:crossAx val="44985344"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1669,7 +1687,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="146227584"/>
+        <c:axId val="44985344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1715,7 +1733,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="146221696"/>
+        <c:crossAx val="44983808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1780,7 +1798,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2170,11 +2187,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="146258176"/>
-        <c:axId val="146087936"/>
+        <c:axId val="45020288"/>
+        <c:axId val="45021824"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="146258176"/>
+        <c:axId val="45020288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2183,7 +2200,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="146087936"/>
+        <c:crossAx val="45021824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2191,7 +2208,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="146087936"/>
+        <c:axId val="45021824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2214,14 +2231,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="#,##0" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="146258176"/>
+        <c:crossAx val="45020288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="2000"/>
@@ -2229,7 +2245,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2627,11 +2642,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="145637376"/>
-        <c:axId val="145639296"/>
+        <c:axId val="44223104"/>
+        <c:axId val="44229376"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="145637376"/>
+        <c:axId val="44223104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2659,7 +2674,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="145639296"/>
+        <c:crossAx val="44229376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2667,7 +2682,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="145639296"/>
+        <c:axId val="44229376"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -2699,7 +2714,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="145637376"/>
+        <c:crossAx val="44223104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3103,11 +3118,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="146105856"/>
-        <c:axId val="146107776"/>
+        <c:axId val="44306816"/>
+        <c:axId val="44308736"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="146105856"/>
+        <c:axId val="44306816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3135,7 +3150,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="146107776"/>
+        <c:crossAx val="44308736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3143,7 +3158,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="146107776"/>
+        <c:axId val="44308736"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -3175,7 +3190,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="146105856"/>
+        <c:crossAx val="44306816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3454,11 +3469,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="145720832"/>
-        <c:axId val="145722752"/>
+        <c:axId val="44351872"/>
+        <c:axId val="44353792"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="145720832"/>
+        <c:axId val="44351872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3486,7 +3501,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="145722752"/>
+        <c:crossAx val="44353792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3494,7 +3509,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="145722752"/>
+        <c:axId val="44353792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3523,7 +3538,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="145720832"/>
+        <c:crossAx val="44351872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3802,11 +3817,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="145774080"/>
-        <c:axId val="145776000"/>
+        <c:axId val="44843392"/>
+        <c:axId val="44845312"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="145774080"/>
+        <c:axId val="44843392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3834,7 +3849,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="145776000"/>
+        <c:crossAx val="44845312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3842,7 +3857,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="145776000"/>
+        <c:axId val="44845312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3871,7 +3886,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="145774080"/>
+        <c:crossAx val="44843392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4150,11 +4165,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="145810944"/>
-        <c:axId val="145812864"/>
+        <c:axId val="44884352"/>
+        <c:axId val="44886272"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="145810944"/>
+        <c:axId val="44884352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4182,7 +4197,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="145812864"/>
+        <c:crossAx val="44886272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4190,7 +4205,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="145812864"/>
+        <c:axId val="44886272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4219,7 +4234,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="145810944"/>
+        <c:crossAx val="44884352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4480,11 +4495,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="146576896"/>
-        <c:axId val="146578816"/>
+        <c:axId val="98865536"/>
+        <c:axId val="98867456"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="146576896"/>
+        <c:axId val="98865536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4512,7 +4527,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="146578816"/>
+        <c:crossAx val="98867456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4520,7 +4535,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="146578816"/>
+        <c:axId val="98867456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4549,7 +4564,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="146576896"/>
+        <c:crossAx val="98865536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4776,11 +4791,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="88961792"/>
-        <c:axId val="88963328"/>
+        <c:axId val="43977344"/>
+        <c:axId val="43979136"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="88961792"/>
+        <c:axId val="43977344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4789,7 +4804,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="88963328"/>
+        <c:crossAx val="43979136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4797,7 +4812,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="88963328"/>
+        <c:axId val="43979136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4808,7 +4823,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="88961792"/>
+        <c:crossAx val="43977344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5070,11 +5085,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="147006976"/>
-        <c:axId val="147008896"/>
+        <c:axId val="143139200"/>
+        <c:axId val="143141120"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="147006976"/>
+        <c:axId val="143139200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5102,7 +5117,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="147008896"/>
+        <c:crossAx val="143141120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5110,7 +5125,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="147008896"/>
+        <c:axId val="143141120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5139,7 +5154,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="147006976"/>
+        <c:crossAx val="143139200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5400,11 +5415,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="147048320"/>
-        <c:axId val="147054592"/>
+        <c:axId val="143180544"/>
+        <c:axId val="143182464"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="147048320"/>
+        <c:axId val="143180544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5432,7 +5447,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="147054592"/>
+        <c:crossAx val="143182464"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5440,7 +5455,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="147054592"/>
+        <c:axId val="143182464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5469,7 +5484,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="147048320"/>
+        <c:crossAx val="143180544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5529,7 +5544,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -5996,11 +6010,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="145574528"/>
-        <c:axId val="145584896"/>
+        <c:axId val="43801600"/>
+        <c:axId val="43807872"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="145574528"/>
+        <c:axId val="43801600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6022,14 +6036,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="145584896"/>
+        <c:crossAx val="43807872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6037,7 +6050,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="145584896"/>
+        <c:axId val="43807872"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -6062,14 +6075,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="#,##0" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="145574528"/>
+        <c:crossAx val="43801600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6149,7 +6161,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -6237,11 +6248,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="145602048"/>
-        <c:axId val="145603584"/>
+        <c:axId val="44025728"/>
+        <c:axId val="44027264"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="145602048"/>
+        <c:axId val="44025728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6250,7 +6261,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="145603584"/>
+        <c:crossAx val="44027264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6258,7 +6269,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="145603584"/>
+        <c:axId val="44027264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6269,14 +6280,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="145602048"/>
+        <c:crossAx val="44025728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -6340,7 +6350,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -6497,11 +6506,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="145313792"/>
-        <c:axId val="145315328"/>
+        <c:axId val="43729664"/>
+        <c:axId val="43731200"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="145313792"/>
+        <c:axId val="43729664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6510,7 +6519,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="145315328"/>
+        <c:crossAx val="43731200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6518,7 +6527,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="145315328"/>
+        <c:axId val="43731200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6529,14 +6538,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="145313792"/>
+        <c:crossAx val="43729664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -6600,7 +6608,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -6805,11 +6812,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="145344768"/>
-        <c:axId val="145350656"/>
+        <c:axId val="43759104"/>
+        <c:axId val="43760640"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="145344768"/>
+        <c:axId val="43759104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6818,7 +6825,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="145350656"/>
+        <c:crossAx val="43760640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6826,7 +6833,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="145350656"/>
+        <c:axId val="43760640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6837,14 +6844,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="145344768"/>
+        <c:crossAx val="43759104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -6890,7 +6896,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -7189,11 +7194,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="144783616"/>
-        <c:axId val="144785792"/>
+        <c:axId val="44068224"/>
+        <c:axId val="44078592"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="144783616"/>
+        <c:axId val="44068224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7215,14 +7220,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="144785792"/>
+        <c:crossAx val="44078592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7230,7 +7234,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="144785792"/>
+        <c:axId val="44078592"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -7255,21 +7259,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="144783616"/>
+        <c:crossAx val="44068224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -7322,7 +7324,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -7621,11 +7622,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="144821632"/>
-        <c:axId val="145491456"/>
+        <c:axId val="44536192"/>
+        <c:axId val="44538112"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="144821632"/>
+        <c:axId val="44536192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7647,14 +7648,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="145491456"/>
+        <c:crossAx val="44538112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7662,7 +7662,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="145491456"/>
+        <c:axId val="44538112"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -7687,21 +7687,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="144821632"/>
+        <c:crossAx val="44536192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -7760,7 +7758,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -7892,11 +7889,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="145512704"/>
-        <c:axId val="145514496"/>
+        <c:axId val="44550784"/>
+        <c:axId val="44552576"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="145512704"/>
+        <c:axId val="44550784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7905,7 +7902,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="145514496"/>
+        <c:crossAx val="44552576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7913,7 +7910,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="145514496"/>
+        <c:axId val="44552576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="10000"/>
@@ -7937,14 +7934,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="#,##0" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="145512704"/>
+        <c:crossAx val="44550784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="2000"/>
@@ -7952,7 +7948,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -9095,8 +9090,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:J23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16:J23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J13" sqref="B4:J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9302,60 +9297,60 @@
       </c>
     </row>
     <row r="11" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B11" s="27" t="s">
+      <c r="B11" s="49" t="s">
         <v>97</v>
       </c>
-      <c r="C11" s="28" t="s">
+      <c r="C11" s="51" t="s">
         <v>110</v>
       </c>
-      <c r="D11" s="28" t="s">
+      <c r="D11" s="50" t="s">
         <v>98</v>
       </c>
-      <c r="E11" s="27" t="s">
+      <c r="E11" s="49" t="s">
         <v>117</v>
       </c>
-      <c r="F11" s="27" t="s">
+      <c r="F11" s="49" t="s">
         <v>100</v>
       </c>
-      <c r="G11" s="27" t="s">
+      <c r="G11" s="49" t="s">
         <v>111</v>
       </c>
-      <c r="H11" s="27" t="s">
+      <c r="H11" s="49" t="s">
         <v>90</v>
       </c>
-      <c r="I11" s="27" t="s">
+      <c r="I11" s="52" t="s">
         <v>106</v>
       </c>
-      <c r="J11" s="27" t="s">
+      <c r="J11" s="49" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="12" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B12" s="27" t="s">
+      <c r="B12" s="49" t="s">
         <v>97</v>
       </c>
-      <c r="C12" s="28" t="s">
+      <c r="C12" s="51" t="s">
         <v>108</v>
       </c>
-      <c r="D12" s="28" t="s">
+      <c r="D12" s="50" t="s">
         <v>98</v>
       </c>
-      <c r="E12" s="27" t="s">
+      <c r="E12" s="49" t="s">
         <v>119</v>
       </c>
-      <c r="F12" s="27" t="s">
+      <c r="F12" s="49" t="s">
         <v>100</v>
       </c>
-      <c r="G12" s="27" t="s">
+      <c r="G12" s="49" t="s">
         <v>105</v>
       </c>
-      <c r="H12" s="27" t="s">
+      <c r="H12" s="49" t="s">
         <v>90</v>
       </c>
-      <c r="I12" s="27" t="s">
+      <c r="I12" s="52" t="s">
         <v>106</v>
       </c>
-      <c r="J12" s="27" t="s">
+      <c r="J12" s="49" t="s">
         <v>107</v>
       </c>
     </row>
@@ -11041,7 +11036,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:Q37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="B31" sqref="B31:I37"/>
     </sheetView>
   </sheetViews>
@@ -11054,16 +11049,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37" t="s">
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B3" s="46" t="s">
@@ -11317,26 +11312,26 @@
       <c r="Q9" s="10"/>
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B10" s="38"/>
-      <c r="C10" s="38"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="38"/>
-      <c r="G10" s="38"/>
-      <c r="H10" s="38"/>
-      <c r="I10" s="38"/>
+      <c r="B10" s="37"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="37"/>
+      <c r="I10" s="37"/>
     </row>
     <row r="11" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B11" s="37"/>
-      <c r="C11" s="37"/>
-      <c r="D11" s="37" t="s">
+      <c r="B11" s="38"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="E11" s="37"/>
-      <c r="F11" s="37"/>
-      <c r="G11" s="37"/>
-      <c r="H11" s="37"/>
-      <c r="I11" s="37"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="38"/>
+      <c r="I11" s="38"/>
     </row>
     <row r="12" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B12" s="46" t="s">
@@ -11591,26 +11586,26 @@
       <c r="Q18" s="10"/>
     </row>
     <row r="19" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B19" s="38"/>
-      <c r="C19" s="38"/>
-      <c r="D19" s="38"/>
-      <c r="E19" s="38"/>
-      <c r="F19" s="38"/>
-      <c r="G19" s="38"/>
-      <c r="H19" s="38"/>
-      <c r="I19" s="38"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="37"/>
+      <c r="F19" s="37"/>
+      <c r="G19" s="37"/>
+      <c r="H19" s="37"/>
+      <c r="I19" s="37"/>
     </row>
     <row r="20" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B20" s="37"/>
-      <c r="C20" s="37"/>
-      <c r="D20" s="37" t="s">
+      <c r="B20" s="38"/>
+      <c r="C20" s="38"/>
+      <c r="D20" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="E20" s="37"/>
-      <c r="F20" s="37"/>
-      <c r="G20" s="37"/>
-      <c r="H20" s="37"/>
-      <c r="I20" s="37"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="38"/>
+      <c r="G20" s="38"/>
+      <c r="H20" s="38"/>
+      <c r="I20" s="38"/>
     </row>
     <row r="21" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B21" s="46" t="str">
@@ -11867,16 +11862,16 @@
       <c r="Q27" s="10"/>
     </row>
     <row r="28" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B28" s="38" t="s">
+      <c r="B28" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="C28" s="38"/>
-      <c r="D28" s="38"/>
-      <c r="E28" s="38"/>
-      <c r="F28" s="38"/>
-      <c r="G28" s="38"/>
-      <c r="H28" s="38"/>
-      <c r="I28" s="38"/>
+      <c r="C28" s="37"/>
+      <c r="D28" s="37"/>
+      <c r="E28" s="37"/>
+      <c r="F28" s="37"/>
+      <c r="G28" s="37"/>
+      <c r="H28" s="37"/>
+      <c r="I28" s="37"/>
     </row>
     <row r="29" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B29" s="22"/>
@@ -11916,8 +11911,8 @@
       </c>
     </row>
     <row r="31" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B31" s="37"/>
-      <c r="C31" s="37"/>
+      <c r="B31" s="38"/>
+      <c r="C31" s="38"/>
       <c r="D31" s="39" t="s">
         <v>70</v>
       </c>
@@ -12107,30 +12102,25 @@
       </c>
     </row>
     <row r="37" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B37" s="38" t="s">
+      <c r="B37" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="C37" s="38"/>
-      <c r="D37" s="38"/>
-      <c r="E37" s="38"/>
-      <c r="F37" s="38"/>
-      <c r="G37" s="38"/>
-      <c r="H37" s="38"/>
-      <c r="I37" s="38"/>
+      <c r="C37" s="37"/>
+      <c r="D37" s="37"/>
+      <c r="E37" s="37"/>
+      <c r="F37" s="37"/>
+      <c r="G37" s="37"/>
+      <c r="H37" s="37"/>
+      <c r="I37" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="B37:I37"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:I31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="F32:I32"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:I20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="B10:I10"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:I2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:I3"/>
     <mergeCell ref="B28:I28"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="D11:I11"/>
@@ -12138,12 +12128,17 @@
     <mergeCell ref="D12:E12"/>
     <mergeCell ref="F12:I12"/>
     <mergeCell ref="B19:I19"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:I2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:I3"/>
-    <mergeCell ref="B10:I10"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:I20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="B37:I37"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:I31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:I32"/>
   </mergeCells>
   <conditionalFormatting sqref="E34:I36">
     <cfRule type="cellIs" dxfId="3" priority="1" operator="lessThan">
@@ -12177,21 +12172,21 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37" t="s">
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37"/>
-      <c r="M2" s="37"/>
-      <c r="N2" s="37"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="38"/>
     </row>
     <row r="3" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B3" s="46" t="s">
@@ -12794,36 +12789,36 @@
       </c>
     </row>
     <row r="10" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B10" s="38"/>
-      <c r="C10" s="38"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="38"/>
-      <c r="G10" s="38"/>
-      <c r="H10" s="38"/>
-      <c r="I10" s="38"/>
-      <c r="J10" s="38"/>
-      <c r="K10" s="38"/>
-      <c r="L10" s="38"/>
-      <c r="M10" s="38"/>
-      <c r="N10" s="38"/>
+      <c r="B10" s="37"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="37"/>
+      <c r="I10" s="37"/>
+      <c r="J10" s="37"/>
+      <c r="K10" s="37"/>
+      <c r="L10" s="37"/>
+      <c r="M10" s="37"/>
+      <c r="N10" s="37"/>
     </row>
     <row r="11" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B11" s="37"/>
-      <c r="C11" s="37"/>
-      <c r="D11" s="37" t="s">
+      <c r="B11" s="38"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="E11" s="37"/>
-      <c r="F11" s="37"/>
-      <c r="G11" s="37"/>
-      <c r="H11" s="37"/>
-      <c r="I11" s="37"/>
-      <c r="J11" s="37"/>
-      <c r="K11" s="37"/>
-      <c r="L11" s="37"/>
-      <c r="M11" s="37"/>
-      <c r="N11" s="37"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="38"/>
+      <c r="I11" s="38"/>
+      <c r="J11" s="38"/>
+      <c r="K11" s="38"/>
+      <c r="L11" s="38"/>
+      <c r="M11" s="38"/>
+      <c r="N11" s="38"/>
     </row>
     <row r="12" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B12" s="46" t="s">
@@ -13429,36 +13424,36 @@
       </c>
     </row>
     <row r="19" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B19" s="38"/>
-      <c r="C19" s="38"/>
-      <c r="D19" s="38"/>
-      <c r="E19" s="38"/>
-      <c r="F19" s="38"/>
-      <c r="G19" s="38"/>
-      <c r="H19" s="38"/>
-      <c r="I19" s="38"/>
-      <c r="J19" s="38"/>
-      <c r="K19" s="38"/>
-      <c r="L19" s="38"/>
-      <c r="M19" s="38"/>
-      <c r="N19" s="38"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="37"/>
+      <c r="F19" s="37"/>
+      <c r="G19" s="37"/>
+      <c r="H19" s="37"/>
+      <c r="I19" s="37"/>
+      <c r="J19" s="37"/>
+      <c r="K19" s="37"/>
+      <c r="L19" s="37"/>
+      <c r="M19" s="37"/>
+      <c r="N19" s="37"/>
     </row>
     <row r="20" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B20" s="37"/>
-      <c r="C20" s="37"/>
-      <c r="D20" s="37" t="s">
+      <c r="B20" s="38"/>
+      <c r="C20" s="38"/>
+      <c r="D20" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="E20" s="37"/>
-      <c r="F20" s="37"/>
-      <c r="G20" s="37"/>
-      <c r="H20" s="37"/>
-      <c r="I20" s="37"/>
-      <c r="J20" s="37"/>
-      <c r="K20" s="37"/>
-      <c r="L20" s="37"/>
-      <c r="M20" s="37"/>
-      <c r="N20" s="37"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="38"/>
+      <c r="G20" s="38"/>
+      <c r="H20" s="38"/>
+      <c r="I20" s="38"/>
+      <c r="J20" s="38"/>
+      <c r="K20" s="38"/>
+      <c r="L20" s="38"/>
+      <c r="M20" s="38"/>
+      <c r="N20" s="38"/>
     </row>
     <row r="21" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B21" s="46" t="str">
@@ -14068,21 +14063,21 @@
       </c>
     </row>
     <row r="28" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B28" s="38" t="s">
+      <c r="B28" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="C28" s="38"/>
-      <c r="D28" s="38"/>
-      <c r="E28" s="38"/>
-      <c r="F28" s="38"/>
-      <c r="G28" s="38"/>
-      <c r="H28" s="38"/>
-      <c r="I28" s="38"/>
-      <c r="J28" s="38"/>
-      <c r="K28" s="38"/>
-      <c r="L28" s="38"/>
-      <c r="M28" s="38"/>
-      <c r="N28" s="38"/>
+      <c r="C28" s="37"/>
+      <c r="D28" s="37"/>
+      <c r="E28" s="37"/>
+      <c r="F28" s="37"/>
+      <c r="G28" s="37"/>
+      <c r="H28" s="37"/>
+      <c r="I28" s="37"/>
+      <c r="J28" s="37"/>
+      <c r="K28" s="37"/>
+      <c r="L28" s="37"/>
+      <c r="M28" s="37"/>
+      <c r="N28" s="37"/>
     </row>
     <row r="29" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B29" s="22"/>
@@ -14147,8 +14142,8 @@
       </c>
     </row>
     <row r="31" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B31" s="37"/>
-      <c r="C31" s="37"/>
+      <c r="B31" s="38"/>
+      <c r="C31" s="38"/>
       <c r="D31" s="39" t="s">
         <v>70</v>
       </c>
@@ -14186,13 +14181,13 @@
       <c r="L32" s="45"/>
       <c r="M32" s="45"/>
       <c r="N32" s="45"/>
-      <c r="W32" s="37" t="s">
+      <c r="W32" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="X32" s="37"/>
-      <c r="Y32" s="37"/>
-      <c r="Z32" s="37"/>
-      <c r="AA32" s="37"/>
+      <c r="X32" s="38"/>
+      <c r="Y32" s="38"/>
+      <c r="Z32" s="38"/>
+      <c r="AA32" s="38"/>
     </row>
     <row r="33" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B33" s="18" t="str">
@@ -14514,24 +14509,33 @@
       </c>
     </row>
     <row r="37" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B37" s="38" t="s">
+      <c r="B37" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="C37" s="38"/>
-      <c r="D37" s="38"/>
-      <c r="E37" s="38"/>
-      <c r="F37" s="38"/>
-      <c r="G37" s="38"/>
-      <c r="H37" s="38"/>
-      <c r="I37" s="38"/>
-      <c r="J37" s="38"/>
-      <c r="K37" s="38"/>
-      <c r="L37" s="38"/>
-      <c r="M37" s="38"/>
-      <c r="N37" s="38"/>
+      <c r="C37" s="37"/>
+      <c r="D37" s="37"/>
+      <c r="E37" s="37"/>
+      <c r="F37" s="37"/>
+      <c r="G37" s="37"/>
+      <c r="H37" s="37"/>
+      <c r="I37" s="37"/>
+      <c r="J37" s="37"/>
+      <c r="K37" s="37"/>
+      <c r="L37" s="37"/>
+      <c r="M37" s="37"/>
+      <c r="N37" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B37:N37"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:N31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D21:J21"/>
+    <mergeCell ref="K21:N21"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B28:N28"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="W32:AA32"/>
@@ -14548,15 +14552,6 @@
     <mergeCell ref="D20:N20"/>
     <mergeCell ref="D12:J12"/>
     <mergeCell ref="K12:N12"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B37:N37"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:N31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D21:J21"/>
-    <mergeCell ref="K21:N21"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B28:N28"/>
   </mergeCells>
   <conditionalFormatting sqref="E34:N36">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">

--- a/Arduino/Audio Processing Benchmarking/FFT Speed Results.xlsx
+++ b/Arduino/Audio Processing Benchmarking/FFT Speed Results.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="75" windowWidth="19155" windowHeight="9015"/>
+    <workbookView xWindow="360" yWindow="75" windowWidth="19155" windowHeight="9015" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Systems" sheetId="14" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="892" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="895" uniqueCount="124">
   <si>
     <t>N</t>
   </si>
@@ -393,6 +393,15 @@
   <si>
     <t>Generic C FFT</t>
   </si>
+  <si>
+    <t>Clock Speed</t>
+  </si>
+  <si>
+    <t>Speed Relative to Teensy 3.2 (128-pt CMSIS FFT)</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
 </sst>
 </file>
 
@@ -402,7 +411,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.0\x"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -470,6 +479,14 @@
     <font>
       <b/>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -600,7 +617,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -668,6 +685,10 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -678,6 +699,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -695,25 +725,24 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="10" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -910,11 +939,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="43614592"/>
-        <c:axId val="43616128"/>
+        <c:axId val="147113088"/>
+        <c:axId val="147114624"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="43614592"/>
+        <c:axId val="147113088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -923,7 +952,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="43616128"/>
+        <c:crossAx val="147114624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -931,7 +960,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="43616128"/>
+        <c:axId val="147114624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -942,7 +971,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="43614592"/>
+        <c:crossAx val="147113088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1069,11 +1098,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="44905216"/>
-        <c:axId val="44906752"/>
+        <c:axId val="148399616"/>
+        <c:axId val="148401152"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="44905216"/>
+        <c:axId val="148399616"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1084,12 +1113,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="44906752"/>
+        <c:crossAx val="148401152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="44906752"/>
+        <c:axId val="148401152"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1101,7 +1130,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="44905216"/>
+        <c:crossAx val="148399616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1378,11 +1407,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="44931712"/>
-        <c:axId val="44949888"/>
+        <c:axId val="148422016"/>
+        <c:axId val="148444288"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="44931712"/>
+        <c:axId val="148422016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1391,7 +1420,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="44949888"/>
+        <c:crossAx val="148444288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1399,7 +1428,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="44949888"/>
+        <c:axId val="148444288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="100"/>
@@ -1437,7 +1466,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="44931712"/>
+        <c:crossAx val="148422016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1666,11 +1695,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="44983808"/>
-        <c:axId val="44985344"/>
+        <c:axId val="148482304"/>
+        <c:axId val="148488192"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="44983808"/>
+        <c:axId val="148482304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1679,7 +1708,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="44985344"/>
+        <c:crossAx val="148488192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1687,7 +1716,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="44985344"/>
+        <c:axId val="148488192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1733,7 +1762,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="44983808"/>
+        <c:crossAx val="148482304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2187,11 +2216,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="45020288"/>
-        <c:axId val="45021824"/>
+        <c:axId val="148248448"/>
+        <c:axId val="148249984"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="45020288"/>
+        <c:axId val="148248448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2200,7 +2229,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="45021824"/>
+        <c:crossAx val="148249984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2208,7 +2237,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="45021824"/>
+        <c:axId val="148249984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2237,7 +2266,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="45020288"/>
+        <c:crossAx val="148248448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="2000"/>
@@ -2642,11 +2671,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="44223104"/>
-        <c:axId val="44229376"/>
+        <c:axId val="147910016"/>
+        <c:axId val="147789312"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="44223104"/>
+        <c:axId val="147910016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2674,7 +2703,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="44229376"/>
+        <c:crossAx val="147789312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2682,7 +2711,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="44229376"/>
+        <c:axId val="147789312"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -2714,7 +2743,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="44223104"/>
+        <c:crossAx val="147910016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3118,11 +3147,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="44306816"/>
-        <c:axId val="44308736"/>
+        <c:axId val="147821696"/>
+        <c:axId val="147823616"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="44306816"/>
+        <c:axId val="147821696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3150,7 +3179,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="44308736"/>
+        <c:crossAx val="147823616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3158,7 +3187,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="44308736"/>
+        <c:axId val="147823616"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -3190,7 +3219,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="44306816"/>
+        <c:crossAx val="147821696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3469,11 +3498,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="44351872"/>
-        <c:axId val="44353792"/>
+        <c:axId val="148296832"/>
+        <c:axId val="148298752"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="44351872"/>
+        <c:axId val="148296832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3501,7 +3530,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="44353792"/>
+        <c:crossAx val="148298752"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3509,7 +3538,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="44353792"/>
+        <c:axId val="148298752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3538,7 +3567,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="44351872"/>
+        <c:crossAx val="148296832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3817,11 +3846,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="44843392"/>
-        <c:axId val="44845312"/>
+        <c:axId val="148014208"/>
+        <c:axId val="148016128"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="44843392"/>
+        <c:axId val="148014208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3849,7 +3878,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="44845312"/>
+        <c:crossAx val="148016128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3857,7 +3886,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="44845312"/>
+        <c:axId val="148016128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3886,7 +3915,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="44843392"/>
+        <c:crossAx val="148014208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4165,11 +4194,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="44884352"/>
-        <c:axId val="44886272"/>
+        <c:axId val="148771968"/>
+        <c:axId val="148773888"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="44884352"/>
+        <c:axId val="148771968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4197,7 +4226,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="44886272"/>
+        <c:crossAx val="148773888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4205,7 +4234,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="44886272"/>
+        <c:axId val="148773888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4234,7 +4263,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="44884352"/>
+        <c:crossAx val="148771968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4495,11 +4524,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="98865536"/>
-        <c:axId val="98867456"/>
+        <c:axId val="148817024"/>
+        <c:axId val="148818944"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="98865536"/>
+        <c:axId val="148817024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4527,7 +4556,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="98867456"/>
+        <c:crossAx val="148818944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4535,7 +4564,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="98867456"/>
+        <c:axId val="148818944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4564,7 +4593,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="98865536"/>
+        <c:crossAx val="148817024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4791,11 +4820,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="43977344"/>
-        <c:axId val="43979136"/>
+        <c:axId val="147479936"/>
+        <c:axId val="147481728"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="43977344"/>
+        <c:axId val="147479936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4804,7 +4833,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="43979136"/>
+        <c:crossAx val="147481728"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4812,7 +4841,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="43979136"/>
+        <c:axId val="147481728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4823,7 +4852,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="43977344"/>
+        <c:crossAx val="147479936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5085,11 +5114,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="143139200"/>
-        <c:axId val="143141120"/>
+        <c:axId val="148845696"/>
+        <c:axId val="148847616"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="143139200"/>
+        <c:axId val="148845696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5117,7 +5146,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="143141120"/>
+        <c:crossAx val="148847616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5125,7 +5154,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="143141120"/>
+        <c:axId val="148847616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5154,7 +5183,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="143139200"/>
+        <c:crossAx val="148845696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5415,11 +5444,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="143180544"/>
-        <c:axId val="143182464"/>
+        <c:axId val="153429504"/>
+        <c:axId val="153431424"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="143180544"/>
+        <c:axId val="153429504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5447,7 +5476,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="143182464"/>
+        <c:crossAx val="153431424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5455,7 +5484,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="143182464"/>
+        <c:axId val="153431424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5484,7 +5513,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="143180544"/>
+        <c:crossAx val="153429504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6010,11 +6039,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="43801600"/>
-        <c:axId val="43807872"/>
+        <c:axId val="147646720"/>
+        <c:axId val="147521920"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="43801600"/>
+        <c:axId val="147646720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6042,7 +6071,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="43807872"/>
+        <c:crossAx val="147521920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6050,7 +6079,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="43807872"/>
+        <c:axId val="147521920"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -6081,7 +6110,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="43801600"/>
+        <c:crossAx val="147646720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6248,11 +6277,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="44025728"/>
-        <c:axId val="44027264"/>
+        <c:axId val="144329344"/>
+        <c:axId val="146694528"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="44025728"/>
+        <c:axId val="144329344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6261,7 +6290,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="44027264"/>
+        <c:crossAx val="146694528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6269,7 +6298,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="44027264"/>
+        <c:axId val="146694528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6280,7 +6309,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="44025728"/>
+        <c:crossAx val="144329344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6506,11 +6535,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="43729664"/>
-        <c:axId val="43731200"/>
+        <c:axId val="147559552"/>
+        <c:axId val="147561088"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="43729664"/>
+        <c:axId val="147559552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6519,7 +6548,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="43731200"/>
+        <c:crossAx val="147561088"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6527,7 +6556,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="43731200"/>
+        <c:axId val="147561088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6538,7 +6567,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="43729664"/>
+        <c:crossAx val="147559552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6812,11 +6841,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="43759104"/>
-        <c:axId val="43760640"/>
+        <c:axId val="150522112"/>
+        <c:axId val="148045824"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="43759104"/>
+        <c:axId val="150522112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6825,7 +6854,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="43760640"/>
+        <c:crossAx val="148045824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6833,7 +6862,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="43760640"/>
+        <c:axId val="148045824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6844,7 +6873,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="43759104"/>
+        <c:crossAx val="150522112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7194,11 +7223,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="44068224"/>
-        <c:axId val="44078592"/>
+        <c:axId val="147247488"/>
+        <c:axId val="147249408"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="44068224"/>
+        <c:axId val="147247488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7226,7 +7255,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="44078592"/>
+        <c:crossAx val="147249408"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7234,7 +7263,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="44078592"/>
+        <c:axId val="147249408"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -7265,7 +7294,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="44068224"/>
+        <c:crossAx val="147247488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7622,11 +7651,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="44536192"/>
-        <c:axId val="44538112"/>
+        <c:axId val="147432576"/>
+        <c:axId val="147434496"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="44536192"/>
+        <c:axId val="147432576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7654,7 +7683,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="44538112"/>
+        <c:crossAx val="147434496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7662,7 +7691,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="44538112"/>
+        <c:axId val="147434496"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -7693,7 +7722,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="44536192"/>
+        <c:crossAx val="147432576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7889,11 +7918,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="44550784"/>
-        <c:axId val="44552576"/>
+        <c:axId val="147455360"/>
+        <c:axId val="148374656"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="44550784"/>
+        <c:axId val="147455360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7902,7 +7931,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="44552576"/>
+        <c:crossAx val="148374656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7910,7 +7939,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="44552576"/>
+        <c:axId val="148374656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="10000"/>
@@ -7940,7 +7969,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="44550784"/>
+        <c:crossAx val="147455360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="2000"/>
@@ -9090,7 +9119,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:J23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J13" sqref="B4:J13"/>
     </sheetView>
   </sheetViews>
@@ -9108,19 +9137,19 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="35"/>
-      <c r="D4" s="36" t="s">
+      <c r="C4" s="39"/>
+      <c r="D4" s="40" t="s">
         <v>71</v>
       </c>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
-      <c r="J4" s="36"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="40"/>
+      <c r="J4" s="40"/>
     </row>
     <row r="5" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" s="25" t="s">
@@ -9297,60 +9326,60 @@
       </c>
     </row>
     <row r="11" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B11" s="49" t="s">
+      <c r="B11" s="35" t="s">
         <v>97</v>
       </c>
-      <c r="C11" s="51" t="s">
+      <c r="C11" s="37" t="s">
         <v>110</v>
       </c>
-      <c r="D11" s="50" t="s">
+      <c r="D11" s="36" t="s">
         <v>98</v>
       </c>
-      <c r="E11" s="49" t="s">
+      <c r="E11" s="35" t="s">
         <v>117</v>
       </c>
-      <c r="F11" s="49" t="s">
+      <c r="F11" s="35" t="s">
         <v>100</v>
       </c>
-      <c r="G11" s="49" t="s">
+      <c r="G11" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="H11" s="49" t="s">
+      <c r="H11" s="35" t="s">
         <v>90</v>
       </c>
-      <c r="I11" s="52" t="s">
+      <c r="I11" s="38" t="s">
         <v>106</v>
       </c>
-      <c r="J11" s="49" t="s">
+      <c r="J11" s="35" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="12" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B12" s="49" t="s">
+      <c r="B12" s="35" t="s">
         <v>97</v>
       </c>
-      <c r="C12" s="51" t="s">
+      <c r="C12" s="37" t="s">
         <v>108</v>
       </c>
-      <c r="D12" s="50" t="s">
+      <c r="D12" s="36" t="s">
         <v>98</v>
       </c>
-      <c r="E12" s="49" t="s">
+      <c r="E12" s="35" t="s">
         <v>119</v>
       </c>
-      <c r="F12" s="49" t="s">
+      <c r="F12" s="35" t="s">
         <v>100</v>
       </c>
-      <c r="G12" s="49" t="s">
+      <c r="G12" s="35" t="s">
         <v>105</v>
       </c>
-      <c r="H12" s="49" t="s">
+      <c r="H12" s="35" t="s">
         <v>90</v>
       </c>
-      <c r="I12" s="52" t="s">
+      <c r="I12" s="38" t="s">
         <v>106</v>
       </c>
-      <c r="J12" s="49" t="s">
+      <c r="J12" s="35" t="s">
         <v>107</v>
       </c>
     </row>
@@ -9384,19 +9413,19 @@
       </c>
     </row>
     <row r="16" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B16" s="35" t="s">
+      <c r="B16" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="35"/>
-      <c r="D16" s="36" t="s">
+      <c r="C16" s="39"/>
+      <c r="D16" s="40" t="s">
         <v>71</v>
       </c>
-      <c r="E16" s="36"/>
-      <c r="F16" s="36"/>
-      <c r="G16" s="36"/>
-      <c r="H16" s="36"/>
-      <c r="I16" s="36"/>
-      <c r="J16" s="36"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="40"/>
+      <c r="H16" s="40"/>
+      <c r="I16" s="40"/>
+      <c r="J16" s="40"/>
     </row>
     <row r="17" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B17" s="25" t="s">
@@ -11036,35 +11065,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:Q37"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31:I37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="3" width="7.28515625" customWidth="1"/>
     <col min="4" max="9" width="12.7109375" customWidth="1"/>
-    <col min="11" max="11" width="10.5703125" customWidth="1"/>
-    <col min="12" max="17" width="9.140625" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" customWidth="1"/>
+    <col min="12" max="14" width="11.42578125" customWidth="1"/>
+    <col min="15" max="17" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38" t="s">
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B3" s="46" t="s">
+      <c r="B3" s="43" t="s">
         <v>61</v>
       </c>
-      <c r="C3" s="46"/>
+      <c r="C3" s="43"/>
       <c r="D3" s="44" t="s">
         <v>120</v>
       </c>
@@ -11144,7 +11174,9 @@
       </c>
       <c r="K5" s="10"/>
       <c r="L5" s="10"/>
-      <c r="M5" s="10"/>
+      <c r="M5" s="10" t="s">
+        <v>123</v>
+      </c>
       <c r="N5" s="10"/>
       <c r="O5" s="10"/>
       <c r="P5" s="10"/>
@@ -11312,32 +11344,41 @@
       <c r="Q9" s="10"/>
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B10" s="37"/>
-      <c r="C10" s="37"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="37"/>
-      <c r="F10" s="37"/>
-      <c r="G10" s="37"/>
-      <c r="H10" s="37"/>
-      <c r="I10" s="37"/>
+      <c r="B10" s="41"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="41"/>
+      <c r="I10" s="41"/>
+      <c r="L10">
+        <v>96</v>
+      </c>
+      <c r="M10">
+        <v>120</v>
+      </c>
+      <c r="N10">
+        <v>180</v>
+      </c>
     </row>
     <row r="11" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B11" s="38"/>
-      <c r="C11" s="38"/>
-      <c r="D11" s="38" t="s">
+      <c r="B11" s="42"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="E11" s="38"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="38"/>
-      <c r="H11" s="38"/>
-      <c r="I11" s="38"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="42"/>
+      <c r="H11" s="42"/>
+      <c r="I11" s="42"/>
     </row>
     <row r="12" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B12" s="46" t="s">
+      <c r="B12" s="43" t="s">
         <v>61</v>
       </c>
-      <c r="C12" s="46"/>
+      <c r="C12" s="43"/>
       <c r="D12" s="44" t="str">
         <f>D3</f>
         <v>Generic C FFT</v>
@@ -11350,6 +11391,12 @@
       <c r="G12" s="45"/>
       <c r="H12" s="45"/>
       <c r="I12" s="45"/>
+      <c r="K12" s="42" t="s">
+        <v>122</v>
+      </c>
+      <c r="L12" s="42"/>
+      <c r="M12" s="42"/>
+      <c r="N12" s="42"/>
     </row>
     <row r="13" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B13" s="33" t="str">
@@ -11383,6 +11430,19 @@
         <f>Summary_Speed!Q19</f>
         <v>FRDM-K66F</v>
       </c>
+      <c r="K13" s="53"/>
+      <c r="L13" s="55" t="str">
+        <f>F13</f>
+        <v>Teensy 3.2</v>
+      </c>
+      <c r="M13" s="55" t="str">
+        <f>G13</f>
+        <v>Teensy 3.5</v>
+      </c>
+      <c r="N13" s="55" t="str">
+        <f>H13</f>
+        <v>Teensy 3.6</v>
+      </c>
     </row>
     <row r="14" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B14" s="34">
@@ -11417,10 +11477,22 @@
         <f>Summary_Speed!Q20</f>
         <v>31250</v>
       </c>
-      <c r="K14" s="10"/>
-      <c r="L14" s="10"/>
-      <c r="M14" s="10"/>
-      <c r="N14" s="10"/>
+      <c r="K14" s="57" t="str">
+        <f>C7</f>
+        <v>Int16</v>
+      </c>
+      <c r="L14" s="58">
+        <f>F7/$F$7</f>
+        <v>1</v>
+      </c>
+      <c r="M14" s="58">
+        <f>G7/$F$7</f>
+        <v>1.3003908431044111</v>
+      </c>
+      <c r="N14" s="58">
+        <f>H7/$F$7</f>
+        <v>2.2597024579560157</v>
+      </c>
       <c r="O14" s="10"/>
       <c r="P14" s="10"/>
       <c r="Q14" s="10"/>
@@ -11457,10 +11529,22 @@
         <f>Summary_Speed!Q21</f>
         <v>16666.666666666668</v>
       </c>
-      <c r="K15" s="10"/>
-      <c r="L15" s="10"/>
-      <c r="M15" s="10"/>
-      <c r="N15" s="10"/>
+      <c r="K15" s="57" t="str">
+        <f>C16</f>
+        <v>Int32</v>
+      </c>
+      <c r="L15" s="58">
+        <f>F16/$F$16</f>
+        <v>1</v>
+      </c>
+      <c r="M15" s="58">
+        <f>G16/$F$16</f>
+        <v>1.3147186147186145</v>
+      </c>
+      <c r="N15" s="58">
+        <f>H16/$F$16</f>
+        <v>2.2249084249084246</v>
+      </c>
       <c r="O15" s="10"/>
       <c r="P15" s="10"/>
       <c r="Q15" s="10"/>
@@ -11497,10 +11581,22 @@
         <f>Summary_Speed!Q22</f>
         <v>6211.1801242236024</v>
       </c>
-      <c r="K16" s="10"/>
-      <c r="L16" s="10"/>
-      <c r="M16" s="10"/>
-      <c r="N16" s="10"/>
+      <c r="K16" s="57" t="str">
+        <f>C25</f>
+        <v>Float32</v>
+      </c>
+      <c r="L16" s="58">
+        <f>F25/$F$25</f>
+        <v>1</v>
+      </c>
+      <c r="M16" s="58">
+        <f>G25/$F$25</f>
+        <v>10.391963919639196</v>
+      </c>
+      <c r="N16" s="58">
+        <f>H25/$F$25</f>
+        <v>16.014743049705139</v>
+      </c>
       <c r="O16" s="10"/>
       <c r="P16" s="10"/>
       <c r="Q16" s="10"/>
@@ -11537,10 +11633,21 @@
         <f>Summary_Speed!Q23</f>
         <v>3154.5741324921137</v>
       </c>
-      <c r="K17" s="10"/>
-      <c r="L17" s="10"/>
-      <c r="M17" s="10"/>
-      <c r="N17" s="10"/>
+      <c r="K17" s="54" t="s">
+        <v>121</v>
+      </c>
+      <c r="L17" s="56">
+        <f>L10/$L$10</f>
+        <v>1</v>
+      </c>
+      <c r="M17" s="56">
+        <f>M10/$L$10</f>
+        <v>1.25</v>
+      </c>
+      <c r="N17" s="56">
+        <f>N10/$L$10</f>
+        <v>1.875</v>
+      </c>
       <c r="O17" s="10"/>
       <c r="P17" s="10"/>
       <c r="Q17" s="10"/>
@@ -11577,42 +11684,38 @@
         <f>Summary_Speed!Q24</f>
         <v>1272.2646310432569</v>
       </c>
-      <c r="K18" s="10"/>
-      <c r="L18" s="10"/>
-      <c r="M18" s="10"/>
-      <c r="N18" s="10"/>
       <c r="O18" s="10"/>
       <c r="P18" s="10"/>
       <c r="Q18" s="10"/>
     </row>
     <row r="19" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B19" s="37"/>
-      <c r="C19" s="37"/>
-      <c r="D19" s="37"/>
-      <c r="E19" s="37"/>
-      <c r="F19" s="37"/>
-      <c r="G19" s="37"/>
-      <c r="H19" s="37"/>
-      <c r="I19" s="37"/>
+      <c r="B19" s="41"/>
+      <c r="C19" s="41"/>
+      <c r="D19" s="41"/>
+      <c r="E19" s="41"/>
+      <c r="F19" s="41"/>
+      <c r="G19" s="41"/>
+      <c r="H19" s="41"/>
+      <c r="I19" s="41"/>
     </row>
     <row r="20" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B20" s="38"/>
-      <c r="C20" s="38"/>
-      <c r="D20" s="38" t="s">
+      <c r="B20" s="42"/>
+      <c r="C20" s="42"/>
+      <c r="D20" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="E20" s="38"/>
-      <c r="F20" s="38"/>
-      <c r="G20" s="38"/>
-      <c r="H20" s="38"/>
-      <c r="I20" s="38"/>
+      <c r="E20" s="42"/>
+      <c r="F20" s="42"/>
+      <c r="G20" s="42"/>
+      <c r="H20" s="42"/>
+      <c r="I20" s="42"/>
     </row>
     <row r="21" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B21" s="46" t="str">
+      <c r="B21" s="43" t="str">
         <f t="shared" ref="B21:B27" si="1">B12</f>
         <v>Inputs</v>
       </c>
-      <c r="C21" s="46"/>
+      <c r="C21" s="43"/>
       <c r="D21" s="44" t="str">
         <f>D12</f>
         <v>Generic C FFT</v>
@@ -11862,16 +11965,16 @@
       <c r="Q27" s="10"/>
     </row>
     <row r="28" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B28" s="37" t="s">
+      <c r="B28" s="41" t="s">
         <v>63</v>
       </c>
-      <c r="C28" s="37"/>
-      <c r="D28" s="37"/>
-      <c r="E28" s="37"/>
-      <c r="F28" s="37"/>
-      <c r="G28" s="37"/>
-      <c r="H28" s="37"/>
-      <c r="I28" s="37"/>
+      <c r="C28" s="41"/>
+      <c r="D28" s="41"/>
+      <c r="E28" s="41"/>
+      <c r="F28" s="41"/>
+      <c r="G28" s="41"/>
+      <c r="H28" s="41"/>
+      <c r="I28" s="41"/>
     </row>
     <row r="29" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B29" s="22"/>
@@ -11911,23 +12014,23 @@
       </c>
     </row>
     <row r="31" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B31" s="38"/>
-      <c r="C31" s="38"/>
-      <c r="D31" s="39" t="s">
+      <c r="B31" s="42"/>
+      <c r="C31" s="42"/>
+      <c r="D31" s="46" t="s">
         <v>70</v>
       </c>
-      <c r="E31" s="40"/>
-      <c r="F31" s="40"/>
-      <c r="G31" s="40"/>
-      <c r="H31" s="40"/>
-      <c r="I31" s="41"/>
+      <c r="E31" s="47"/>
+      <c r="F31" s="47"/>
+      <c r="G31" s="47"/>
+      <c r="H31" s="47"/>
+      <c r="I31" s="48"/>
     </row>
     <row r="32" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B32" s="42" t="str">
+      <c r="B32" s="49" t="str">
         <f>B12</f>
         <v>Inputs</v>
       </c>
-      <c r="C32" s="43"/>
+      <c r="C32" s="50"/>
       <c r="D32" s="44" t="str">
         <f>D12</f>
         <v>Generic C FFT</v>
@@ -12102,25 +12205,26 @@
       </c>
     </row>
     <row r="37" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B37" s="37" t="s">
+      <c r="B37" s="41" t="s">
         <v>63</v>
       </c>
-      <c r="C37" s="37"/>
-      <c r="D37" s="37"/>
-      <c r="E37" s="37"/>
-      <c r="F37" s="37"/>
-      <c r="G37" s="37"/>
-      <c r="H37" s="37"/>
-      <c r="I37" s="37"/>
+      <c r="C37" s="41"/>
+      <c r="D37" s="41"/>
+      <c r="E37" s="41"/>
+      <c r="F37" s="41"/>
+      <c r="G37" s="41"/>
+      <c r="H37" s="41"/>
+      <c r="I37" s="41"/>
     </row>
   </sheetData>
-  <mergeCells count="24">
-    <mergeCell ref="B10:I10"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:I2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:I3"/>
+  <mergeCells count="25">
+    <mergeCell ref="K12:N12"/>
+    <mergeCell ref="B37:I37"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:I31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:I32"/>
     <mergeCell ref="B28:I28"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="D11:I11"/>
@@ -12133,12 +12237,12 @@
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="D21:E21"/>
     <mergeCell ref="F21:I21"/>
-    <mergeCell ref="B37:I37"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:I31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="F32:I32"/>
+    <mergeCell ref="B10:I10"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:I2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:I3"/>
   </mergeCells>
   <conditionalFormatting sqref="E34:I36">
     <cfRule type="cellIs" dxfId="3" priority="1" operator="lessThan">
@@ -12172,27 +12276,27 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38" t="s">
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38"/>
-      <c r="M2" s="38"/>
-      <c r="N2" s="38"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="42"/>
+      <c r="L2" s="42"/>
+      <c r="M2" s="42"/>
+      <c r="N2" s="42"/>
     </row>
     <row r="3" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B3" s="46" t="s">
+      <c r="B3" s="43" t="s">
         <v>61</v>
       </c>
-      <c r="C3" s="46"/>
+      <c r="C3" s="43"/>
       <c r="D3" s="44" t="s">
         <v>59</v>
       </c>
@@ -12789,42 +12893,42 @@
       </c>
     </row>
     <row r="10" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B10" s="37"/>
-      <c r="C10" s="37"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="37"/>
-      <c r="F10" s="37"/>
-      <c r="G10" s="37"/>
-      <c r="H10" s="37"/>
-      <c r="I10" s="37"/>
-      <c r="J10" s="37"/>
-      <c r="K10" s="37"/>
-      <c r="L10" s="37"/>
-      <c r="M10" s="37"/>
-      <c r="N10" s="37"/>
+      <c r="B10" s="41"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="41"/>
+      <c r="I10" s="41"/>
+      <c r="J10" s="41"/>
+      <c r="K10" s="41"/>
+      <c r="L10" s="41"/>
+      <c r="M10" s="41"/>
+      <c r="N10" s="41"/>
     </row>
     <row r="11" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B11" s="38"/>
-      <c r="C11" s="38"/>
-      <c r="D11" s="38" t="s">
+      <c r="B11" s="42"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="E11" s="38"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="38"/>
-      <c r="H11" s="38"/>
-      <c r="I11" s="38"/>
-      <c r="J11" s="38"/>
-      <c r="K11" s="38"/>
-      <c r="L11" s="38"/>
-      <c r="M11" s="38"/>
-      <c r="N11" s="38"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="42"/>
+      <c r="H11" s="42"/>
+      <c r="I11" s="42"/>
+      <c r="J11" s="42"/>
+      <c r="K11" s="42"/>
+      <c r="L11" s="42"/>
+      <c r="M11" s="42"/>
+      <c r="N11" s="42"/>
     </row>
     <row r="12" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B12" s="46" t="s">
+      <c r="B12" s="43" t="s">
         <v>61</v>
       </c>
-      <c r="C12" s="46"/>
+      <c r="C12" s="43"/>
       <c r="D12" s="44" t="s">
         <v>59</v>
       </c>
@@ -13424,43 +13528,43 @@
       </c>
     </row>
     <row r="19" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B19" s="37"/>
-      <c r="C19" s="37"/>
-      <c r="D19" s="37"/>
-      <c r="E19" s="37"/>
-      <c r="F19" s="37"/>
-      <c r="G19" s="37"/>
-      <c r="H19" s="37"/>
-      <c r="I19" s="37"/>
-      <c r="J19" s="37"/>
-      <c r="K19" s="37"/>
-      <c r="L19" s="37"/>
-      <c r="M19" s="37"/>
-      <c r="N19" s="37"/>
+      <c r="B19" s="41"/>
+      <c r="C19" s="41"/>
+      <c r="D19" s="41"/>
+      <c r="E19" s="41"/>
+      <c r="F19" s="41"/>
+      <c r="G19" s="41"/>
+      <c r="H19" s="41"/>
+      <c r="I19" s="41"/>
+      <c r="J19" s="41"/>
+      <c r="K19" s="41"/>
+      <c r="L19" s="41"/>
+      <c r="M19" s="41"/>
+      <c r="N19" s="41"/>
     </row>
     <row r="20" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B20" s="38"/>
-      <c r="C20" s="38"/>
-      <c r="D20" s="38" t="s">
+      <c r="B20" s="42"/>
+      <c r="C20" s="42"/>
+      <c r="D20" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="E20" s="38"/>
-      <c r="F20" s="38"/>
-      <c r="G20" s="38"/>
-      <c r="H20" s="38"/>
-      <c r="I20" s="38"/>
-      <c r="J20" s="38"/>
-      <c r="K20" s="38"/>
-      <c r="L20" s="38"/>
-      <c r="M20" s="38"/>
-      <c r="N20" s="38"/>
+      <c r="E20" s="42"/>
+      <c r="F20" s="42"/>
+      <c r="G20" s="42"/>
+      <c r="H20" s="42"/>
+      <c r="I20" s="42"/>
+      <c r="J20" s="42"/>
+      <c r="K20" s="42"/>
+      <c r="L20" s="42"/>
+      <c r="M20" s="42"/>
+      <c r="N20" s="42"/>
     </row>
     <row r="21" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B21" s="46" t="str">
+      <c r="B21" s="43" t="str">
         <f t="shared" ref="B21:B27" si="15">B12</f>
         <v>Inputs</v>
       </c>
-      <c r="C21" s="46"/>
+      <c r="C21" s="43"/>
       <c r="D21" s="44" t="str">
         <f>D12</f>
         <v>Generic C</v>
@@ -14063,21 +14167,21 @@
       </c>
     </row>
     <row r="28" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B28" s="37" t="s">
+      <c r="B28" s="41" t="s">
         <v>63</v>
       </c>
-      <c r="C28" s="37"/>
-      <c r="D28" s="37"/>
-      <c r="E28" s="37"/>
-      <c r="F28" s="37"/>
-      <c r="G28" s="37"/>
-      <c r="H28" s="37"/>
-      <c r="I28" s="37"/>
-      <c r="J28" s="37"/>
-      <c r="K28" s="37"/>
-      <c r="L28" s="37"/>
-      <c r="M28" s="37"/>
-      <c r="N28" s="37"/>
+      <c r="C28" s="41"/>
+      <c r="D28" s="41"/>
+      <c r="E28" s="41"/>
+      <c r="F28" s="41"/>
+      <c r="G28" s="41"/>
+      <c r="H28" s="41"/>
+      <c r="I28" s="41"/>
+      <c r="J28" s="41"/>
+      <c r="K28" s="41"/>
+      <c r="L28" s="41"/>
+      <c r="M28" s="41"/>
+      <c r="N28" s="41"/>
     </row>
     <row r="29" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B29" s="22"/>
@@ -14142,28 +14246,28 @@
       </c>
     </row>
     <row r="31" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B31" s="38"/>
-      <c r="C31" s="38"/>
-      <c r="D31" s="39" t="s">
+      <c r="B31" s="42"/>
+      <c r="C31" s="42"/>
+      <c r="D31" s="46" t="s">
         <v>70</v>
       </c>
-      <c r="E31" s="40"/>
-      <c r="F31" s="40"/>
-      <c r="G31" s="40"/>
-      <c r="H31" s="40"/>
-      <c r="I31" s="40"/>
-      <c r="J31" s="40"/>
-      <c r="K31" s="40"/>
-      <c r="L31" s="40"/>
-      <c r="M31" s="40"/>
-      <c r="N31" s="41"/>
+      <c r="E31" s="47"/>
+      <c r="F31" s="47"/>
+      <c r="G31" s="47"/>
+      <c r="H31" s="47"/>
+      <c r="I31" s="47"/>
+      <c r="J31" s="47"/>
+      <c r="K31" s="47"/>
+      <c r="L31" s="47"/>
+      <c r="M31" s="47"/>
+      <c r="N31" s="48"/>
     </row>
     <row r="32" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B32" s="42" t="str">
+      <c r="B32" s="49" t="str">
         <f>B12</f>
         <v>Inputs</v>
       </c>
-      <c r="C32" s="43"/>
+      <c r="C32" s="50"/>
       <c r="D32" s="44" t="str">
         <f>D12</f>
         <v>Generic C</v>
@@ -14181,13 +14285,13 @@
       <c r="L32" s="45"/>
       <c r="M32" s="45"/>
       <c r="N32" s="45"/>
-      <c r="W32" s="38" t="s">
+      <c r="W32" s="42" t="s">
         <v>69</v>
       </c>
-      <c r="X32" s="38"/>
-      <c r="Y32" s="38"/>
-      <c r="Z32" s="38"/>
-      <c r="AA32" s="38"/>
+      <c r="X32" s="42"/>
+      <c r="Y32" s="42"/>
+      <c r="Z32" s="42"/>
+      <c r="AA32" s="42"/>
     </row>
     <row r="33" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B33" s="18" t="str">
@@ -14509,33 +14613,24 @@
       </c>
     </row>
     <row r="37" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B37" s="37" t="s">
+      <c r="B37" s="41" t="s">
         <v>63</v>
       </c>
-      <c r="C37" s="37"/>
-      <c r="D37" s="37"/>
-      <c r="E37" s="37"/>
-      <c r="F37" s="37"/>
-      <c r="G37" s="37"/>
-      <c r="H37" s="37"/>
-      <c r="I37" s="37"/>
-      <c r="J37" s="37"/>
-      <c r="K37" s="37"/>
-      <c r="L37" s="37"/>
-      <c r="M37" s="37"/>
-      <c r="N37" s="37"/>
+      <c r="C37" s="41"/>
+      <c r="D37" s="41"/>
+      <c r="E37" s="41"/>
+      <c r="F37" s="41"/>
+      <c r="G37" s="41"/>
+      <c r="H37" s="41"/>
+      <c r="I37" s="41"/>
+      <c r="J37" s="41"/>
+      <c r="K37" s="41"/>
+      <c r="L37" s="41"/>
+      <c r="M37" s="41"/>
+      <c r="N37" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B37:N37"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:N31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D21:J21"/>
-    <mergeCell ref="K21:N21"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B28:N28"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="W32:AA32"/>
@@ -14552,6 +14647,15 @@
     <mergeCell ref="D20:N20"/>
     <mergeCell ref="D12:J12"/>
     <mergeCell ref="K12:N12"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B37:N37"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:N31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D21:J21"/>
+    <mergeCell ref="K21:N21"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B28:N28"/>
   </mergeCells>
   <conditionalFormatting sqref="E34:N36">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
@@ -14588,49 +14692,49 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:43" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="51" t="s">
         <v>53</v>
       </c>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
-      <c r="J2" s="47"/>
-      <c r="K2" s="47"/>
-      <c r="L2" s="47"/>
-      <c r="M2" s="47"/>
-      <c r="N2" s="47"/>
-      <c r="O2" s="47"/>
-      <c r="P2" s="47"/>
-      <c r="Q2" s="47"/>
-      <c r="R2" s="47"/>
-      <c r="S2" s="47"/>
-      <c r="T2" s="47"/>
-      <c r="U2" s="47"/>
-      <c r="V2" s="47"/>
-      <c r="W2" s="47"/>
-      <c r="X2" s="47"/>
-      <c r="Y2" s="47"/>
-      <c r="AC2" s="48" t="s">
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="51"/>
+      <c r="L2" s="51"/>
+      <c r="M2" s="51"/>
+      <c r="N2" s="51"/>
+      <c r="O2" s="51"/>
+      <c r="P2" s="51"/>
+      <c r="Q2" s="51"/>
+      <c r="R2" s="51"/>
+      <c r="S2" s="51"/>
+      <c r="T2" s="51"/>
+      <c r="U2" s="51"/>
+      <c r="V2" s="51"/>
+      <c r="W2" s="51"/>
+      <c r="X2" s="51"/>
+      <c r="Y2" s="51"/>
+      <c r="AC2" s="52" t="s">
         <v>56</v>
       </c>
-      <c r="AD2" s="48"/>
-      <c r="AE2" s="48"/>
-      <c r="AF2" s="48"/>
-      <c r="AG2" s="48"/>
-      <c r="AH2" s="48"/>
-      <c r="AI2" s="48"/>
-      <c r="AJ2" s="48"/>
-      <c r="AK2" s="48"/>
-      <c r="AL2" s="48"/>
-      <c r="AM2" s="48"/>
-      <c r="AN2" s="48"/>
-      <c r="AO2" s="48"/>
-      <c r="AP2" s="48"/>
-      <c r="AQ2" s="48"/>
+      <c r="AD2" s="52"/>
+      <c r="AE2" s="52"/>
+      <c r="AF2" s="52"/>
+      <c r="AG2" s="52"/>
+      <c r="AH2" s="52"/>
+      <c r="AI2" s="52"/>
+      <c r="AJ2" s="52"/>
+      <c r="AK2" s="52"/>
+      <c r="AL2" s="52"/>
+      <c r="AM2" s="52"/>
+      <c r="AN2" s="52"/>
+      <c r="AO2" s="52"/>
+      <c r="AP2" s="52"/>
+      <c r="AQ2" s="52"/>
     </row>
     <row r="4" spans="2:43" x14ac:dyDescent="0.25">
       <c r="C4" t="str">
@@ -16908,58 +17012,58 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:53" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="51" t="s">
         <v>55</v>
       </c>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
-      <c r="J2" s="47"/>
-      <c r="K2" s="47"/>
-      <c r="L2" s="47"/>
-      <c r="M2" s="47"/>
-      <c r="N2" s="47"/>
-      <c r="O2" s="47"/>
-      <c r="P2" s="47"/>
-      <c r="Q2" s="47"/>
-      <c r="R2" s="47"/>
-      <c r="S2" s="47"/>
-      <c r="T2" s="47"/>
-      <c r="U2" s="47"/>
-      <c r="V2" s="47"/>
-      <c r="W2" s="47"/>
-      <c r="X2" s="47"/>
-      <c r="Y2" s="47"/>
-      <c r="AD2" s="48" t="s">
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="51"/>
+      <c r="L2" s="51"/>
+      <c r="M2" s="51"/>
+      <c r="N2" s="51"/>
+      <c r="O2" s="51"/>
+      <c r="P2" s="51"/>
+      <c r="Q2" s="51"/>
+      <c r="R2" s="51"/>
+      <c r="S2" s="51"/>
+      <c r="T2" s="51"/>
+      <c r="U2" s="51"/>
+      <c r="V2" s="51"/>
+      <c r="W2" s="51"/>
+      <c r="X2" s="51"/>
+      <c r="Y2" s="51"/>
+      <c r="AD2" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="AE2" s="48"/>
-      <c r="AF2" s="48"/>
-      <c r="AG2" s="48"/>
-      <c r="AH2" s="48"/>
-      <c r="AI2" s="48"/>
-      <c r="AJ2" s="48"/>
-      <c r="AK2" s="48"/>
-      <c r="AL2" s="48"/>
-      <c r="AM2" s="48"/>
-      <c r="AN2" s="48"/>
-      <c r="AO2" s="48"/>
-      <c r="AP2" s="48"/>
-      <c r="AQ2" s="48"/>
-      <c r="AR2" s="48"/>
-      <c r="AS2" s="48"/>
-      <c r="AT2" s="48"/>
-      <c r="AU2" s="48"/>
-      <c r="AV2" s="48"/>
-      <c r="AW2" s="48"/>
-      <c r="AX2" s="48"/>
-      <c r="AY2" s="48"/>
-      <c r="AZ2" s="48"/>
-      <c r="BA2" s="48"/>
+      <c r="AE2" s="52"/>
+      <c r="AF2" s="52"/>
+      <c r="AG2" s="52"/>
+      <c r="AH2" s="52"/>
+      <c r="AI2" s="52"/>
+      <c r="AJ2" s="52"/>
+      <c r="AK2" s="52"/>
+      <c r="AL2" s="52"/>
+      <c r="AM2" s="52"/>
+      <c r="AN2" s="52"/>
+      <c r="AO2" s="52"/>
+      <c r="AP2" s="52"/>
+      <c r="AQ2" s="52"/>
+      <c r="AR2" s="52"/>
+      <c r="AS2" s="52"/>
+      <c r="AT2" s="52"/>
+      <c r="AU2" s="52"/>
+      <c r="AV2" s="52"/>
+      <c r="AW2" s="52"/>
+      <c r="AX2" s="52"/>
+      <c r="AY2" s="52"/>
+      <c r="AZ2" s="52"/>
+      <c r="BA2" s="52"/>
     </row>
     <row r="4" spans="2:53" x14ac:dyDescent="0.25">
       <c r="C4" s="1" t="str">

--- a/Arduino/Audio Processing Benchmarking/FFT Speed Results.xlsx
+++ b/Arduino/Audio Processing Benchmarking/FFT Speed Results.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="895" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="902" uniqueCount="128">
   <si>
     <t>N</t>
   </si>
@@ -402,6 +402,18 @@
   <si>
     <t>s</t>
   </si>
+  <si>
+    <t>RFFT</t>
+  </si>
+  <si>
+    <t>FFTs Per Second</t>
+  </si>
+  <si>
+    <t>CFFT Radix 4</t>
+  </si>
+  <si>
+    <t>CFFT Radix 2</t>
+  </si>
 </sst>
 </file>
 
@@ -543,7 +555,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -612,12 +624,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -689,25 +710,28 @@
     <xf numFmtId="0" fontId="8" fillId="8" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="10" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -725,24 +749,34 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="3" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="10" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -939,11 +973,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="147113088"/>
-        <c:axId val="147114624"/>
+        <c:axId val="253647488"/>
+        <c:axId val="253665664"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="147113088"/>
+        <c:axId val="253647488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -952,7 +986,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="147114624"/>
+        <c:crossAx val="253665664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -960,7 +994,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="147114624"/>
+        <c:axId val="253665664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -971,7 +1005,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="147113088"/>
+        <c:crossAx val="253647488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1098,11 +1132,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="148399616"/>
-        <c:axId val="148401152"/>
+        <c:axId val="255036032"/>
+        <c:axId val="255041920"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="148399616"/>
+        <c:axId val="255036032"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1113,12 +1147,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="148401152"/>
+        <c:crossAx val="255041920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="148401152"/>
+        <c:axId val="255041920"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1130,7 +1164,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="148399616"/>
+        <c:crossAx val="255036032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1407,11 +1441,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="148422016"/>
-        <c:axId val="148444288"/>
+        <c:axId val="254870272"/>
+        <c:axId val="254871808"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="148422016"/>
+        <c:axId val="254870272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1420,7 +1454,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="148444288"/>
+        <c:crossAx val="254871808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1428,7 +1462,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="148444288"/>
+        <c:axId val="254871808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="100"/>
@@ -1466,7 +1500,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="148422016"/>
+        <c:crossAx val="254870272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1695,11 +1729,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="148482304"/>
-        <c:axId val="148488192"/>
+        <c:axId val="254918016"/>
+        <c:axId val="254919808"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="148482304"/>
+        <c:axId val="254918016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1708,7 +1742,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="148488192"/>
+        <c:crossAx val="254919808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1716,7 +1750,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="148488192"/>
+        <c:axId val="254919808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1762,7 +1796,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="148482304"/>
+        <c:crossAx val="254918016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2216,11 +2250,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="148248448"/>
-        <c:axId val="148249984"/>
+        <c:axId val="254958592"/>
+        <c:axId val="254976768"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="148248448"/>
+        <c:axId val="254958592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2229,7 +2263,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="148249984"/>
+        <c:crossAx val="254976768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2237,7 +2271,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="148249984"/>
+        <c:axId val="254976768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2266,7 +2300,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="148248448"/>
+        <c:crossAx val="254958592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="2000"/>
@@ -2318,6 +2352,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2671,11 +2706,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="147910016"/>
-        <c:axId val="147789312"/>
+        <c:axId val="255173376"/>
+        <c:axId val="255175296"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="147910016"/>
+        <c:axId val="255173376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2697,13 +2732,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="147789312"/>
+        <c:crossAx val="255175296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2711,7 +2747,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="147789312"/>
+        <c:axId val="255175296"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -2737,19 +2773,21 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="147910016"/>
+        <c:crossAx val="255173376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2794,6 +2832,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3147,11 +3186,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="147821696"/>
-        <c:axId val="147823616"/>
+        <c:axId val="255539456"/>
+        <c:axId val="255553920"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="147821696"/>
+        <c:axId val="255539456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3173,13 +3212,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="147823616"/>
+        <c:crossAx val="255553920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3187,7 +3227,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="147823616"/>
+        <c:axId val="255553920"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -3213,19 +3253,21 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="147821696"/>
+        <c:crossAx val="255539456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3498,11 +3540,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="148296832"/>
-        <c:axId val="148298752"/>
+        <c:axId val="255265024"/>
+        <c:axId val="255271296"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="148296832"/>
+        <c:axId val="255265024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3530,7 +3572,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="148298752"/>
+        <c:crossAx val="255271296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3538,7 +3580,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="148298752"/>
+        <c:axId val="255271296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3567,7 +3609,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="148296832"/>
+        <c:crossAx val="255265024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3846,11 +3888,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="148014208"/>
-        <c:axId val="148016128"/>
+        <c:axId val="255314176"/>
+        <c:axId val="255320448"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="148014208"/>
+        <c:axId val="255314176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3878,7 +3920,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="148016128"/>
+        <c:crossAx val="255320448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3886,7 +3928,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="148016128"/>
+        <c:axId val="255320448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3915,7 +3957,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="148014208"/>
+        <c:crossAx val="255314176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4194,11 +4236,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="148771968"/>
-        <c:axId val="148773888"/>
+        <c:axId val="255351040"/>
+        <c:axId val="255369600"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="148771968"/>
+        <c:axId val="255351040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4226,7 +4268,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="148773888"/>
+        <c:crossAx val="255369600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4234,7 +4276,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="148773888"/>
+        <c:axId val="255369600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4263,7 +4305,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="148771968"/>
+        <c:crossAx val="255351040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4524,11 +4566,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="148817024"/>
-        <c:axId val="148818944"/>
+        <c:axId val="255461632"/>
+        <c:axId val="255467904"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="148817024"/>
+        <c:axId val="255461632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4556,7 +4598,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="148818944"/>
+        <c:crossAx val="255467904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4564,7 +4606,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="148818944"/>
+        <c:axId val="255467904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4593,7 +4635,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="148817024"/>
+        <c:crossAx val="255461632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4820,11 +4862,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="147479936"/>
-        <c:axId val="147481728"/>
+        <c:axId val="254089856"/>
+        <c:axId val="254099840"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="147479936"/>
+        <c:axId val="254089856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4833,7 +4875,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="147481728"/>
+        <c:crossAx val="254099840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4841,7 +4883,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="147481728"/>
+        <c:axId val="254099840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4852,7 +4894,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="147479936"/>
+        <c:crossAx val="254089856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5114,11 +5156,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="148845696"/>
-        <c:axId val="148847616"/>
+        <c:axId val="255498496"/>
+        <c:axId val="255508864"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="148845696"/>
+        <c:axId val="255498496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5146,7 +5188,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="148847616"/>
+        <c:crossAx val="255508864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5154,7 +5196,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="148847616"/>
+        <c:axId val="255508864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5183,7 +5225,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="148845696"/>
+        <c:crossAx val="255498496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5444,11 +5486,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="153429504"/>
-        <c:axId val="153431424"/>
+        <c:axId val="255871616"/>
+        <c:axId val="255877888"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="153429504"/>
+        <c:axId val="255871616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5476,7 +5518,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="153431424"/>
+        <c:crossAx val="255877888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5484,7 +5526,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="153431424"/>
+        <c:axId val="255877888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5513,7 +5555,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="153429504"/>
+        <c:crossAx val="255871616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5573,6 +5615,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -6039,11 +6082,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="147646720"/>
-        <c:axId val="147521920"/>
+        <c:axId val="254178432"/>
+        <c:axId val="254180352"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="147646720"/>
+        <c:axId val="254178432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6065,13 +6108,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="147521920"/>
+        <c:crossAx val="254180352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6079,7 +6123,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="147521920"/>
+        <c:axId val="254180352"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -6104,13 +6148,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="#,##0" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="147646720"/>
+        <c:crossAx val="254178432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6190,6 +6235,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -6277,11 +6323,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="144329344"/>
-        <c:axId val="146694528"/>
+        <c:axId val="254480384"/>
+        <c:axId val="254481920"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="144329344"/>
+        <c:axId val="254480384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6290,7 +6336,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="146694528"/>
+        <c:crossAx val="254481920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6298,7 +6344,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="146694528"/>
+        <c:axId val="254481920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6309,13 +6355,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="144329344"/>
+        <c:crossAx val="254480384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -6535,11 +6582,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="147559552"/>
-        <c:axId val="147561088"/>
+        <c:axId val="254499456"/>
+        <c:axId val="254505344"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="147559552"/>
+        <c:axId val="254499456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6548,7 +6595,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="147561088"/>
+        <c:crossAx val="254505344"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6556,7 +6603,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="147561088"/>
+        <c:axId val="254505344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6567,7 +6614,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="147559552"/>
+        <c:crossAx val="254499456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6841,11 +6888,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="150522112"/>
-        <c:axId val="148045824"/>
+        <c:axId val="254528512"/>
+        <c:axId val="254292736"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="150522112"/>
+        <c:axId val="254528512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6854,7 +6901,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="148045824"/>
+        <c:crossAx val="254292736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6862,7 +6909,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="148045824"/>
+        <c:axId val="254292736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6873,7 +6920,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="150522112"/>
+        <c:crossAx val="254528512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6925,6 +6972,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -7223,11 +7271,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="147247488"/>
-        <c:axId val="147249408"/>
+        <c:axId val="254461056"/>
+        <c:axId val="254462976"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="147247488"/>
+        <c:axId val="254461056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7249,13 +7297,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="147249408"/>
+        <c:crossAx val="254462976"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7263,7 +7312,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="147249408"/>
+        <c:axId val="254462976"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -7288,19 +7337,21 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="147247488"/>
+        <c:crossAx val="254461056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -7353,6 +7404,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -7651,11 +7703,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="147432576"/>
-        <c:axId val="147434496"/>
+        <c:axId val="254642048"/>
+        <c:axId val="254656512"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="147432576"/>
+        <c:axId val="254642048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7677,13 +7729,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="147434496"/>
+        <c:crossAx val="254656512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7691,7 +7744,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="147434496"/>
+        <c:axId val="254656512"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -7716,19 +7769,21 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="147432576"/>
+        <c:crossAx val="254642048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -7918,11 +7973,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="147455360"/>
-        <c:axId val="148374656"/>
+        <c:axId val="255013632"/>
+        <c:axId val="255015168"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="147455360"/>
+        <c:axId val="255013632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7931,7 +7986,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="148374656"/>
+        <c:crossAx val="255015168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7939,7 +7994,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="148374656"/>
+        <c:axId val="255015168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="10000"/>
@@ -7969,7 +8024,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="147455360"/>
+        <c:crossAx val="255013632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="2000"/>
@@ -9125,31 +9180,31 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="9.85546875" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" customWidth="1"/>
+    <col min="2" max="2" width="9.875" customWidth="1"/>
+    <col min="3" max="3" width="13.875" customWidth="1"/>
     <col min="4" max="4" width="8" customWidth="1"/>
-    <col min="5" max="5" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.42578125" customWidth="1"/>
-    <col min="7" max="7" width="9.5703125" customWidth="1"/>
-    <col min="8" max="8" width="7.85546875" customWidth="1"/>
-    <col min="9" max="9" width="5.28515625" customWidth="1"/>
-    <col min="10" max="10" width="7.85546875" customWidth="1"/>
+    <col min="5" max="5" width="19.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.375" customWidth="1"/>
+    <col min="7" max="7" width="9.625" customWidth="1"/>
+    <col min="8" max="8" width="7.875" customWidth="1"/>
+    <col min="9" max="9" width="5.25" customWidth="1"/>
+    <col min="10" max="10" width="7.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B4" s="39" t="s">
+      <c r="B4" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="39"/>
-      <c r="D4" s="40" t="s">
+      <c r="C4" s="45"/>
+      <c r="D4" s="46" t="s">
         <v>71</v>
       </c>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="40"/>
-      <c r="J4" s="40"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="46"/>
+      <c r="J4" s="46"/>
     </row>
     <row r="5" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" s="25" t="s">
@@ -9413,19 +9468,19 @@
       </c>
     </row>
     <row r="16" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B16" s="39" t="s">
+      <c r="B16" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="39"/>
-      <c r="D16" s="40" t="s">
+      <c r="C16" s="45"/>
+      <c r="D16" s="46" t="s">
         <v>71</v>
       </c>
-      <c r="E16" s="40"/>
-      <c r="F16" s="40"/>
-      <c r="G16" s="40"/>
-      <c r="H16" s="40"/>
-      <c r="I16" s="40"/>
-      <c r="J16" s="40"/>
+      <c r="E16" s="46"/>
+      <c r="F16" s="46"/>
+      <c r="G16" s="46"/>
+      <c r="H16" s="46"/>
+      <c r="I16" s="46"/>
+      <c r="J16" s="46"/>
     </row>
     <row r="17" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B17" s="25" t="s">
@@ -11065,46 +11120,47 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:Q37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+    <sheetView tabSelected="1" topLeftCell="G11" workbookViewId="0">
+      <selection activeCell="O32" sqref="O32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="3" width="7.28515625" customWidth="1"/>
-    <col min="4" max="9" width="12.7109375" customWidth="1"/>
-    <col min="11" max="11" width="12.7109375" customWidth="1"/>
-    <col min="12" max="14" width="11.42578125" customWidth="1"/>
-    <col min="15" max="17" width="9.140625" customWidth="1"/>
+    <col min="2" max="3" width="7.25" customWidth="1"/>
+    <col min="4" max="9" width="12.75" customWidth="1"/>
+    <col min="10" max="10" width="10.75" style="60" customWidth="1"/>
+    <col min="11" max="11" width="12.75" customWidth="1"/>
+    <col min="12" max="14" width="11.375" customWidth="1"/>
+    <col min="15" max="17" width="9.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B2" s="42"/>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42" t="s">
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47" t="s">
         <v>64</v>
       </c>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B3" s="43" t="s">
+      <c r="B3" s="56" t="s">
         <v>61</v>
       </c>
-      <c r="C3" s="43"/>
-      <c r="D3" s="44" t="s">
+      <c r="C3" s="56"/>
+      <c r="D3" s="54" t="s">
         <v>120</v>
       </c>
-      <c r="E3" s="44"/>
-      <c r="F3" s="45" t="s">
+      <c r="E3" s="54"/>
+      <c r="F3" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="45"/>
-      <c r="H3" s="45"/>
-      <c r="I3" s="45"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B4" s="33" t="str">
@@ -11344,14 +11400,14 @@
       <c r="Q9" s="10"/>
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B10" s="41"/>
-      <c r="C10" s="41"/>
-      <c r="D10" s="41"/>
-      <c r="E10" s="41"/>
-      <c r="F10" s="41"/>
-      <c r="G10" s="41"/>
-      <c r="H10" s="41"/>
-      <c r="I10" s="41"/>
+      <c r="B10" s="48"/>
+      <c r="C10" s="48"/>
+      <c r="D10" s="48"/>
+      <c r="E10" s="48"/>
+      <c r="F10" s="48"/>
+      <c r="G10" s="48"/>
+      <c r="H10" s="48"/>
+      <c r="I10" s="48"/>
       <c r="L10">
         <v>96</v>
       </c>
@@ -11363,40 +11419,40 @@
       </c>
     </row>
     <row r="11" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B11" s="42"/>
-      <c r="C11" s="42"/>
-      <c r="D11" s="42" t="s">
+      <c r="B11" s="47"/>
+      <c r="C11" s="47"/>
+      <c r="D11" s="47" t="s">
         <v>64</v>
       </c>
-      <c r="E11" s="42"/>
-      <c r="F11" s="42"/>
-      <c r="G11" s="42"/>
-      <c r="H11" s="42"/>
-      <c r="I11" s="42"/>
+      <c r="E11" s="47"/>
+      <c r="F11" s="47"/>
+      <c r="G11" s="47"/>
+      <c r="H11" s="47"/>
+      <c r="I11" s="47"/>
     </row>
     <row r="12" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B12" s="43" t="s">
+      <c r="B12" s="56" t="s">
         <v>61</v>
       </c>
-      <c r="C12" s="43"/>
-      <c r="D12" s="44" t="str">
+      <c r="C12" s="56"/>
+      <c r="D12" s="54" t="str">
         <f>D3</f>
         <v>Generic C FFT</v>
       </c>
-      <c r="E12" s="44"/>
-      <c r="F12" s="45" t="str">
+      <c r="E12" s="54"/>
+      <c r="F12" s="55" t="str">
         <f>F3</f>
         <v>CMSIS FFT</v>
       </c>
-      <c r="G12" s="45"/>
-      <c r="H12" s="45"/>
-      <c r="I12" s="45"/>
-      <c r="K12" s="42" t="s">
+      <c r="G12" s="55"/>
+      <c r="H12" s="55"/>
+      <c r="I12" s="55"/>
+      <c r="K12" s="47" t="s">
         <v>122</v>
       </c>
-      <c r="L12" s="42"/>
-      <c r="M12" s="42"/>
-      <c r="N12" s="42"/>
+      <c r="L12" s="47"/>
+      <c r="M12" s="47"/>
+      <c r="N12" s="47"/>
     </row>
     <row r="13" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B13" s="33" t="str">
@@ -11430,16 +11486,16 @@
         <f>Summary_Speed!Q19</f>
         <v>FRDM-K66F</v>
       </c>
-      <c r="K13" s="53"/>
-      <c r="L13" s="55" t="str">
+      <c r="K13" s="39"/>
+      <c r="L13" s="41" t="str">
         <f>F13</f>
         <v>Teensy 3.2</v>
       </c>
-      <c r="M13" s="55" t="str">
+      <c r="M13" s="41" t="str">
         <f>G13</f>
         <v>Teensy 3.5</v>
       </c>
-      <c r="N13" s="55" t="str">
+      <c r="N13" s="41" t="str">
         <f>H13</f>
         <v>Teensy 3.6</v>
       </c>
@@ -11477,19 +11533,19 @@
         <f>Summary_Speed!Q20</f>
         <v>31250</v>
       </c>
-      <c r="K14" s="57" t="str">
+      <c r="K14" s="43" t="str">
         <f>C7</f>
         <v>Int16</v>
       </c>
-      <c r="L14" s="58">
+      <c r="L14" s="44">
         <f>F7/$F$7</f>
         <v>1</v>
       </c>
-      <c r="M14" s="58">
+      <c r="M14" s="44">
         <f>G7/$F$7</f>
         <v>1.3003908431044111</v>
       </c>
-      <c r="N14" s="58">
+      <c r="N14" s="44">
         <f>H7/$F$7</f>
         <v>2.2597024579560157</v>
       </c>
@@ -11529,19 +11585,19 @@
         <f>Summary_Speed!Q21</f>
         <v>16666.666666666668</v>
       </c>
-      <c r="K15" s="57" t="str">
+      <c r="K15" s="43" t="str">
         <f>C16</f>
         <v>Int32</v>
       </c>
-      <c r="L15" s="58">
+      <c r="L15" s="44">
         <f>F16/$F$16</f>
         <v>1</v>
       </c>
-      <c r="M15" s="58">
+      <c r="M15" s="44">
         <f>G16/$F$16</f>
         <v>1.3147186147186145</v>
       </c>
-      <c r="N15" s="58">
+      <c r="N15" s="44">
         <f>H16/$F$16</f>
         <v>2.2249084249084246</v>
       </c>
@@ -11581,19 +11637,19 @@
         <f>Summary_Speed!Q22</f>
         <v>6211.1801242236024</v>
       </c>
-      <c r="K16" s="57" t="str">
+      <c r="K16" s="43" t="str">
         <f>C25</f>
         <v>Float32</v>
       </c>
-      <c r="L16" s="58">
+      <c r="L16" s="44">
         <f>F25/$F$25</f>
         <v>1</v>
       </c>
-      <c r="M16" s="58">
+      <c r="M16" s="44">
         <f>G25/$F$25</f>
         <v>10.391963919639196</v>
       </c>
-      <c r="N16" s="58">
+      <c r="N16" s="44">
         <f>H25/$F$25</f>
         <v>16.014743049705139</v>
       </c>
@@ -11633,18 +11689,18 @@
         <f>Summary_Speed!Q23</f>
         <v>3154.5741324921137</v>
       </c>
-      <c r="K17" s="54" t="s">
+      <c r="K17" s="40" t="s">
         <v>121</v>
       </c>
-      <c r="L17" s="56">
+      <c r="L17" s="42">
         <f>L10/$L$10</f>
         <v>1</v>
       </c>
-      <c r="M17" s="56">
+      <c r="M17" s="42">
         <f>M10/$L$10</f>
         <v>1.25</v>
       </c>
-      <c r="N17" s="56">
+      <c r="N17" s="42">
         <f>N10/$L$10</f>
         <v>1.875</v>
       </c>
@@ -11689,45 +11745,57 @@
       <c r="Q18" s="10"/>
     </row>
     <row r="19" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B19" s="41"/>
-      <c r="C19" s="41"/>
-      <c r="D19" s="41"/>
-      <c r="E19" s="41"/>
-      <c r="F19" s="41"/>
-      <c r="G19" s="41"/>
-      <c r="H19" s="41"/>
-      <c r="I19" s="41"/>
+      <c r="B19" s="48"/>
+      <c r="C19" s="48"/>
+      <c r="D19" s="48"/>
+      <c r="E19" s="48"/>
+      <c r="F19" s="48"/>
+      <c r="G19" s="48"/>
+      <c r="H19" s="48"/>
+      <c r="I19" s="48"/>
     </row>
     <row r="20" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B20" s="42"/>
-      <c r="C20" s="42"/>
-      <c r="D20" s="42" t="s">
+      <c r="B20" s="47"/>
+      <c r="C20" s="47"/>
+      <c r="D20" s="47" t="s">
         <v>64</v>
       </c>
-      <c r="E20" s="42"/>
-      <c r="F20" s="42"/>
-      <c r="G20" s="42"/>
-      <c r="H20" s="42"/>
-      <c r="I20" s="42"/>
+      <c r="E20" s="47"/>
+      <c r="F20" s="47"/>
+      <c r="G20" s="47"/>
+      <c r="H20" s="47"/>
+      <c r="I20" s="47"/>
+      <c r="K20" s="1" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="21" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B21" s="43" t="str">
+      <c r="B21" s="56" t="str">
         <f t="shared" ref="B21:B27" si="1">B12</f>
         <v>Inputs</v>
       </c>
-      <c r="C21" s="43"/>
-      <c r="D21" s="44" t="str">
+      <c r="C21" s="56"/>
+      <c r="D21" s="54" t="str">
         <f>D12</f>
         <v>Generic C FFT</v>
       </c>
-      <c r="E21" s="44"/>
-      <c r="F21" s="45" t="str">
+      <c r="E21" s="54"/>
+      <c r="F21" s="55" t="str">
         <f>F12</f>
         <v>CMSIS FFT</v>
       </c>
-      <c r="G21" s="45"/>
-      <c r="H21" s="45"/>
-      <c r="I21" s="45"/>
+      <c r="G21" s="55"/>
+      <c r="H21" s="55"/>
+      <c r="I21" s="55"/>
+      <c r="K21" s="61" t="s">
+        <v>108</v>
+      </c>
+      <c r="O21" t="s">
+        <v>2</v>
+      </c>
+      <c r="P21" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="22" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B22" s="33" t="str">
@@ -11762,6 +11830,27 @@
         <f t="shared" si="2"/>
         <v>FRDM-K66F</v>
       </c>
+      <c r="K22" s="62" t="str">
+        <f>O22</f>
+        <v>RFFT</v>
+      </c>
+      <c r="L22" s="62" t="str">
+        <f t="shared" ref="L22:M22" si="3">P22</f>
+        <v>CFFT Radix 4</v>
+      </c>
+      <c r="M22" s="62" t="str">
+        <f t="shared" si="3"/>
+        <v>CFFT Radix 2</v>
+      </c>
+      <c r="O22" t="s">
+        <v>124</v>
+      </c>
+      <c r="P22" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="23" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B23" s="34">
@@ -11796,13 +11885,27 @@
         <f>Summary_Speed!Y20</f>
         <v>40000</v>
       </c>
-      <c r="K23" s="10"/>
-      <c r="L23" s="10"/>
-      <c r="M23" s="10"/>
-      <c r="N23" s="10"/>
-      <c r="O23" s="10"/>
-      <c r="P23" s="10"/>
-      <c r="Q23" s="10"/>
+      <c r="K23" s="17">
+        <f>1000000/O23</f>
+        <v>63451.776649746193</v>
+      </c>
+      <c r="L23" s="17">
+        <f t="shared" ref="L23:M27" si="4">1000000/P23</f>
+        <v>48971.596474045051</v>
+      </c>
+      <c r="M23" s="17">
+        <f t="shared" si="4"/>
+        <v>38284.839203675343</v>
+      </c>
+      <c r="O23" s="59">
+        <v>15.76</v>
+      </c>
+      <c r="P23" s="63">
+        <v>20.420000000000002</v>
+      </c>
+      <c r="Q23" s="63">
+        <v>26.12</v>
+      </c>
     </row>
     <row r="24" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B24" s="34">
@@ -11836,13 +11939,27 @@
         <f>Summary_Speed!Y21</f>
         <v>21276.59574468085</v>
       </c>
-      <c r="K24" s="10"/>
-      <c r="L24" s="10"/>
-      <c r="M24" s="10"/>
-      <c r="N24" s="10"/>
-      <c r="O24" s="10"/>
-      <c r="P24" s="10"/>
-      <c r="Q24" s="10"/>
+      <c r="K24" s="17">
+        <f>1000000/O24</f>
+        <v>28169.014084507042</v>
+      </c>
+      <c r="L24" s="17">
+        <f t="shared" si="4"/>
+        <v>24826.216484607747</v>
+      </c>
+      <c r="M24" s="17">
+        <f t="shared" si="4"/>
+        <v>16886.187098953058</v>
+      </c>
+      <c r="O24" s="59">
+        <v>35.5</v>
+      </c>
+      <c r="P24" s="63">
+        <v>40.28</v>
+      </c>
+      <c r="Q24" s="63">
+        <v>59.22</v>
+      </c>
     </row>
     <row r="25" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B25" s="34">
@@ -11876,13 +11993,27 @@
         <f>Summary_Speed!Y22</f>
         <v>9523.8095238095229</v>
       </c>
-      <c r="K25" s="10"/>
-      <c r="L25" s="10"/>
-      <c r="M25" s="10"/>
-      <c r="N25" s="10"/>
-      <c r="O25" s="10"/>
-      <c r="P25" s="10"/>
-      <c r="Q25" s="10"/>
+      <c r="K25" s="17">
+        <f>1000000/O25</f>
+        <v>14355.44071202986</v>
+      </c>
+      <c r="L25" s="17">
+        <f t="shared" si="4"/>
+        <v>10506.408909434755</v>
+      </c>
+      <c r="M25" s="17">
+        <f t="shared" si="4"/>
+        <v>7602.2502660787595</v>
+      </c>
+      <c r="O25" s="59">
+        <v>69.66</v>
+      </c>
+      <c r="P25" s="63">
+        <v>95.18</v>
+      </c>
+      <c r="Q25" s="63">
+        <v>131.54</v>
+      </c>
     </row>
     <row r="26" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B26" s="34">
@@ -11916,13 +12047,27 @@
         <f>Summary_Speed!Y23</f>
         <v>4878.0487804878048</v>
       </c>
-      <c r="K26" s="10"/>
-      <c r="L26" s="10"/>
-      <c r="M26" s="10"/>
-      <c r="N26" s="10"/>
-      <c r="O26" s="10"/>
-      <c r="P26" s="10"/>
-      <c r="Q26" s="10"/>
+      <c r="K26" s="17">
+        <f>1000000/O26</f>
+        <v>6397.9526551503513</v>
+      </c>
+      <c r="L26" s="17">
+        <f t="shared" si="4"/>
+        <v>5236.1503822389786</v>
+      </c>
+      <c r="M26" s="17">
+        <f t="shared" si="4"/>
+        <v>3433.8300940869444</v>
+      </c>
+      <c r="O26" s="59">
+        <v>156.30000000000001</v>
+      </c>
+      <c r="P26" s="63">
+        <v>190.98</v>
+      </c>
+      <c r="Q26" s="63">
+        <v>291.22000000000003</v>
+      </c>
     </row>
     <row r="27" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B27" s="34">
@@ -11956,25 +12101,39 @@
         <f>Summary_Speed!Y24</f>
         <v>2123.1422505307855</v>
       </c>
-      <c r="K27" s="10"/>
-      <c r="L27" s="10"/>
-      <c r="M27" s="10"/>
-      <c r="N27" s="10"/>
-      <c r="O27" s="10"/>
-      <c r="P27" s="10"/>
-      <c r="Q27" s="10"/>
+      <c r="K27" s="17">
+        <f>1000000/O27</f>
+        <v>3245.4887706088534</v>
+      </c>
+      <c r="L27" s="17">
+        <f t="shared" si="4"/>
+        <v>2497.5024975024976</v>
+      </c>
+      <c r="M27" s="17">
+        <f t="shared" si="4"/>
+        <v>1567.2998558084134</v>
+      </c>
+      <c r="O27" s="59">
+        <v>308.12</v>
+      </c>
+      <c r="P27" s="63">
+        <v>400.4</v>
+      </c>
+      <c r="Q27" s="63">
+        <v>638.04</v>
+      </c>
     </row>
     <row r="28" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B28" s="41" t="s">
+      <c r="B28" s="48" t="s">
         <v>63</v>
       </c>
-      <c r="C28" s="41"/>
-      <c r="D28" s="41"/>
-      <c r="E28" s="41"/>
-      <c r="F28" s="41"/>
-      <c r="G28" s="41"/>
-      <c r="H28" s="41"/>
-      <c r="I28" s="41"/>
+      <c r="C28" s="48"/>
+      <c r="D28" s="48"/>
+      <c r="E28" s="48"/>
+      <c r="F28" s="48"/>
+      <c r="G28" s="48"/>
+      <c r="H28" s="48"/>
+      <c r="I28" s="48"/>
     </row>
     <row r="29" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B29" s="22"/>
@@ -11985,6 +12144,14 @@
       <c r="G29" s="22"/>
       <c r="H29" s="22"/>
       <c r="I29" s="22"/>
+      <c r="O29">
+        <f>O23/P23</f>
+        <v>0.77179236043095001</v>
+      </c>
+      <c r="Q29">
+        <f>P23/Q23</f>
+        <v>0.78177641653905061</v>
+      </c>
     </row>
     <row r="30" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B30" s="15"/>
@@ -11997,54 +12164,78 @@
         <v>4</v>
       </c>
       <c r="F30" s="15">
-        <f t="shared" ref="F30:I30" si="3">E30+1</f>
+        <f t="shared" ref="F30:H30" si="5">E30+1</f>
         <v>5</v>
       </c>
       <c r="G30" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="H30" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
       <c r="I30" s="15">
-        <f t="shared" si="3"/>
+        <f>H30+1</f>
         <v>8</v>
       </c>
+      <c r="O30">
+        <f t="shared" ref="O30:O33" si="6">O24/P24</f>
+        <v>0.88133068520357494</v>
+      </c>
+      <c r="Q30">
+        <f t="shared" ref="Q30:Q33" si="7">P24/Q24</f>
+        <v>0.68017561634582913</v>
+      </c>
     </row>
     <row r="31" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B31" s="42"/>
-      <c r="C31" s="42"/>
-      <c r="D31" s="46" t="s">
+      <c r="B31" s="47"/>
+      <c r="C31" s="47"/>
+      <c r="D31" s="49" t="s">
         <v>70</v>
       </c>
-      <c r="E31" s="47"/>
-      <c r="F31" s="47"/>
-      <c r="G31" s="47"/>
-      <c r="H31" s="47"/>
-      <c r="I31" s="48"/>
+      <c r="E31" s="50"/>
+      <c r="F31" s="50"/>
+      <c r="G31" s="50"/>
+      <c r="H31" s="50"/>
+      <c r="I31" s="51"/>
+      <c r="O31">
+        <f t="shared" si="6"/>
+        <v>0.73187644463122492</v>
+      </c>
+      <c r="Q31">
+        <f t="shared" si="7"/>
+        <v>0.72358218032537636</v>
+      </c>
     </row>
     <row r="32" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B32" s="49" t="str">
+      <c r="B32" s="52" t="str">
         <f>B12</f>
         <v>Inputs</v>
       </c>
-      <c r="C32" s="50"/>
-      <c r="D32" s="44" t="str">
+      <c r="C32" s="53"/>
+      <c r="D32" s="54" t="str">
         <f>D12</f>
         <v>Generic C FFT</v>
       </c>
-      <c r="E32" s="44"/>
-      <c r="F32" s="45" t="str">
+      <c r="E32" s="54"/>
+      <c r="F32" s="55" t="str">
         <f>F12</f>
         <v>CMSIS FFT</v>
       </c>
-      <c r="G32" s="45"/>
-      <c r="H32" s="45"/>
-      <c r="I32" s="45"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="G32" s="55"/>
+      <c r="H32" s="55"/>
+      <c r="I32" s="55"/>
+      <c r="O32">
+        <f t="shared" si="6"/>
+        <v>0.81841030474395238</v>
+      </c>
+      <c r="Q32">
+        <f t="shared" si="7"/>
+        <v>0.65579287136872455</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B33" s="33" t="str">
         <f>B22</f>
         <v>N</v>
@@ -12058,23 +12249,23 @@
         <v>Arduino Uno</v>
       </c>
       <c r="E33" s="33" t="str">
-        <f t="shared" ref="E33:I33" si="4">E13</f>
+        <f t="shared" ref="E33:I33" si="8">E13</f>
         <v>Arduino M0</v>
       </c>
       <c r="F33" s="33" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>Teensy 3.2</v>
       </c>
       <c r="G33" s="33" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>Teensy 3.5</v>
       </c>
       <c r="H33" s="33" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>Teensy 3.6</v>
       </c>
       <c r="I33" s="33" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>FRDM-K66F</v>
       </c>
       <c r="K33" t="s">
@@ -12083,8 +12274,16 @@
       <c r="L33" s="19">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="O33">
+        <f t="shared" si="6"/>
+        <v>0.76953046953046955</v>
+      </c>
+      <c r="Q33">
+        <f t="shared" si="7"/>
+        <v>0.62754686226568868</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B34" s="34">
         <f>B7</f>
         <v>128</v>
@@ -12124,7 +12323,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B35" s="34">
         <f>B16</f>
         <v>128</v>
@@ -12164,7 +12363,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B36" s="34">
         <f>B25</f>
         <v>128</v>
@@ -12204,20 +12403,31 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B37" s="41" t="s">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B37" s="48" t="s">
         <v>63</v>
       </c>
-      <c r="C37" s="41"/>
-      <c r="D37" s="41"/>
-      <c r="E37" s="41"/>
-      <c r="F37" s="41"/>
-      <c r="G37" s="41"/>
-      <c r="H37" s="41"/>
-      <c r="I37" s="41"/>
+      <c r="C37" s="48"/>
+      <c r="D37" s="48"/>
+      <c r="E37" s="48"/>
+      <c r="F37" s="48"/>
+      <c r="G37" s="48"/>
+      <c r="H37" s="48"/>
+      <c r="I37" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="B10:I10"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:I2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:I11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:I12"/>
     <mergeCell ref="K12:N12"/>
     <mergeCell ref="B37:I37"/>
     <mergeCell ref="B31:C31"/>
@@ -12226,23 +12436,12 @@
     <mergeCell ref="D32:E32"/>
     <mergeCell ref="F32:I32"/>
     <mergeCell ref="B28:I28"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:I11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:I12"/>
     <mergeCell ref="B19:I19"/>
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="D20:I20"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="D21:E21"/>
     <mergeCell ref="F21:I21"/>
-    <mergeCell ref="B10:I10"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:I2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:I3"/>
   </mergeCells>
   <conditionalFormatting sqref="E34:I36">
     <cfRule type="cellIs" dxfId="3" priority="1" operator="lessThan">
@@ -12253,7 +12452,8 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -12261,57 +12461,57 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:AA37"/>
   <sheetViews>
-    <sheetView topLeftCell="H7" workbookViewId="0">
+    <sheetView topLeftCell="H1" workbookViewId="0">
       <selection activeCell="D31" sqref="D31:N31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="3" width="7.28515625" customWidth="1"/>
-    <col min="4" max="14" width="12.7109375" customWidth="1"/>
-    <col min="16" max="16" width="10.5703125" customWidth="1"/>
-    <col min="17" max="22" width="9.140625" customWidth="1"/>
-    <col min="23" max="23" width="11.85546875" customWidth="1"/>
+    <col min="2" max="3" width="7.25" customWidth="1"/>
+    <col min="4" max="14" width="12.75" customWidth="1"/>
+    <col min="16" max="16" width="10.625" customWidth="1"/>
+    <col min="17" max="22" width="9.125" customWidth="1"/>
+    <col min="23" max="23" width="11.875" customWidth="1"/>
     <col min="24" max="27" width="12" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B2" s="42"/>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42" t="s">
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47" t="s">
         <v>64</v>
       </c>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42"/>
-      <c r="K2" s="42"/>
-      <c r="L2" s="42"/>
-      <c r="M2" s="42"/>
-      <c r="N2" s="42"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="47"/>
+      <c r="K2" s="47"/>
+      <c r="L2" s="47"/>
+      <c r="M2" s="47"/>
+      <c r="N2" s="47"/>
     </row>
     <row r="3" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B3" s="43" t="s">
+      <c r="B3" s="56" t="s">
         <v>61</v>
       </c>
-      <c r="C3" s="43"/>
-      <c r="D3" s="44" t="s">
+      <c r="C3" s="56"/>
+      <c r="D3" s="54" t="s">
         <v>59</v>
       </c>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44"/>
-      <c r="J3" s="44"/>
-      <c r="K3" s="45" t="s">
+      <c r="E3" s="54"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="54"/>
+      <c r="H3" s="54"/>
+      <c r="I3" s="54"/>
+      <c r="J3" s="54"/>
+      <c r="K3" s="55" t="s">
         <v>60</v>
       </c>
-      <c r="L3" s="45"/>
-      <c r="M3" s="45"/>
-      <c r="N3" s="45"/>
+      <c r="L3" s="55"/>
+      <c r="M3" s="55"/>
+      <c r="N3" s="55"/>
     </row>
     <row r="4" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B4" s="16" t="str">
@@ -12893,57 +13093,57 @@
       </c>
     </row>
     <row r="10" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B10" s="41"/>
-      <c r="C10" s="41"/>
-      <c r="D10" s="41"/>
-      <c r="E10" s="41"/>
-      <c r="F10" s="41"/>
-      <c r="G10" s="41"/>
-      <c r="H10" s="41"/>
-      <c r="I10" s="41"/>
-      <c r="J10" s="41"/>
-      <c r="K10" s="41"/>
-      <c r="L10" s="41"/>
-      <c r="M10" s="41"/>
-      <c r="N10" s="41"/>
+      <c r="B10" s="48"/>
+      <c r="C10" s="48"/>
+      <c r="D10" s="48"/>
+      <c r="E10" s="48"/>
+      <c r="F10" s="48"/>
+      <c r="G10" s="48"/>
+      <c r="H10" s="48"/>
+      <c r="I10" s="48"/>
+      <c r="J10" s="48"/>
+      <c r="K10" s="48"/>
+      <c r="L10" s="48"/>
+      <c r="M10" s="48"/>
+      <c r="N10" s="48"/>
     </row>
     <row r="11" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B11" s="42"/>
-      <c r="C11" s="42"/>
-      <c r="D11" s="42" t="s">
+      <c r="B11" s="47"/>
+      <c r="C11" s="47"/>
+      <c r="D11" s="47" t="s">
         <v>64</v>
       </c>
-      <c r="E11" s="42"/>
-      <c r="F11" s="42"/>
-      <c r="G11" s="42"/>
-      <c r="H11" s="42"/>
-      <c r="I11" s="42"/>
-      <c r="J11" s="42"/>
-      <c r="K11" s="42"/>
-      <c r="L11" s="42"/>
-      <c r="M11" s="42"/>
-      <c r="N11" s="42"/>
+      <c r="E11" s="47"/>
+      <c r="F11" s="47"/>
+      <c r="G11" s="47"/>
+      <c r="H11" s="47"/>
+      <c r="I11" s="47"/>
+      <c r="J11" s="47"/>
+      <c r="K11" s="47"/>
+      <c r="L11" s="47"/>
+      <c r="M11" s="47"/>
+      <c r="N11" s="47"/>
     </row>
     <row r="12" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B12" s="43" t="s">
+      <c r="B12" s="56" t="s">
         <v>61</v>
       </c>
-      <c r="C12" s="43"/>
-      <c r="D12" s="44" t="s">
+      <c r="C12" s="56"/>
+      <c r="D12" s="54" t="s">
         <v>59</v>
       </c>
-      <c r="E12" s="44"/>
-      <c r="F12" s="44"/>
-      <c r="G12" s="44"/>
-      <c r="H12" s="44"/>
-      <c r="I12" s="44"/>
-      <c r="J12" s="44"/>
-      <c r="K12" s="45" t="s">
+      <c r="E12" s="54"/>
+      <c r="F12" s="54"/>
+      <c r="G12" s="54"/>
+      <c r="H12" s="54"/>
+      <c r="I12" s="54"/>
+      <c r="J12" s="54"/>
+      <c r="K12" s="55" t="s">
         <v>60</v>
       </c>
-      <c r="L12" s="45"/>
-      <c r="M12" s="45"/>
-      <c r="N12" s="45"/>
+      <c r="L12" s="55"/>
+      <c r="M12" s="55"/>
+      <c r="N12" s="55"/>
     </row>
     <row r="13" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B13" s="18" t="str">
@@ -13528,60 +13728,60 @@
       </c>
     </row>
     <row r="19" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B19" s="41"/>
-      <c r="C19" s="41"/>
-      <c r="D19" s="41"/>
-      <c r="E19" s="41"/>
-      <c r="F19" s="41"/>
-      <c r="G19" s="41"/>
-      <c r="H19" s="41"/>
-      <c r="I19" s="41"/>
-      <c r="J19" s="41"/>
-      <c r="K19" s="41"/>
-      <c r="L19" s="41"/>
-      <c r="M19" s="41"/>
-      <c r="N19" s="41"/>
+      <c r="B19" s="48"/>
+      <c r="C19" s="48"/>
+      <c r="D19" s="48"/>
+      <c r="E19" s="48"/>
+      <c r="F19" s="48"/>
+      <c r="G19" s="48"/>
+      <c r="H19" s="48"/>
+      <c r="I19" s="48"/>
+      <c r="J19" s="48"/>
+      <c r="K19" s="48"/>
+      <c r="L19" s="48"/>
+      <c r="M19" s="48"/>
+      <c r="N19" s="48"/>
     </row>
     <row r="20" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B20" s="42"/>
-      <c r="C20" s="42"/>
-      <c r="D20" s="42" t="s">
+      <c r="B20" s="47"/>
+      <c r="C20" s="47"/>
+      <c r="D20" s="47" t="s">
         <v>64</v>
       </c>
-      <c r="E20" s="42"/>
-      <c r="F20" s="42"/>
-      <c r="G20" s="42"/>
-      <c r="H20" s="42"/>
-      <c r="I20" s="42"/>
-      <c r="J20" s="42"/>
-      <c r="K20" s="42"/>
-      <c r="L20" s="42"/>
-      <c r="M20" s="42"/>
-      <c r="N20" s="42"/>
+      <c r="E20" s="47"/>
+      <c r="F20" s="47"/>
+      <c r="G20" s="47"/>
+      <c r="H20" s="47"/>
+      <c r="I20" s="47"/>
+      <c r="J20" s="47"/>
+      <c r="K20" s="47"/>
+      <c r="L20" s="47"/>
+      <c r="M20" s="47"/>
+      <c r="N20" s="47"/>
     </row>
     <row r="21" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B21" s="43" t="str">
+      <c r="B21" s="56" t="str">
         <f t="shared" ref="B21:B27" si="15">B12</f>
         <v>Inputs</v>
       </c>
-      <c r="C21" s="43"/>
-      <c r="D21" s="44" t="str">
+      <c r="C21" s="56"/>
+      <c r="D21" s="54" t="str">
         <f>D12</f>
         <v>Generic C</v>
       </c>
-      <c r="E21" s="44"/>
-      <c r="F21" s="44"/>
-      <c r="G21" s="44"/>
-      <c r="H21" s="44"/>
-      <c r="I21" s="44"/>
-      <c r="J21" s="44"/>
-      <c r="K21" s="45" t="str">
+      <c r="E21" s="54"/>
+      <c r="F21" s="54"/>
+      <c r="G21" s="54"/>
+      <c r="H21" s="54"/>
+      <c r="I21" s="54"/>
+      <c r="J21" s="54"/>
+      <c r="K21" s="55" t="str">
         <f>K12</f>
         <v>CMSIS</v>
       </c>
-      <c r="L21" s="45"/>
-      <c r="M21" s="45"/>
-      <c r="N21" s="45"/>
+      <c r="L21" s="55"/>
+      <c r="M21" s="55"/>
+      <c r="N21" s="55"/>
     </row>
     <row r="22" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B22" s="18" t="str">
@@ -14167,21 +14367,21 @@
       </c>
     </row>
     <row r="28" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B28" s="41" t="s">
+      <c r="B28" s="48" t="s">
         <v>63</v>
       </c>
-      <c r="C28" s="41"/>
-      <c r="D28" s="41"/>
-      <c r="E28" s="41"/>
-      <c r="F28" s="41"/>
-      <c r="G28" s="41"/>
-      <c r="H28" s="41"/>
-      <c r="I28" s="41"/>
-      <c r="J28" s="41"/>
-      <c r="K28" s="41"/>
-      <c r="L28" s="41"/>
-      <c r="M28" s="41"/>
-      <c r="N28" s="41"/>
+      <c r="C28" s="48"/>
+      <c r="D28" s="48"/>
+      <c r="E28" s="48"/>
+      <c r="F28" s="48"/>
+      <c r="G28" s="48"/>
+      <c r="H28" s="48"/>
+      <c r="I28" s="48"/>
+      <c r="J28" s="48"/>
+      <c r="K28" s="48"/>
+      <c r="L28" s="48"/>
+      <c r="M28" s="48"/>
+      <c r="N28" s="48"/>
     </row>
     <row r="29" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B29" s="22"/>
@@ -14246,52 +14446,52 @@
       </c>
     </row>
     <row r="31" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B31" s="42"/>
-      <c r="C31" s="42"/>
-      <c r="D31" s="46" t="s">
+      <c r="B31" s="47"/>
+      <c r="C31" s="47"/>
+      <c r="D31" s="49" t="s">
         <v>70</v>
       </c>
-      <c r="E31" s="47"/>
-      <c r="F31" s="47"/>
-      <c r="G31" s="47"/>
-      <c r="H31" s="47"/>
-      <c r="I31" s="47"/>
-      <c r="J31" s="47"/>
-      <c r="K31" s="47"/>
-      <c r="L31" s="47"/>
-      <c r="M31" s="47"/>
-      <c r="N31" s="48"/>
+      <c r="E31" s="50"/>
+      <c r="F31" s="50"/>
+      <c r="G31" s="50"/>
+      <c r="H31" s="50"/>
+      <c r="I31" s="50"/>
+      <c r="J31" s="50"/>
+      <c r="K31" s="50"/>
+      <c r="L31" s="50"/>
+      <c r="M31" s="50"/>
+      <c r="N31" s="51"/>
     </row>
     <row r="32" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B32" s="49" t="str">
+      <c r="B32" s="52" t="str">
         <f>B12</f>
         <v>Inputs</v>
       </c>
-      <c r="C32" s="50"/>
-      <c r="D32" s="44" t="str">
+      <c r="C32" s="53"/>
+      <c r="D32" s="54" t="str">
         <f>D12</f>
         <v>Generic C</v>
       </c>
-      <c r="E32" s="44"/>
-      <c r="F32" s="44"/>
-      <c r="G32" s="44"/>
-      <c r="H32" s="44"/>
-      <c r="I32" s="44"/>
-      <c r="J32" s="44"/>
-      <c r="K32" s="45" t="str">
+      <c r="E32" s="54"/>
+      <c r="F32" s="54"/>
+      <c r="G32" s="54"/>
+      <c r="H32" s="54"/>
+      <c r="I32" s="54"/>
+      <c r="J32" s="54"/>
+      <c r="K32" s="55" t="str">
         <f>K12</f>
         <v>CMSIS</v>
       </c>
-      <c r="L32" s="45"/>
-      <c r="M32" s="45"/>
-      <c r="N32" s="45"/>
-      <c r="W32" s="42" t="s">
+      <c r="L32" s="55"/>
+      <c r="M32" s="55"/>
+      <c r="N32" s="55"/>
+      <c r="W32" s="47" t="s">
         <v>69</v>
       </c>
-      <c r="X32" s="42"/>
-      <c r="Y32" s="42"/>
-      <c r="Z32" s="42"/>
-      <c r="AA32" s="42"/>
+      <c r="X32" s="47"/>
+      <c r="Y32" s="47"/>
+      <c r="Z32" s="47"/>
+      <c r="AA32" s="47"/>
     </row>
     <row r="33" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B33" s="18" t="str">
@@ -14613,24 +14813,33 @@
       </c>
     </row>
     <row r="37" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B37" s="41" t="s">
+      <c r="B37" s="48" t="s">
         <v>63</v>
       </c>
-      <c r="C37" s="41"/>
-      <c r="D37" s="41"/>
-      <c r="E37" s="41"/>
-      <c r="F37" s="41"/>
-      <c r="G37" s="41"/>
-      <c r="H37" s="41"/>
-      <c r="I37" s="41"/>
-      <c r="J37" s="41"/>
-      <c r="K37" s="41"/>
-      <c r="L37" s="41"/>
-      <c r="M37" s="41"/>
-      <c r="N37" s="41"/>
+      <c r="C37" s="48"/>
+      <c r="D37" s="48"/>
+      <c r="E37" s="48"/>
+      <c r="F37" s="48"/>
+      <c r="G37" s="48"/>
+      <c r="H37" s="48"/>
+      <c r="I37" s="48"/>
+      <c r="J37" s="48"/>
+      <c r="K37" s="48"/>
+      <c r="L37" s="48"/>
+      <c r="M37" s="48"/>
+      <c r="N37" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B37:N37"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:N31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D21:J21"/>
+    <mergeCell ref="K21:N21"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B28:N28"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="W32:AA32"/>
@@ -14647,15 +14856,6 @@
     <mergeCell ref="D20:N20"/>
     <mergeCell ref="D12:J12"/>
     <mergeCell ref="K12:N12"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B37:N37"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:N31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D21:J21"/>
-    <mergeCell ref="K21:N21"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B28:N28"/>
   </mergeCells>
   <conditionalFormatting sqref="E34:N36">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
@@ -14675,66 +14875,66 @@
   <dimension ref="B2:AQ38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AK33" sqref="AK33:AL36"/>
+      <selection activeCell="G26" sqref="A26:XFD26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.85546875" customWidth="1"/>
-    <col min="3" max="9" width="10.85546875" customWidth="1"/>
-    <col min="10" max="10" width="3.5703125" customWidth="1"/>
-    <col min="11" max="17" width="10.140625" customWidth="1"/>
-    <col min="18" max="18" width="3.42578125" customWidth="1"/>
-    <col min="23" max="23" width="10.140625" customWidth="1"/>
+    <col min="1" max="1" width="3.875" customWidth="1"/>
+    <col min="3" max="9" width="10.875" customWidth="1"/>
+    <col min="10" max="10" width="3.625" customWidth="1"/>
+    <col min="11" max="17" width="10.125" customWidth="1"/>
+    <col min="18" max="18" width="3.375" customWidth="1"/>
+    <col min="23" max="23" width="10.125" customWidth="1"/>
     <col min="27" max="27" width="3" style="14" customWidth="1"/>
-    <col min="28" max="28" width="11.28515625" customWidth="1"/>
-    <col min="34" max="34" width="10.140625" customWidth="1"/>
+    <col min="28" max="28" width="11.25" customWidth="1"/>
+    <col min="34" max="34" width="10.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:43" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="57" t="s">
         <v>53</v>
       </c>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="51"/>
-      <c r="L2" s="51"/>
-      <c r="M2" s="51"/>
-      <c r="N2" s="51"/>
-      <c r="O2" s="51"/>
-      <c r="P2" s="51"/>
-      <c r="Q2" s="51"/>
-      <c r="R2" s="51"/>
-      <c r="S2" s="51"/>
-      <c r="T2" s="51"/>
-      <c r="U2" s="51"/>
-      <c r="V2" s="51"/>
-      <c r="W2" s="51"/>
-      <c r="X2" s="51"/>
-      <c r="Y2" s="51"/>
-      <c r="AC2" s="52" t="s">
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="57"/>
+      <c r="K2" s="57"/>
+      <c r="L2" s="57"/>
+      <c r="M2" s="57"/>
+      <c r="N2" s="57"/>
+      <c r="O2" s="57"/>
+      <c r="P2" s="57"/>
+      <c r="Q2" s="57"/>
+      <c r="R2" s="57"/>
+      <c r="S2" s="57"/>
+      <c r="T2" s="57"/>
+      <c r="U2" s="57"/>
+      <c r="V2" s="57"/>
+      <c r="W2" s="57"/>
+      <c r="X2" s="57"/>
+      <c r="Y2" s="57"/>
+      <c r="AC2" s="58" t="s">
         <v>56</v>
       </c>
-      <c r="AD2" s="52"/>
-      <c r="AE2" s="52"/>
-      <c r="AF2" s="52"/>
-      <c r="AG2" s="52"/>
-      <c r="AH2" s="52"/>
-      <c r="AI2" s="52"/>
-      <c r="AJ2" s="52"/>
-      <c r="AK2" s="52"/>
-      <c r="AL2" s="52"/>
-      <c r="AM2" s="52"/>
-      <c r="AN2" s="52"/>
-      <c r="AO2" s="52"/>
-      <c r="AP2" s="52"/>
-      <c r="AQ2" s="52"/>
+      <c r="AD2" s="58"/>
+      <c r="AE2" s="58"/>
+      <c r="AF2" s="58"/>
+      <c r="AG2" s="58"/>
+      <c r="AH2" s="58"/>
+      <c r="AI2" s="58"/>
+      <c r="AJ2" s="58"/>
+      <c r="AK2" s="58"/>
+      <c r="AL2" s="58"/>
+      <c r="AM2" s="58"/>
+      <c r="AN2" s="58"/>
+      <c r="AO2" s="58"/>
+      <c r="AP2" s="58"/>
+      <c r="AQ2" s="58"/>
     </row>
     <row r="4" spans="2:43" x14ac:dyDescent="0.25">
       <c r="C4" t="str">
@@ -15691,22 +15891,6 @@
       <c r="S18" t="str">
         <f>C18</f>
         <v>FFT per sec</v>
-      </c>
-      <c r="V18" t="str">
-        <f>'Teensy 3.2'!$C$2</f>
-        <v>Teensy 3.2</v>
-      </c>
-      <c r="W18" t="str">
-        <f>'Teensy 3.2'!$C$2</f>
-        <v>Teensy 3.2</v>
-      </c>
-      <c r="X18" t="str">
-        <f>'Teensy 3.5'!C2</f>
-        <v>Teensy 3.5</v>
-      </c>
-      <c r="Y18" t="str">
-        <f>'NXP K66'!$C$2</f>
-        <v>FRDM-K66F</v>
       </c>
       <c r="AC18" t="str">
         <f>'Summary-Duration'!AE5</f>
@@ -17003,67 +17187,67 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.85546875" customWidth="1"/>
-    <col min="3" max="9" width="10.85546875" customWidth="1"/>
-    <col min="10" max="10" width="3.5703125" customWidth="1"/>
-    <col min="11" max="17" width="10.140625" customWidth="1"/>
-    <col min="18" max="18" width="3.42578125" customWidth="1"/>
-    <col min="28" max="28" width="9.140625" style="2"/>
+    <col min="1" max="1" width="3.875" customWidth="1"/>
+    <col min="3" max="9" width="10.875" customWidth="1"/>
+    <col min="10" max="10" width="3.625" customWidth="1"/>
+    <col min="11" max="17" width="10.125" customWidth="1"/>
+    <col min="18" max="18" width="3.375" customWidth="1"/>
+    <col min="28" max="28" width="9.125" style="2"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:53" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="57" t="s">
         <v>55</v>
       </c>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="51"/>
-      <c r="L2" s="51"/>
-      <c r="M2" s="51"/>
-      <c r="N2" s="51"/>
-      <c r="O2" s="51"/>
-      <c r="P2" s="51"/>
-      <c r="Q2" s="51"/>
-      <c r="R2" s="51"/>
-      <c r="S2" s="51"/>
-      <c r="T2" s="51"/>
-      <c r="U2" s="51"/>
-      <c r="V2" s="51"/>
-      <c r="W2" s="51"/>
-      <c r="X2" s="51"/>
-      <c r="Y2" s="51"/>
-      <c r="AD2" s="52" t="s">
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="57"/>
+      <c r="K2" s="57"/>
+      <c r="L2" s="57"/>
+      <c r="M2" s="57"/>
+      <c r="N2" s="57"/>
+      <c r="O2" s="57"/>
+      <c r="P2" s="57"/>
+      <c r="Q2" s="57"/>
+      <c r="R2" s="57"/>
+      <c r="S2" s="57"/>
+      <c r="T2" s="57"/>
+      <c r="U2" s="57"/>
+      <c r="V2" s="57"/>
+      <c r="W2" s="57"/>
+      <c r="X2" s="57"/>
+      <c r="Y2" s="57"/>
+      <c r="AD2" s="58" t="s">
         <v>54</v>
       </c>
-      <c r="AE2" s="52"/>
-      <c r="AF2" s="52"/>
-      <c r="AG2" s="52"/>
-      <c r="AH2" s="52"/>
-      <c r="AI2" s="52"/>
-      <c r="AJ2" s="52"/>
-      <c r="AK2" s="52"/>
-      <c r="AL2" s="52"/>
-      <c r="AM2" s="52"/>
-      <c r="AN2" s="52"/>
-      <c r="AO2" s="52"/>
-      <c r="AP2" s="52"/>
-      <c r="AQ2" s="52"/>
-      <c r="AR2" s="52"/>
-      <c r="AS2" s="52"/>
-      <c r="AT2" s="52"/>
-      <c r="AU2" s="52"/>
-      <c r="AV2" s="52"/>
-      <c r="AW2" s="52"/>
-      <c r="AX2" s="52"/>
-      <c r="AY2" s="52"/>
-      <c r="AZ2" s="52"/>
-      <c r="BA2" s="52"/>
+      <c r="AE2" s="58"/>
+      <c r="AF2" s="58"/>
+      <c r="AG2" s="58"/>
+      <c r="AH2" s="58"/>
+      <c r="AI2" s="58"/>
+      <c r="AJ2" s="58"/>
+      <c r="AK2" s="58"/>
+      <c r="AL2" s="58"/>
+      <c r="AM2" s="58"/>
+      <c r="AN2" s="58"/>
+      <c r="AO2" s="58"/>
+      <c r="AP2" s="58"/>
+      <c r="AQ2" s="58"/>
+      <c r="AR2" s="58"/>
+      <c r="AS2" s="58"/>
+      <c r="AT2" s="58"/>
+      <c r="AU2" s="58"/>
+      <c r="AV2" s="58"/>
+      <c r="AW2" s="58"/>
+      <c r="AX2" s="58"/>
+      <c r="AY2" s="58"/>
+      <c r="AZ2" s="58"/>
+      <c r="BA2" s="58"/>
     </row>
     <row r="4" spans="2:53" x14ac:dyDescent="0.25">
       <c r="C4" s="1" t="str">
@@ -19357,12 +19541,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.140625" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.375" customWidth="1"/>
+    <col min="4" max="4" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.125" customWidth="1"/>
+    <col min="6" max="6" width="10.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.625" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">

--- a/Arduino/Audio Processing Benchmarking/FFT Speed Results.xlsx
+++ b/Arduino/Audio Processing Benchmarking/FFT Speed Results.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="902" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="910" uniqueCount="133">
   <si>
     <t>N</t>
   </si>
@@ -414,14 +414,30 @@
   <si>
     <t>CFFT Radix 2</t>
   </si>
+  <si>
+    <t>N*log2(N)</t>
+  </si>
+  <si>
+    <t>Scaling</t>
+  </si>
+  <si>
+    <t>clocks/(N*log2(N)</t>
+  </si>
+  <si>
+    <t>clocks</t>
+  </si>
+  <si>
+    <t>Ave</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.0\x"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
   <fonts count="11" x14ac:knownFonts="1">
     <font>
@@ -638,7 +654,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -722,16 +738,38 @@
     <xf numFmtId="4" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -749,34 +787,13 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -973,11 +990,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="253647488"/>
-        <c:axId val="253665664"/>
+        <c:axId val="262750592"/>
+        <c:axId val="262752128"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="253647488"/>
+        <c:axId val="262750592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -986,7 +1003,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="253665664"/>
+        <c:crossAx val="262752128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -994,7 +1011,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="253665664"/>
+        <c:axId val="262752128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1005,7 +1022,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="253647488"/>
+        <c:crossAx val="262750592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1041,6 +1058,254 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600"/>
+              <a:t>FFT Performance</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="0"/>
+              <a:t>(Bigger</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="0" baseline="0"/>
+              <a:t> is Better)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1100" b="0"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Summary_Speed!$AC$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Int32</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Summary_Speed!$AD$7:$AN$7</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>Arduino Uno</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Arduino M0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Maple</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Teensy 3.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Teensy 3.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Teensy 3.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>FRDM-K66F</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Teensy 3.2 CMSIS</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Teensy 3.5 CMSIS</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Teensy 3.6 CMSIS</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>FRDM-K66F CMSIS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Summary_Speed!$AD$9:$AN$9</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>235.79344494223059</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1031.3531353135313</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1006.8465565847764</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1343.7248051599031</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2172.0243266724588</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1953.125</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3292.723081988805</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4329.0043290043286</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7326.0073260073259</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6211.1801242236024</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="263551232"/>
+        <c:axId val="263561216"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="263551232"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="263561216"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="263561216"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="10000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>128-pt FFTs per Second</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="#,##0" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="263551232"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="2000"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -1132,11 +1397,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="255036032"/>
-        <c:axId val="255041920"/>
+        <c:axId val="263659904"/>
+        <c:axId val="263661440"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="255036032"/>
+        <c:axId val="263659904"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1147,12 +1412,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="255041920"/>
+        <c:crossAx val="263661440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="255041920"/>
+        <c:axId val="263661440"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1164,7 +1429,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="255036032"/>
+        <c:crossAx val="263659904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1185,7 +1450,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1441,11 +1706,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="254870272"/>
-        <c:axId val="254871808"/>
+        <c:axId val="263674112"/>
+        <c:axId val="263688192"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="254870272"/>
+        <c:axId val="263674112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1454,7 +1719,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="254871808"/>
+        <c:crossAx val="263688192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1462,7 +1727,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="254871808"/>
+        <c:axId val="263688192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="100"/>
@@ -1500,7 +1765,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="254870272"/>
+        <c:crossAx val="263674112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1521,7 +1786,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1729,11 +1994,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="254918016"/>
-        <c:axId val="254919808"/>
+        <c:axId val="264242304"/>
+        <c:axId val="264243840"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="254918016"/>
+        <c:axId val="264242304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1742,7 +2007,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="254919808"/>
+        <c:crossAx val="264243840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1750,7 +2015,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="254919808"/>
+        <c:axId val="264243840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1796,7 +2061,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="254918016"/>
+        <c:crossAx val="264242304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1817,7 +2082,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2250,11 +2515,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="254958592"/>
-        <c:axId val="254976768"/>
+        <c:axId val="264291072"/>
+        <c:axId val="264292608"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="254958592"/>
+        <c:axId val="264291072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2263,7 +2528,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="254976768"/>
+        <c:crossAx val="264292608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2271,7 +2536,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="254976768"/>
+        <c:axId val="264292608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2300,7 +2565,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="254958592"/>
+        <c:crossAx val="264291072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="2000"/>
@@ -2308,486 +2573,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>FFT Calculation Time (KissFFT, Float32)</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Summary-Duration'!$S$7</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Arduino Uno</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:numRef>
-              <c:f>'Summary-Duration'!$B$8:$B$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>128</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>256</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>512</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1024</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Summary-Duration'!$S$8:$S$13</c:f>
-              <c:numCache>
-                <c:formatCode>0</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>6378</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Summary-Duration'!$T$7</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Arduino M0</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:numRef>
-              <c:f>'Summary-Duration'!$B$8:$B$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>128</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>256</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>512</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1024</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Summary-Duration'!$T$8:$T$13</c:f>
-              <c:numCache>
-                <c:formatCode>0</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>2188</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5035</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>12312</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>27349</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>63732</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>138469</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Summary-Duration'!$V$7</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Teensy 3.2</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:numRef>
-              <c:f>'Summary-Duration'!$B$8:$B$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>128</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>256</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>512</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1024</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Summary-Duration'!$V$8:$V$13</c:f>
-              <c:numCache>
-                <c:formatCode>0</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>496.4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1136</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2849.8</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6295.8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>14922</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>32259.4</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Summary-Duration'!$Y$7</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>FRDM-K66F</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:numRef>
-              <c:f>'Summary-Duration'!$B$8:$B$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>128</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>256</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>512</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1024</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Summary-Duration'!$Y$8:$Y$13</c:f>
-              <c:numCache>
-                <c:formatCode>0</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>79</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>217</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>371</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>981</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1711</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Summary-Duration'!$X$7</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Teensy 3.6</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:numRef>
-              <c:f>'Summary-Duration'!$B$8:$B$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>128</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>256</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>512</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1024</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Summary-Duration'!$X$8:$X$13</c:f>
-              <c:numCache>
-                <c:formatCode>0</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>31.8</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>52.6</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>147</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>250.4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>668.2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1163.5999999999999</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="255173376"/>
-        <c:axId val="255175296"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="255173376"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>FFT Size (Points)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="255175296"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="255175296"/>
-        <c:scaling>
-          <c:logBase val="10"/>
-          <c:orientation val="minMax"/>
-          <c:max val="1000000"/>
-          <c:min val="10"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" vert="horz"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Time Per FFT (usec)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="0" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="255173376"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2827,12 +2612,11 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>FFT Calculation Time (KissFFT, Int32)</a:t>
+              <a:t>FFT Calculation Time (KissFFT, Float32)</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2846,7 +2630,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Summary-Duration'!$K$7</c:f>
+              <c:f>'Summary-Duration'!$S$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2884,12 +2668,12 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Summary-Duration'!$K$8:$K$13</c:f>
+              <c:f>'Summary-Duration'!$S$8:$S$13</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>12559.2</c:v>
+                  <c:v>6378</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2901,7 +2685,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Summary-Duration'!$L$7</c:f>
+              <c:f>'Summary-Duration'!$T$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2939,27 +2723,27 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Summary-Duration'!$L$8:$L$13</c:f>
+              <c:f>'Summary-Duration'!$T$8:$T$13</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>802</c:v>
+                  <c:v>2188</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1674</c:v>
+                  <c:v>5035</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4241</c:v>
+                  <c:v>12312</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8763</c:v>
+                  <c:v>27349</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>21103</c:v>
+                  <c:v>63732</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43329</c:v>
+                  <c:v>138469</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2971,7 +2755,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Summary-Duration'!$N$7</c:f>
+              <c:f>'Summary-Duration'!$V$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3009,27 +2793,27 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Summary-Duration'!$N$8:$N$13</c:f>
+              <c:f>'Summary-Duration'!$V$8:$V$13</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>192.8</c:v>
+                  <c:v>496.4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>383.6</c:v>
+                  <c:v>1136</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>993.2</c:v>
+                  <c:v>2849.8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1976</c:v>
+                  <c:v>6295.8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4858</c:v>
+                  <c:v>14922</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9679</c:v>
+                  <c:v>32259.4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3037,15 +2821,15 @@
           <c:smooth val="0"/>
         </c:ser>
         <c:ser>
-          <c:idx val="4"/>
+          <c:idx val="3"/>
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Summary-Duration'!$P$7</c:f>
+              <c:f>'Summary-Duration'!$Y$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Teensy 3.6</c:v>
+                  <c:v>FRDM-K66F</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3079,27 +2863,27 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Summary-Duration'!$P$8:$P$13</c:f>
+              <c:f>'Summary-Duration'!$Y$8:$Y$13</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>90.2</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>179.2</c:v>
+                  <c:v>79</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>460.4</c:v>
+                  <c:v>217</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>920.2</c:v>
+                  <c:v>371</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2249.8000000000002</c:v>
+                  <c:v>981</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4505.8</c:v>
+                  <c:v>1711</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3107,15 +2891,15 @@
           <c:smooth val="0"/>
         </c:ser>
         <c:ser>
-          <c:idx val="3"/>
+          <c:idx val="4"/>
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Summary-Duration'!$Q$7</c:f>
+              <c:f>'Summary-Duration'!$X$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>FRDM-K66F</c:v>
+                  <c:v>Teensy 3.6</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3149,27 +2933,27 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Summary-Duration'!$Q$8:$Q$13</c:f>
+              <c:f>'Summary-Duration'!$X$8:$X$13</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>102</c:v>
+                  <c:v>31.8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>190</c:v>
+                  <c:v>52.6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>512</c:v>
+                  <c:v>147</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>970</c:v>
+                  <c:v>250.4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2461</c:v>
+                  <c:v>668.2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4708</c:v>
+                  <c:v>1163.5999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3186,11 +2970,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="255539456"/>
-        <c:axId val="255553920"/>
+        <c:axId val="263960832"/>
+        <c:axId val="263975296"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="255539456"/>
+        <c:axId val="263960832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3212,14 +2996,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="255553920"/>
+        <c:crossAx val="263975296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3227,7 +3010,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="255553920"/>
+        <c:axId val="263975296"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -3253,21 +3036,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="255539456"/>
+        <c:crossAx val="263960832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3283,6 +3064,482 @@
 </file>
 
 <file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>FFT Calculation Time (KissFFT, Int32)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Summary-Duration'!$K$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Arduino Uno</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Summary-Duration'!$B$8:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1024</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Summary-Duration'!$K$8:$K$13</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>12559.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Summary-Duration'!$L$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Arduino M0</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Summary-Duration'!$B$8:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1024</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Summary-Duration'!$L$8:$L$13</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>802</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1674</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4241</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8763</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>21103</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43329</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Summary-Duration'!$N$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Teensy 3.2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Summary-Duration'!$B$8:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1024</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Summary-Duration'!$N$8:$N$13</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>192.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>383.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>993.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1976</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4858</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9679</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Summary-Duration'!$P$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Teensy 3.6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Summary-Duration'!$B$8:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1024</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Summary-Duration'!$P$8:$P$13</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>90.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>179.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>460.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>920.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2249.8000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4505.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Summary-Duration'!$Q$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FRDM-K66F</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Summary-Duration'!$B$8:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1024</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Summary-Duration'!$Q$8:$Q$13</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>970</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2461</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4708</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="264073216"/>
+        <c:axId val="264075136"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="264073216"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>FFT Size (Points)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="264075136"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="264075136"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:max val="1000000"/>
+          <c:min val="10"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time Per FFT (usec)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="264073216"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3540,11 +3797,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="255265024"/>
-        <c:axId val="255271296"/>
+        <c:axId val="275976192"/>
+        <c:axId val="275978112"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="255265024"/>
+        <c:axId val="275976192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3572,7 +3829,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="255271296"/>
+        <c:crossAx val="275978112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3580,7 +3837,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="255271296"/>
+        <c:axId val="275978112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3609,7 +3866,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="255265024"/>
+        <c:crossAx val="275976192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3630,7 +3887,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3888,11 +4145,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="255314176"/>
-        <c:axId val="255320448"/>
+        <c:axId val="276008960"/>
+        <c:axId val="276010880"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="255314176"/>
+        <c:axId val="276008960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3920,7 +4177,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="255320448"/>
+        <c:crossAx val="276010880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3928,7 +4185,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="255320448"/>
+        <c:axId val="276010880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3957,7 +4214,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="255314176"/>
+        <c:crossAx val="276008960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3978,7 +4235,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -4236,11 +4493,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="255351040"/>
-        <c:axId val="255369600"/>
+        <c:axId val="276058112"/>
+        <c:axId val="276060032"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="255351040"/>
+        <c:axId val="276058112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4268,7 +4525,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="255369600"/>
+        <c:crossAx val="276060032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4276,7 +4533,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="255369600"/>
+        <c:axId val="276060032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4305,337 +4562,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="255351040"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1600"/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" sz="1600"/>
-              <a:t>FFT Coefficient, CMSIS, Int16</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Summary-Duration'!$AF$7</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Arduino M0</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:numRef>
-              <c:f>'Summary-Duration'!$AD$8:$AD$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>128</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>256</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>512</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1024</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Summary-Duration'!$AF$20:$AF$25</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Summary-Duration'!$AH$7</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Teensy 3.2</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:numRef>
-              <c:f>'Summary-Duration'!$AD$8:$AD$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>128</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>256</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>512</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1024</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Summary-Duration'!$AH$20:$AH$25</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>0.67269043921469085</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.52337669203303494</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.51808731247718753</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.44206947411162195</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.45781763366735417</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.40693619162370187</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Summary-Duration'!$AK$7</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>FRDM-K66F</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:numRef>
-              <c:f>'Summary-Duration'!$AD$8:$AD$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>128</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>256</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>512</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1024</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Summary-Duration'!$AK$20:$AK$25</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>0.35295486008178223</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.25952563241307519</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.25952563241307519</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.22059678755111389</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.22348040568903696</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.19918592287703518</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="255461632"/>
-        <c:axId val="255467904"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="255461632"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>FFT Size (Points)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="255467904"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="255467904"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" vert="horz"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>(usec/FFT) / (N*logN)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="255461632"/>
+        <c:crossAx val="276058112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4705,7 +4632,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -4862,11 +4788,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="254089856"/>
-        <c:axId val="254099840"/>
+        <c:axId val="262791552"/>
+        <c:axId val="262793088"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="254089856"/>
+        <c:axId val="262791552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4875,7 +4801,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="254099840"/>
+        <c:crossAx val="262793088"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4883,7 +4809,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="254099840"/>
+        <c:axId val="262793088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4894,14 +4820,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="254089856"/>
+        <c:crossAx val="262791552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -4917,6 +4842,336 @@
 </file>
 
 <file path=xl/charts/chart20.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600"/>
+              <a:t>FFT Coefficient, CMSIS, Int16</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Summary-Duration'!$AF$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Arduino M0</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Summary-Duration'!$AD$8:$AD$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1024</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Summary-Duration'!$AF$20:$AF$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Summary-Duration'!$AH$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Teensy 3.2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Summary-Duration'!$AD$8:$AD$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1024</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Summary-Duration'!$AH$20:$AH$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.67269043921469085</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.52337669203303494</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.51808731247718753</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.44206947411162195</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.45781763366735417</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.40693619162370187</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Summary-Duration'!$AK$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FRDM-K66F</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Summary-Duration'!$AD$8:$AD$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1024</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Summary-Duration'!$AK$20:$AK$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.35295486008178223</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.25952563241307519</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.25952563241307519</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.22059678755111389</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.22348040568903696</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.19918592287703518</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="276090880"/>
+        <c:axId val="276092800"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="276090880"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>FFT Size (Points)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="276092800"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="276092800"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>(usec/FFT) / (N*logN)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="276090880"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -5156,11 +5411,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="255498496"/>
-        <c:axId val="255508864"/>
+        <c:axId val="276140032"/>
+        <c:axId val="276141952"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="255498496"/>
+        <c:axId val="276140032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5188,7 +5443,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="255508864"/>
+        <c:crossAx val="276141952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5196,7 +5451,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="255508864"/>
+        <c:axId val="276141952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5225,7 +5480,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="255498496"/>
+        <c:crossAx val="276140032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5246,7 +5501,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart22.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -5486,11 +5741,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="255871616"/>
-        <c:axId val="255877888"/>
+        <c:axId val="276173184"/>
+        <c:axId val="276175104"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="255871616"/>
+        <c:axId val="276173184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5518,7 +5773,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="255877888"/>
+        <c:crossAx val="276175104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5526,7 +5781,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="255877888"/>
+        <c:axId val="276175104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5555,7 +5810,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="255871616"/>
+        <c:crossAx val="276173184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5590,102 +5845,74 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1600"/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" sz="1600"/>
-              <a:t>FFTs Per Second, Int32</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1600"/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" sz="1100" b="0"/>
-              <a:t>(Generic C, Bigger Values are Better)</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Summary For First Blog'!$P$13</c:f>
+              <c:f>'Summary for Teensy Blog'!$T$22</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Arduino Uno</c:v>
+                  <c:v>RFFT</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:cat>
+          <c:xVal>
             <c:numRef>
-              <c:f>'Summary For First Blog'!$B$14:$B$18</c:f>
+              <c:f>'Summary for Teensy Blog'!$S$23:$S$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>32</c:v>
+                  <c:v>160</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>64</c:v>
+                  <c:v>384</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>128</c:v>
+                  <c:v>896</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>256</c:v>
+                  <c:v>2048</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>512</c:v>
+                  <c:v>4608</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
-              <c:f>'Summary For First Blog'!$P$14:$P$18</c:f>
+              <c:f>'Summary for Teensy Blog'!$T$23:$T$27</c:f>
               <c:numCache>
-                <c:formatCode>#,##0</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>79.622905917574357</c:v>
+                  <c:v>2836.7999999999997</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>6389.9999999999991</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>12538.8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>28134</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>55461.599999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
         <c:ser>
@@ -5693,63 +5920,63 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Summary For First Blog'!$Q$13</c:f>
+              <c:f>'Summary for Teensy Blog'!$U$22</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Arduino M0</c:v>
+                  <c:v>CFFT Radix 4</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:cat>
+          <c:xVal>
             <c:numRef>
-              <c:f>'Summary For First Blog'!$B$14:$B$18</c:f>
+              <c:f>'Summary for Teensy Blog'!$S$23:$S$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>32</c:v>
+                  <c:v>160</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>64</c:v>
+                  <c:v>384</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>128</c:v>
+                  <c:v>896</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>256</c:v>
+                  <c:v>2048</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>512</c:v>
+                  <c:v>4608</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
-              <c:f>'Summary For First Blog'!$Q$14:$Q$18</c:f>
+              <c:f>'Summary for Teensy Blog'!$U$23:$U$27</c:f>
               <c:numCache>
-                <c:formatCode>#,##0</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1246.8827930174564</c:v>
+                  <c:v>3675.6000000000004</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>597.37156511350065</c:v>
+                  <c:v>7250.4000000000005</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>235.79344494223059</c:v>
+                  <c:v>17132.400000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>114.11617026132603</c:v>
+                  <c:v>34376.400000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>47.386627493721271</c:v>
+                  <c:v>72072</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
         <c:ser>
@@ -5757,319 +5984,63 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Summary For First Blog'!$R$13</c:f>
+              <c:f>'Summary for Teensy Blog'!$V$22</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Maple</c:v>
+                  <c:v>CFFT Radix 2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:cat>
+          <c:xVal>
             <c:numRef>
-              <c:f>'Summary For First Blog'!$B$14:$B$18</c:f>
+              <c:f>'Summary for Teensy Blog'!$S$23:$S$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>32</c:v>
+                  <c:v>160</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>64</c:v>
+                  <c:v>384</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>128</c:v>
+                  <c:v>896</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>256</c:v>
+                  <c:v>2048</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>512</c:v>
+                  <c:v>4608</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
-              <c:f>'Summary For First Blog'!$R$14:$R$18</c:f>
+              <c:f>'Summary for Teensy Blog'!$V$23:$V$27</c:f>
               <c:numCache>
-                <c:formatCode>#,##0</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>5230.1255230125525</c:v>
+                  <c:v>4701.6000000000004</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2714.4408251900109</c:v>
+                  <c:v>10659.6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1031.3531353135313</c:v>
+                  <c:v>23677.199999999997</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>530.56027164685906</c:v>
+                  <c:v>52419.600000000006</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>114847.2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Summary For First Blog'!$S$13</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Teensy 3.2</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:numRef>
-              <c:f>'Summary For First Blog'!$B$14:$B$18</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>128</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>256</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>512</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Summary For First Blog'!$S$14:$S$18</c:f>
-              <c:numCache>
-                <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>5186.7219917012444</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2606.8821689259644</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1006.8465565847764</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>506.07287449392715</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>205.84602717167559</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Summary For First Blog'!$V$13</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>FRDM-K66F</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:numRef>
-              <c:f>'Summary For First Blog'!$B$14:$B$18</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>128</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>256</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>512</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Summary For First Blog'!$V$14:$V$18</c:f>
-              <c:numCache>
-                <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>9803.9215686274511</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5263.1578947368425</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1953.125</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1030.9278350515465</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>406.33888663145063</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Summary For First Blog'!$X$13</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Teensy 3.2 CMSIS</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:numRef>
-              <c:f>'Summary For First Blog'!$B$14:$B$18</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>128</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>256</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>512</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Summary For First Blog'!$X$14:$X$18</c:f>
-              <c:numCache>
-                <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>16474.464579901152</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>8577.8006519128503</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3292.723081988805</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1674.817444898506</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>677.43334055928892</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="6"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Summary For First Blog'!$AA$13</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>FRDM-K66F CMSIS</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:numRef>
-              <c:f>'Summary For First Blog'!$B$14:$B$18</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>128</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>256</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>512</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Summary For First Blog'!$AA$14:$AA$18</c:f>
-              <c:numCache>
-                <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>31250</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>16666.666666666668</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6211.1801242236024</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3154.5741324921137</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1272.2646310432569</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
+          </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
@@ -6080,98 +6051,44 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="254178432"/>
-        <c:axId val="254180352"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="254178432"/>
+        <c:axId val="276806272"/>
+        <c:axId val="276804736"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="276806272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>FFT Length (samples)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="254180352"/>
+        <c:crossAx val="276804736"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
       <c:valAx>
-        <c:axId val="254180352"/>
+        <c:axId val="276804736"/>
         <c:scaling>
-          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
-          <c:min val="10"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" vert="horz"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>FFTs Completed Per Second</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="254178432"/>
+        <c:crossAx val="276806272"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.74129809425995663"/>
-          <c:y val="0.2761556830182213"/>
-          <c:w val="0.24478886226178251"/>
-          <c:h val="0.52171199654176204"/>
-        </c:manualLayout>
-      </c:layout>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -6211,13 +6128,8 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="1600"/>
-              <a:t>FFT</a:t>
+              <a:t>FFTs Per Second, Int32</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US" sz="1600" baseline="0"/>
-              <a:t>s Per Second</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" sz="1600"/>
           </a:p>
           <a:p>
             <a:pPr>
@@ -6225,94 +6137,466 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="1100" b="0"/>
-              <a:t>(Generic </a:t>
+              <a:t>(Generic C, Bigger Values are Better)</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US" sz="1100" b="0" baseline="0"/>
-              <a:t>C, N = 128, Bigger Values are Better)</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" sz="1100" b="0"/>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Summary For First Blog'!$C$16</c:f>
+              <c:f>'Summary For First Blog'!$P$13</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Int32</c:v>
+                  <c:v>Arduino Uno</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:strRef>
-              <c:f>'Summary For First Blog'!$Q$13:$V$13</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
+            <c:numRef>
+              <c:f>'Summary For First Blog'!$B$14:$B$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>Arduino M0</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Maple</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Teensy 3.2</c:v>
+                  <c:v>128</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Teensy 3.5</c:v>
+                  <c:v>256</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Teensy 3.6</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>FRDM-K66F</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>512</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Summary For First Blog'!$Q$16:$V$16</c:f>
+              <c:f>'Summary For First Blog'!$P$14:$P$18</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>235.79344494223059</c:v>
+                  <c:v>79.622905917574357</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1031.3531353135313</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1006.8465565847764</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1343.7248051599031</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2172.0243266724588</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1953.125</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Summary For First Blog'!$Q$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Arduino M0</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Summary For First Blog'!$B$14:$B$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>512</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Summary For First Blog'!$Q$14:$Q$18</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1246.8827930174564</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>597.37156511350065</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>235.79344494223059</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>114.11617026132603</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>47.386627493721271</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Summary For First Blog'!$R$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Maple</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Summary For First Blog'!$B$14:$B$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>512</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Summary For First Blog'!$R$14:$R$18</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>5230.1255230125525</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2714.4408251900109</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1031.3531353135313</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>530.56027164685906</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Summary For First Blog'!$S$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Teensy 3.2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Summary For First Blog'!$B$14:$B$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>512</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Summary For First Blog'!$S$14:$S$18</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>5186.7219917012444</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2606.8821689259644</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1006.8465565847764</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>506.07287449392715</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>205.84602717167559</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Summary For First Blog'!$V$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FRDM-K66F</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Summary For First Blog'!$B$14:$B$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>512</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Summary For First Blog'!$V$14:$V$18</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>9803.9215686274511</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5263.1578947368425</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1953.125</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1030.9278350515465</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>406.33888663145063</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Summary For First Blog'!$X$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Teensy 3.2 CMSIS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Summary For First Blog'!$B$14:$B$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>512</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Summary For First Blog'!$X$14:$X$18</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>16474.464579901152</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8577.8006519128503</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3292.723081988805</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1674.817444898506</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>677.43334055928892</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Summary For First Blog'!$AA$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FRDM-K66F CMSIS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Summary For First Blog'!$B$14:$B$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>512</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Summary For First Blog'!$AA$14:$AA$18</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>31250</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16666.666666666668</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6211.1801242236024</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3154.5741324921137</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1272.2646310432569</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -6322,21 +6606,41 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:axId val="254480384"/>
-        <c:axId val="254481920"/>
-      </c:barChart>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="263428736"/>
+        <c:axId val="263439104"/>
+      </c:lineChart>
       <c:catAx>
-        <c:axId val="254480384"/>
+        <c:axId val="263428736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>FFT Length (samples)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="254481920"/>
+        <c:crossAx val="263439104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6344,25 +6648,54 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="254481920"/>
+        <c:axId val="263439104"/>
         <c:scaling>
+          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
+          <c:min val="10"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>FFTs Completed Per Second</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="#,##0" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="254480384"/>
+        <c:crossAx val="263428736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.74129809425995663"/>
+          <c:y val="0.2761556830182213"/>
+          <c:w val="0.24478886226178251"/>
+          <c:h val="0.52171199654176204"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -6504,75 +6837,6 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Summary For First Blog'!$C$25</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Float32</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Summary For First Blog'!$Q$13:$V$13</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>Arduino M0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Maple</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Teensy 3.2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Teensy 3.5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Teensy 3.6</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>FRDM-K66F</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Summary For First Blog'!$Q$25:$V$25</c:f>
-              <c:numCache>
-                <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>81.221572449642622</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>262.72923125426934</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>350.90181767141553</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3888.0248833592536</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6802.7210884353744</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4608.294930875576</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -6582,11 +6846,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="254499456"/>
-        <c:axId val="254505344"/>
+        <c:axId val="263340416"/>
+        <c:axId val="263341952"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="254499456"/>
+        <c:axId val="263340416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6595,7 +6859,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="254505344"/>
+        <c:crossAx val="263341952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6603,7 +6867,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="254505344"/>
+        <c:axId val="263341952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6614,7 +6878,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="254499456"/>
+        <c:crossAx val="263340416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6636,6 +6900,264 @@
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600"/>
+              <a:t>FFT</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600" baseline="0"/>
+              <a:t>s Per Second</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1600"/>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="0"/>
+              <a:t>(Generic </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="0" baseline="0"/>
+              <a:t>C, N = 128, Bigger Values are Better)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1100" b="0"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Summary For First Blog'!$C$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Int32</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Summary For First Blog'!$Q$13:$V$13</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Arduino M0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Maple</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Teensy 3.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Teensy 3.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Teensy 3.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>FRDM-K66F</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Summary For First Blog'!$Q$16:$V$16</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>235.79344494223059</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1031.3531353135313</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1006.8465565847764</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1343.7248051599031</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2172.0243266724588</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1953.125</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Summary For First Blog'!$C$25</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Float32</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Summary For First Blog'!$Q$13:$V$13</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Arduino M0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Maple</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Teensy 3.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Teensy 3.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Teensy 3.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>FRDM-K66F</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Summary For First Blog'!$Q$25:$V$25</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>81.221572449642622</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>262.72923125426934</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>350.90181767141553</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3888.0248833592536</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6802.7210884353744</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4608.294930875576</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="263363200"/>
+        <c:axId val="263364992"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="263363200"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="263364992"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="263364992"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="263363200"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -6888,11 +7410,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="254528512"/>
-        <c:axId val="254292736"/>
+        <c:axId val="264189056"/>
+        <c:axId val="264190592"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="254528512"/>
+        <c:axId val="264189056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6901,7 +7423,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="254292736"/>
+        <c:crossAx val="264190592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6909,7 +7431,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="254292736"/>
+        <c:axId val="264190592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6920,7 +7442,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="254528512"/>
+        <c:crossAx val="264189056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6942,7 +7464,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -6972,7 +7494,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -7271,11 +7792,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="254461056"/>
-        <c:axId val="254462976"/>
+        <c:axId val="263875584"/>
+        <c:axId val="263877760"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="254461056"/>
+        <c:axId val="263875584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7297,14 +7818,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="254462976"/>
+        <c:crossAx val="263877760"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7312,7 +7832,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="254462976"/>
+        <c:axId val="263877760"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -7337,453 +7857,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="254461056"/>
+        <c:crossAx val="263875584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1600"/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" sz="1600"/>
-              <a:t>FFT Calculation Speed</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" sz="1600" baseline="0"/>
-              <a:t> </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" sz="1600"/>
-              <a:t>(KissFFT, Int32)</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Summary_Speed!$K$7</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Arduino Uno</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:numRef>
-              <c:f>Summary_Speed!$B$8:$B$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>128</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>256</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>512</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1024</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Summary_Speed!$K$8:$K$13</c:f>
-              <c:numCache>
-                <c:formatCode>0</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>79.622905917574357</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Summary_Speed!$L$7</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Arduino M0</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:numRef>
-              <c:f>Summary_Speed!$B$8:$B$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>128</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>256</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>512</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1024</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Summary_Speed!$L$8:$L$13</c:f>
-              <c:numCache>
-                <c:formatCode>0</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>1246.8827930174564</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>597.37156511350065</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>235.79344494223059</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>114.11617026132603</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>47.386627493721271</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>23.079231000023078</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Summary_Speed!$N$7</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Teensy 3.2</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:numRef>
-              <c:f>Summary_Speed!$B$8:$B$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>128</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>256</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>512</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1024</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Summary_Speed!$N$8:$N$13</c:f>
-              <c:numCache>
-                <c:formatCode>0</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>5186.7219917012444</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2606.8821689259644</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1006.8465565847764</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>506.07287449392715</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>205.84602717167559</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>103.31645831180907</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Summary_Speed!$Q$7</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>FRDM-K66F</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:numRef>
-              <c:f>Summary_Speed!$B$8:$B$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>128</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>256</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>512</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1024</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Summary_Speed!$Q$8:$Q$13</c:f>
-              <c:numCache>
-                <c:formatCode>0</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>9803.9215686274511</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5263.1578947368425</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1953.125</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1030.9278350515465</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>406.33888663145063</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>212.40441801189465</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="254642048"/>
-        <c:axId val="254656512"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="254642048"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>FFT Size (Points)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="254656512"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="254656512"/>
-        <c:scaling>
-          <c:logBase val="10"/>
-          <c:orientation val="minMax"/>
-          <c:max val="100000"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" vert="horz"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>FFTs Per Second</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="0" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="254642048"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -7823,22 +7909,16 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="1600"/>
-              <a:t>FFT Performance</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1600"/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" sz="1100" b="0"/>
-              <a:t>(Bigger</a:t>
+              <a:t>FFT Calculation Speed</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" sz="1100" b="0" baseline="0"/>
-              <a:t> is Better)</a:t>
+              <a:rPr lang="en-US" sz="1600" baseline="0"/>
+              <a:t> </a:t>
             </a:r>
-            <a:endParaRPr lang="en-US" sz="1100" b="0"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600"/>
+              <a:t>(KissFFT, Int32)</a:t>
+            </a:r>
           </a:p>
         </c:rich>
       </c:tx>
@@ -7847,122 +7927,288 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="1"/>
+          <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Summary_Speed!$AC$9</c:f>
+              <c:f>Summary_Speed!$K$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Int32</c:v>
+                  <c:v>Arduino Uno</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
           <c:cat>
-            <c:strRef>
-              <c:f>Summary_Speed!$AD$7:$AN$7</c:f>
-              <c:strCache>
-                <c:ptCount val="11"/>
+            <c:numRef>
+              <c:f>Summary_Speed!$B$8:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>Arduino Uno</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Arduino M0</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Maple</c:v>
+                  <c:v>128</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Teensy 3.2</c:v>
+                  <c:v>256</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Teensy 3.5</c:v>
+                  <c:v>512</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Teensy 3.6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>FRDM-K66F</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Teensy 3.2 CMSIS</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Teensy 3.5 CMSIS</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Teensy 3.6 CMSIS</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>FRDM-K66F CMSIS</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>1024</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Summary_Speed!$AD$9:$AN$9</c:f>
+              <c:f>Summary_Speed!$K$8:$K$13</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0" formatCode="General">
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>79.622905917574357</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>235.79344494223059</c:v>
-                </c:pt>
                 <c:pt idx="2">
-                  <c:v>1031.3531353135313</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1006.8465565847764</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1343.7248051599031</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2172.0243266724588</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1953.125</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3292.723081988805</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4329.0043290043286</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>7326.0073260073259</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>6211.1801242236024</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Summary_Speed!$L$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Arduino M0</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Summary_Speed!$B$8:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1024</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Summary_Speed!$L$8:$L$13</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1246.8827930174564</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>597.37156511350065</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>235.79344494223059</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>114.11617026132603</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>47.386627493721271</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>23.079231000023078</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Summary_Speed!$N$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Teensy 3.2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Summary_Speed!$B$8:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1024</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Summary_Speed!$N$8:$N$13</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>5186.7219917012444</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2606.8821689259644</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1006.8465565847764</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>506.07287449392715</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>205.84602717167559</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>103.31645831180907</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Summary_Speed!$Q$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FRDM-K66F</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Summary_Speed!$B$8:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1024</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Summary_Speed!$Q$8:$Q$13</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>9803.9215686274511</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5263.1578947368425</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1953.125</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1030.9278350515465</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>406.33888663145063</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>212.40441801189465</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -7972,21 +8218,41 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:axId val="255013632"/>
-        <c:axId val="255015168"/>
-      </c:barChart>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="263892352"/>
+        <c:axId val="263529984"/>
+      </c:lineChart>
       <c:catAx>
-        <c:axId val="255013632"/>
+        <c:axId val="263892352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>FFT Size (Points)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="255015168"/>
+        <c:crossAx val="263529984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7994,10 +8260,11 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="255015168"/>
+        <c:axId val="263529984"/>
         <c:scaling>
+          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
-          <c:max val="10000"/>
+          <c:max val="100000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -8013,21 +8280,20 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>128-pt FFTs per Second</a:t>
+                  <a:t>FFTs Per Second</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
           <c:overlay val="0"/>
         </c:title>
-        <c:numFmt formatCode="#,##0" sourceLinked="0"/>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="255013632"/>
+        <c:crossAx val="263892352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
-        <c:majorUnit val="2000"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -8107,6 +8373,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -9192,19 +9488,19 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B4" s="45" t="s">
+      <c r="B4" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="45"/>
-      <c r="D4" s="46" t="s">
+      <c r="C4" s="50"/>
+      <c r="D4" s="51" t="s">
         <v>71</v>
       </c>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
-      <c r="I4" s="46"/>
-      <c r="J4" s="46"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="51"/>
+      <c r="J4" s="51"/>
     </row>
     <row r="5" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" s="25" t="s">
@@ -9468,19 +9764,19 @@
       </c>
     </row>
     <row r="16" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B16" s="45" t="s">
+      <c r="B16" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="45"/>
-      <c r="D16" s="46" t="s">
+      <c r="C16" s="50"/>
+      <c r="D16" s="51" t="s">
         <v>71</v>
       </c>
-      <c r="E16" s="46"/>
-      <c r="F16" s="46"/>
-      <c r="G16" s="46"/>
-      <c r="H16" s="46"/>
-      <c r="I16" s="46"/>
-      <c r="J16" s="46"/>
+      <c r="E16" s="51"/>
+      <c r="F16" s="51"/>
+      <c r="G16" s="51"/>
+      <c r="H16" s="51"/>
+      <c r="I16" s="51"/>
+      <c r="J16" s="51"/>
     </row>
     <row r="17" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B17" s="25" t="s">
@@ -11118,49 +11414,50 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:Q37"/>
+  <dimension ref="B2:Z37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G11" workbookViewId="0">
-      <selection activeCell="O32" sqref="O32"/>
+    <sheetView tabSelected="1" topLeftCell="J7" workbookViewId="0">
+      <selection activeCell="W28" sqref="W28:Z28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="3" width="7.25" customWidth="1"/>
     <col min="4" max="9" width="12.75" customWidth="1"/>
-    <col min="10" max="10" width="10.75" style="60" customWidth="1"/>
+    <col min="10" max="10" width="10.75" style="46" customWidth="1"/>
     <col min="11" max="11" width="12.75" customWidth="1"/>
     <col min="12" max="14" width="11.375" customWidth="1"/>
     <col min="15" max="17" width="9.125" customWidth="1"/>
+    <col min="20" max="20" width="9.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47" t="s">
+      <c r="B2" s="53"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53" t="s">
         <v>64</v>
       </c>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B3" s="56" t="s">
+      <c r="B3" s="54" t="s">
         <v>61</v>
       </c>
-      <c r="C3" s="56"/>
-      <c r="D3" s="54" t="s">
+      <c r="C3" s="54"/>
+      <c r="D3" s="55" t="s">
         <v>120</v>
       </c>
-      <c r="E3" s="54"/>
-      <c r="F3" s="55" t="s">
+      <c r="E3" s="55"/>
+      <c r="F3" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="55"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="56"/>
+      <c r="I3" s="56"/>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B4" s="33" t="str">
@@ -11400,14 +11697,14 @@
       <c r="Q9" s="10"/>
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B10" s="48"/>
-      <c r="C10" s="48"/>
-      <c r="D10" s="48"/>
-      <c r="E10" s="48"/>
-      <c r="F10" s="48"/>
-      <c r="G10" s="48"/>
-      <c r="H10" s="48"/>
-      <c r="I10" s="48"/>
+      <c r="B10" s="52"/>
+      <c r="C10" s="52"/>
+      <c r="D10" s="52"/>
+      <c r="E10" s="52"/>
+      <c r="F10" s="52"/>
+      <c r="G10" s="52"/>
+      <c r="H10" s="52"/>
+      <c r="I10" s="52"/>
       <c r="L10">
         <v>96</v>
       </c>
@@ -11419,40 +11716,40 @@
       </c>
     </row>
     <row r="11" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B11" s="47"/>
-      <c r="C11" s="47"/>
-      <c r="D11" s="47" t="s">
+      <c r="B11" s="53"/>
+      <c r="C11" s="53"/>
+      <c r="D11" s="53" t="s">
         <v>64</v>
       </c>
-      <c r="E11" s="47"/>
-      <c r="F11" s="47"/>
-      <c r="G11" s="47"/>
-      <c r="H11" s="47"/>
-      <c r="I11" s="47"/>
+      <c r="E11" s="53"/>
+      <c r="F11" s="53"/>
+      <c r="G11" s="53"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="53"/>
     </row>
     <row r="12" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B12" s="56" t="s">
+      <c r="B12" s="54" t="s">
         <v>61</v>
       </c>
-      <c r="C12" s="56"/>
-      <c r="D12" s="54" t="str">
+      <c r="C12" s="54"/>
+      <c r="D12" s="55" t="str">
         <f>D3</f>
         <v>Generic C FFT</v>
       </c>
-      <c r="E12" s="54"/>
-      <c r="F12" s="55" t="str">
+      <c r="E12" s="55"/>
+      <c r="F12" s="56" t="str">
         <f>F3</f>
         <v>CMSIS FFT</v>
       </c>
-      <c r="G12" s="55"/>
-      <c r="H12" s="55"/>
-      <c r="I12" s="55"/>
-      <c r="K12" s="47" t="s">
+      <c r="G12" s="56"/>
+      <c r="H12" s="56"/>
+      <c r="I12" s="56"/>
+      <c r="K12" s="53" t="s">
         <v>122</v>
       </c>
-      <c r="L12" s="47"/>
-      <c r="M12" s="47"/>
-      <c r="N12" s="47"/>
+      <c r="L12" s="53"/>
+      <c r="M12" s="53"/>
+      <c r="N12" s="53"/>
     </row>
     <row r="13" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B13" s="33" t="str">
@@ -11657,7 +11954,7 @@
       <c r="P16" s="10"/>
       <c r="Q16" s="10"/>
     </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B17" s="34">
         <f>Summary_Speed!B11</f>
         <v>256</v>
@@ -11708,7 +12005,7 @@
       <c r="P17" s="10"/>
       <c r="Q17" s="10"/>
     </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B18" s="34">
         <f>Summary_Speed!B12</f>
         <v>512</v>
@@ -11744,50 +12041,62 @@
       <c r="P18" s="10"/>
       <c r="Q18" s="10"/>
     </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B19" s="48"/>
-      <c r="C19" s="48"/>
-      <c r="D19" s="48"/>
-      <c r="E19" s="48"/>
-      <c r="F19" s="48"/>
-      <c r="G19" s="48"/>
-      <c r="H19" s="48"/>
-      <c r="I19" s="48"/>
-    </row>
-    <row r="20" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B20" s="47"/>
-      <c r="C20" s="47"/>
-      <c r="D20" s="47" t="s">
+    <row r="19" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B19" s="52"/>
+      <c r="C19" s="52"/>
+      <c r="D19" s="52"/>
+      <c r="E19" s="52"/>
+      <c r="F19" s="52"/>
+      <c r="G19" s="52"/>
+      <c r="H19" s="52"/>
+      <c r="I19" s="52"/>
+      <c r="S19" t="s">
+        <v>75</v>
+      </c>
+      <c r="T19">
+        <v>180000000</v>
+      </c>
+      <c r="U19" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B20" s="53"/>
+      <c r="C20" s="53"/>
+      <c r="D20" s="53" t="s">
         <v>64</v>
       </c>
-      <c r="E20" s="47"/>
-      <c r="F20" s="47"/>
-      <c r="G20" s="47"/>
-      <c r="H20" s="47"/>
-      <c r="I20" s="47"/>
+      <c r="E20" s="53"/>
+      <c r="F20" s="53"/>
+      <c r="G20" s="53"/>
+      <c r="H20" s="53"/>
+      <c r="I20" s="53"/>
       <c r="K20" s="1" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="21" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B21" s="56" t="str">
+      <c r="O20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B21" s="54" t="str">
         <f t="shared" ref="B21:B27" si="1">B12</f>
         <v>Inputs</v>
       </c>
-      <c r="C21" s="56"/>
-      <c r="D21" s="54" t="str">
+      <c r="C21" s="54"/>
+      <c r="D21" s="55" t="str">
         <f>D12</f>
         <v>Generic C FFT</v>
       </c>
-      <c r="E21" s="54"/>
-      <c r="F21" s="55" t="str">
+      <c r="E21" s="55"/>
+      <c r="F21" s="56" t="str">
         <f>F12</f>
         <v>CMSIS FFT</v>
       </c>
-      <c r="G21" s="55"/>
-      <c r="H21" s="55"/>
-      <c r="I21" s="55"/>
-      <c r="K21" s="61" t="s">
+      <c r="G21" s="56"/>
+      <c r="H21" s="56"/>
+      <c r="I21" s="56"/>
+      <c r="K21" s="47" t="s">
         <v>108</v>
       </c>
       <c r="O21" t="s">
@@ -11796,8 +12105,17 @@
       <c r="P21" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="22" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="S21" t="s">
+        <v>129</v>
+      </c>
+      <c r="T21" t="s">
+        <v>131</v>
+      </c>
+      <c r="X21" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="22" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B22" s="33" t="str">
         <f t="shared" si="1"/>
         <v>N</v>
@@ -11830,15 +12148,15 @@
         <f t="shared" si="2"/>
         <v>FRDM-K66F</v>
       </c>
-      <c r="K22" s="62" t="str">
+      <c r="K22" s="48" t="str">
         <f>O22</f>
         <v>RFFT</v>
       </c>
-      <c r="L22" s="62" t="str">
+      <c r="L22" s="48" t="str">
         <f t="shared" ref="L22:M22" si="3">P22</f>
         <v>CFFT Radix 4</v>
       </c>
-      <c r="M22" s="62" t="str">
+      <c r="M22" s="48" t="str">
         <f t="shared" si="3"/>
         <v>CFFT Radix 2</v>
       </c>
@@ -11851,8 +12169,35 @@
       <c r="Q22" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="23" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="S22" t="s">
+        <v>128</v>
+      </c>
+      <c r="T22" t="str">
+        <f>K22</f>
+        <v>RFFT</v>
+      </c>
+      <c r="U22" t="str">
+        <f t="shared" ref="U22:V22" si="4">L22</f>
+        <v>CFFT Radix 4</v>
+      </c>
+      <c r="V22" t="str">
+        <f t="shared" si="4"/>
+        <v>CFFT Radix 2</v>
+      </c>
+      <c r="X22" t="str">
+        <f>T22</f>
+        <v>RFFT</v>
+      </c>
+      <c r="Y22" t="str">
+        <f t="shared" ref="Y22:Z22" si="5">U22</f>
+        <v>CFFT Radix 4</v>
+      </c>
+      <c r="Z22" t="str">
+        <f t="shared" si="5"/>
+        <v>CFFT Radix 2</v>
+      </c>
+    </row>
+    <row r="23" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B23" s="34">
         <f t="shared" si="1"/>
         <v>32</v>
@@ -11890,24 +12235,52 @@
         <v>63451.776649746193</v>
       </c>
       <c r="L23" s="17">
-        <f t="shared" ref="L23:M27" si="4">1000000/P23</f>
+        <f t="shared" ref="L23:M27" si="6">1000000/P23</f>
         <v>48971.596474045051</v>
       </c>
       <c r="M23" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>38284.839203675343</v>
       </c>
-      <c r="O23" s="59">
+      <c r="O23" s="45">
         <v>15.76</v>
       </c>
-      <c r="P23" s="63">
+      <c r="P23" s="49">
         <v>20.420000000000002</v>
       </c>
-      <c r="Q23" s="63">
+      <c r="Q23" s="49">
         <v>26.12</v>
       </c>
-    </row>
-    <row r="24" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="S23">
+        <f>B23*LOG(B23)/LOG(2)</f>
+        <v>160</v>
+      </c>
+      <c r="T23" s="64">
+        <f>O23*0.000001*$T$19</f>
+        <v>2836.7999999999997</v>
+      </c>
+      <c r="U23" s="64">
+        <f t="shared" ref="U23:V27" si="7">P23*0.000001*$T$19</f>
+        <v>3675.6000000000004</v>
+      </c>
+      <c r="V23" s="64">
+        <f t="shared" si="7"/>
+        <v>4701.6000000000004</v>
+      </c>
+      <c r="X23" s="64">
+        <f>T23/$S23</f>
+        <v>17.729999999999997</v>
+      </c>
+      <c r="Y23" s="64">
+        <f t="shared" ref="Y23:Z27" si="8">U23/$S23</f>
+        <v>22.972500000000004</v>
+      </c>
+      <c r="Z23" s="64">
+        <f t="shared" si="8"/>
+        <v>29.385000000000002</v>
+      </c>
+    </row>
+    <row r="24" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B24" s="34">
         <f t="shared" si="1"/>
         <v>64</v>
@@ -11944,24 +12317,52 @@
         <v>28169.014084507042</v>
       </c>
       <c r="L24" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>24826.216484607747</v>
       </c>
       <c r="M24" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>16886.187098953058</v>
       </c>
-      <c r="O24" s="59">
+      <c r="O24" s="45">
         <v>35.5</v>
       </c>
-      <c r="P24" s="63">
+      <c r="P24" s="49">
         <v>40.28</v>
       </c>
-      <c r="Q24" s="63">
+      <c r="Q24" s="49">
         <v>59.22</v>
       </c>
-    </row>
-    <row r="25" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="S24">
+        <f t="shared" ref="S24:S27" si="9">B24*LOG(B24)/LOG(2)</f>
+        <v>384</v>
+      </c>
+      <c r="T24" s="64">
+        <f t="shared" ref="T24:T27" si="10">O24*0.000001*$T$19</f>
+        <v>6389.9999999999991</v>
+      </c>
+      <c r="U24" s="64">
+        <f t="shared" si="7"/>
+        <v>7250.4000000000005</v>
+      </c>
+      <c r="V24" s="64">
+        <f t="shared" si="7"/>
+        <v>10659.6</v>
+      </c>
+      <c r="X24" s="64">
+        <f t="shared" ref="X24:X27" si="11">T24/$S24</f>
+        <v>16.640624999999996</v>
+      </c>
+      <c r="Y24" s="64">
+        <f t="shared" si="8"/>
+        <v>18.881250000000001</v>
+      </c>
+      <c r="Z24" s="64">
+        <f t="shared" si="8"/>
+        <v>27.759375000000002</v>
+      </c>
+    </row>
+    <row r="25" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B25" s="34">
         <f t="shared" si="1"/>
         <v>128</v>
@@ -11998,24 +12399,52 @@
         <v>14355.44071202986</v>
       </c>
       <c r="L25" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>10506.408909434755</v>
       </c>
       <c r="M25" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>7602.2502660787595</v>
       </c>
-      <c r="O25" s="59">
+      <c r="O25" s="45">
         <v>69.66</v>
       </c>
-      <c r="P25" s="63">
+      <c r="P25" s="49">
         <v>95.18</v>
       </c>
-      <c r="Q25" s="63">
+      <c r="Q25" s="49">
         <v>131.54</v>
       </c>
-    </row>
-    <row r="26" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="S25">
+        <f t="shared" si="9"/>
+        <v>896</v>
+      </c>
+      <c r="T25" s="64">
+        <f t="shared" si="10"/>
+        <v>12538.8</v>
+      </c>
+      <c r="U25" s="64">
+        <f t="shared" si="7"/>
+        <v>17132.400000000001</v>
+      </c>
+      <c r="V25" s="64">
+        <f t="shared" si="7"/>
+        <v>23677.199999999997</v>
+      </c>
+      <c r="X25" s="64">
+        <f t="shared" si="11"/>
+        <v>13.994196428571428</v>
+      </c>
+      <c r="Y25" s="64">
+        <f t="shared" si="8"/>
+        <v>19.120982142857144</v>
+      </c>
+      <c r="Z25" s="64">
+        <f t="shared" si="8"/>
+        <v>26.425446428571426</v>
+      </c>
+    </row>
+    <row r="26" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B26" s="34">
         <f t="shared" si="1"/>
         <v>256</v>
@@ -12052,24 +12481,52 @@
         <v>6397.9526551503513</v>
       </c>
       <c r="L26" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>5236.1503822389786</v>
       </c>
       <c r="M26" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>3433.8300940869444</v>
       </c>
-      <c r="O26" s="59">
+      <c r="O26" s="45">
         <v>156.30000000000001</v>
       </c>
-      <c r="P26" s="63">
+      <c r="P26" s="49">
         <v>190.98</v>
       </c>
-      <c r="Q26" s="63">
+      <c r="Q26" s="49">
         <v>291.22000000000003</v>
       </c>
-    </row>
-    <row r="27" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="S26">
+        <f t="shared" si="9"/>
+        <v>2048</v>
+      </c>
+      <c r="T26" s="64">
+        <f t="shared" si="10"/>
+        <v>28134</v>
+      </c>
+      <c r="U26" s="64">
+        <f t="shared" si="7"/>
+        <v>34376.400000000001</v>
+      </c>
+      <c r="V26" s="64">
+        <f t="shared" si="7"/>
+        <v>52419.600000000006</v>
+      </c>
+      <c r="X26" s="64">
+        <f t="shared" si="11"/>
+        <v>13.7373046875</v>
+      </c>
+      <c r="Y26" s="64">
+        <f t="shared" si="8"/>
+        <v>16.785351562500001</v>
+      </c>
+      <c r="Z26" s="64">
+        <f t="shared" si="8"/>
+        <v>25.595507812500003</v>
+      </c>
+    </row>
+    <row r="27" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B27" s="34">
         <f t="shared" si="1"/>
         <v>512</v>
@@ -12106,36 +12563,79 @@
         <v>3245.4887706088534</v>
       </c>
       <c r="L27" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2497.5024975024976</v>
       </c>
       <c r="M27" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1567.2998558084134</v>
       </c>
-      <c r="O27" s="59">
+      <c r="O27" s="45">
         <v>308.12</v>
       </c>
-      <c r="P27" s="63">
+      <c r="P27" s="49">
         <v>400.4</v>
       </c>
-      <c r="Q27" s="63">
+      <c r="Q27" s="49">
         <v>638.04</v>
       </c>
-    </row>
-    <row r="28" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B28" s="48" t="s">
+      <c r="S27">
+        <f t="shared" si="9"/>
+        <v>4608</v>
+      </c>
+      <c r="T27" s="64">
+        <f t="shared" si="10"/>
+        <v>55461.599999999999</v>
+      </c>
+      <c r="U27" s="64">
+        <f t="shared" si="7"/>
+        <v>72072</v>
+      </c>
+      <c r="V27" s="64">
+        <f t="shared" si="7"/>
+        <v>114847.2</v>
+      </c>
+      <c r="X27" s="64">
+        <f t="shared" si="11"/>
+        <v>12.035937499999999</v>
+      </c>
+      <c r="Y27" s="64">
+        <f t="shared" si="8"/>
+        <v>15.640625</v>
+      </c>
+      <c r="Z27" s="64">
+        <f t="shared" si="8"/>
+        <v>24.923437499999999</v>
+      </c>
+    </row>
+    <row r="28" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B28" s="52" t="s">
         <v>63</v>
       </c>
-      <c r="C28" s="48"/>
-      <c r="D28" s="48"/>
-      <c r="E28" s="48"/>
-      <c r="F28" s="48"/>
-      <c r="G28" s="48"/>
-      <c r="H28" s="48"/>
-      <c r="I28" s="48"/>
-    </row>
-    <row r="29" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="C28" s="52"/>
+      <c r="D28" s="52"/>
+      <c r="E28" s="52"/>
+      <c r="F28" s="52"/>
+      <c r="G28" s="52"/>
+      <c r="H28" s="52"/>
+      <c r="I28" s="52"/>
+      <c r="W28" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="X28" s="64">
+        <f>AVERAGE(X23:X27)</f>
+        <v>14.827612723214283</v>
+      </c>
+      <c r="Y28" s="64">
+        <f t="shared" ref="Y28:Z28" si="12">AVERAGE(Y23:Y27)</f>
+        <v>18.680141741071431</v>
+      </c>
+      <c r="Z28" s="64">
+        <f t="shared" si="12"/>
+        <v>26.817753348214286</v>
+      </c>
+    </row>
+    <row r="29" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B29" s="22"/>
       <c r="C29" s="22"/>
       <c r="D29" s="22"/>
@@ -12153,7 +12653,7 @@
         <v>0.78177641653905061</v>
       </c>
     </row>
-    <row r="30" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B30" s="15"/>
       <c r="C30" s="15"/>
       <c r="D30" s="15">
@@ -12164,15 +12664,15 @@
         <v>4</v>
       </c>
       <c r="F30" s="15">
-        <f t="shared" ref="F30:H30" si="5">E30+1</f>
+        <f t="shared" ref="F30:H30" si="13">E30+1</f>
         <v>5</v>
       </c>
       <c r="G30" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>6</v>
       </c>
       <c r="H30" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>7</v>
       </c>
       <c r="I30" s="15">
@@ -12180,58 +12680,58 @@
         <v>8</v>
       </c>
       <c r="O30">
-        <f t="shared" ref="O30:O33" si="6">O24/P24</f>
+        <f t="shared" ref="O30:O33" si="14">O24/P24</f>
         <v>0.88133068520357494</v>
       </c>
       <c r="Q30">
-        <f t="shared" ref="Q30:Q33" si="7">P24/Q24</f>
+        <f t="shared" ref="Q30:Q33" si="15">P24/Q24</f>
         <v>0.68017561634582913</v>
       </c>
     </row>
-    <row r="31" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B31" s="47"/>
-      <c r="C31" s="47"/>
-      <c r="D31" s="49" t="s">
+    <row r="31" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B31" s="53"/>
+      <c r="C31" s="53"/>
+      <c r="D31" s="57" t="s">
         <v>70</v>
       </c>
-      <c r="E31" s="50"/>
-      <c r="F31" s="50"/>
-      <c r="G31" s="50"/>
-      <c r="H31" s="50"/>
-      <c r="I31" s="51"/>
+      <c r="E31" s="58"/>
+      <c r="F31" s="58"/>
+      <c r="G31" s="58"/>
+      <c r="H31" s="58"/>
+      <c r="I31" s="59"/>
       <c r="O31">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>0.73187644463122492</v>
       </c>
       <c r="Q31">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>0.72358218032537636</v>
       </c>
     </row>
-    <row r="32" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B32" s="52" t="str">
+    <row r="32" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B32" s="60" t="str">
         <f>B12</f>
         <v>Inputs</v>
       </c>
-      <c r="C32" s="53"/>
-      <c r="D32" s="54" t="str">
+      <c r="C32" s="61"/>
+      <c r="D32" s="55" t="str">
         <f>D12</f>
         <v>Generic C FFT</v>
       </c>
-      <c r="E32" s="54"/>
-      <c r="F32" s="55" t="str">
+      <c r="E32" s="55"/>
+      <c r="F32" s="56" t="str">
         <f>F12</f>
         <v>CMSIS FFT</v>
       </c>
-      <c r="G32" s="55"/>
-      <c r="H32" s="55"/>
-      <c r="I32" s="55"/>
+      <c r="G32" s="56"/>
+      <c r="H32" s="56"/>
+      <c r="I32" s="56"/>
       <c r="O32">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>0.81841030474395238</v>
       </c>
       <c r="Q32">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>0.65579287136872455</v>
       </c>
     </row>
@@ -12249,23 +12749,23 @@
         <v>Arduino Uno</v>
       </c>
       <c r="E33" s="33" t="str">
-        <f t="shared" ref="E33:I33" si="8">E13</f>
+        <f t="shared" ref="E33:I33" si="16">E13</f>
         <v>Arduino M0</v>
       </c>
       <c r="F33" s="33" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>Teensy 3.2</v>
       </c>
       <c r="G33" s="33" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>Teensy 3.5</v>
       </c>
       <c r="H33" s="33" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>Teensy 3.6</v>
       </c>
       <c r="I33" s="33" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>FRDM-K66F</v>
       </c>
       <c r="K33" t="s">
@@ -12275,11 +12775,11 @@
         <v>0.5</v>
       </c>
       <c r="O33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>0.76953046953046955</v>
       </c>
       <c r="Q33">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>0.62754686226568868</v>
       </c>
     </row>
@@ -12404,30 +12904,19 @@
       </c>
     </row>
     <row r="37" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B37" s="48" t="s">
+      <c r="B37" s="52" t="s">
         <v>63</v>
       </c>
-      <c r="C37" s="48"/>
-      <c r="D37" s="48"/>
-      <c r="E37" s="48"/>
-      <c r="F37" s="48"/>
-      <c r="G37" s="48"/>
-      <c r="H37" s="48"/>
-      <c r="I37" s="48"/>
+      <c r="C37" s="52"/>
+      <c r="D37" s="52"/>
+      <c r="E37" s="52"/>
+      <c r="F37" s="52"/>
+      <c r="G37" s="52"/>
+      <c r="H37" s="52"/>
+      <c r="I37" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="B10:I10"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:I2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:I3"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:I11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:I12"/>
     <mergeCell ref="K12:N12"/>
     <mergeCell ref="B37:I37"/>
     <mergeCell ref="B31:C31"/>
@@ -12442,6 +12931,17 @@
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="D21:E21"/>
     <mergeCell ref="F21:I21"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:I11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="B10:I10"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:I2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:I3"/>
   </mergeCells>
   <conditionalFormatting sqref="E34:I36">
     <cfRule type="cellIs" dxfId="3" priority="1" operator="lessThan">
@@ -12476,42 +12976,42 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47" t="s">
+      <c r="B2" s="53"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53" t="s">
         <v>64</v>
       </c>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
-      <c r="J2" s="47"/>
-      <c r="K2" s="47"/>
-      <c r="L2" s="47"/>
-      <c r="M2" s="47"/>
-      <c r="N2" s="47"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="53"/>
+      <c r="L2" s="53"/>
+      <c r="M2" s="53"/>
+      <c r="N2" s="53"/>
     </row>
     <row r="3" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B3" s="56" t="s">
+      <c r="B3" s="54" t="s">
         <v>61</v>
       </c>
-      <c r="C3" s="56"/>
-      <c r="D3" s="54" t="s">
+      <c r="C3" s="54"/>
+      <c r="D3" s="55" t="s">
         <v>59</v>
       </c>
-      <c r="E3" s="54"/>
-      <c r="F3" s="54"/>
-      <c r="G3" s="54"/>
-      <c r="H3" s="54"/>
-      <c r="I3" s="54"/>
-      <c r="J3" s="54"/>
-      <c r="K3" s="55" t="s">
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="56" t="s">
         <v>60</v>
       </c>
-      <c r="L3" s="55"/>
-      <c r="M3" s="55"/>
-      <c r="N3" s="55"/>
+      <c r="L3" s="56"/>
+      <c r="M3" s="56"/>
+      <c r="N3" s="56"/>
     </row>
     <row r="4" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B4" s="16" t="str">
@@ -13093,57 +13593,57 @@
       </c>
     </row>
     <row r="10" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B10" s="48"/>
-      <c r="C10" s="48"/>
-      <c r="D10" s="48"/>
-      <c r="E10" s="48"/>
-      <c r="F10" s="48"/>
-      <c r="G10" s="48"/>
-      <c r="H10" s="48"/>
-      <c r="I10" s="48"/>
-      <c r="J10" s="48"/>
-      <c r="K10" s="48"/>
-      <c r="L10" s="48"/>
-      <c r="M10" s="48"/>
-      <c r="N10" s="48"/>
+      <c r="B10" s="52"/>
+      <c r="C10" s="52"/>
+      <c r="D10" s="52"/>
+      <c r="E10" s="52"/>
+      <c r="F10" s="52"/>
+      <c r="G10" s="52"/>
+      <c r="H10" s="52"/>
+      <c r="I10" s="52"/>
+      <c r="J10" s="52"/>
+      <c r="K10" s="52"/>
+      <c r="L10" s="52"/>
+      <c r="M10" s="52"/>
+      <c r="N10" s="52"/>
     </row>
     <row r="11" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B11" s="47"/>
-      <c r="C11" s="47"/>
-      <c r="D11" s="47" t="s">
+      <c r="B11" s="53"/>
+      <c r="C11" s="53"/>
+      <c r="D11" s="53" t="s">
         <v>64</v>
       </c>
-      <c r="E11" s="47"/>
-      <c r="F11" s="47"/>
-      <c r="G11" s="47"/>
-      <c r="H11" s="47"/>
-      <c r="I11" s="47"/>
-      <c r="J11" s="47"/>
-      <c r="K11" s="47"/>
-      <c r="L11" s="47"/>
-      <c r="M11" s="47"/>
-      <c r="N11" s="47"/>
+      <c r="E11" s="53"/>
+      <c r="F11" s="53"/>
+      <c r="G11" s="53"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="53"/>
+      <c r="J11" s="53"/>
+      <c r="K11" s="53"/>
+      <c r="L11" s="53"/>
+      <c r="M11" s="53"/>
+      <c r="N11" s="53"/>
     </row>
     <row r="12" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B12" s="56" t="s">
+      <c r="B12" s="54" t="s">
         <v>61</v>
       </c>
-      <c r="C12" s="56"/>
-      <c r="D12" s="54" t="s">
+      <c r="C12" s="54"/>
+      <c r="D12" s="55" t="s">
         <v>59</v>
       </c>
-      <c r="E12" s="54"/>
-      <c r="F12" s="54"/>
-      <c r="G12" s="54"/>
-      <c r="H12" s="54"/>
-      <c r="I12" s="54"/>
-      <c r="J12" s="54"/>
-      <c r="K12" s="55" t="s">
+      <c r="E12" s="55"/>
+      <c r="F12" s="55"/>
+      <c r="G12" s="55"/>
+      <c r="H12" s="55"/>
+      <c r="I12" s="55"/>
+      <c r="J12" s="55"/>
+      <c r="K12" s="56" t="s">
         <v>60</v>
       </c>
-      <c r="L12" s="55"/>
-      <c r="M12" s="55"/>
-      <c r="N12" s="55"/>
+      <c r="L12" s="56"/>
+      <c r="M12" s="56"/>
+      <c r="N12" s="56"/>
     </row>
     <row r="13" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B13" s="18" t="str">
@@ -13728,60 +14228,60 @@
       </c>
     </row>
     <row r="19" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B19" s="48"/>
-      <c r="C19" s="48"/>
-      <c r="D19" s="48"/>
-      <c r="E19" s="48"/>
-      <c r="F19" s="48"/>
-      <c r="G19" s="48"/>
-      <c r="H19" s="48"/>
-      <c r="I19" s="48"/>
-      <c r="J19" s="48"/>
-      <c r="K19" s="48"/>
-      <c r="L19" s="48"/>
-      <c r="M19" s="48"/>
-      <c r="N19" s="48"/>
+      <c r="B19" s="52"/>
+      <c r="C19" s="52"/>
+      <c r="D19" s="52"/>
+      <c r="E19" s="52"/>
+      <c r="F19" s="52"/>
+      <c r="G19" s="52"/>
+      <c r="H19" s="52"/>
+      <c r="I19" s="52"/>
+      <c r="J19" s="52"/>
+      <c r="K19" s="52"/>
+      <c r="L19" s="52"/>
+      <c r="M19" s="52"/>
+      <c r="N19" s="52"/>
     </row>
     <row r="20" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B20" s="47"/>
-      <c r="C20" s="47"/>
-      <c r="D20" s="47" t="s">
+      <c r="B20" s="53"/>
+      <c r="C20" s="53"/>
+      <c r="D20" s="53" t="s">
         <v>64</v>
       </c>
-      <c r="E20" s="47"/>
-      <c r="F20" s="47"/>
-      <c r="G20" s="47"/>
-      <c r="H20" s="47"/>
-      <c r="I20" s="47"/>
-      <c r="J20" s="47"/>
-      <c r="K20" s="47"/>
-      <c r="L20" s="47"/>
-      <c r="M20" s="47"/>
-      <c r="N20" s="47"/>
+      <c r="E20" s="53"/>
+      <c r="F20" s="53"/>
+      <c r="G20" s="53"/>
+      <c r="H20" s="53"/>
+      <c r="I20" s="53"/>
+      <c r="J20" s="53"/>
+      <c r="K20" s="53"/>
+      <c r="L20" s="53"/>
+      <c r="M20" s="53"/>
+      <c r="N20" s="53"/>
     </row>
     <row r="21" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B21" s="56" t="str">
+      <c r="B21" s="54" t="str">
         <f t="shared" ref="B21:B27" si="15">B12</f>
         <v>Inputs</v>
       </c>
-      <c r="C21" s="56"/>
-      <c r="D21" s="54" t="str">
+      <c r="C21" s="54"/>
+      <c r="D21" s="55" t="str">
         <f>D12</f>
         <v>Generic C</v>
       </c>
-      <c r="E21" s="54"/>
-      <c r="F21" s="54"/>
-      <c r="G21" s="54"/>
-      <c r="H21" s="54"/>
-      <c r="I21" s="54"/>
-      <c r="J21" s="54"/>
-      <c r="K21" s="55" t="str">
+      <c r="E21" s="55"/>
+      <c r="F21" s="55"/>
+      <c r="G21" s="55"/>
+      <c r="H21" s="55"/>
+      <c r="I21" s="55"/>
+      <c r="J21" s="55"/>
+      <c r="K21" s="56" t="str">
         <f>K12</f>
         <v>CMSIS</v>
       </c>
-      <c r="L21" s="55"/>
-      <c r="M21" s="55"/>
-      <c r="N21" s="55"/>
+      <c r="L21" s="56"/>
+      <c r="M21" s="56"/>
+      <c r="N21" s="56"/>
     </row>
     <row r="22" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B22" s="18" t="str">
@@ -14367,21 +14867,21 @@
       </c>
     </row>
     <row r="28" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B28" s="48" t="s">
+      <c r="B28" s="52" t="s">
         <v>63</v>
       </c>
-      <c r="C28" s="48"/>
-      <c r="D28" s="48"/>
-      <c r="E28" s="48"/>
-      <c r="F28" s="48"/>
-      <c r="G28" s="48"/>
-      <c r="H28" s="48"/>
-      <c r="I28" s="48"/>
-      <c r="J28" s="48"/>
-      <c r="K28" s="48"/>
-      <c r="L28" s="48"/>
-      <c r="M28" s="48"/>
-      <c r="N28" s="48"/>
+      <c r="C28" s="52"/>
+      <c r="D28" s="52"/>
+      <c r="E28" s="52"/>
+      <c r="F28" s="52"/>
+      <c r="G28" s="52"/>
+      <c r="H28" s="52"/>
+      <c r="I28" s="52"/>
+      <c r="J28" s="52"/>
+      <c r="K28" s="52"/>
+      <c r="L28" s="52"/>
+      <c r="M28" s="52"/>
+      <c r="N28" s="52"/>
     </row>
     <row r="29" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B29" s="22"/>
@@ -14446,52 +14946,52 @@
       </c>
     </row>
     <row r="31" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B31" s="47"/>
-      <c r="C31" s="47"/>
-      <c r="D31" s="49" t="s">
+      <c r="B31" s="53"/>
+      <c r="C31" s="53"/>
+      <c r="D31" s="57" t="s">
         <v>70</v>
       </c>
-      <c r="E31" s="50"/>
-      <c r="F31" s="50"/>
-      <c r="G31" s="50"/>
-      <c r="H31" s="50"/>
-      <c r="I31" s="50"/>
-      <c r="J31" s="50"/>
-      <c r="K31" s="50"/>
-      <c r="L31" s="50"/>
-      <c r="M31" s="50"/>
-      <c r="N31" s="51"/>
+      <c r="E31" s="58"/>
+      <c r="F31" s="58"/>
+      <c r="G31" s="58"/>
+      <c r="H31" s="58"/>
+      <c r="I31" s="58"/>
+      <c r="J31" s="58"/>
+      <c r="K31" s="58"/>
+      <c r="L31" s="58"/>
+      <c r="M31" s="58"/>
+      <c r="N31" s="59"/>
     </row>
     <row r="32" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B32" s="52" t="str">
+      <c r="B32" s="60" t="str">
         <f>B12</f>
         <v>Inputs</v>
       </c>
-      <c r="C32" s="53"/>
-      <c r="D32" s="54" t="str">
+      <c r="C32" s="61"/>
+      <c r="D32" s="55" t="str">
         <f>D12</f>
         <v>Generic C</v>
       </c>
-      <c r="E32" s="54"/>
-      <c r="F32" s="54"/>
-      <c r="G32" s="54"/>
-      <c r="H32" s="54"/>
-      <c r="I32" s="54"/>
-      <c r="J32" s="54"/>
-      <c r="K32" s="55" t="str">
+      <c r="E32" s="55"/>
+      <c r="F32" s="55"/>
+      <c r="G32" s="55"/>
+      <c r="H32" s="55"/>
+      <c r="I32" s="55"/>
+      <c r="J32" s="55"/>
+      <c r="K32" s="56" t="str">
         <f>K12</f>
         <v>CMSIS</v>
       </c>
-      <c r="L32" s="55"/>
-      <c r="M32" s="55"/>
-      <c r="N32" s="55"/>
-      <c r="W32" s="47" t="s">
+      <c r="L32" s="56"/>
+      <c r="M32" s="56"/>
+      <c r="N32" s="56"/>
+      <c r="W32" s="53" t="s">
         <v>69</v>
       </c>
-      <c r="X32" s="47"/>
-      <c r="Y32" s="47"/>
-      <c r="Z32" s="47"/>
-      <c r="AA32" s="47"/>
+      <c r="X32" s="53"/>
+      <c r="Y32" s="53"/>
+      <c r="Z32" s="53"/>
+      <c r="AA32" s="53"/>
     </row>
     <row r="33" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B33" s="18" t="str">
@@ -14813,33 +15313,24 @@
       </c>
     </row>
     <row r="37" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B37" s="48" t="s">
+      <c r="B37" s="52" t="s">
         <v>63</v>
       </c>
-      <c r="C37" s="48"/>
-      <c r="D37" s="48"/>
-      <c r="E37" s="48"/>
-      <c r="F37" s="48"/>
-      <c r="G37" s="48"/>
-      <c r="H37" s="48"/>
-      <c r="I37" s="48"/>
-      <c r="J37" s="48"/>
-      <c r="K37" s="48"/>
-      <c r="L37" s="48"/>
-      <c r="M37" s="48"/>
-      <c r="N37" s="48"/>
+      <c r="C37" s="52"/>
+      <c r="D37" s="52"/>
+      <c r="E37" s="52"/>
+      <c r="F37" s="52"/>
+      <c r="G37" s="52"/>
+      <c r="H37" s="52"/>
+      <c r="I37" s="52"/>
+      <c r="J37" s="52"/>
+      <c r="K37" s="52"/>
+      <c r="L37" s="52"/>
+      <c r="M37" s="52"/>
+      <c r="N37" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B37:N37"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:N31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D21:J21"/>
-    <mergeCell ref="K21:N21"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B28:N28"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="W32:AA32"/>
@@ -14856,6 +15347,15 @@
     <mergeCell ref="D20:N20"/>
     <mergeCell ref="D12:J12"/>
     <mergeCell ref="K12:N12"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B37:N37"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:N31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D21:J21"/>
+    <mergeCell ref="K21:N21"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B28:N28"/>
   </mergeCells>
   <conditionalFormatting sqref="E34:N36">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
@@ -14892,49 +15392,49 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:43" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B2" s="57" t="s">
+      <c r="B2" s="62" t="s">
         <v>53</v>
       </c>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="57"/>
-      <c r="K2" s="57"/>
-      <c r="L2" s="57"/>
-      <c r="M2" s="57"/>
-      <c r="N2" s="57"/>
-      <c r="O2" s="57"/>
-      <c r="P2" s="57"/>
-      <c r="Q2" s="57"/>
-      <c r="R2" s="57"/>
-      <c r="S2" s="57"/>
-      <c r="T2" s="57"/>
-      <c r="U2" s="57"/>
-      <c r="V2" s="57"/>
-      <c r="W2" s="57"/>
-      <c r="X2" s="57"/>
-      <c r="Y2" s="57"/>
-      <c r="AC2" s="58" t="s">
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="62"/>
+      <c r="J2" s="62"/>
+      <c r="K2" s="62"/>
+      <c r="L2" s="62"/>
+      <c r="M2" s="62"/>
+      <c r="N2" s="62"/>
+      <c r="O2" s="62"/>
+      <c r="P2" s="62"/>
+      <c r="Q2" s="62"/>
+      <c r="R2" s="62"/>
+      <c r="S2" s="62"/>
+      <c r="T2" s="62"/>
+      <c r="U2" s="62"/>
+      <c r="V2" s="62"/>
+      <c r="W2" s="62"/>
+      <c r="X2" s="62"/>
+      <c r="Y2" s="62"/>
+      <c r="AC2" s="63" t="s">
         <v>56</v>
       </c>
-      <c r="AD2" s="58"/>
-      <c r="AE2" s="58"/>
-      <c r="AF2" s="58"/>
-      <c r="AG2" s="58"/>
-      <c r="AH2" s="58"/>
-      <c r="AI2" s="58"/>
-      <c r="AJ2" s="58"/>
-      <c r="AK2" s="58"/>
-      <c r="AL2" s="58"/>
-      <c r="AM2" s="58"/>
-      <c r="AN2" s="58"/>
-      <c r="AO2" s="58"/>
-      <c r="AP2" s="58"/>
-      <c r="AQ2" s="58"/>
+      <c r="AD2" s="63"/>
+      <c r="AE2" s="63"/>
+      <c r="AF2" s="63"/>
+      <c r="AG2" s="63"/>
+      <c r="AH2" s="63"/>
+      <c r="AI2" s="63"/>
+      <c r="AJ2" s="63"/>
+      <c r="AK2" s="63"/>
+      <c r="AL2" s="63"/>
+      <c r="AM2" s="63"/>
+      <c r="AN2" s="63"/>
+      <c r="AO2" s="63"/>
+      <c r="AP2" s="63"/>
+      <c r="AQ2" s="63"/>
     </row>
     <row r="4" spans="2:43" x14ac:dyDescent="0.25">
       <c r="C4" t="str">
@@ -17196,58 +17696,58 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:53" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B2" s="57" t="s">
+      <c r="B2" s="62" t="s">
         <v>55</v>
       </c>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="57"/>
-      <c r="K2" s="57"/>
-      <c r="L2" s="57"/>
-      <c r="M2" s="57"/>
-      <c r="N2" s="57"/>
-      <c r="O2" s="57"/>
-      <c r="P2" s="57"/>
-      <c r="Q2" s="57"/>
-      <c r="R2" s="57"/>
-      <c r="S2" s="57"/>
-      <c r="T2" s="57"/>
-      <c r="U2" s="57"/>
-      <c r="V2" s="57"/>
-      <c r="W2" s="57"/>
-      <c r="X2" s="57"/>
-      <c r="Y2" s="57"/>
-      <c r="AD2" s="58" t="s">
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="62"/>
+      <c r="J2" s="62"/>
+      <c r="K2" s="62"/>
+      <c r="L2" s="62"/>
+      <c r="M2" s="62"/>
+      <c r="N2" s="62"/>
+      <c r="O2" s="62"/>
+      <c r="P2" s="62"/>
+      <c r="Q2" s="62"/>
+      <c r="R2" s="62"/>
+      <c r="S2" s="62"/>
+      <c r="T2" s="62"/>
+      <c r="U2" s="62"/>
+      <c r="V2" s="62"/>
+      <c r="W2" s="62"/>
+      <c r="X2" s="62"/>
+      <c r="Y2" s="62"/>
+      <c r="AD2" s="63" t="s">
         <v>54</v>
       </c>
-      <c r="AE2" s="58"/>
-      <c r="AF2" s="58"/>
-      <c r="AG2" s="58"/>
-      <c r="AH2" s="58"/>
-      <c r="AI2" s="58"/>
-      <c r="AJ2" s="58"/>
-      <c r="AK2" s="58"/>
-      <c r="AL2" s="58"/>
-      <c r="AM2" s="58"/>
-      <c r="AN2" s="58"/>
-      <c r="AO2" s="58"/>
-      <c r="AP2" s="58"/>
-      <c r="AQ2" s="58"/>
-      <c r="AR2" s="58"/>
-      <c r="AS2" s="58"/>
-      <c r="AT2" s="58"/>
-      <c r="AU2" s="58"/>
-      <c r="AV2" s="58"/>
-      <c r="AW2" s="58"/>
-      <c r="AX2" s="58"/>
-      <c r="AY2" s="58"/>
-      <c r="AZ2" s="58"/>
-      <c r="BA2" s="58"/>
+      <c r="AE2" s="63"/>
+      <c r="AF2" s="63"/>
+      <c r="AG2" s="63"/>
+      <c r="AH2" s="63"/>
+      <c r="AI2" s="63"/>
+      <c r="AJ2" s="63"/>
+      <c r="AK2" s="63"/>
+      <c r="AL2" s="63"/>
+      <c r="AM2" s="63"/>
+      <c r="AN2" s="63"/>
+      <c r="AO2" s="63"/>
+      <c r="AP2" s="63"/>
+      <c r="AQ2" s="63"/>
+      <c r="AR2" s="63"/>
+      <c r="AS2" s="63"/>
+      <c r="AT2" s="63"/>
+      <c r="AU2" s="63"/>
+      <c r="AV2" s="63"/>
+      <c r="AW2" s="63"/>
+      <c r="AX2" s="63"/>
+      <c r="AY2" s="63"/>
+      <c r="AZ2" s="63"/>
+      <c r="BA2" s="63"/>
     </row>
     <row r="4" spans="2:53" x14ac:dyDescent="0.25">
       <c r="C4" s="1" t="str">
